--- a/MidiThruWithMerge2in10out/midithruwithmerge2in10out_bom.xlsx
+++ b/MidiThruWithMerge2in10out/midithruwithmerge2in10out_bom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/_home/_schemes/_Midi/MidiThru/MidiThruWithMerge2in10out/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aokudrya/Documents/GitHub/Midi-boards/MidiThruWithMerge2in10out/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21319631-09B2-7347-BDFD-45FD8218D35D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644B22E5-0E6F-EF4F-94B2-67EA8D867AA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16400" xr2:uid="{6A056D03-5A41-7E4C-9F1A-726EE5E8421D}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16220" xr2:uid="{6A056D03-5A41-7E4C-9F1A-726EE5E8421D}"/>
   </bookViews>
   <sheets>
     <sheet name="midithruwithmerge2in10out" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="389">
   <si>
     <t>D</t>
   </si>
@@ -467,9 +467,6 @@
   </si>
   <si>
     <t>JP1</t>
-  </si>
-  <si>
-    <t>Pin_Headers:Pin_Header_Straight_1x03_Pitch2.54mm</t>
   </si>
   <si>
     <t>Dual jumper, normally closed</t>
@@ -1547,10 +1544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ490"/>
+  <dimension ref="A1:AJ489"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1592,7 +1589,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B1" t="s">
         <v>36</v>
@@ -1601,7 +1598,7 @@
         <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E1">
         <v>9</v>
@@ -1615,10 +1612,10 @@
         <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1632,10 +1629,10 @@
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1643,7 +1640,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B4" t="s">
         <v>109</v>
@@ -1660,7 +1657,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B5" t="s">
         <v>89</v>
@@ -1674,7 +1671,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -1683,7 +1680,7 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E6">
         <v>12</v>
@@ -1700,7 +1697,7 @@
         <v>146</v>
       </c>
       <c r="D7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1708,24 +1705,24 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>375</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>151</v>
+        <v>370</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -1734,10 +1731,10 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>371</v>
+        <v>116</v>
       </c>
       <c r="E9">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1751,7 +1748,7 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>116</v>
+        <v>371</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1759,64 +1756,64 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>372</v>
+        <v>52</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>104</v>
+      </c>
+      <c r="D12" t="s">
+        <v>106</v>
       </c>
       <c r="E12">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>379</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>151</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>154</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>155</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
+        <v>157</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1824,16 +1821,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>152</v>
+        <v>82</v>
       </c>
       <c r="B15" t="s">
-        <v>155</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>156</v>
-      </c>
-      <c r="D15" t="s">
-        <v>158</v>
+        <v>376</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1841,397 +1835,403 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>377</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>377</v>
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
       </c>
       <c r="E16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>378</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="18:29" x14ac:dyDescent="0.2">
+      <c r="R18" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" t="s">
+        <v>162</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="V18" t="s">
+        <v>163</v>
+      </c>
+      <c r="W18" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB18">
+        <v>1</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R19" t="s">
         <v>4</v>
       </c>
       <c r="S19" t="s">
+        <v>162</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="V19" t="s">
         <v>163</v>
       </c>
-      <c r="T19">
-        <v>1</v>
-      </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>164</v>
-      </c>
-      <c r="W19" t="s">
-        <v>165</v>
       </c>
       <c r="AA19" t="s">
         <v>16</v>
       </c>
       <c r="AB19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC19" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R20" t="s">
         <v>4</v>
       </c>
       <c r="S20" t="s">
+        <v>162</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="V20" t="s">
         <v>163</v>
       </c>
-      <c r="T20">
-        <v>1</v>
-      </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>164</v>
-      </c>
-      <c r="W20" t="s">
-        <v>165</v>
       </c>
       <c r="AA20" t="s">
         <v>16</v>
       </c>
       <c r="AB20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R21" t="s">
         <v>4</v>
       </c>
       <c r="S21" t="s">
+        <v>162</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="V21" t="s">
         <v>163</v>
       </c>
-      <c r="T21">
-        <v>1</v>
-      </c>
-      <c r="V21" t="s">
+      <c r="W21" t="s">
         <v>164</v>
-      </c>
-      <c r="W21" t="s">
-        <v>165</v>
       </c>
       <c r="AA21" t="s">
         <v>16</v>
       </c>
       <c r="AB21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC21" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R22" t="s">
         <v>4</v>
       </c>
       <c r="S22" t="s">
+        <v>162</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="V22" t="s">
         <v>163</v>
       </c>
-      <c r="T22">
-        <v>1</v>
-      </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>164</v>
-      </c>
-      <c r="W22" t="s">
-        <v>165</v>
       </c>
       <c r="AA22" t="s">
         <v>16</v>
       </c>
       <c r="AB22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC22" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R23" t="s">
         <v>4</v>
       </c>
       <c r="S23" t="s">
+        <v>162</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="V23" t="s">
         <v>163</v>
       </c>
-      <c r="T23">
-        <v>1</v>
-      </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>164</v>
-      </c>
-      <c r="W23" t="s">
-        <v>165</v>
       </c>
       <c r="AA23" t="s">
         <v>16</v>
       </c>
       <c r="AB23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC23" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R24" t="s">
         <v>4</v>
       </c>
       <c r="S24" t="s">
+        <v>162</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="V24" t="s">
         <v>163</v>
       </c>
-      <c r="T24">
-        <v>1</v>
-      </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>164</v>
       </c>
-      <c r="W24" t="s">
-        <v>165</v>
-      </c>
       <c r="AA24" t="s">
-        <v>16</v>
+        <v>170</v>
       </c>
       <c r="AB24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC24" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R25" t="s">
         <v>4</v>
       </c>
       <c r="S25" t="s">
+        <v>162</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="V25" t="s">
         <v>163</v>
       </c>
-      <c r="T25">
-        <v>1</v>
-      </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>164</v>
       </c>
-      <c r="W25" t="s">
-        <v>165</v>
-      </c>
       <c r="AA25" t="s">
-        <v>171</v>
+        <v>16</v>
       </c>
       <c r="AB25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC25" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R26" t="s">
         <v>4</v>
       </c>
       <c r="S26" t="s">
+        <v>162</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="V26" t="s">
         <v>163</v>
       </c>
-      <c r="T26">
-        <v>1</v>
-      </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>164</v>
-      </c>
-      <c r="W26" t="s">
-        <v>165</v>
       </c>
       <c r="AA26" t="s">
         <v>16</v>
       </c>
       <c r="AB26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R27" t="s">
         <v>4</v>
       </c>
       <c r="S27" t="s">
+        <v>162</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="V27" t="s">
         <v>163</v>
       </c>
-      <c r="T27">
-        <v>1</v>
-      </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>164</v>
-      </c>
-      <c r="W27" t="s">
-        <v>165</v>
       </c>
       <c r="AA27" t="s">
         <v>16</v>
       </c>
       <c r="AB27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC27" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R28" t="s">
         <v>4</v>
       </c>
       <c r="S28" t="s">
+        <v>162</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="V28" t="s">
         <v>163</v>
       </c>
-      <c r="T28">
-        <v>1</v>
-      </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>164</v>
-      </c>
-      <c r="W28" t="s">
-        <v>165</v>
       </c>
       <c r="AA28" t="s">
         <v>16</v>
       </c>
       <c r="AB28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC28" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R29" t="s">
         <v>4</v>
       </c>
       <c r="S29" t="s">
+        <v>162</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="V29" t="s">
         <v>163</v>
       </c>
-      <c r="T29">
-        <v>1</v>
-      </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>164</v>
-      </c>
-      <c r="W29" t="s">
-        <v>165</v>
       </c>
       <c r="AA29" t="s">
         <v>16</v>
       </c>
       <c r="AB29">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC29" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R30" t="s">
         <v>4</v>
       </c>
       <c r="S30" t="s">
+        <v>162</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="V30" t="s">
         <v>163</v>
       </c>
-      <c r="T30">
-        <v>1</v>
-      </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>164</v>
-      </c>
-      <c r="W30" t="s">
-        <v>165</v>
       </c>
       <c r="AA30" t="s">
         <v>16</v>
       </c>
       <c r="AB30">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC30" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R31" t="s">
         <v>4</v>
       </c>
       <c r="S31" t="s">
+        <v>162</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
+      <c r="V31" t="s">
         <v>163</v>
       </c>
-      <c r="T31">
-        <v>1</v>
-      </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>164</v>
       </c>
-      <c r="W31" t="s">
-        <v>165</v>
-      </c>
       <c r="AA31" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB31">
+        <v>14</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="18:29" x14ac:dyDescent="0.2">
+      <c r="R32" t="s">
+        <v>10</v>
+      </c>
+      <c r="S32" t="s">
+        <v>147</v>
+      </c>
+      <c r="T32">
+        <v>2</v>
+      </c>
+      <c r="U32" t="s">
+        <v>173</v>
+      </c>
+      <c r="V32" t="s">
+        <v>146</v>
+      </c>
+      <c r="W32" t="s">
         <v>16</v>
-      </c>
-      <c r="AB31">
-        <v>13</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="R32" t="s">
-        <v>4</v>
-      </c>
-      <c r="S32" t="s">
-        <v>163</v>
-      </c>
-      <c r="T32">
-        <v>1</v>
-      </c>
-      <c r="V32" t="s">
-        <v>164</v>
-      </c>
-      <c r="W32" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB32">
-        <v>14</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="33" spans="18:29" x14ac:dyDescent="0.2">
@@ -2244,14 +2244,17 @@
       <c r="T33">
         <v>2</v>
       </c>
-      <c r="U33" t="s">
-        <v>174</v>
-      </c>
       <c r="V33" t="s">
         <v>146</v>
       </c>
       <c r="W33" t="s">
         <v>16</v>
+      </c>
+      <c r="X33" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="18:29" x14ac:dyDescent="0.2">
@@ -2271,10 +2274,10 @@
         <v>16</v>
       </c>
       <c r="X34" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Y34" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="18:29" x14ac:dyDescent="0.2">
@@ -2293,11 +2296,8 @@
       <c r="W35" t="s">
         <v>16</v>
       </c>
-      <c r="X35" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>147</v>
+      <c r="Z35" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="18:29" x14ac:dyDescent="0.2">
@@ -2316,7 +2316,13 @@
       <c r="W36" t="s">
         <v>16</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="AA36" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB36">
+        <v>1</v>
+      </c>
+      <c r="AC36" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2340,10 +2346,10 @@
         <v>16</v>
       </c>
       <c r="AB37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="18:29" x14ac:dyDescent="0.2">
@@ -2351,25 +2357,22 @@
         <v>10</v>
       </c>
       <c r="S38" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="T38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V38" t="s">
-        <v>146</v>
+        <v>9</v>
       </c>
       <c r="W38" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB38">
-        <v>2</v>
-      </c>
-      <c r="AC38" t="s">
-        <v>177</v>
+        <v>7</v>
+      </c>
+      <c r="X38" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="18:29" x14ac:dyDescent="0.2">
@@ -2389,10 +2392,10 @@
         <v>7</v>
       </c>
       <c r="X39" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Y39" t="s">
-        <v>175</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="18:29" x14ac:dyDescent="0.2">
@@ -2411,11 +2414,8 @@
       <c r="W40" t="s">
         <v>7</v>
       </c>
-      <c r="X40" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>11</v>
+      <c r="Z40" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="18:29" x14ac:dyDescent="0.2">
@@ -2434,8 +2434,14 @@
       <c r="W41" t="s">
         <v>7</v>
       </c>
-      <c r="Z41" t="s">
-        <v>178</v>
+      <c r="AA41" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB41">
+        <v>1</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="18:29" x14ac:dyDescent="0.2">
@@ -2458,10 +2464,10 @@
         <v>16</v>
       </c>
       <c r="AB42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="43" spans="18:29" x14ac:dyDescent="0.2">
@@ -2484,10 +2490,10 @@
         <v>16</v>
       </c>
       <c r="AB43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC43" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="44" spans="18:29" x14ac:dyDescent="0.2">
@@ -2510,10 +2516,10 @@
         <v>16</v>
       </c>
       <c r="AB44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45" spans="18:29" x14ac:dyDescent="0.2">
@@ -2536,36 +2542,33 @@
         <v>16</v>
       </c>
       <c r="AB45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="46" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R46" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="S46" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="T46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V46" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="W46" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA46" t="s">
         <v>16</v>
       </c>
-      <c r="AB46">
-        <v>5</v>
-      </c>
-      <c r="AC46" t="s">
-        <v>177</v>
+      <c r="X46" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="18:29" x14ac:dyDescent="0.2">
@@ -2585,7 +2588,7 @@
         <v>16</v>
       </c>
       <c r="X47" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Y47" t="s">
         <v>38</v>
@@ -2607,11 +2610,8 @@
       <c r="W48" t="s">
         <v>16</v>
       </c>
-      <c r="X48" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>38</v>
+      <c r="Z48" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="49" spans="18:29" x14ac:dyDescent="0.2">
@@ -2630,8 +2630,14 @@
       <c r="W49" t="s">
         <v>16</v>
       </c>
-      <c r="Z49" t="s">
-        <v>179</v>
+      <c r="AA49" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB49">
+        <v>1</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="50" spans="18:29" x14ac:dyDescent="0.2">
@@ -2654,10 +2660,10 @@
         <v>16</v>
       </c>
       <c r="AB50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC50" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="51" spans="18:29" x14ac:dyDescent="0.2">
@@ -2665,25 +2671,22 @@
         <v>19</v>
       </c>
       <c r="S51" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="T51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V51" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="W51" t="s">
         <v>16</v>
       </c>
-      <c r="AA51" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB51">
-        <v>2</v>
-      </c>
-      <c r="AC51" t="s">
-        <v>177</v>
+      <c r="X51" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="18:29" x14ac:dyDescent="0.2">
@@ -2703,7 +2706,7 @@
         <v>16</v>
       </c>
       <c r="X52" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Y52" t="s">
         <v>0</v>
@@ -2725,11 +2728,8 @@
       <c r="W53" t="s">
         <v>16</v>
       </c>
-      <c r="X53" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y53" t="s">
-        <v>0</v>
+      <c r="Z53" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="54" spans="18:29" x14ac:dyDescent="0.2">
@@ -2808,8 +2808,14 @@
       <c r="W57" t="s">
         <v>16</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="AA57" t="s">
         <v>183</v>
+      </c>
+      <c r="AB57">
+        <v>1</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="58" spans="18:29" x14ac:dyDescent="0.2">
@@ -2832,10 +2838,10 @@
         <v>184</v>
       </c>
       <c r="AB58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC58" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="59" spans="18:29" x14ac:dyDescent="0.2">
@@ -2843,25 +2849,22 @@
         <v>19</v>
       </c>
       <c r="S59" t="s">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="T59">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V59" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="W59" t="s">
         <v>16</v>
       </c>
-      <c r="AA59" t="s">
+      <c r="X59" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y59" t="s">
         <v>185</v>
-      </c>
-      <c r="AB59">
-        <v>2</v>
-      </c>
-      <c r="AC59" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="60" spans="18:29" x14ac:dyDescent="0.2">
@@ -2869,22 +2872,22 @@
         <v>19</v>
       </c>
       <c r="S60" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T60">
         <v>6</v>
       </c>
       <c r="V60" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="W60" t="s">
         <v>16</v>
       </c>
       <c r="X60" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Y60" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="18:29" x14ac:dyDescent="0.2">
@@ -2892,22 +2895,25 @@
         <v>19</v>
       </c>
       <c r="S61" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T61">
         <v>6</v>
       </c>
       <c r="V61" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="W61" t="s">
         <v>16</v>
       </c>
-      <c r="X61" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y61" t="s">
-        <v>151</v>
+      <c r="AA61">
+        <v>1</v>
+      </c>
+      <c r="AB61">
+        <v>1</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="18:29" x14ac:dyDescent="0.2">
@@ -2915,25 +2921,25 @@
         <v>19</v>
       </c>
       <c r="S62" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T62">
         <v>6</v>
       </c>
       <c r="V62" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="W62" t="s">
         <v>16</v>
       </c>
       <c r="AA62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC62" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="63" spans="18:29" x14ac:dyDescent="0.2">
@@ -2941,25 +2947,25 @@
         <v>19</v>
       </c>
       <c r="S63" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T63">
         <v>6</v>
       </c>
       <c r="V63" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="W63" t="s">
         <v>16</v>
       </c>
       <c r="AA63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC63" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="64" spans="18:29" x14ac:dyDescent="0.2">
@@ -2967,25 +2973,22 @@
         <v>19</v>
       </c>
       <c r="S64" t="s">
-        <v>151</v>
+        <v>91</v>
       </c>
       <c r="T64">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V64" t="s">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="W64" t="s">
         <v>16</v>
       </c>
-      <c r="AA64">
-        <v>3</v>
-      </c>
-      <c r="AB64">
-        <v>3</v>
-      </c>
-      <c r="AC64" t="s">
-        <v>177</v>
+      <c r="X64" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="18:29" x14ac:dyDescent="0.2">
@@ -3005,10 +3008,10 @@
         <v>16</v>
       </c>
       <c r="X65" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Y65" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66" spans="18:29" x14ac:dyDescent="0.2">
@@ -3027,11 +3030,8 @@
       <c r="W66" t="s">
         <v>16</v>
       </c>
-      <c r="X66" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y66" t="s">
-        <v>91</v>
+      <c r="Z66" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="67" spans="18:29" x14ac:dyDescent="0.2">
@@ -3090,8 +3090,14 @@
       <c r="W69" t="s">
         <v>16</v>
       </c>
-      <c r="Z69" t="s">
-        <v>189</v>
+      <c r="AA69" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB69">
+        <v>1</v>
+      </c>
+      <c r="AC69" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="70" spans="18:29" x14ac:dyDescent="0.2">
@@ -3114,10 +3120,10 @@
         <v>184</v>
       </c>
       <c r="AB70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC70" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="71" spans="18:29" x14ac:dyDescent="0.2">
@@ -3125,25 +3131,22 @@
         <v>19</v>
       </c>
       <c r="S71" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="T71">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V71" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="W71" t="s">
         <v>16</v>
       </c>
-      <c r="AA71" t="s">
-        <v>185</v>
-      </c>
-      <c r="AB71">
-        <v>2</v>
-      </c>
-      <c r="AC71" t="s">
-        <v>177</v>
+      <c r="X71" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="18:29" x14ac:dyDescent="0.2">
@@ -3163,7 +3166,7 @@
         <v>16</v>
       </c>
       <c r="X72" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Y72" t="s">
         <v>20</v>
@@ -3185,11 +3188,8 @@
       <c r="W73" t="s">
         <v>16</v>
       </c>
-      <c r="X73" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y73" t="s">
-        <v>20</v>
+      <c r="Z73" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="74" spans="18:29" x14ac:dyDescent="0.2">
@@ -3208,8 +3208,14 @@
       <c r="W74" t="s">
         <v>16</v>
       </c>
-      <c r="Z74" t="s">
-        <v>190</v>
+      <c r="AA74" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB74">
+        <v>1</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="75" spans="18:29" x14ac:dyDescent="0.2">
@@ -3232,36 +3238,30 @@
         <v>16</v>
       </c>
       <c r="AB75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC75" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="76" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R76" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="S76" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="T76">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="U76" t="s">
+        <v>190</v>
       </c>
       <c r="V76" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="W76" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA76" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB76">
-        <v>2</v>
-      </c>
-      <c r="AC76" t="s">
-        <v>177</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77" spans="18:29" x14ac:dyDescent="0.2">
@@ -3274,14 +3274,17 @@
       <c r="T77">
         <v>9</v>
       </c>
-      <c r="U77" t="s">
-        <v>191</v>
-      </c>
       <c r="V77" t="s">
         <v>104</v>
       </c>
       <c r="W77" t="s">
         <v>102</v>
+      </c>
+      <c r="X77" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="78" spans="18:29" x14ac:dyDescent="0.2">
@@ -3301,10 +3304,10 @@
         <v>102</v>
       </c>
       <c r="X78" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Y78" t="s">
-        <v>167</v>
+        <v>106</v>
       </c>
     </row>
     <row r="79" spans="18:29" x14ac:dyDescent="0.2">
@@ -3323,11 +3326,8 @@
       <c r="W79" t="s">
         <v>102</v>
       </c>
-      <c r="X79" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y79" t="s">
-        <v>106</v>
+      <c r="Z79" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="80" spans="18:29" x14ac:dyDescent="0.2">
@@ -3366,8 +3366,14 @@
       <c r="W81" t="s">
         <v>102</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="AA81" t="s">
         <v>193</v>
+      </c>
+      <c r="AB81">
+        <v>1</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="82" spans="18:29" x14ac:dyDescent="0.2">
@@ -3387,13 +3393,13 @@
         <v>102</v>
       </c>
       <c r="AA82" t="s">
-        <v>194</v>
+        <v>39</v>
       </c>
       <c r="AB82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC82" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
     </row>
     <row r="83" spans="18:29" x14ac:dyDescent="0.2">
@@ -3413,13 +3419,13 @@
         <v>102</v>
       </c>
       <c r="AA83" t="s">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="AB83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC83" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="84" spans="18:29" x14ac:dyDescent="0.2">
@@ -3439,13 +3445,13 @@
         <v>102</v>
       </c>
       <c r="AA84" t="s">
-        <v>143</v>
+        <v>193</v>
       </c>
       <c r="AB84">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC84" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
     </row>
     <row r="85" spans="18:29" x14ac:dyDescent="0.2">
@@ -3465,13 +3471,13 @@
         <v>102</v>
       </c>
       <c r="AA85" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="AB85">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC85" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
     </row>
     <row r="86" spans="18:29" x14ac:dyDescent="0.2">
@@ -3491,13 +3497,13 @@
         <v>102</v>
       </c>
       <c r="AA86" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="AB86">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC86" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="87" spans="18:29" x14ac:dyDescent="0.2">
@@ -3520,10 +3526,10 @@
         <v>196</v>
       </c>
       <c r="AB87">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC87" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="88" spans="18:29" x14ac:dyDescent="0.2">
@@ -3543,39 +3549,36 @@
         <v>102</v>
       </c>
       <c r="AA88" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="AB88">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC88" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="89" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R89" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="S89" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="T89">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V89" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="W89" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA89" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB89">
-        <v>8</v>
-      </c>
-      <c r="AC89" t="s">
-        <v>177</v>
+        <v>83</v>
+      </c>
+      <c r="X89" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="90" spans="18:29" x14ac:dyDescent="0.2">
@@ -3595,10 +3598,10 @@
         <v>83</v>
       </c>
       <c r="X90" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Y90" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91" spans="18:29" x14ac:dyDescent="0.2">
@@ -3617,11 +3620,8 @@
       <c r="W91" t="s">
         <v>83</v>
       </c>
-      <c r="X91" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y91" t="s">
-        <v>87</v>
+      <c r="Z91" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="92" spans="18:29" x14ac:dyDescent="0.2">
@@ -3660,8 +3660,14 @@
       <c r="W93" t="s">
         <v>83</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="AA93" t="s">
         <v>199</v>
+      </c>
+      <c r="AB93">
+        <v>1</v>
+      </c>
+      <c r="AC93" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="94" spans="18:29" x14ac:dyDescent="0.2">
@@ -3681,13 +3687,13 @@
         <v>83</v>
       </c>
       <c r="AA94" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB94">
+        <v>2</v>
+      </c>
+      <c r="AC94" t="s">
         <v>200</v>
-      </c>
-      <c r="AB94">
-        <v>1</v>
-      </c>
-      <c r="AC94" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="95" spans="18:29" x14ac:dyDescent="0.2">
@@ -3710,10 +3716,10 @@
         <v>202</v>
       </c>
       <c r="AB95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC95" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="96" spans="18:29" x14ac:dyDescent="0.2">
@@ -3736,10 +3742,10 @@
         <v>203</v>
       </c>
       <c r="AB96">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC96" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
     </row>
     <row r="97" spans="18:29" x14ac:dyDescent="0.2">
@@ -3762,10 +3768,10 @@
         <v>204</v>
       </c>
       <c r="AB97">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC97" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="98" spans="18:29" x14ac:dyDescent="0.2">
@@ -3788,10 +3794,10 @@
         <v>205</v>
       </c>
       <c r="AB98">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC98" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
     </row>
     <row r="99" spans="18:29" x14ac:dyDescent="0.2">
@@ -3814,10 +3820,10 @@
         <v>206</v>
       </c>
       <c r="AB99">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC99" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="100" spans="18:29" x14ac:dyDescent="0.2">
@@ -3840,10 +3846,10 @@
         <v>207</v>
       </c>
       <c r="AB100">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC100" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="101" spans="18:29" x14ac:dyDescent="0.2">
@@ -3866,10 +3872,10 @@
         <v>208</v>
       </c>
       <c r="AB101">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC101" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="102" spans="18:29" x14ac:dyDescent="0.2">
@@ -3892,10 +3898,10 @@
         <v>209</v>
       </c>
       <c r="AB102">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC102" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103" spans="18:29" x14ac:dyDescent="0.2">
@@ -3918,10 +3924,10 @@
         <v>210</v>
       </c>
       <c r="AB103">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC103" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="104" spans="18:29" x14ac:dyDescent="0.2">
@@ -3944,10 +3950,10 @@
         <v>211</v>
       </c>
       <c r="AB104">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC104" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="105" spans="18:29" x14ac:dyDescent="0.2">
@@ -3970,10 +3976,10 @@
         <v>212</v>
       </c>
       <c r="AB105">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC105" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="106" spans="18:29" x14ac:dyDescent="0.2">
@@ -3996,10 +4002,10 @@
         <v>213</v>
       </c>
       <c r="AB106">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC106" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
     </row>
     <row r="107" spans="18:29" x14ac:dyDescent="0.2">
@@ -4022,10 +4028,10 @@
         <v>214</v>
       </c>
       <c r="AB107">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC107" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
     </row>
     <row r="108" spans="18:29" x14ac:dyDescent="0.2">
@@ -4048,10 +4054,10 @@
         <v>215</v>
       </c>
       <c r="AB108">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AC108" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="109" spans="18:29" x14ac:dyDescent="0.2">
@@ -4074,10 +4080,10 @@
         <v>216</v>
       </c>
       <c r="AB109">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AC109" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="110" spans="18:29" x14ac:dyDescent="0.2">
@@ -4100,412 +4106,409 @@
         <v>217</v>
       </c>
       <c r="AB110">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC110" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="111" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R111" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="S111" t="s">
-        <v>87</v>
+        <v>157</v>
       </c>
       <c r="T111">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V111" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="W111" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA111" t="s">
-        <v>218</v>
-      </c>
-      <c r="AB111">
-        <v>18</v>
-      </c>
-      <c r="AC111" t="s">
-        <v>201</v>
+        <v>152</v>
+      </c>
+      <c r="X111" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y111" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="112" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R112" t="s">
+        <v>156</v>
+      </c>
+      <c r="S112" t="s">
         <v>157</v>
-      </c>
-      <c r="S112" t="s">
-        <v>158</v>
       </c>
       <c r="T112">
         <v>11</v>
       </c>
       <c r="V112" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="W112" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X112" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Y112" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="113" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R113" t="s">
+        <v>156</v>
+      </c>
+      <c r="S113" t="s">
         <v>157</v>
-      </c>
-      <c r="S113" t="s">
-        <v>158</v>
       </c>
       <c r="T113">
         <v>11</v>
       </c>
       <c r="V113" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="W113" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X113" t="s">
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="Y113" t="s">
-        <v>158</v>
+        <v>219</v>
       </c>
     </row>
     <row r="114" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R114" t="s">
+        <v>156</v>
+      </c>
+      <c r="S114" t="s">
         <v>157</v>
-      </c>
-      <c r="S114" t="s">
-        <v>158</v>
       </c>
       <c r="T114">
         <v>11</v>
       </c>
       <c r="V114" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="W114" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X114" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Y114" t="s">
-        <v>220</v>
+        <v>152</v>
       </c>
     </row>
     <row r="115" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R115" t="s">
+        <v>156</v>
+      </c>
+      <c r="S115" t="s">
         <v>157</v>
-      </c>
-      <c r="S115" t="s">
-        <v>158</v>
       </c>
       <c r="T115">
         <v>11</v>
       </c>
       <c r="V115" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="W115" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X115" t="s">
-        <v>221</v>
+        <v>59</v>
       </c>
       <c r="Y115" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="116" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R116" t="s">
+        <v>156</v>
+      </c>
+      <c r="S116" t="s">
         <v>157</v>
-      </c>
-      <c r="S116" t="s">
-        <v>158</v>
       </c>
       <c r="T116">
         <v>11</v>
       </c>
       <c r="V116" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="W116" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X116" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="Y116" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="117" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R117" t="s">
+        <v>156</v>
+      </c>
+      <c r="S117" t="s">
         <v>157</v>
-      </c>
-      <c r="S117" t="s">
-        <v>158</v>
       </c>
       <c r="T117">
         <v>11</v>
       </c>
       <c r="V117" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="W117" t="s">
+        <v>152</v>
+      </c>
+      <c r="X117" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y117" t="s">
         <v>153</v>
-      </c>
-      <c r="X117" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y117" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="118" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R118" t="s">
+        <v>156</v>
+      </c>
+      <c r="S118" t="s">
         <v>157</v>
-      </c>
-      <c r="S118" t="s">
-        <v>158</v>
       </c>
       <c r="T118">
         <v>11</v>
       </c>
       <c r="V118" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="W118" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X118" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="Y118" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="119" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R119" t="s">
+        <v>156</v>
+      </c>
+      <c r="S119" t="s">
         <v>157</v>
-      </c>
-      <c r="S119" t="s">
-        <v>158</v>
       </c>
       <c r="T119">
         <v>11</v>
       </c>
       <c r="V119" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="W119" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X119" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="Y119" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="120" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R120" t="s">
+        <v>156</v>
+      </c>
+      <c r="S120" t="s">
         <v>157</v>
-      </c>
-      <c r="S120" t="s">
-        <v>158</v>
       </c>
       <c r="T120">
         <v>11</v>
       </c>
       <c r="V120" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="W120" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X120" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y120" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="121" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R121" t="s">
+        <v>156</v>
+      </c>
+      <c r="S121" t="s">
         <v>157</v>
-      </c>
-      <c r="S121" t="s">
-        <v>158</v>
       </c>
       <c r="T121">
         <v>11</v>
       </c>
       <c r="V121" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="W121" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X121" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y121" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="122" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R122" t="s">
+        <v>156</v>
+      </c>
+      <c r="S122" t="s">
         <v>157</v>
-      </c>
-      <c r="S122" t="s">
-        <v>158</v>
       </c>
       <c r="T122">
         <v>11</v>
       </c>
       <c r="V122" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="W122" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X122" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="Y122" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="123" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R123" t="s">
+        <v>156</v>
+      </c>
+      <c r="S123" t="s">
         <v>157</v>
-      </c>
-      <c r="S123" t="s">
-        <v>158</v>
       </c>
       <c r="T123">
         <v>11</v>
       </c>
       <c r="V123" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="W123" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X123" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y123" t="s">
-        <v>162</v>
+        <v>67</v>
       </c>
     </row>
     <row r="124" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R124" t="s">
+        <v>156</v>
+      </c>
+      <c r="S124" t="s">
         <v>157</v>
-      </c>
-      <c r="S124" t="s">
-        <v>158</v>
       </c>
       <c r="T124">
         <v>11</v>
       </c>
       <c r="V124" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="W124" t="s">
-        <v>153</v>
-      </c>
-      <c r="X124" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y124" t="s">
-        <v>67</v>
+        <v>152</v>
+      </c>
+      <c r="AA124" t="s">
+        <v>221</v>
+      </c>
+      <c r="AB124">
+        <v>1</v>
+      </c>
+      <c r="AC124" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="125" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R125" t="s">
+        <v>156</v>
+      </c>
+      <c r="S125" t="s">
         <v>157</v>
-      </c>
-      <c r="S125" t="s">
-        <v>158</v>
       </c>
       <c r="T125">
         <v>11</v>
       </c>
       <c r="V125" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="W125" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA125" t="s">
-        <v>222</v>
+        <v>170</v>
       </c>
       <c r="AB125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC125" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="126" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R126" t="s">
+        <v>156</v>
+      </c>
+      <c r="S126" t="s">
         <v>157</v>
-      </c>
-      <c r="S126" t="s">
-        <v>158</v>
       </c>
       <c r="T126">
         <v>11</v>
       </c>
       <c r="V126" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="W126" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA126" t="s">
-        <v>171</v>
+        <v>222</v>
       </c>
       <c r="AB126">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC126" t="s">
-        <v>172</v>
+        <v>223</v>
       </c>
     </row>
     <row r="127" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R127" t="s">
-        <v>157</v>
+        <v>53</v>
       </c>
       <c r="S127" t="s">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="T127">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V127" t="s">
-        <v>156</v>
+        <v>52</v>
       </c>
       <c r="W127" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA127" t="s">
-        <v>223</v>
-      </c>
-      <c r="AB127">
-        <v>3</v>
-      </c>
-      <c r="AC127" t="s">
+        <v>48</v>
+      </c>
+      <c r="X127" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y127" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4526,10 +4529,10 @@
         <v>48</v>
       </c>
       <c r="X128" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Y128" t="s">
-        <v>225</v>
+        <v>54</v>
       </c>
     </row>
     <row r="129" spans="18:31" x14ac:dyDescent="0.2">
@@ -4549,10 +4552,10 @@
         <v>48</v>
       </c>
       <c r="X129" t="s">
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="Y129" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="130" spans="18:31" x14ac:dyDescent="0.2">
@@ -4572,10 +4575,10 @@
         <v>48</v>
       </c>
       <c r="X130" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Y130" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="131" spans="18:31" x14ac:dyDescent="0.2">
@@ -4595,10 +4598,10 @@
         <v>48</v>
       </c>
       <c r="X131" t="s">
-        <v>221</v>
+        <v>59</v>
       </c>
       <c r="Y131" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="132" spans="18:31" x14ac:dyDescent="0.2">
@@ -4618,10 +4621,10 @@
         <v>48</v>
       </c>
       <c r="X132" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="Y132" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="133" spans="18:31" x14ac:dyDescent="0.2">
@@ -4641,10 +4644,10 @@
         <v>48</v>
       </c>
       <c r="X133" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="Y133" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="134" spans="18:31" x14ac:dyDescent="0.2">
@@ -4664,10 +4667,10 @@
         <v>48</v>
       </c>
       <c r="X134" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="Y134" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="135" spans="18:31" x14ac:dyDescent="0.2">
@@ -4687,10 +4690,10 @@
         <v>48</v>
       </c>
       <c r="X135" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="Y135" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="136" spans="18:31" x14ac:dyDescent="0.2">
@@ -4710,10 +4713,10 @@
         <v>48</v>
       </c>
       <c r="X136" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y136" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="137" spans="18:31" x14ac:dyDescent="0.2">
@@ -4733,10 +4736,10 @@
         <v>48</v>
       </c>
       <c r="X137" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y137" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="138" spans="18:31" x14ac:dyDescent="0.2">
@@ -4756,10 +4759,10 @@
         <v>48</v>
       </c>
       <c r="X138" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="Y138" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="139" spans="18:31" x14ac:dyDescent="0.2">
@@ -4779,10 +4782,10 @@
         <v>48</v>
       </c>
       <c r="X139" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y139" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="140" spans="18:31" x14ac:dyDescent="0.2">
@@ -4801,11 +4804,14 @@
       <c r="W140" t="s">
         <v>48</v>
       </c>
-      <c r="X140" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y140" t="s">
-        <v>67</v>
+      <c r="AA140" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB140">
+        <v>1</v>
+      </c>
+      <c r="AC140" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="141" spans="18:31" x14ac:dyDescent="0.2">
@@ -4825,13 +4831,13 @@
         <v>48</v>
       </c>
       <c r="AA141" t="s">
-        <v>16</v>
+        <v>225</v>
       </c>
       <c r="AB141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC141" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="142" spans="18:31" x14ac:dyDescent="0.2">
@@ -4851,44 +4857,26 @@
         <v>48</v>
       </c>
       <c r="AA142" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB142">
+        <v>3</v>
+      </c>
+      <c r="AC142" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="143" spans="18:31" x14ac:dyDescent="0.2">
+      <c r="AD143" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE143" t="s">
         <v>226</v>
-      </c>
-      <c r="AB142">
-        <v>2</v>
-      </c>
-      <c r="AC142" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="143" spans="18:31" x14ac:dyDescent="0.2">
-      <c r="R143" t="s">
-        <v>53</v>
-      </c>
-      <c r="S143" t="s">
-        <v>54</v>
-      </c>
-      <c r="T143">
-        <v>12</v>
-      </c>
-      <c r="V143" t="s">
-        <v>52</v>
-      </c>
-      <c r="W143" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA143" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB143">
-        <v>3</v>
-      </c>
-      <c r="AC143" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="144" spans="18:31" x14ac:dyDescent="0.2">
       <c r="AD144" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AE144" t="s">
         <v>227</v>
@@ -4896,7 +4884,7 @@
     </row>
     <row r="145" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AD145" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AE145" t="s">
         <v>228</v>
@@ -4904,7 +4892,7 @@
     </row>
     <row r="146" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AD146" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="AE146" t="s">
         <v>229</v>
@@ -4912,7 +4900,7 @@
     </row>
     <row r="147" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AD147" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="AE147" t="s">
         <v>230</v>
@@ -4920,7 +4908,7 @@
     </row>
     <row r="148" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AD148" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="AE148" t="s">
         <v>231</v>
@@ -4928,32 +4916,41 @@
     </row>
     <row r="149" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AD149" t="s">
-        <v>157</v>
+        <v>53</v>
       </c>
       <c r="AE149" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="150" spans="30:36" x14ac:dyDescent="0.2">
-      <c r="AD150" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE150" t="s">
+      <c r="AF150">
+        <v>1</v>
+      </c>
+      <c r="AG150" t="s">
         <v>233</v>
+      </c>
+      <c r="AH150">
+        <v>1</v>
+      </c>
+      <c r="AI150">
+        <v>1</v>
+      </c>
+      <c r="AJ150" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="151" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG151" t="s">
         <v>234</v>
       </c>
       <c r="AH151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI151">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ151" t="s">
         <v>6</v>
@@ -4961,33 +4958,33 @@
     </row>
     <row r="152" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF152">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG152" t="s">
         <v>235</v>
       </c>
       <c r="AH152">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI152">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ152" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF153">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG153" t="s">
         <v>236</v>
       </c>
       <c r="AH153">
+        <v>4</v>
+      </c>
+      <c r="AI153">
         <v>3</v>
-      </c>
-      <c r="AI153">
-        <v>1</v>
       </c>
       <c r="AJ153" t="s">
         <v>12</v>
@@ -4995,33 +4992,33 @@
     </row>
     <row r="154" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF154">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG154" t="s">
         <v>237</v>
       </c>
       <c r="AH154">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI154">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ154" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="155" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF155">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG155" t="s">
         <v>238</v>
       </c>
       <c r="AH155">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI155">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ155" t="s">
         <v>13</v>
@@ -5029,33 +5026,33 @@
     </row>
     <row r="156" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF156">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG156" t="s">
         <v>239</v>
       </c>
       <c r="AH156">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI156">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ156" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="157" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF157">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG157" t="s">
         <v>240</v>
       </c>
       <c r="AH157">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI157">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ157" t="s">
         <v>14</v>
@@ -5063,19 +5060,19 @@
     </row>
     <row r="158" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF158">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG158" t="s">
         <v>241</v>
       </c>
       <c r="AH158">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI158">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ158" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
     </row>
     <row r="159" spans="30:36" x14ac:dyDescent="0.2">
@@ -5083,33 +5080,33 @@
         <v>9</v>
       </c>
       <c r="AG159" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AH159">
         <v>9</v>
       </c>
       <c r="AI159">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ159" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
     </row>
     <row r="160" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF160">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG160" t="s">
         <v>242</v>
       </c>
       <c r="AH160">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI160">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ160" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="161" spans="32:36" x14ac:dyDescent="0.2">
@@ -5117,33 +5114,33 @@
         <v>10</v>
       </c>
       <c r="AG161" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AH161">
         <v>10</v>
       </c>
       <c r="AI161">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ161" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="162" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF162">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG162" t="s">
         <v>243</v>
       </c>
       <c r="AH162">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI162">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ162" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="163" spans="32:36" x14ac:dyDescent="0.2">
@@ -5151,33 +5148,33 @@
         <v>11</v>
       </c>
       <c r="AG163" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AH163">
         <v>11</v>
       </c>
       <c r="AI163">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ163" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="164" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF164">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG164" t="s">
         <v>244</v>
       </c>
       <c r="AH164">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI164">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ164" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="165" spans="32:36" x14ac:dyDescent="0.2">
@@ -5185,33 +5182,33 @@
         <v>12</v>
       </c>
       <c r="AG165" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AH165">
         <v>12</v>
       </c>
       <c r="AI165">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ165" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="166" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF166">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG166" t="s">
         <v>245</v>
       </c>
       <c r="AH166">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI166">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ166" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="167" spans="32:36" x14ac:dyDescent="0.2">
@@ -5219,50 +5216,50 @@
         <v>13</v>
       </c>
       <c r="AG167" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AH167">
         <v>13</v>
       </c>
       <c r="AI167">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ167" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="168" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF168">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG168" t="s">
         <v>246</v>
       </c>
       <c r="AH168">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI168">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ168" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
     </row>
     <row r="169" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF169">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG169" t="s">
         <v>247</v>
       </c>
       <c r="AH169">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI169">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AJ169" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
     </row>
     <row r="170" spans="32:36" x14ac:dyDescent="0.2">
@@ -5270,7 +5267,7 @@
         <v>15</v>
       </c>
       <c r="AG170" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AH170">
         <v>15</v>
@@ -5279,7 +5276,7 @@
         <v>9</v>
       </c>
       <c r="AJ170" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="32:36" x14ac:dyDescent="0.2">
@@ -5287,13 +5284,13 @@
         <v>15</v>
       </c>
       <c r="AG171" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AH171">
         <v>15</v>
       </c>
       <c r="AI171">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AJ171" t="s">
         <v>1</v>
@@ -5304,16 +5301,16 @@
         <v>15</v>
       </c>
       <c r="AG172" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AH172">
         <v>15</v>
       </c>
       <c r="AI172">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AJ172" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="173" spans="32:36" x14ac:dyDescent="0.2">
@@ -5321,16 +5318,16 @@
         <v>15</v>
       </c>
       <c r="AG173" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AH173">
         <v>15</v>
       </c>
       <c r="AI173">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ173" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="32:36" x14ac:dyDescent="0.2">
@@ -5338,13 +5335,13 @@
         <v>15</v>
       </c>
       <c r="AG174" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AH174">
         <v>15</v>
       </c>
       <c r="AI174">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ174" t="s">
         <v>1</v>
@@ -5355,13 +5352,13 @@
         <v>15</v>
       </c>
       <c r="AG175" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AH175">
         <v>15</v>
       </c>
       <c r="AI175">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AJ175" t="s">
         <v>1</v>
@@ -5372,16 +5369,16 @@
         <v>15</v>
       </c>
       <c r="AG176" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AH176">
         <v>15</v>
       </c>
       <c r="AI176">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ176" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="177" spans="32:36" x14ac:dyDescent="0.2">
@@ -5389,13 +5386,13 @@
         <v>15</v>
       </c>
       <c r="AG177" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AH177">
         <v>15</v>
       </c>
       <c r="AI177">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AJ177" t="s">
         <v>24</v>
@@ -5406,13 +5403,13 @@
         <v>15</v>
       </c>
       <c r="AG178" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AH178">
         <v>15</v>
       </c>
       <c r="AI178">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AJ178" t="s">
         <v>24</v>
@@ -5423,16 +5420,16 @@
         <v>15</v>
       </c>
       <c r="AG179" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AH179">
         <v>15</v>
       </c>
       <c r="AI179">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ179" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="32:36" x14ac:dyDescent="0.2">
@@ -5440,47 +5437,47 @@
         <v>15</v>
       </c>
       <c r="AG180" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AH180">
         <v>15</v>
       </c>
       <c r="AI180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ180" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="181" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF181">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG181" t="s">
         <v>248</v>
       </c>
       <c r="AH181">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI181">
         <v>1</v>
       </c>
       <c r="AJ181" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="182" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF182">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG182" t="s">
         <v>249</v>
       </c>
       <c r="AH182">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI182">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ182" t="s">
         <v>25</v>
@@ -5488,16 +5485,16 @@
     </row>
     <row r="183" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF183">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG183" t="s">
         <v>250</v>
       </c>
       <c r="AH183">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI183">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ183" t="s">
         <v>25</v>
@@ -5508,47 +5505,47 @@
         <v>18</v>
       </c>
       <c r="AG184" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AH184">
         <v>18</v>
       </c>
       <c r="AI184">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ184" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
     </row>
     <row r="185" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF185">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG185" t="s">
         <v>251</v>
       </c>
       <c r="AH185">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI185">
         <v>1</v>
       </c>
       <c r="AJ185" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
     </row>
     <row r="186" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF186">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG186" t="s">
         <v>252</v>
       </c>
       <c r="AH186">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI186">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ186" t="s">
         <v>26</v>
@@ -5556,16 +5553,16 @@
     </row>
     <row r="187" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF187">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG187" t="s">
         <v>253</v>
       </c>
       <c r="AH187">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI187">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ187" t="s">
         <v>26</v>
@@ -5576,47 +5573,47 @@
         <v>21</v>
       </c>
       <c r="AG188" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AH188">
         <v>21</v>
       </c>
       <c r="AI188">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ188" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
     </row>
     <row r="189" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF189">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG189" t="s">
         <v>254</v>
       </c>
       <c r="AH189">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI189">
         <v>1</v>
       </c>
       <c r="AJ189" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
     </row>
     <row r="190" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF190">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG190" t="s">
         <v>255</v>
       </c>
       <c r="AH190">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI190">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ190" t="s">
         <v>27</v>
@@ -5624,16 +5621,16 @@
     </row>
     <row r="191" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF191">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG191" t="s">
         <v>256</v>
       </c>
       <c r="AH191">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI191">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ191" t="s">
         <v>27</v>
@@ -5644,33 +5641,33 @@
         <v>24</v>
       </c>
       <c r="AG192" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AH192">
         <v>24</v>
       </c>
       <c r="AI192">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ192" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
     </row>
     <row r="193" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF193">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG193" t="s">
         <v>257</v>
       </c>
       <c r="AH193">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI193">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ193" t="s">
-        <v>128</v>
+        <v>68</v>
       </c>
     </row>
     <row r="194" spans="32:36" x14ac:dyDescent="0.2">
@@ -5678,33 +5675,33 @@
         <v>25</v>
       </c>
       <c r="AG194" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AH194">
         <v>25</v>
       </c>
       <c r="AI194">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ194" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
     </row>
     <row r="195" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF195">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG195" t="s">
         <v>258</v>
       </c>
       <c r="AH195">
+        <v>26</v>
+      </c>
+      <c r="AI195">
+        <v>4</v>
+      </c>
+      <c r="AJ195" t="s">
         <v>25</v>
-      </c>
-      <c r="AI195">
-        <v>2</v>
-      </c>
-      <c r="AJ195" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="196" spans="32:36" x14ac:dyDescent="0.2">
@@ -5712,33 +5709,33 @@
         <v>26</v>
       </c>
       <c r="AG196" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AH196">
         <v>26</v>
       </c>
       <c r="AI196">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ196" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="197" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF197">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG197" t="s">
         <v>259</v>
       </c>
       <c r="AH197">
+        <v>27</v>
+      </c>
+      <c r="AI197">
+        <v>4</v>
+      </c>
+      <c r="AJ197" t="s">
         <v>26</v>
-      </c>
-      <c r="AI197">
-        <v>2</v>
-      </c>
-      <c r="AJ197" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="198" spans="32:36" x14ac:dyDescent="0.2">
@@ -5746,33 +5743,33 @@
         <v>27</v>
       </c>
       <c r="AG198" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AH198">
         <v>27</v>
       </c>
       <c r="AI198">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ198" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="199" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF199">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG199" t="s">
         <v>260</v>
       </c>
       <c r="AH199">
+        <v>28</v>
+      </c>
+      <c r="AI199">
+        <v>4</v>
+      </c>
+      <c r="AJ199" t="s">
         <v>27</v>
-      </c>
-      <c r="AI199">
-        <v>2</v>
-      </c>
-      <c r="AJ199" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="200" spans="32:36" x14ac:dyDescent="0.2">
@@ -5780,47 +5777,47 @@
         <v>28</v>
       </c>
       <c r="AG200" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AH200">
         <v>28</v>
       </c>
       <c r="AI200">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ200" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="201" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF201">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG201" t="s">
         <v>261</v>
       </c>
       <c r="AH201">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI201">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ201" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
     </row>
     <row r="202" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF202">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG202" t="s">
         <v>262</v>
       </c>
       <c r="AH202">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI202">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ202" t="s">
         <v>68</v>
@@ -5828,33 +5825,33 @@
     </row>
     <row r="203" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF203">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG203" t="s">
         <v>263</v>
       </c>
       <c r="AH203">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AI203">
         <v>1</v>
       </c>
       <c r="AJ203" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
     </row>
     <row r="204" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF204">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AG204" t="s">
         <v>264</v>
       </c>
       <c r="AH204">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AI204">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ204" t="s">
         <v>32</v>
@@ -5862,16 +5859,16 @@
     </row>
     <row r="205" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF205">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AG205" t="s">
         <v>265</v>
       </c>
       <c r="AH205">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI205">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ205" t="s">
         <v>32</v>
@@ -5882,33 +5879,33 @@
         <v>33</v>
       </c>
       <c r="AG206" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AH206">
         <v>33</v>
       </c>
       <c r="AI206">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ206" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
     </row>
     <row r="207" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF207">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AG207" t="s">
-        <v>266</v>
+        <v>170</v>
       </c>
       <c r="AH207">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AI207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ207" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="208" spans="32:36" x14ac:dyDescent="0.2">
@@ -5916,7 +5913,7 @@
         <v>34</v>
       </c>
       <c r="AG208" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AH208">
         <v>34</v>
@@ -5925,7 +5922,7 @@
         <v>2</v>
       </c>
       <c r="AJ208" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="209" spans="32:36" x14ac:dyDescent="0.2">
@@ -5933,16 +5930,16 @@
         <v>34</v>
       </c>
       <c r="AG209" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AH209">
         <v>34</v>
       </c>
       <c r="AI209">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ209" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="210" spans="32:36" x14ac:dyDescent="0.2">
@@ -5950,16 +5947,16 @@
         <v>34</v>
       </c>
       <c r="AG210" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AH210">
         <v>34</v>
       </c>
       <c r="AI210">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ210" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
     </row>
     <row r="211" spans="32:36" x14ac:dyDescent="0.2">
@@ -5967,7 +5964,7 @@
         <v>34</v>
       </c>
       <c r="AG211" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AH211">
         <v>34</v>
@@ -5976,7 +5973,7 @@
         <v>2</v>
       </c>
       <c r="AJ211" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="212" spans="32:36" x14ac:dyDescent="0.2">
@@ -5984,7 +5981,7 @@
         <v>34</v>
       </c>
       <c r="AG212" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AH212">
         <v>34</v>
@@ -5993,7 +5990,7 @@
         <v>2</v>
       </c>
       <c r="AJ212" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
     </row>
     <row r="213" spans="32:36" x14ac:dyDescent="0.2">
@@ -6001,7 +5998,7 @@
         <v>34</v>
       </c>
       <c r="AG213" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AH213">
         <v>34</v>
@@ -6010,7 +6007,7 @@
         <v>2</v>
       </c>
       <c r="AJ213" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="214" spans="32:36" x14ac:dyDescent="0.2">
@@ -6018,7 +6015,7 @@
         <v>34</v>
       </c>
       <c r="AG214" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AH214">
         <v>34</v>
@@ -6027,7 +6024,7 @@
         <v>2</v>
       </c>
       <c r="AJ214" t="s">
-        <v>144</v>
+        <v>27</v>
       </c>
     </row>
     <row r="215" spans="32:36" x14ac:dyDescent="0.2">
@@ -6035,7 +6032,7 @@
         <v>34</v>
       </c>
       <c r="AG215" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AH215">
         <v>34</v>
@@ -6044,7 +6041,7 @@
         <v>2</v>
       </c>
       <c r="AJ215" t="s">
-        <v>27</v>
+        <v>142</v>
       </c>
     </row>
     <row r="216" spans="32:36" x14ac:dyDescent="0.2">
@@ -6052,7 +6049,7 @@
         <v>34</v>
       </c>
       <c r="AG216" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AH216">
         <v>34</v>
@@ -6061,7 +6058,7 @@
         <v>2</v>
       </c>
       <c r="AJ216" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="217" spans="32:36" x14ac:dyDescent="0.2">
@@ -6069,16 +6066,16 @@
         <v>34</v>
       </c>
       <c r="AG217" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AH217">
         <v>34</v>
       </c>
       <c r="AI217">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ217" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
     </row>
     <row r="218" spans="32:36" x14ac:dyDescent="0.2">
@@ -6086,16 +6083,16 @@
         <v>34</v>
       </c>
       <c r="AG218" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AH218">
         <v>34</v>
       </c>
       <c r="AI218">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ218" t="s">
-        <v>100</v>
+        <v>151</v>
       </c>
     </row>
     <row r="219" spans="32:36" x14ac:dyDescent="0.2">
@@ -6103,7 +6100,7 @@
         <v>34</v>
       </c>
       <c r="AG219" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AH219">
         <v>34</v>
@@ -6112,7 +6109,7 @@
         <v>2</v>
       </c>
       <c r="AJ219" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
     </row>
     <row r="220" spans="32:36" x14ac:dyDescent="0.2">
@@ -6120,7 +6117,7 @@
         <v>34</v>
       </c>
       <c r="AG220" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AH220">
         <v>34</v>
@@ -6129,7 +6126,7 @@
         <v>2</v>
       </c>
       <c r="AJ220" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="221" spans="32:36" x14ac:dyDescent="0.2">
@@ -6137,16 +6134,16 @@
         <v>34</v>
       </c>
       <c r="AG221" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AH221">
         <v>34</v>
       </c>
       <c r="AI221">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ221" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="222" spans="32:36" x14ac:dyDescent="0.2">
@@ -6154,16 +6151,16 @@
         <v>34</v>
       </c>
       <c r="AG222" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AH222">
         <v>34</v>
       </c>
       <c r="AI222">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ222" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
     </row>
     <row r="223" spans="32:36" x14ac:dyDescent="0.2">
@@ -6171,7 +6168,7 @@
         <v>34</v>
       </c>
       <c r="AG223" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AH223">
         <v>34</v>
@@ -6180,7 +6177,7 @@
         <v>2</v>
       </c>
       <c r="AJ223" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
     </row>
     <row r="224" spans="32:36" x14ac:dyDescent="0.2">
@@ -6188,7 +6185,7 @@
         <v>34</v>
       </c>
       <c r="AG224" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AH224">
         <v>34</v>
@@ -6197,7 +6194,7 @@
         <v>2</v>
       </c>
       <c r="AJ224" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
     </row>
     <row r="225" spans="32:36" x14ac:dyDescent="0.2">
@@ -6205,7 +6202,7 @@
         <v>34</v>
       </c>
       <c r="AG225" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AH225">
         <v>34</v>
@@ -6214,7 +6211,7 @@
         <v>2</v>
       </c>
       <c r="AJ225" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
     </row>
     <row r="226" spans="32:36" x14ac:dyDescent="0.2">
@@ -6222,16 +6219,16 @@
         <v>34</v>
       </c>
       <c r="AG226" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AH226">
         <v>34</v>
       </c>
       <c r="AI226">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ226" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
     </row>
     <row r="227" spans="32:36" x14ac:dyDescent="0.2">
@@ -6239,16 +6236,16 @@
         <v>34</v>
       </c>
       <c r="AG227" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AH227">
         <v>34</v>
       </c>
       <c r="AI227">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ227" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
     </row>
     <row r="228" spans="32:36" x14ac:dyDescent="0.2">
@@ -6256,16 +6253,16 @@
         <v>34</v>
       </c>
       <c r="AG228" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AH228">
         <v>34</v>
       </c>
       <c r="AI228">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ228" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="229" spans="32:36" x14ac:dyDescent="0.2">
@@ -6273,7 +6270,7 @@
         <v>34</v>
       </c>
       <c r="AG229" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AH229">
         <v>34</v>
@@ -6282,7 +6279,7 @@
         <v>7</v>
       </c>
       <c r="AJ229" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="32:36" x14ac:dyDescent="0.2">
@@ -6290,16 +6287,16 @@
         <v>34</v>
       </c>
       <c r="AG230" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AH230">
         <v>34</v>
       </c>
       <c r="AI230">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ230" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="231" spans="32:36" x14ac:dyDescent="0.2">
@@ -6307,7 +6304,7 @@
         <v>34</v>
       </c>
       <c r="AG231" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AH231">
         <v>34</v>
@@ -6316,7 +6313,7 @@
         <v>2</v>
       </c>
       <c r="AJ231" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="232" spans="32:36" x14ac:dyDescent="0.2">
@@ -6324,7 +6321,7 @@
         <v>34</v>
       </c>
       <c r="AG232" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AH232">
         <v>34</v>
@@ -6333,7 +6330,7 @@
         <v>2</v>
       </c>
       <c r="AJ232" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
     </row>
     <row r="233" spans="32:36" x14ac:dyDescent="0.2">
@@ -6341,16 +6338,16 @@
         <v>34</v>
       </c>
       <c r="AG233" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AH233">
         <v>34</v>
       </c>
       <c r="AI233">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ233" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="234" spans="32:36" x14ac:dyDescent="0.2">
@@ -6358,16 +6355,16 @@
         <v>34</v>
       </c>
       <c r="AG234" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AH234">
         <v>34</v>
       </c>
       <c r="AI234">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ234" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
     </row>
     <row r="235" spans="32:36" x14ac:dyDescent="0.2">
@@ -6375,7 +6372,7 @@
         <v>34</v>
       </c>
       <c r="AG235" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AH235">
         <v>34</v>
@@ -6384,7 +6381,7 @@
         <v>2</v>
       </c>
       <c r="AJ235" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="236" spans="32:36" x14ac:dyDescent="0.2">
@@ -6392,16 +6389,16 @@
         <v>34</v>
       </c>
       <c r="AG236" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AH236">
         <v>34</v>
       </c>
       <c r="AI236">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ236" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
     </row>
     <row r="237" spans="32:36" x14ac:dyDescent="0.2">
@@ -6409,16 +6406,16 @@
         <v>34</v>
       </c>
       <c r="AG237" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AH237">
         <v>34</v>
       </c>
       <c r="AI237">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ237" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="238" spans="32:36" x14ac:dyDescent="0.2">
@@ -6426,16 +6423,16 @@
         <v>34</v>
       </c>
       <c r="AG238" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AH238">
         <v>34</v>
       </c>
       <c r="AI238">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ238" t="s">
-        <v>121</v>
+        <v>46</v>
       </c>
     </row>
     <row r="239" spans="32:36" x14ac:dyDescent="0.2">
@@ -6443,16 +6440,16 @@
         <v>34</v>
       </c>
       <c r="AG239" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AH239">
         <v>34</v>
       </c>
       <c r="AI239">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ239" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
     </row>
     <row r="240" spans="32:36" x14ac:dyDescent="0.2">
@@ -6460,7 +6457,7 @@
         <v>34</v>
       </c>
       <c r="AG240" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AH240">
         <v>34</v>
@@ -6469,24 +6466,24 @@
         <v>2</v>
       </c>
       <c r="AJ240" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
     </row>
     <row r="241" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF241">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AG241" t="s">
-        <v>171</v>
+        <v>266</v>
       </c>
       <c r="AH241">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AI241">
         <v>2</v>
       </c>
       <c r="AJ241" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
     </row>
     <row r="242" spans="32:36" x14ac:dyDescent="0.2">
@@ -6494,33 +6491,33 @@
         <v>35</v>
       </c>
       <c r="AG242" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AH242">
         <v>35</v>
       </c>
       <c r="AI242">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ242" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
     </row>
     <row r="243" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF243">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AG243" t="s">
         <v>267</v>
       </c>
       <c r="AH243">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AI243">
         <v>4</v>
       </c>
       <c r="AJ243" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
     </row>
     <row r="244" spans="32:36" x14ac:dyDescent="0.2">
@@ -6528,47 +6525,47 @@
         <v>36</v>
       </c>
       <c r="AG244" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AH244">
         <v>36</v>
       </c>
       <c r="AI244">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ244" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="245" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF245">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AG245" t="s">
         <v>268</v>
       </c>
       <c r="AH245">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AI245">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ245" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
     </row>
     <row r="246" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF246">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AG246" t="s">
         <v>269</v>
       </c>
       <c r="AH246">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AI246">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ246" t="s">
         <v>69</v>
@@ -6576,19 +6573,19 @@
     </row>
     <row r="247" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF247">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG247" t="s">
         <v>270</v>
       </c>
       <c r="AH247">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI247">
         <v>1</v>
       </c>
       <c r="AJ247" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
     </row>
     <row r="248" spans="32:36" x14ac:dyDescent="0.2">
@@ -6596,33 +6593,33 @@
         <v>39</v>
       </c>
       <c r="AG248" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AH248">
         <v>39</v>
       </c>
       <c r="AI248">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ248" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
     </row>
     <row r="249" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF249">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG249" t="s">
         <v>271</v>
       </c>
       <c r="AH249">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI249">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ249" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="250" spans="32:36" x14ac:dyDescent="0.2">
@@ -6630,33 +6627,33 @@
         <v>40</v>
       </c>
       <c r="AG250" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AH250">
         <v>40</v>
       </c>
       <c r="AI250">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ250" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="251" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF251">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AG251" t="s">
         <v>272</v>
       </c>
       <c r="AH251">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AI251">
         <v>5</v>
       </c>
       <c r="AJ251" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="252" spans="32:36" x14ac:dyDescent="0.2">
@@ -6664,33 +6661,33 @@
         <v>41</v>
       </c>
       <c r="AG252" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AH252">
         <v>41</v>
       </c>
       <c r="AI252">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ252" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
     </row>
     <row r="253" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF253">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AG253" t="s">
         <v>273</v>
       </c>
       <c r="AH253">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI253">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AJ253" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="254" spans="32:36" x14ac:dyDescent="0.2">
@@ -6698,13 +6695,13 @@
         <v>42</v>
       </c>
       <c r="AG254" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AH254">
         <v>42</v>
       </c>
       <c r="AI254">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AJ254" t="s">
         <v>46</v>
@@ -6715,16 +6712,16 @@
         <v>42</v>
       </c>
       <c r="AG255" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AH255">
         <v>42</v>
       </c>
       <c r="AI255">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AJ255" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="256" spans="32:36" x14ac:dyDescent="0.2">
@@ -6732,16 +6729,16 @@
         <v>42</v>
       </c>
       <c r="AG256" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AH256">
         <v>42</v>
       </c>
       <c r="AI256">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AJ256" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="257" spans="32:36" x14ac:dyDescent="0.2">
@@ -6749,16 +6746,16 @@
         <v>42</v>
       </c>
       <c r="AG257" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AH257">
         <v>42</v>
       </c>
       <c r="AI257">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AJ257" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="258" spans="32:36" x14ac:dyDescent="0.2">
@@ -6766,13 +6763,13 @@
         <v>42</v>
       </c>
       <c r="AG258" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AH258">
         <v>42</v>
       </c>
       <c r="AI258">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ258" t="s">
         <v>42</v>
@@ -6783,13 +6780,13 @@
         <v>42</v>
       </c>
       <c r="AG259" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AH259">
         <v>42</v>
       </c>
       <c r="AI259">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AJ259" t="s">
         <v>42</v>
@@ -6800,16 +6797,16 @@
         <v>42</v>
       </c>
       <c r="AG260" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AH260">
         <v>42</v>
       </c>
       <c r="AI260">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AJ260" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="261" spans="32:36" x14ac:dyDescent="0.2">
@@ -6817,16 +6814,16 @@
         <v>42</v>
       </c>
       <c r="AG261" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AH261">
         <v>42</v>
       </c>
       <c r="AI261">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AJ261" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="262" spans="32:36" x14ac:dyDescent="0.2">
@@ -6834,16 +6831,16 @@
         <v>42</v>
       </c>
       <c r="AG262" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AH262">
         <v>42</v>
       </c>
       <c r="AI262">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AJ262" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="263" spans="32:36" x14ac:dyDescent="0.2">
@@ -6851,16 +6848,16 @@
         <v>42</v>
       </c>
       <c r="AG263" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AH263">
         <v>42</v>
       </c>
       <c r="AI263">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AJ263" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="264" spans="32:36" x14ac:dyDescent="0.2">
@@ -6868,33 +6865,33 @@
         <v>42</v>
       </c>
       <c r="AG264" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AH264">
         <v>42</v>
       </c>
       <c r="AI264">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AJ264" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="265" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF265">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AG265" t="s">
         <v>274</v>
       </c>
       <c r="AH265">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI265">
         <v>1</v>
       </c>
       <c r="AJ265" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
     </row>
     <row r="266" spans="32:36" x14ac:dyDescent="0.2">
@@ -6902,33 +6899,33 @@
         <v>43</v>
       </c>
       <c r="AG266" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH266">
         <v>43</v>
       </c>
       <c r="AI266">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ266" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
     </row>
     <row r="267" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF267">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG267" t="s">
         <v>275</v>
       </c>
       <c r="AH267">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI267">
         <v>5</v>
       </c>
       <c r="AJ267" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="268" spans="32:36" x14ac:dyDescent="0.2">
@@ -6936,33 +6933,33 @@
         <v>44</v>
       </c>
       <c r="AG268" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AH268">
         <v>44</v>
       </c>
       <c r="AI268">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ268" t="s">
-        <v>69</v>
+        <v>129</v>
       </c>
     </row>
     <row r="269" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF269">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AG269" t="s">
         <v>276</v>
       </c>
       <c r="AH269">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI269">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ269" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
     </row>
     <row r="270" spans="32:36" x14ac:dyDescent="0.2">
@@ -6970,33 +6967,33 @@
         <v>45</v>
       </c>
       <c r="AG270" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AH270">
         <v>45</v>
       </c>
       <c r="AI270">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AJ270" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="271" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF271">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AG271" t="s">
         <v>277</v>
       </c>
       <c r="AH271">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI271">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AJ271" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="272" spans="32:36" x14ac:dyDescent="0.2">
@@ -7004,33 +7001,33 @@
         <v>46</v>
       </c>
       <c r="AG272" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AH272">
         <v>46</v>
       </c>
       <c r="AI272">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AJ272" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
     </row>
     <row r="273" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF273">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AG273" t="s">
         <v>278</v>
       </c>
       <c r="AH273">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI273">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AJ273" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
     </row>
     <row r="274" spans="32:36" x14ac:dyDescent="0.2">
@@ -7038,30 +7035,30 @@
         <v>47</v>
       </c>
       <c r="AG274" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AH274">
         <v>47</v>
       </c>
       <c r="AI274">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AJ274" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
     </row>
     <row r="275" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF275">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AG275" t="s">
         <v>279</v>
       </c>
       <c r="AH275">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI275">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AJ275" t="s">
         <v>42</v>
@@ -7072,33 +7069,33 @@
         <v>48</v>
       </c>
       <c r="AG276" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AH276">
         <v>48</v>
       </c>
       <c r="AI276">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AJ276" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
     </row>
     <row r="277" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF277">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AG277" t="s">
         <v>280</v>
       </c>
       <c r="AH277">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI277">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ277" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
     </row>
     <row r="278" spans="32:36" x14ac:dyDescent="0.2">
@@ -7106,33 +7103,33 @@
         <v>49</v>
       </c>
       <c r="AG278" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AH278">
         <v>49</v>
       </c>
       <c r="AI278">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ278" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="279" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF279">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG279" t="s">
         <v>281</v>
       </c>
       <c r="AH279">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI279">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ279" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
     </row>
     <row r="280" spans="32:36" x14ac:dyDescent="0.2">
@@ -7140,33 +7137,33 @@
         <v>50</v>
       </c>
       <c r="AG280" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AH280">
         <v>50</v>
       </c>
       <c r="AI280">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ280" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
     </row>
     <row r="281" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF281">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG281" t="s">
         <v>282</v>
       </c>
       <c r="AH281">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI281">
         <v>3</v>
       </c>
       <c r="AJ281" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="282" spans="32:36" x14ac:dyDescent="0.2">
@@ -7174,33 +7171,33 @@
         <v>51</v>
       </c>
       <c r="AG282" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AH282">
         <v>51</v>
       </c>
       <c r="AI282">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AJ282" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
     </row>
     <row r="283" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF283">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AG283" t="s">
         <v>283</v>
       </c>
       <c r="AH283">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI283">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AJ283" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
     </row>
     <row r="284" spans="32:36" x14ac:dyDescent="0.2">
@@ -7208,33 +7205,33 @@
         <v>52</v>
       </c>
       <c r="AG284" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH284">
         <v>52</v>
       </c>
       <c r="AI284">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AJ284" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
     <row r="285" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF285">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AG285" t="s">
         <v>284</v>
       </c>
       <c r="AH285">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AI285">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AJ285" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="286" spans="32:36" x14ac:dyDescent="0.2">
@@ -7242,33 +7239,33 @@
         <v>53</v>
       </c>
       <c r="AG286" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AH286">
         <v>53</v>
       </c>
       <c r="AI286">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AJ286" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
     </row>
     <row r="287" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF287">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AG287" t="s">
         <v>285</v>
       </c>
       <c r="AH287">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AI287">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AJ287" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
     </row>
     <row r="288" spans="32:36" x14ac:dyDescent="0.2">
@@ -7276,33 +7273,33 @@
         <v>54</v>
       </c>
       <c r="AG288" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AH288">
         <v>54</v>
       </c>
       <c r="AI288">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AJ288" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
     </row>
     <row r="289" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF289">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG289" t="s">
         <v>286</v>
       </c>
       <c r="AH289">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI289">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AJ289" t="s">
-        <v>46</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="32:36" x14ac:dyDescent="0.2">
@@ -7310,33 +7307,33 @@
         <v>55</v>
       </c>
       <c r="AG290" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AH290">
         <v>55</v>
       </c>
       <c r="AI290">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AJ290" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="291" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF291">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG291" t="s">
         <v>287</v>
       </c>
       <c r="AH291">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AI291">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ291" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="32:36" x14ac:dyDescent="0.2">
@@ -7344,33 +7341,33 @@
         <v>56</v>
       </c>
       <c r="AG292" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AH292">
         <v>56</v>
       </c>
       <c r="AI292">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AJ292" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="293" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF293">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG293" t="s">
         <v>288</v>
       </c>
       <c r="AH293">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AI293">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AJ293" t="s">
-        <v>70</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="32:36" x14ac:dyDescent="0.2">
@@ -7378,33 +7375,33 @@
         <v>57</v>
       </c>
       <c r="AG294" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AH294">
         <v>57</v>
       </c>
       <c r="AI294">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AJ294" t="s">
-        <v>1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="295" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF295">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG295" t="s">
         <v>289</v>
       </c>
       <c r="AH295">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI295">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AJ295" t="s">
-        <v>71</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="32:36" x14ac:dyDescent="0.2">
@@ -7412,33 +7409,33 @@
         <v>58</v>
       </c>
       <c r="AG296" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AH296">
         <v>58</v>
       </c>
       <c r="AI296">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AJ296" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
     </row>
     <row r="297" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF297">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG297" t="s">
         <v>290</v>
       </c>
       <c r="AH297">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI297">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ297" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
     </row>
     <row r="298" spans="32:36" x14ac:dyDescent="0.2">
@@ -7446,33 +7443,33 @@
         <v>59</v>
       </c>
       <c r="AG298" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AH298">
         <v>59</v>
       </c>
       <c r="AI298">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ298" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
     </row>
     <row r="299" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF299">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AG299" t="s">
         <v>291</v>
       </c>
       <c r="AH299">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AI299">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ299" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
     </row>
     <row r="300" spans="32:36" x14ac:dyDescent="0.2">
@@ -7480,33 +7477,33 @@
         <v>60</v>
       </c>
       <c r="AG300" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AH300">
         <v>60</v>
       </c>
       <c r="AI300">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ300" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
     </row>
     <row r="301" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF301">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG301" t="s">
         <v>292</v>
       </c>
       <c r="AH301">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AI301">
         <v>1</v>
       </c>
       <c r="AJ301" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="302" spans="32:36" x14ac:dyDescent="0.2">
@@ -7514,30 +7511,30 @@
         <v>61</v>
       </c>
       <c r="AG302" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AH302">
         <v>61</v>
       </c>
       <c r="AI302">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ302" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
     </row>
     <row r="303" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF303">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG303" t="s">
         <v>293</v>
       </c>
       <c r="AH303">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI303">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ303" t="s">
         <v>24</v>
@@ -7548,33 +7545,33 @@
         <v>62</v>
       </c>
       <c r="AG304" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AH304">
         <v>62</v>
       </c>
       <c r="AI304">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AJ304" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
     </row>
     <row r="305" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF305">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AG305" t="s">
         <v>294</v>
       </c>
       <c r="AH305">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AI305">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AJ305" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
     </row>
     <row r="306" spans="32:36" x14ac:dyDescent="0.2">
@@ -7582,33 +7579,33 @@
         <v>63</v>
       </c>
       <c r="AG306" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AH306">
         <v>63</v>
       </c>
       <c r="AI306">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AJ306" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
     </row>
     <row r="307" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF307">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AG307" t="s">
         <v>295</v>
       </c>
       <c r="AH307">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AI307">
         <v>1</v>
       </c>
       <c r="AJ307" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="308" spans="32:36" x14ac:dyDescent="0.2">
@@ -7616,33 +7613,33 @@
         <v>64</v>
       </c>
       <c r="AG308" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AH308">
         <v>64</v>
       </c>
       <c r="AI308">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AJ308" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
     </row>
     <row r="309" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF309">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AG309" t="s">
         <v>296</v>
       </c>
       <c r="AH309">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AI309">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AJ309" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
     </row>
     <row r="310" spans="32:36" x14ac:dyDescent="0.2">
@@ -7650,7 +7647,7 @@
         <v>65</v>
       </c>
       <c r="AG310" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AH310">
         <v>65</v>
@@ -7659,24 +7656,24 @@
         <v>2</v>
       </c>
       <c r="AJ310" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
     </row>
     <row r="311" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF311">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG311" t="s">
         <v>297</v>
       </c>
       <c r="AH311">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AI311">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ311" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
     </row>
     <row r="312" spans="32:36" x14ac:dyDescent="0.2">
@@ -7684,33 +7681,33 @@
         <v>66</v>
       </c>
       <c r="AG312" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AH312">
         <v>66</v>
       </c>
       <c r="AI312">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ312" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
     </row>
     <row r="313" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF313">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AG313" t="s">
         <v>298</v>
       </c>
       <c r="AH313">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AI313">
         <v>2</v>
       </c>
       <c r="AJ313" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
     </row>
     <row r="314" spans="32:36" x14ac:dyDescent="0.2">
@@ -7718,30 +7715,30 @@
         <v>67</v>
       </c>
       <c r="AG314" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AH314">
         <v>67</v>
       </c>
       <c r="AI314">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ314" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="315" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF315">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG315" t="s">
         <v>299</v>
       </c>
       <c r="AH315">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AI315">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ315" t="s">
         <v>82</v>
@@ -7749,16 +7746,16 @@
     </row>
     <row r="316" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF316">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG316" t="s">
         <v>300</v>
       </c>
       <c r="AH316">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AI316">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ316" t="s">
         <v>82</v>
@@ -7769,47 +7766,47 @@
         <v>69</v>
       </c>
       <c r="AG317" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AH317">
         <v>69</v>
       </c>
       <c r="AI317">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ317" t="s">
-        <v>82</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF318">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AG318" t="s">
         <v>301</v>
       </c>
       <c r="AH318">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI318">
         <v>4</v>
       </c>
       <c r="AJ318" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
     </row>
     <row r="319" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF319">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AG319" t="s">
         <v>302</v>
       </c>
       <c r="AH319">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI319">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AJ319" t="s">
         <v>82</v>
@@ -7817,16 +7814,16 @@
     </row>
     <row r="320" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF320">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG320" t="s">
         <v>303</v>
       </c>
       <c r="AH320">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI320">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ320" t="s">
         <v>82</v>
@@ -7837,47 +7834,47 @@
         <v>72</v>
       </c>
       <c r="AG321" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AH321">
         <v>72</v>
       </c>
       <c r="AI321">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AJ321" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
     </row>
     <row r="322" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF322">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG322" t="s">
         <v>304</v>
       </c>
       <c r="AH322">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI322">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AJ322" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
     </row>
     <row r="323" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF323">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG323" t="s">
         <v>305</v>
       </c>
       <c r="AH323">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI323">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ323" t="s">
         <v>82</v>
@@ -7885,19 +7882,19 @@
     </row>
     <row r="324" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF324">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG324" t="s">
         <v>306</v>
       </c>
       <c r="AH324">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI324">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AJ324" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
     </row>
     <row r="325" spans="32:36" x14ac:dyDescent="0.2">
@@ -7905,30 +7902,30 @@
         <v>75</v>
       </c>
       <c r="AG325" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AH325">
         <v>75</v>
       </c>
       <c r="AI325">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AJ325" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
     </row>
     <row r="326" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF326">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG326" t="s">
         <v>307</v>
       </c>
       <c r="AH326">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI326">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ326" t="s">
         <v>82</v>
@@ -7936,16 +7933,16 @@
     </row>
     <row r="327" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF327">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG327" t="s">
         <v>308</v>
       </c>
       <c r="AH327">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI327">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ327" t="s">
         <v>82</v>
@@ -7953,16 +7950,16 @@
     </row>
     <row r="328" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF328">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG328" t="s">
         <v>309</v>
       </c>
       <c r="AH328">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI328">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ328" t="s">
         <v>82</v>
@@ -7970,16 +7967,16 @@
     </row>
     <row r="329" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF329">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG329" t="s">
         <v>310</v>
       </c>
       <c r="AH329">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI329">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ329" t="s">
         <v>82</v>
@@ -7987,16 +7984,16 @@
     </row>
     <row r="330" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF330">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG330" t="s">
         <v>311</v>
       </c>
       <c r="AH330">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI330">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AJ330" t="s">
         <v>82</v>
@@ -8007,33 +8004,33 @@
         <v>80</v>
       </c>
       <c r="AG331" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AH331">
         <v>80</v>
       </c>
       <c r="AI331">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="AJ331" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
     </row>
     <row r="332" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF332">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG332" t="s">
         <v>312</v>
       </c>
       <c r="AH332">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI332">
         <v>2</v>
       </c>
       <c r="AJ332" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="333" spans="32:36" x14ac:dyDescent="0.2">
@@ -8041,33 +8038,33 @@
         <v>81</v>
       </c>
       <c r="AG333" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AH333">
         <v>81</v>
       </c>
       <c r="AI333">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ333" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="334" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF334">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AG334" t="s">
         <v>313</v>
       </c>
       <c r="AH334">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI334">
         <v>1</v>
       </c>
       <c r="AJ334" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="335" spans="32:36" x14ac:dyDescent="0.2">
@@ -8075,33 +8072,33 @@
         <v>82</v>
       </c>
       <c r="AG335" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AH335">
         <v>82</v>
       </c>
       <c r="AI335">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ335" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="336" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF336">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG336" t="s">
         <v>314</v>
       </c>
       <c r="AH336">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI336">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AJ336" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="337" spans="32:36" x14ac:dyDescent="0.2">
@@ -8109,7 +8106,7 @@
         <v>83</v>
       </c>
       <c r="AG337" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AH337">
         <v>83</v>
@@ -8118,24 +8115,24 @@
         <v>1</v>
       </c>
       <c r="AJ337" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="338" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF338">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AG338" t="s">
         <v>315</v>
       </c>
       <c r="AH338">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI338">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="AJ338" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="339" spans="32:36" x14ac:dyDescent="0.2">
@@ -8143,33 +8140,33 @@
         <v>84</v>
       </c>
       <c r="AG339" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AH339">
         <v>84</v>
       </c>
       <c r="AI339">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="AJ339" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="340" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF340">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG340" t="s">
         <v>316</v>
       </c>
       <c r="AH340">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI340">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ340" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="341" spans="32:36" x14ac:dyDescent="0.2">
@@ -8177,7 +8174,7 @@
         <v>85</v>
       </c>
       <c r="AG341" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AH341">
         <v>85</v>
@@ -8186,24 +8183,24 @@
         <v>1</v>
       </c>
       <c r="AJ341" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="342" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF342">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG342" t="s">
         <v>317</v>
       </c>
       <c r="AH342">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI342">
         <v>1</v>
       </c>
       <c r="AJ342" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="343" spans="32:36" x14ac:dyDescent="0.2">
@@ -8211,7 +8208,7 @@
         <v>86</v>
       </c>
       <c r="AG343" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AH343">
         <v>86</v>
@@ -8220,24 +8217,24 @@
         <v>1</v>
       </c>
       <c r="AJ343" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="344" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF344">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG344" t="s">
         <v>318</v>
       </c>
       <c r="AH344">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI344">
         <v>1</v>
       </c>
       <c r="AJ344" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="345" spans="32:36" x14ac:dyDescent="0.2">
@@ -8245,50 +8242,50 @@
         <v>87</v>
       </c>
       <c r="AG345" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AH345">
         <v>87</v>
       </c>
       <c r="AI345">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ345" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="346" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF346">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG346" t="s">
         <v>319</v>
       </c>
       <c r="AH346">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI346">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AJ346" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="347" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF347">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG347" t="s">
         <v>320</v>
       </c>
       <c r="AH347">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI347">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AJ347" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="348" spans="32:36" x14ac:dyDescent="0.2">
@@ -8296,13 +8293,13 @@
         <v>89</v>
       </c>
       <c r="AG348" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AH348">
         <v>89</v>
       </c>
       <c r="AI348">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ348" t="s">
         <v>99</v>
@@ -8313,13 +8310,13 @@
         <v>89</v>
       </c>
       <c r="AG349" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AH349">
         <v>89</v>
       </c>
       <c r="AI349">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ349" t="s">
         <v>99</v>
@@ -8330,13 +8327,13 @@
         <v>89</v>
       </c>
       <c r="AG350" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AH350">
         <v>89</v>
       </c>
       <c r="AI350">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AJ350" t="s">
         <v>99</v>
@@ -8347,13 +8344,13 @@
         <v>89</v>
       </c>
       <c r="AG351" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AH351">
         <v>89</v>
       </c>
       <c r="AI351">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AJ351" t="s">
         <v>99</v>
@@ -8364,13 +8361,13 @@
         <v>89</v>
       </c>
       <c r="AG352" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AH352">
         <v>89</v>
       </c>
       <c r="AI352">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ352" t="s">
         <v>99</v>
@@ -8381,16 +8378,16 @@
         <v>89</v>
       </c>
       <c r="AG353" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AH353">
         <v>89</v>
       </c>
       <c r="AI353">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AJ353" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="354" spans="32:36" x14ac:dyDescent="0.2">
@@ -8398,13 +8395,13 @@
         <v>89</v>
       </c>
       <c r="AG354" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AH354">
         <v>89</v>
       </c>
       <c r="AI354">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AJ354" t="s">
         <v>100</v>
@@ -8415,13 +8412,13 @@
         <v>89</v>
       </c>
       <c r="AG355" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AH355">
         <v>89</v>
       </c>
       <c r="AI355">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AJ355" t="s">
         <v>100</v>
@@ -8432,13 +8429,13 @@
         <v>89</v>
       </c>
       <c r="AG356" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AH356">
         <v>89</v>
       </c>
       <c r="AI356">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AJ356" t="s">
         <v>100</v>
@@ -8449,13 +8446,13 @@
         <v>89</v>
       </c>
       <c r="AG357" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AH357">
         <v>89</v>
       </c>
       <c r="AI357">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AJ357" t="s">
         <v>100</v>
@@ -8466,13 +8463,13 @@
         <v>89</v>
       </c>
       <c r="AG358" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AH358">
         <v>89</v>
       </c>
       <c r="AI358">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AJ358" t="s">
         <v>100</v>
@@ -8480,33 +8477,33 @@
     </row>
     <row r="359" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF359">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG359" t="s">
         <v>321</v>
       </c>
       <c r="AH359">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI359">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AJ359" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="360" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF360">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG360" t="s">
         <v>322</v>
       </c>
       <c r="AH360">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI360">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ360" t="s">
         <v>101</v>
@@ -8517,16 +8514,16 @@
         <v>91</v>
       </c>
       <c r="AG361" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AH361">
         <v>91</v>
       </c>
       <c r="AI361">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ361" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="362" spans="32:36" x14ac:dyDescent="0.2">
@@ -8534,7 +8531,7 @@
         <v>91</v>
       </c>
       <c r="AG362" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AH362">
         <v>91</v>
@@ -8543,24 +8540,24 @@
         <v>1</v>
       </c>
       <c r="AJ362" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="363" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF363">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG363" t="s">
         <v>323</v>
       </c>
       <c r="AH363">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI363">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ363" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="364" spans="32:36" x14ac:dyDescent="0.2">
@@ -8568,16 +8565,16 @@
         <v>92</v>
       </c>
       <c r="AG364" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AH364">
         <v>92</v>
       </c>
       <c r="AI364">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ364" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="365" spans="32:36" x14ac:dyDescent="0.2">
@@ -8585,50 +8582,50 @@
         <v>92</v>
       </c>
       <c r="AG365" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AH365">
         <v>92</v>
       </c>
       <c r="AI365">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ365" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="366" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF366">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG366" t="s">
         <v>324</v>
       </c>
       <c r="AH366">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI366">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ366" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="367" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF367">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG367" t="s">
         <v>325</v>
       </c>
       <c r="AH367">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI367">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ367" t="s">
-        <v>101</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="32:36" x14ac:dyDescent="0.2">
@@ -8636,16 +8633,16 @@
         <v>94</v>
       </c>
       <c r="AG368" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AH368">
         <v>94</v>
       </c>
       <c r="AI368">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ368" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="369" spans="32:36" x14ac:dyDescent="0.2">
@@ -8653,47 +8650,47 @@
         <v>94</v>
       </c>
       <c r="AG369" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AH369">
         <v>94</v>
       </c>
       <c r="AI369">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AJ369" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="370" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF370">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG370" t="s">
         <v>326</v>
       </c>
       <c r="AH370">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AI370">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ370" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="371" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF371">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG371" t="s">
         <v>327</v>
       </c>
       <c r="AH371">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AI371">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ371" t="s">
         <v>114</v>
@@ -8701,16 +8698,16 @@
     </row>
     <row r="372" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF372">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG372" t="s">
         <v>328</v>
       </c>
       <c r="AH372">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AI372">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ372" t="s">
         <v>114</v>
@@ -8721,33 +8718,33 @@
         <v>97</v>
       </c>
       <c r="AG373" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AH373">
         <v>97</v>
       </c>
       <c r="AI373">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ373" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="374" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF374">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG374" t="s">
         <v>329</v>
       </c>
       <c r="AH374">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AI374">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ374" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="375" spans="32:36" x14ac:dyDescent="0.2">
@@ -8755,64 +8752,64 @@
         <v>98</v>
       </c>
       <c r="AG375" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AH375">
         <v>98</v>
       </c>
       <c r="AI375">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AJ375" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="376" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF376">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG376" t="s">
         <v>330</v>
       </c>
       <c r="AH376">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AI376">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AJ376" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
     </row>
     <row r="377" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF377">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG377" t="s">
         <v>331</v>
       </c>
       <c r="AH377">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AI377">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ377" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="378" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF378">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG378" t="s">
         <v>332</v>
       </c>
       <c r="AH378">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AI378">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ378" t="s">
         <v>117</v>
@@ -8823,16 +8820,16 @@
         <v>101</v>
       </c>
       <c r="AG379" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AH379">
         <v>101</v>
       </c>
       <c r="AI379">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ379" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="380" spans="32:36" x14ac:dyDescent="0.2">
@@ -8840,7 +8837,7 @@
         <v>101</v>
       </c>
       <c r="AG380" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AH380">
         <v>101</v>
@@ -8849,24 +8846,24 @@
         <v>1</v>
       </c>
       <c r="AJ380" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="381" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF381">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG381" t="s">
         <v>333</v>
       </c>
       <c r="AH381">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI381">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ381" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="382" spans="32:36" x14ac:dyDescent="0.2">
@@ -8874,16 +8871,16 @@
         <v>102</v>
       </c>
       <c r="AG382" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AH382">
         <v>102</v>
       </c>
       <c r="AI382">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ382" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="383" spans="32:36" x14ac:dyDescent="0.2">
@@ -8891,47 +8888,47 @@
         <v>102</v>
       </c>
       <c r="AG383" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AH383">
         <v>102</v>
       </c>
       <c r="AI383">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ383" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="384" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF384">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG384" t="s">
         <v>334</v>
       </c>
       <c r="AH384">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AI384">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ384" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="385" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF385">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG385" t="s">
         <v>335</v>
       </c>
       <c r="AH385">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AI385">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ385" t="s">
         <v>117</v>
@@ -8942,16 +8939,16 @@
         <v>104</v>
       </c>
       <c r="AG386" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AH386">
         <v>104</v>
       </c>
       <c r="AI386">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AJ386" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="387" spans="32:36" x14ac:dyDescent="0.2">
@@ -8959,47 +8956,47 @@
         <v>104</v>
       </c>
       <c r="AG387" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AH387">
         <v>104</v>
       </c>
       <c r="AI387">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ387" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
     </row>
     <row r="388" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF388">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG388" t="s">
         <v>336</v>
       </c>
       <c r="AH388">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AI388">
         <v>1</v>
       </c>
       <c r="AJ388" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
     </row>
     <row r="389" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF389">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG389" t="s">
         <v>337</v>
       </c>
       <c r="AH389">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AI389">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ389" t="s">
         <v>122</v>
@@ -9007,16 +9004,16 @@
     </row>
     <row r="390" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF390">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG390" t="s">
         <v>338</v>
       </c>
       <c r="AH390">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AI390">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ390" t="s">
         <v>122</v>
@@ -9027,33 +9024,33 @@
         <v>107</v>
       </c>
       <c r="AG391" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AH391">
         <v>107</v>
       </c>
       <c r="AI391">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ391" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="392" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF392">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG392" t="s">
         <v>339</v>
       </c>
       <c r="AH392">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AI392">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ392" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="393" spans="32:36" x14ac:dyDescent="0.2">
@@ -9061,33 +9058,33 @@
         <v>108</v>
       </c>
       <c r="AG393" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AH393">
         <v>108</v>
       </c>
       <c r="AI393">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AJ393" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="394" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF394">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG394" t="s">
         <v>340</v>
       </c>
       <c r="AH394">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AI394">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ394" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row r="395" spans="32:36" x14ac:dyDescent="0.2">
@@ -9095,7 +9092,7 @@
         <v>109</v>
       </c>
       <c r="AG395" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AH395">
         <v>109</v>
@@ -9104,24 +9101,24 @@
         <v>2</v>
       </c>
       <c r="AJ395" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
     </row>
     <row r="396" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF396">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG396" t="s">
         <v>341</v>
       </c>
       <c r="AH396">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AI396">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ396" t="s">
-        <v>44</v>
+        <v>131</v>
       </c>
     </row>
     <row r="397" spans="32:36" x14ac:dyDescent="0.2">
@@ -9129,33 +9126,33 @@
         <v>110</v>
       </c>
       <c r="AG397" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AH397">
         <v>110</v>
       </c>
       <c r="AI397">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ397" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
     </row>
     <row r="398" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF398">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG398" t="s">
         <v>342</v>
       </c>
       <c r="AH398">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AI398">
         <v>2</v>
       </c>
       <c r="AJ398" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
     </row>
     <row r="399" spans="32:36" x14ac:dyDescent="0.2">
@@ -9163,7 +9160,7 @@
         <v>111</v>
       </c>
       <c r="AG399" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AH399">
         <v>111</v>
@@ -9172,24 +9169,24 @@
         <v>2</v>
       </c>
       <c r="AJ399" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
     </row>
     <row r="400" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF400">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG400" t="s">
         <v>343</v>
       </c>
       <c r="AH400">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AI400">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ400" t="s">
-        <v>45</v>
+        <v>132</v>
       </c>
     </row>
     <row r="401" spans="32:36" x14ac:dyDescent="0.2">
@@ -9197,33 +9194,33 @@
         <v>112</v>
       </c>
       <c r="AG401" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AH401">
         <v>112</v>
       </c>
       <c r="AI401">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ401" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
     </row>
     <row r="402" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF402">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG402" t="s">
         <v>344</v>
       </c>
       <c r="AH402">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AI402">
         <v>2</v>
       </c>
       <c r="AJ402" t="s">
-        <v>71</v>
+        <v>133</v>
       </c>
     </row>
     <row r="403" spans="32:36" x14ac:dyDescent="0.2">
@@ -9231,7 +9228,7 @@
         <v>113</v>
       </c>
       <c r="AG403" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AH403">
         <v>113</v>
@@ -9240,24 +9237,24 @@
         <v>2</v>
       </c>
       <c r="AJ403" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="404" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF404">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AG404" t="s">
         <v>345</v>
       </c>
       <c r="AH404">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AI404">
         <v>2</v>
       </c>
       <c r="AJ404" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
     </row>
     <row r="405" spans="32:36" x14ac:dyDescent="0.2">
@@ -9265,33 +9262,33 @@
         <v>114</v>
       </c>
       <c r="AG405" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AH405">
         <v>114</v>
       </c>
       <c r="AI405">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ405" t="s">
-        <v>72</v>
+        <v>133</v>
       </c>
     </row>
     <row r="406" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF406">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG406" t="s">
         <v>346</v>
       </c>
       <c r="AH406">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AI406">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ406" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="407" spans="32:36" x14ac:dyDescent="0.2">
@@ -9299,7 +9296,7 @@
         <v>115</v>
       </c>
       <c r="AG407" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AH407">
         <v>115</v>
@@ -9308,21 +9305,21 @@
         <v>2</v>
       </c>
       <c r="AJ407" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="408" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF408">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG408" t="s">
         <v>347</v>
       </c>
       <c r="AH408">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AI408">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ408" t="s">
         <v>134</v>
@@ -9333,33 +9330,33 @@
         <v>116</v>
       </c>
       <c r="AG409" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AH409">
         <v>116</v>
       </c>
       <c r="AI409">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ409" t="s">
-        <v>134</v>
+        <v>73</v>
       </c>
     </row>
     <row r="410" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF410">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG410" t="s">
         <v>348</v>
       </c>
       <c r="AH410">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AI410">
         <v>2</v>
       </c>
       <c r="AJ410" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
     </row>
     <row r="411" spans="32:36" x14ac:dyDescent="0.2">
@@ -9367,7 +9364,7 @@
         <v>117</v>
       </c>
       <c r="AG411" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AH411">
         <v>117</v>
@@ -9376,24 +9373,24 @@
         <v>2</v>
       </c>
       <c r="AJ411" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="412" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF412">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG412" t="s">
         <v>349</v>
       </c>
       <c r="AH412">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AI412">
         <v>2</v>
       </c>
       <c r="AJ412" t="s">
-        <v>135</v>
+        <v>74</v>
       </c>
     </row>
     <row r="413" spans="32:36" x14ac:dyDescent="0.2">
@@ -9401,33 +9398,33 @@
         <v>118</v>
       </c>
       <c r="AG413" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AH413">
         <v>118</v>
       </c>
       <c r="AI413">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ413" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
     </row>
     <row r="414" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF414">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG414" t="s">
         <v>350</v>
       </c>
       <c r="AH414">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AI414">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ414" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="415" spans="32:36" x14ac:dyDescent="0.2">
@@ -9435,7 +9432,7 @@
         <v>119</v>
       </c>
       <c r="AG415" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AH415">
         <v>119</v>
@@ -9444,24 +9441,24 @@
         <v>2</v>
       </c>
       <c r="AJ415" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="416" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF416">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG416" t="s">
         <v>351</v>
       </c>
       <c r="AH416">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AI416">
         <v>2</v>
       </c>
       <c r="AJ416" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="417" spans="32:36" x14ac:dyDescent="0.2">
@@ -9469,33 +9466,33 @@
         <v>120</v>
       </c>
       <c r="AG417" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AH417">
         <v>120</v>
       </c>
       <c r="AI417">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ417" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
     </row>
     <row r="418" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF418">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG418" t="s">
         <v>352</v>
       </c>
       <c r="AH418">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AI418">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ418" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="419" spans="32:36" x14ac:dyDescent="0.2">
@@ -9503,7 +9500,7 @@
         <v>121</v>
       </c>
       <c r="AG419" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AH419">
         <v>121</v>
@@ -9512,24 +9509,24 @@
         <v>2</v>
       </c>
       <c r="AJ419" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="420" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF420">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG420" t="s">
         <v>353</v>
       </c>
       <c r="AH420">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AI420">
         <v>2</v>
       </c>
       <c r="AJ420" t="s">
-        <v>137</v>
+        <v>76</v>
       </c>
     </row>
     <row r="421" spans="32:36" x14ac:dyDescent="0.2">
@@ -9537,33 +9534,33 @@
         <v>122</v>
       </c>
       <c r="AG421" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AH421">
         <v>122</v>
       </c>
       <c r="AI421">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ421" t="s">
-        <v>76</v>
+        <v>137</v>
       </c>
     </row>
     <row r="422" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF422">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG422" t="s">
         <v>354</v>
       </c>
       <c r="AH422">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AI422">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ422" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="423" spans="32:36" x14ac:dyDescent="0.2">
@@ -9571,7 +9568,7 @@
         <v>123</v>
       </c>
       <c r="AG423" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AH423">
         <v>123</v>
@@ -9580,24 +9577,24 @@
         <v>2</v>
       </c>
       <c r="AJ423" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="424" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF424">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG424" t="s">
         <v>355</v>
       </c>
       <c r="AH424">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AI424">
         <v>2</v>
       </c>
       <c r="AJ424" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
     </row>
     <row r="425" spans="32:36" x14ac:dyDescent="0.2">
@@ -9605,33 +9602,33 @@
         <v>124</v>
       </c>
       <c r="AG425" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AH425">
         <v>124</v>
       </c>
       <c r="AI425">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ425" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
     </row>
     <row r="426" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF426">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG426" t="s">
         <v>356</v>
       </c>
       <c r="AH426">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AI426">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ426" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="427" spans="32:36" x14ac:dyDescent="0.2">
@@ -9639,7 +9636,7 @@
         <v>125</v>
       </c>
       <c r="AG427" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AH427">
         <v>125</v>
@@ -9648,24 +9645,24 @@
         <v>2</v>
       </c>
       <c r="AJ427" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="428" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF428">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG428" t="s">
         <v>357</v>
       </c>
       <c r="AH428">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AI428">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ428" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="429" spans="32:36" x14ac:dyDescent="0.2">
@@ -9673,33 +9670,33 @@
         <v>126</v>
       </c>
       <c r="AG429" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AH429">
         <v>126</v>
       </c>
       <c r="AI429">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ429" t="s">
-        <v>139</v>
+        <v>78</v>
       </c>
     </row>
     <row r="430" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF430">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG430" t="s">
         <v>358</v>
       </c>
       <c r="AH430">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AI430">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ430" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
     </row>
     <row r="431" spans="32:36" x14ac:dyDescent="0.2">
@@ -9707,33 +9704,33 @@
         <v>127</v>
       </c>
       <c r="AG431" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AH431">
         <v>127</v>
       </c>
       <c r="AI431">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ431" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
     </row>
     <row r="432" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF432">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG432" t="s">
         <v>359</v>
       </c>
       <c r="AH432">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AI432">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AJ432" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
     </row>
     <row r="433" spans="32:36" x14ac:dyDescent="0.2">
@@ -9741,33 +9738,33 @@
         <v>128</v>
       </c>
       <c r="AG433" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AH433">
         <v>128</v>
       </c>
       <c r="AI433">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ433" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
     </row>
     <row r="434" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF434">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG434" t="s">
         <v>360</v>
       </c>
       <c r="AH434">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AI434">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AJ434" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
     </row>
     <row r="435" spans="32:36" x14ac:dyDescent="0.2">
@@ -9775,30 +9772,30 @@
         <v>129</v>
       </c>
       <c r="AG435" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AH435">
         <v>129</v>
       </c>
       <c r="AI435">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AJ435" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
     </row>
     <row r="436" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF436">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG436" t="s">
         <v>361</v>
       </c>
       <c r="AH436">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AI436">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AJ436" t="s">
         <v>99</v>
@@ -9809,33 +9806,33 @@
         <v>130</v>
       </c>
       <c r="AG437" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AH437">
         <v>130</v>
       </c>
       <c r="AI437">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AJ437" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
     </row>
     <row r="438" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF438">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG438" t="s">
         <v>362</v>
       </c>
       <c r="AH438">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AI438">
         <v>1</v>
       </c>
       <c r="AJ438" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="439" spans="32:36" x14ac:dyDescent="0.2">
@@ -9843,33 +9840,33 @@
         <v>131</v>
       </c>
       <c r="AG439" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AH439">
         <v>131</v>
       </c>
       <c r="AI439">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ439" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
     </row>
     <row r="440" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF440">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG440" t="s">
         <v>363</v>
       </c>
       <c r="AH440">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI440">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ440" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
     </row>
     <row r="441" spans="32:36" x14ac:dyDescent="0.2">
@@ -9877,33 +9874,33 @@
         <v>132</v>
       </c>
       <c r="AG441" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AH441">
         <v>132</v>
       </c>
       <c r="AI441">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ441" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
     </row>
     <row r="442" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF442">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG442" t="s">
         <v>364</v>
       </c>
       <c r="AH442">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AI442">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ442" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
     </row>
     <row r="443" spans="32:36" x14ac:dyDescent="0.2">
@@ -9911,33 +9908,33 @@
         <v>133</v>
       </c>
       <c r="AG443" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AH443">
         <v>133</v>
       </c>
       <c r="AI443">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ443" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
     </row>
     <row r="444" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF444">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG444" t="s">
         <v>365</v>
       </c>
       <c r="AH444">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AI444">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AJ444" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
     </row>
     <row r="445" spans="32:36" x14ac:dyDescent="0.2">
@@ -9945,30 +9942,30 @@
         <v>134</v>
       </c>
       <c r="AG445" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AH445">
         <v>134</v>
       </c>
       <c r="AI445">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ445" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
     </row>
     <row r="446" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF446">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG446" t="s">
         <v>366</v>
       </c>
       <c r="AH446">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AI446">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AJ446" t="s">
         <v>100</v>
@@ -9979,33 +9976,33 @@
         <v>135</v>
       </c>
       <c r="AG447" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AH447">
         <v>135</v>
       </c>
       <c r="AI447">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AJ447" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
     </row>
     <row r="448" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF448">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG448" t="s">
         <v>367</v>
       </c>
       <c r="AH448">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AI448">
         <v>1</v>
       </c>
       <c r="AJ448" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="449" spans="32:36" x14ac:dyDescent="0.2">
@@ -10013,7 +10010,7 @@
         <v>136</v>
       </c>
       <c r="AG449" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AH449">
         <v>136</v>
@@ -10022,7 +10019,7 @@
         <v>1</v>
       </c>
       <c r="AJ449" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="450" spans="32:36" x14ac:dyDescent="0.2">
@@ -10030,16 +10027,16 @@
         <v>136</v>
       </c>
       <c r="AG450" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AH450">
         <v>136</v>
       </c>
       <c r="AI450">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ450" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="451" spans="32:36" x14ac:dyDescent="0.2">
@@ -10047,33 +10044,33 @@
         <v>136</v>
       </c>
       <c r="AG451" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AH451">
         <v>136</v>
       </c>
       <c r="AI451">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ451" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="452" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF452">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG452" t="s">
         <v>368</v>
       </c>
       <c r="AH452">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AI452">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ452" t="s">
-        <v>152</v>
+        <v>24</v>
       </c>
     </row>
     <row r="453" spans="32:36" x14ac:dyDescent="0.2">
@@ -10081,16 +10078,16 @@
         <v>137</v>
       </c>
       <c r="AG453" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AH453">
         <v>137</v>
       </c>
       <c r="AI453">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ453" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="454" spans="32:36" x14ac:dyDescent="0.2">
@@ -10098,7 +10095,7 @@
         <v>137</v>
       </c>
       <c r="AG454" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AH454">
         <v>137</v>
@@ -10107,7 +10104,7 @@
         <v>1</v>
       </c>
       <c r="AJ454" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="455" spans="32:36" x14ac:dyDescent="0.2">
@@ -10115,7 +10112,7 @@
         <v>137</v>
       </c>
       <c r="AG455" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AH455">
         <v>137</v>
@@ -10124,7 +10121,7 @@
         <v>1</v>
       </c>
       <c r="AJ455" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="456" spans="32:36" x14ac:dyDescent="0.2">
@@ -10132,16 +10129,16 @@
         <v>137</v>
       </c>
       <c r="AG456" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AH456">
         <v>137</v>
       </c>
       <c r="AI456">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ456" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="457" spans="32:36" x14ac:dyDescent="0.2">
@@ -10149,16 +10146,16 @@
         <v>137</v>
       </c>
       <c r="AG457" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AH457">
         <v>137</v>
       </c>
       <c r="AI457">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ457" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
     </row>
     <row r="458" spans="32:36" x14ac:dyDescent="0.2">
@@ -10166,16 +10163,16 @@
         <v>137</v>
       </c>
       <c r="AG458" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AH458">
         <v>137</v>
       </c>
       <c r="AI458">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ458" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
     </row>
     <row r="459" spans="32:36" x14ac:dyDescent="0.2">
@@ -10183,16 +10180,16 @@
         <v>137</v>
       </c>
       <c r="AG459" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AH459">
         <v>137</v>
       </c>
       <c r="AI459">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ459" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
     </row>
     <row r="460" spans="32:36" x14ac:dyDescent="0.2">
@@ -10200,7 +10197,7 @@
         <v>137</v>
       </c>
       <c r="AG460" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AH460">
         <v>137</v>
@@ -10209,7 +10206,7 @@
         <v>1</v>
       </c>
       <c r="AJ460" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
     </row>
     <row r="461" spans="32:36" x14ac:dyDescent="0.2">
@@ -10217,7 +10214,7 @@
         <v>137</v>
       </c>
       <c r="AG461" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AH461">
         <v>137</v>
@@ -10226,7 +10223,7 @@
         <v>1</v>
       </c>
       <c r="AJ461" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="462" spans="32:36" x14ac:dyDescent="0.2">
@@ -10234,16 +10231,16 @@
         <v>137</v>
       </c>
       <c r="AG462" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AH462">
         <v>137</v>
       </c>
       <c r="AI462">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ462" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="463" spans="32:36" x14ac:dyDescent="0.2">
@@ -10251,16 +10248,16 @@
         <v>137</v>
       </c>
       <c r="AG463" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AH463">
         <v>137</v>
       </c>
       <c r="AI463">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AJ463" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
     </row>
     <row r="464" spans="32:36" x14ac:dyDescent="0.2">
@@ -10268,16 +10265,16 @@
         <v>137</v>
       </c>
       <c r="AG464" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AH464">
         <v>137</v>
       </c>
       <c r="AI464">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ464" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
     </row>
     <row r="465" spans="32:36" x14ac:dyDescent="0.2">
@@ -10285,7 +10282,7 @@
         <v>137</v>
       </c>
       <c r="AG465" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AH465">
         <v>137</v>
@@ -10294,7 +10291,7 @@
         <v>1</v>
       </c>
       <c r="AJ465" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="466" spans="32:36" x14ac:dyDescent="0.2">
@@ -10302,16 +10299,16 @@
         <v>137</v>
       </c>
       <c r="AG466" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AH466">
         <v>137</v>
       </c>
       <c r="AI466">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ466" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="467" spans="32:36" x14ac:dyDescent="0.2">
@@ -10319,16 +10316,16 @@
         <v>137</v>
       </c>
       <c r="AG467" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AH467">
         <v>137</v>
       </c>
       <c r="AI467">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AJ467" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="468" spans="32:36" x14ac:dyDescent="0.2">
@@ -10336,7 +10333,7 @@
         <v>137</v>
       </c>
       <c r="AG468" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AH468">
         <v>137</v>
@@ -10345,7 +10342,7 @@
         <v>2</v>
       </c>
       <c r="AJ468" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="469" spans="32:36" x14ac:dyDescent="0.2">
@@ -10353,16 +10350,16 @@
         <v>137</v>
       </c>
       <c r="AG469" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AH469">
         <v>137</v>
       </c>
       <c r="AI469">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AJ469" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="470" spans="32:36" x14ac:dyDescent="0.2">
@@ -10370,16 +10367,16 @@
         <v>137</v>
       </c>
       <c r="AG470" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AH470">
         <v>137</v>
       </c>
       <c r="AI470">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ470" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
     </row>
     <row r="471" spans="32:36" x14ac:dyDescent="0.2">
@@ -10387,7 +10384,7 @@
         <v>137</v>
       </c>
       <c r="AG471" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AH471">
         <v>137</v>
@@ -10396,7 +10393,7 @@
         <v>1</v>
       </c>
       <c r="AJ471" t="s">
-        <v>140</v>
+        <v>34</v>
       </c>
     </row>
     <row r="472" spans="32:36" x14ac:dyDescent="0.2">
@@ -10404,7 +10401,7 @@
         <v>137</v>
       </c>
       <c r="AG472" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AH472">
         <v>137</v>
@@ -10413,7 +10410,7 @@
         <v>1</v>
       </c>
       <c r="AJ472" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="473" spans="32:36" x14ac:dyDescent="0.2">
@@ -10421,16 +10418,16 @@
         <v>137</v>
       </c>
       <c r="AG473" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AH473">
         <v>137</v>
       </c>
       <c r="AI473">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ473" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
     </row>
     <row r="474" spans="32:36" x14ac:dyDescent="0.2">
@@ -10438,16 +10435,16 @@
         <v>137</v>
       </c>
       <c r="AG474" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AH474">
         <v>137</v>
       </c>
       <c r="AI474">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ474" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
     </row>
     <row r="475" spans="32:36" x14ac:dyDescent="0.2">
@@ -10455,7 +10452,7 @@
         <v>137</v>
       </c>
       <c r="AG475" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AH475">
         <v>137</v>
@@ -10464,7 +10461,7 @@
         <v>1</v>
       </c>
       <c r="AJ475" t="s">
-        <v>141</v>
+        <v>31</v>
       </c>
     </row>
     <row r="476" spans="32:36" x14ac:dyDescent="0.2">
@@ -10472,7 +10469,7 @@
         <v>137</v>
       </c>
       <c r="AG476" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AH476">
         <v>137</v>
@@ -10481,7 +10478,7 @@
         <v>1</v>
       </c>
       <c r="AJ476" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="477" spans="32:36" x14ac:dyDescent="0.2">
@@ -10489,7 +10486,7 @@
         <v>137</v>
       </c>
       <c r="AG477" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AH477">
         <v>137</v>
@@ -10498,7 +10495,7 @@
         <v>1</v>
       </c>
       <c r="AJ477" t="s">
-        <v>30</v>
+        <v>142</v>
       </c>
     </row>
     <row r="478" spans="32:36" x14ac:dyDescent="0.2">
@@ -10506,7 +10503,7 @@
         <v>137</v>
       </c>
       <c r="AG478" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AH478">
         <v>137</v>
@@ -10515,7 +10512,7 @@
         <v>1</v>
       </c>
       <c r="AJ478" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
     </row>
     <row r="479" spans="32:36" x14ac:dyDescent="0.2">
@@ -10523,7 +10520,7 @@
         <v>137</v>
       </c>
       <c r="AG479" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AH479">
         <v>137</v>
@@ -10532,7 +10529,7 @@
         <v>1</v>
       </c>
       <c r="AJ479" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="480" spans="32:36" x14ac:dyDescent="0.2">
@@ -10540,16 +10537,16 @@
         <v>137</v>
       </c>
       <c r="AG480" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AH480">
         <v>137</v>
       </c>
       <c r="AI480">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ480" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
     </row>
     <row r="481" spans="32:36" x14ac:dyDescent="0.2">
@@ -10557,16 +10554,16 @@
         <v>137</v>
       </c>
       <c r="AG481" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AH481">
         <v>137</v>
       </c>
       <c r="AI481">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ481" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
     </row>
     <row r="482" spans="32:36" x14ac:dyDescent="0.2">
@@ -10574,7 +10571,7 @@
         <v>137</v>
       </c>
       <c r="AG482" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AH482">
         <v>137</v>
@@ -10583,7 +10580,7 @@
         <v>1</v>
       </c>
       <c r="AJ482" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="483" spans="32:36" x14ac:dyDescent="0.2">
@@ -10591,7 +10588,7 @@
         <v>137</v>
       </c>
       <c r="AG483" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AH483">
         <v>137</v>
@@ -10600,7 +10597,7 @@
         <v>1</v>
       </c>
       <c r="AJ483" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="484" spans="32:36" x14ac:dyDescent="0.2">
@@ -10608,7 +10605,7 @@
         <v>137</v>
       </c>
       <c r="AG484" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AH484">
         <v>137</v>
@@ -10617,7 +10614,7 @@
         <v>1</v>
       </c>
       <c r="AJ484" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="485" spans="32:36" x14ac:dyDescent="0.2">
@@ -10625,16 +10622,16 @@
         <v>137</v>
       </c>
       <c r="AG485" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AH485">
         <v>137</v>
       </c>
       <c r="AI485">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ485" t="s">
-        <v>15</v>
+        <v>148</v>
       </c>
     </row>
     <row r="486" spans="32:36" x14ac:dyDescent="0.2">
@@ -10642,7 +10639,7 @@
         <v>137</v>
       </c>
       <c r="AG486" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AH486">
         <v>137</v>
@@ -10651,7 +10648,7 @@
         <v>2</v>
       </c>
       <c r="AJ486" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
     </row>
     <row r="487" spans="32:36" x14ac:dyDescent="0.2">
@@ -10659,33 +10656,33 @@
         <v>137</v>
       </c>
       <c r="AG487" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AH487">
         <v>137</v>
       </c>
       <c r="AI487">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AJ487" t="s">
-        <v>98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF488">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG488" t="s">
         <v>369</v>
       </c>
       <c r="AH488">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AI488">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="AJ488" t="s">
-        <v>1</v>
+        <v>151</v>
       </c>
     </row>
     <row r="489" spans="32:36" x14ac:dyDescent="0.2">
@@ -10693,38 +10690,21 @@
         <v>138</v>
       </c>
       <c r="AG489" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH489">
         <v>138</v>
       </c>
       <c r="AI489">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ489" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="490" spans="32:36" x14ac:dyDescent="0.2">
-      <c r="AF490">
-        <v>138</v>
-      </c>
-      <c r="AG490" t="s">
-        <v>370</v>
-      </c>
-      <c r="AH490">
-        <v>138</v>
-      </c>
-      <c r="AI490">
-        <v>1</v>
-      </c>
-      <c r="AJ490" t="s">
         <v>148</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:AT509">
-    <sortCondition ref="A1:A509"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:AT508">
+    <sortCondition ref="A1:A508"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/MidiThruWithMerge2in10out/midithruwithmerge2in10out_bom.xlsx
+++ b/MidiThruWithMerge2in10out/midithruwithmerge2in10out_bom.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aokudrya/Documents/GitHub/Midi-boards/MidiThruWithMerge2in10out/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644B22E5-0E6F-EF4F-94B2-67EA8D867AA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F601589C-3102-3A4B-938F-5BCDFFC37B2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16220" xr2:uid="{6A056D03-5A41-7E4C-9F1A-726EE5E8421D}"/>
   </bookViews>
   <sheets>
     <sheet name="midithruwithmerge2in10out" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">midithruwithmerge2in10out!$A$1:$E$15</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="392">
   <si>
     <t>D</t>
   </si>
@@ -1187,13 +1190,22 @@
   </si>
   <si>
     <t>104 50V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rev2019 board requires a mod for proper operation of U10. </t>
+  </si>
+  <si>
+    <t>Connect Pin14 to top layer with a short wire to the capacitor positive pin. Don't short to a bottom layer.</t>
+  </si>
+  <si>
+    <t>Connect Pin7 to the bottom layer GND, there is a pad next to it.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1203,6 +1215,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1228,8 +1248,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1245,6 +1266,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1193800</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1359D98-A5AA-0849-9920-0E2D82DDD989}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="4483100"/>
+          <a:ext cx="6400800" cy="4800600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1544,10 +1614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ489"/>
+  <dimension ref="A1:AJ488"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1787,16 +1857,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>151</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>154</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>155</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>157</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1804,16 +1874,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>155</v>
-      </c>
-      <c r="D14" t="s">
-        <v>157</v>
+        <v>376</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1821,36 +1888,48 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>377</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>376</v>
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>377</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="18:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="R17" t="s">
+        <v>4</v>
+      </c>
+      <c r="S17" t="s">
+        <v>162</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="V17" t="s">
+        <v>163</v>
+      </c>
+      <c r="W17" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB17">
+        <v>1</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="R18" t="s">
         <v>4</v>
       </c>
@@ -1870,13 +1949,16 @@
         <v>16</v>
       </c>
       <c r="AB18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC18" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="19" spans="18:29" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>389</v>
+      </c>
       <c r="R19" t="s">
         <v>4</v>
       </c>
@@ -1896,13 +1978,16 @@
         <v>16</v>
       </c>
       <c r="AB19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC19" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="20" spans="18:29" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>391</v>
+      </c>
       <c r="R20" t="s">
         <v>4</v>
       </c>
@@ -1922,13 +2007,16 @@
         <v>16</v>
       </c>
       <c r="AB20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC20" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21" spans="18:29" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>390</v>
+      </c>
       <c r="R21" t="s">
         <v>4</v>
       </c>
@@ -1948,13 +2036,13 @@
         <v>16</v>
       </c>
       <c r="AB21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC21" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="22" spans="18:29" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="R22" t="s">
         <v>4</v>
       </c>
@@ -1974,13 +2062,13 @@
         <v>16</v>
       </c>
       <c r="AB22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC22" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="23" spans="18:29" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="R23" t="s">
         <v>4</v>
       </c>
@@ -1997,16 +2085,16 @@
         <v>164</v>
       </c>
       <c r="AA23" t="s">
-        <v>16</v>
+        <v>170</v>
       </c>
       <c r="AB23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC23" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="24" spans="18:29" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="R24" t="s">
         <v>4</v>
       </c>
@@ -2023,16 +2111,16 @@
         <v>164</v>
       </c>
       <c r="AA24" t="s">
-        <v>170</v>
+        <v>16</v>
       </c>
       <c r="AB24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC24" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="25" spans="18:29" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="R25" t="s">
         <v>4</v>
       </c>
@@ -2052,13 +2140,13 @@
         <v>16</v>
       </c>
       <c r="AB25">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC25" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="26" spans="18:29" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="R26" t="s">
         <v>4</v>
       </c>
@@ -2078,13 +2166,13 @@
         <v>16</v>
       </c>
       <c r="AB26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC26" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="27" spans="18:29" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="R27" t="s">
         <v>4</v>
       </c>
@@ -2104,13 +2192,13 @@
         <v>16</v>
       </c>
       <c r="AB27">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC27" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="28" spans="18:29" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="R28" t="s">
         <v>4</v>
       </c>
@@ -2130,13 +2218,13 @@
         <v>16</v>
       </c>
       <c r="AB28">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC28" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="29" spans="18:29" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="R29" t="s">
         <v>4</v>
       </c>
@@ -2156,13 +2244,13 @@
         <v>16</v>
       </c>
       <c r="AB29">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC29" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="30" spans="18:29" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="R30" t="s">
         <v>4</v>
       </c>
@@ -2179,42 +2267,36 @@
         <v>164</v>
       </c>
       <c r="AA30" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB30">
+        <v>14</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="R31" t="s">
+        <v>10</v>
+      </c>
+      <c r="S31" t="s">
+        <v>147</v>
+      </c>
+      <c r="T31">
+        <v>2</v>
+      </c>
+      <c r="U31" t="s">
+        <v>173</v>
+      </c>
+      <c r="V31" t="s">
+        <v>146</v>
+      </c>
+      <c r="W31" t="s">
         <v>16</v>
       </c>
-      <c r="AB30">
-        <v>13</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="31" spans="18:29" x14ac:dyDescent="0.2">
-      <c r="R31" t="s">
-        <v>4</v>
-      </c>
-      <c r="S31" t="s">
-        <v>162</v>
-      </c>
-      <c r="T31">
-        <v>1</v>
-      </c>
-      <c r="V31" t="s">
-        <v>163</v>
-      </c>
-      <c r="W31" t="s">
-        <v>164</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB31">
-        <v>14</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="32" spans="18:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="R32" t="s">
         <v>10</v>
       </c>
@@ -2224,14 +2306,17 @@
       <c r="T32">
         <v>2</v>
       </c>
-      <c r="U32" t="s">
-        <v>173</v>
-      </c>
       <c r="V32" t="s">
         <v>146</v>
       </c>
       <c r="W32" t="s">
         <v>16</v>
+      </c>
+      <c r="X32" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="18:29" x14ac:dyDescent="0.2">
@@ -2251,10 +2336,10 @@
         <v>16</v>
       </c>
       <c r="X33" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Y33" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="18:29" x14ac:dyDescent="0.2">
@@ -2273,11 +2358,8 @@
       <c r="W34" t="s">
         <v>16</v>
       </c>
-      <c r="X34" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>147</v>
+      <c r="Z34" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="18:29" x14ac:dyDescent="0.2">
@@ -2296,8 +2378,14 @@
       <c r="W35" t="s">
         <v>16</v>
       </c>
-      <c r="Z35" t="s">
-        <v>175</v>
+      <c r="AA35" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB35">
+        <v>1</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="18:29" x14ac:dyDescent="0.2">
@@ -2320,7 +2408,7 @@
         <v>16</v>
       </c>
       <c r="AB36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC36" t="s">
         <v>176</v>
@@ -2331,25 +2419,22 @@
         <v>10</v>
       </c>
       <c r="S37" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="T37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V37" t="s">
-        <v>146</v>
+        <v>9</v>
       </c>
       <c r="W37" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB37">
-        <v>2</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>176</v>
+        <v>7</v>
+      </c>
+      <c r="X37" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="18:29" x14ac:dyDescent="0.2">
@@ -2369,10 +2454,10 @@
         <v>7</v>
       </c>
       <c r="X38" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Y38" t="s">
-        <v>174</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="18:29" x14ac:dyDescent="0.2">
@@ -2391,11 +2476,8 @@
       <c r="W39" t="s">
         <v>7</v>
       </c>
-      <c r="X39" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>11</v>
+      <c r="Z39" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="18:29" x14ac:dyDescent="0.2">
@@ -2414,8 +2496,14 @@
       <c r="W40" t="s">
         <v>7</v>
       </c>
-      <c r="Z40" t="s">
-        <v>177</v>
+      <c r="AA40" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB40">
+        <v>1</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="41" spans="18:29" x14ac:dyDescent="0.2">
@@ -2438,7 +2526,7 @@
         <v>16</v>
       </c>
       <c r="AB41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC41" t="s">
         <v>176</v>
@@ -2464,7 +2552,7 @@
         <v>16</v>
       </c>
       <c r="AB42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC42" t="s">
         <v>176</v>
@@ -2490,7 +2578,7 @@
         <v>16</v>
       </c>
       <c r="AB43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC43" t="s">
         <v>176</v>
@@ -2516,7 +2604,7 @@
         <v>16</v>
       </c>
       <c r="AB44">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC44" t="s">
         <v>176</v>
@@ -2524,28 +2612,25 @@
     </row>
     <row r="45" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R45" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="S45" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="T45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V45" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="W45" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA45" t="s">
         <v>16</v>
       </c>
-      <c r="AB45">
-        <v>5</v>
-      </c>
-      <c r="AC45" t="s">
-        <v>176</v>
+      <c r="X45" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="18:29" x14ac:dyDescent="0.2">
@@ -2565,7 +2650,7 @@
         <v>16</v>
       </c>
       <c r="X46" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Y46" t="s">
         <v>38</v>
@@ -2587,11 +2672,8 @@
       <c r="W47" t="s">
         <v>16</v>
       </c>
-      <c r="X47" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>38</v>
+      <c r="Z47" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="48" spans="18:29" x14ac:dyDescent="0.2">
@@ -2610,8 +2692,14 @@
       <c r="W48" t="s">
         <v>16</v>
       </c>
-      <c r="Z48" t="s">
-        <v>178</v>
+      <c r="AA48" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB48">
+        <v>1</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="18:29" x14ac:dyDescent="0.2">
@@ -2634,7 +2722,7 @@
         <v>16</v>
       </c>
       <c r="AB49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC49" t="s">
         <v>176</v>
@@ -2645,25 +2733,22 @@
         <v>19</v>
       </c>
       <c r="S50" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="T50">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V50" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="W50" t="s">
         <v>16</v>
       </c>
-      <c r="AA50" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB50">
-        <v>2</v>
-      </c>
-      <c r="AC50" t="s">
-        <v>176</v>
+      <c r="X50" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="18:29" x14ac:dyDescent="0.2">
@@ -2683,7 +2768,7 @@
         <v>16</v>
       </c>
       <c r="X51" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Y51" t="s">
         <v>0</v>
@@ -2705,11 +2790,8 @@
       <c r="W52" t="s">
         <v>16</v>
       </c>
-      <c r="X52" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y52" t="s">
-        <v>0</v>
+      <c r="Z52" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="53" spans="18:29" x14ac:dyDescent="0.2">
@@ -2729,7 +2811,7 @@
         <v>16</v>
       </c>
       <c r="Z53" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="54" spans="18:29" x14ac:dyDescent="0.2">
@@ -2749,7 +2831,7 @@
         <v>16</v>
       </c>
       <c r="Z54" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="55" spans="18:29" x14ac:dyDescent="0.2">
@@ -2769,7 +2851,7 @@
         <v>16</v>
       </c>
       <c r="Z55" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56" spans="18:29" x14ac:dyDescent="0.2">
@@ -2788,8 +2870,14 @@
       <c r="W56" t="s">
         <v>16</v>
       </c>
-      <c r="Z56" t="s">
-        <v>182</v>
+      <c r="AA56" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB56">
+        <v>1</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="57" spans="18:29" x14ac:dyDescent="0.2">
@@ -2809,10 +2897,10 @@
         <v>16</v>
       </c>
       <c r="AA57" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AB57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC57" t="s">
         <v>176</v>
@@ -2823,25 +2911,22 @@
         <v>19</v>
       </c>
       <c r="S58" t="s">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="T58">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V58" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="W58" t="s">
         <v>16</v>
       </c>
-      <c r="AA58" t="s">
-        <v>184</v>
-      </c>
-      <c r="AB58">
-        <v>2</v>
-      </c>
-      <c r="AC58" t="s">
-        <v>176</v>
+      <c r="X58" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="59" spans="18:29" x14ac:dyDescent="0.2">
@@ -2861,10 +2946,10 @@
         <v>16</v>
       </c>
       <c r="X59" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Y59" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="18:29" x14ac:dyDescent="0.2">
@@ -2883,11 +2968,14 @@
       <c r="W60" t="s">
         <v>16</v>
       </c>
-      <c r="X60" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y60" t="s">
-        <v>150</v>
+      <c r="AA60">
+        <v>1</v>
+      </c>
+      <c r="AB60">
+        <v>1</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="61" spans="18:29" x14ac:dyDescent="0.2">
@@ -2907,10 +2995,10 @@
         <v>16</v>
       </c>
       <c r="AA61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC61" t="s">
         <v>176</v>
@@ -2933,10 +3021,10 @@
         <v>16</v>
       </c>
       <c r="AA62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC62" t="s">
         <v>176</v>
@@ -2947,25 +3035,22 @@
         <v>19</v>
       </c>
       <c r="S63" t="s">
-        <v>150</v>
+        <v>91</v>
       </c>
       <c r="T63">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V63" t="s">
-        <v>149</v>
+        <v>90</v>
       </c>
       <c r="W63" t="s">
         <v>16</v>
       </c>
-      <c r="AA63">
-        <v>3</v>
-      </c>
-      <c r="AB63">
-        <v>3</v>
-      </c>
-      <c r="AC63" t="s">
-        <v>176</v>
+      <c r="X63" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="18:29" x14ac:dyDescent="0.2">
@@ -2985,10 +3070,10 @@
         <v>16</v>
       </c>
       <c r="X64" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Y64" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" spans="18:29" x14ac:dyDescent="0.2">
@@ -3007,11 +3092,8 @@
       <c r="W65" t="s">
         <v>16</v>
       </c>
-      <c r="X65" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y65" t="s">
-        <v>91</v>
+      <c r="Z65" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="66" spans="18:29" x14ac:dyDescent="0.2">
@@ -3031,7 +3113,7 @@
         <v>16</v>
       </c>
       <c r="Z66" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="67" spans="18:29" x14ac:dyDescent="0.2">
@@ -3051,7 +3133,7 @@
         <v>16</v>
       </c>
       <c r="Z67" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68" spans="18:29" x14ac:dyDescent="0.2">
@@ -3070,8 +3152,14 @@
       <c r="W68" t="s">
         <v>16</v>
       </c>
-      <c r="Z68" t="s">
-        <v>188</v>
+      <c r="AA68" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB68">
+        <v>1</v>
+      </c>
+      <c r="AC68" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="69" spans="18:29" x14ac:dyDescent="0.2">
@@ -3091,10 +3179,10 @@
         <v>16</v>
       </c>
       <c r="AA69" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AB69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC69" t="s">
         <v>176</v>
@@ -3105,25 +3193,22 @@
         <v>19</v>
       </c>
       <c r="S70" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="T70">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V70" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="W70" t="s">
         <v>16</v>
       </c>
-      <c r="AA70" t="s">
-        <v>184</v>
-      </c>
-      <c r="AB70">
-        <v>2</v>
-      </c>
-      <c r="AC70" t="s">
-        <v>176</v>
+      <c r="X70" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="18:29" x14ac:dyDescent="0.2">
@@ -3143,7 +3228,7 @@
         <v>16</v>
       </c>
       <c r="X71" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Y71" t="s">
         <v>20</v>
@@ -3165,11 +3250,8 @@
       <c r="W72" t="s">
         <v>16</v>
       </c>
-      <c r="X72" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y72" t="s">
-        <v>20</v>
+      <c r="Z72" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="73" spans="18:29" x14ac:dyDescent="0.2">
@@ -3188,8 +3270,14 @@
       <c r="W73" t="s">
         <v>16</v>
       </c>
-      <c r="Z73" t="s">
-        <v>189</v>
+      <c r="AA73" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB73">
+        <v>1</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="74" spans="18:29" x14ac:dyDescent="0.2">
@@ -3212,7 +3300,7 @@
         <v>16</v>
       </c>
       <c r="AB74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC74" t="s">
         <v>176</v>
@@ -3220,28 +3308,22 @@
     </row>
     <row r="75" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R75" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="S75" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="T75">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="U75" t="s">
+        <v>190</v>
       </c>
       <c r="V75" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="W75" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA75" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB75">
-        <v>2</v>
-      </c>
-      <c r="AC75" t="s">
-        <v>176</v>
+        <v>102</v>
       </c>
     </row>
     <row r="76" spans="18:29" x14ac:dyDescent="0.2">
@@ -3254,14 +3336,17 @@
       <c r="T76">
         <v>9</v>
       </c>
-      <c r="U76" t="s">
-        <v>190</v>
-      </c>
       <c r="V76" t="s">
         <v>104</v>
       </c>
       <c r="W76" t="s">
         <v>102</v>
+      </c>
+      <c r="X76" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="77" spans="18:29" x14ac:dyDescent="0.2">
@@ -3281,10 +3366,10 @@
         <v>102</v>
       </c>
       <c r="X77" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Y77" t="s">
-        <v>166</v>
+        <v>106</v>
       </c>
     </row>
     <row r="78" spans="18:29" x14ac:dyDescent="0.2">
@@ -3303,11 +3388,8 @@
       <c r="W78" t="s">
         <v>102</v>
       </c>
-      <c r="X78" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y78" t="s">
-        <v>106</v>
+      <c r="Z78" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="79" spans="18:29" x14ac:dyDescent="0.2">
@@ -3327,7 +3409,7 @@
         <v>102</v>
       </c>
       <c r="Z79" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="80" spans="18:29" x14ac:dyDescent="0.2">
@@ -3346,8 +3428,14 @@
       <c r="W80" t="s">
         <v>102</v>
       </c>
-      <c r="Z80" t="s">
-        <v>192</v>
+      <c r="AA80" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB80">
+        <v>1</v>
+      </c>
+      <c r="AC80" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="81" spans="18:29" x14ac:dyDescent="0.2">
@@ -3367,13 +3455,13 @@
         <v>102</v>
       </c>
       <c r="AA81" t="s">
-        <v>193</v>
+        <v>39</v>
       </c>
       <c r="AB81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC81" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
     </row>
     <row r="82" spans="18:29" x14ac:dyDescent="0.2">
@@ -3393,10 +3481,10 @@
         <v>102</v>
       </c>
       <c r="AA82" t="s">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="AB82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC82" t="s">
         <v>176</v>
@@ -3419,13 +3507,13 @@
         <v>102</v>
       </c>
       <c r="AA83" t="s">
-        <v>143</v>
+        <v>193</v>
       </c>
       <c r="AB83">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC83" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
     </row>
     <row r="84" spans="18:29" x14ac:dyDescent="0.2">
@@ -3445,13 +3533,13 @@
         <v>102</v>
       </c>
       <c r="AA84" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="AB84">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC84" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
     </row>
     <row r="85" spans="18:29" x14ac:dyDescent="0.2">
@@ -3471,10 +3559,10 @@
         <v>102</v>
       </c>
       <c r="AA85" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="AB85">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC85" t="s">
         <v>176</v>
@@ -3497,10 +3585,10 @@
         <v>102</v>
       </c>
       <c r="AA86" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AB86">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC86" t="s">
         <v>176</v>
@@ -3523,10 +3611,10 @@
         <v>102</v>
       </c>
       <c r="AA87" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="AB87">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC87" t="s">
         <v>176</v>
@@ -3534,28 +3622,25 @@
     </row>
     <row r="88" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R88" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="S88" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="T88">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V88" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="W88" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA88" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB88">
-        <v>8</v>
-      </c>
-      <c r="AC88" t="s">
-        <v>176</v>
+        <v>83</v>
+      </c>
+      <c r="X88" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="89" spans="18:29" x14ac:dyDescent="0.2">
@@ -3575,10 +3660,10 @@
         <v>83</v>
       </c>
       <c r="X89" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Y89" t="s">
-        <v>166</v>
+        <v>87</v>
       </c>
     </row>
     <row r="90" spans="18:29" x14ac:dyDescent="0.2">
@@ -3597,11 +3682,8 @@
       <c r="W90" t="s">
         <v>83</v>
       </c>
-      <c r="X90" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y90" t="s">
-        <v>87</v>
+      <c r="Z90" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="91" spans="18:29" x14ac:dyDescent="0.2">
@@ -3621,7 +3703,7 @@
         <v>83</v>
       </c>
       <c r="Z91" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="92" spans="18:29" x14ac:dyDescent="0.2">
@@ -3640,8 +3722,14 @@
       <c r="W92" t="s">
         <v>83</v>
       </c>
-      <c r="Z92" t="s">
-        <v>198</v>
+      <c r="AA92" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB92">
+        <v>1</v>
+      </c>
+      <c r="AC92" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="93" spans="18:29" x14ac:dyDescent="0.2">
@@ -3661,10 +3749,10 @@
         <v>83</v>
       </c>
       <c r="AA93" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AB93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC93" t="s">
         <v>200</v>
@@ -3687,10 +3775,10 @@
         <v>83</v>
       </c>
       <c r="AA94" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AB94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC94" t="s">
         <v>200</v>
@@ -3713,13 +3801,13 @@
         <v>83</v>
       </c>
       <c r="AA95" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AB95">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC95" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
     </row>
     <row r="96" spans="18:29" x14ac:dyDescent="0.2">
@@ -3739,13 +3827,13 @@
         <v>83</v>
       </c>
       <c r="AA96" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AB96">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC96" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="97" spans="18:29" x14ac:dyDescent="0.2">
@@ -3765,13 +3853,13 @@
         <v>83</v>
       </c>
       <c r="AA97" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AB97">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC97" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
     </row>
     <row r="98" spans="18:29" x14ac:dyDescent="0.2">
@@ -3791,10 +3879,10 @@
         <v>83</v>
       </c>
       <c r="AA98" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AB98">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC98" t="s">
         <v>200</v>
@@ -3817,10 +3905,10 @@
         <v>83</v>
       </c>
       <c r="AA99" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AB99">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC99" t="s">
         <v>200</v>
@@ -3843,10 +3931,10 @@
         <v>83</v>
       </c>
       <c r="AA100" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AB100">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC100" t="s">
         <v>200</v>
@@ -3869,10 +3957,10 @@
         <v>83</v>
       </c>
       <c r="AA101" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AB101">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC101" t="s">
         <v>200</v>
@@ -3895,10 +3983,10 @@
         <v>83</v>
       </c>
       <c r="AA102" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AB102">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC102" t="s">
         <v>200</v>
@@ -3921,10 +4009,10 @@
         <v>83</v>
       </c>
       <c r="AA103" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AB103">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC103" t="s">
         <v>200</v>
@@ -3947,10 +4035,10 @@
         <v>83</v>
       </c>
       <c r="AA104" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AB104">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC104" t="s">
         <v>200</v>
@@ -3973,13 +4061,13 @@
         <v>83</v>
       </c>
       <c r="AA105" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AB105">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC105" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
     </row>
     <row r="106" spans="18:29" x14ac:dyDescent="0.2">
@@ -3999,13 +4087,13 @@
         <v>83</v>
       </c>
       <c r="AA106" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AB106">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC106" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
     </row>
     <row r="107" spans="18:29" x14ac:dyDescent="0.2">
@@ -4025,10 +4113,10 @@
         <v>83</v>
       </c>
       <c r="AA107" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AB107">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AC107" t="s">
         <v>200</v>
@@ -4051,10 +4139,10 @@
         <v>83</v>
       </c>
       <c r="AA108" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AB108">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AC108" t="s">
         <v>200</v>
@@ -4077,10 +4165,10 @@
         <v>83</v>
       </c>
       <c r="AA109" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AB109">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC109" t="s">
         <v>200</v>
@@ -4088,28 +4176,25 @@
     </row>
     <row r="110" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R110" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="S110" t="s">
-        <v>87</v>
+        <v>157</v>
       </c>
       <c r="T110">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V110" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="W110" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA110" t="s">
-        <v>217</v>
-      </c>
-      <c r="AB110">
-        <v>18</v>
-      </c>
-      <c r="AC110" t="s">
-        <v>200</v>
+        <v>152</v>
+      </c>
+      <c r="X110" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y110" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="111" spans="18:29" x14ac:dyDescent="0.2">
@@ -4129,10 +4214,10 @@
         <v>152</v>
       </c>
       <c r="X111" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Y111" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="112" spans="18:29" x14ac:dyDescent="0.2">
@@ -4152,10 +4237,10 @@
         <v>152</v>
       </c>
       <c r="X112" t="s">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c r="Y112" t="s">
-        <v>157</v>
+        <v>219</v>
       </c>
     </row>
     <row r="113" spans="18:29" x14ac:dyDescent="0.2">
@@ -4175,10 +4260,10 @@
         <v>152</v>
       </c>
       <c r="X113" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Y113" t="s">
-        <v>219</v>
+        <v>152</v>
       </c>
     </row>
     <row r="114" spans="18:29" x14ac:dyDescent="0.2">
@@ -4198,10 +4283,10 @@
         <v>152</v>
       </c>
       <c r="X114" t="s">
-        <v>220</v>
+        <v>59</v>
       </c>
       <c r="Y114" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="115" spans="18:29" x14ac:dyDescent="0.2">
@@ -4221,10 +4306,10 @@
         <v>152</v>
       </c>
       <c r="X115" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="Y115" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="116" spans="18:29" x14ac:dyDescent="0.2">
@@ -4244,10 +4329,10 @@
         <v>152</v>
       </c>
       <c r="X116" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="Y116" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="117" spans="18:29" x14ac:dyDescent="0.2">
@@ -4267,10 +4352,10 @@
         <v>152</v>
       </c>
       <c r="X117" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="Y117" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="118" spans="18:29" x14ac:dyDescent="0.2">
@@ -4290,10 +4375,10 @@
         <v>152</v>
       </c>
       <c r="X118" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="Y118" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="119" spans="18:29" x14ac:dyDescent="0.2">
@@ -4313,10 +4398,10 @@
         <v>152</v>
       </c>
       <c r="X119" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y119" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="120" spans="18:29" x14ac:dyDescent="0.2">
@@ -4336,10 +4421,10 @@
         <v>152</v>
       </c>
       <c r="X120" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y120" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="121" spans="18:29" x14ac:dyDescent="0.2">
@@ -4359,10 +4444,10 @@
         <v>152</v>
       </c>
       <c r="X121" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="Y121" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="122" spans="18:29" x14ac:dyDescent="0.2">
@@ -4382,10 +4467,10 @@
         <v>152</v>
       </c>
       <c r="X122" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y122" t="s">
-        <v>161</v>
+        <v>67</v>
       </c>
     </row>
     <row r="123" spans="18:29" x14ac:dyDescent="0.2">
@@ -4404,11 +4489,14 @@
       <c r="W123" t="s">
         <v>152</v>
       </c>
-      <c r="X123" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y123" t="s">
-        <v>67</v>
+      <c r="AA123" t="s">
+        <v>221</v>
+      </c>
+      <c r="AB123">
+        <v>1</v>
+      </c>
+      <c r="AC123" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="124" spans="18:29" x14ac:dyDescent="0.2">
@@ -4428,10 +4516,10 @@
         <v>152</v>
       </c>
       <c r="AA124" t="s">
-        <v>221</v>
+        <v>170</v>
       </c>
       <c r="AB124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC124" t="s">
         <v>171</v>
@@ -4454,39 +4542,36 @@
         <v>152</v>
       </c>
       <c r="AA125" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="AB125">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC125" t="s">
-        <v>171</v>
+        <v>223</v>
       </c>
     </row>
     <row r="126" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R126" t="s">
-        <v>156</v>
+        <v>53</v>
       </c>
       <c r="S126" t="s">
-        <v>157</v>
+        <v>54</v>
       </c>
       <c r="T126">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V126" t="s">
-        <v>155</v>
+        <v>52</v>
       </c>
       <c r="W126" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA126" t="s">
-        <v>222</v>
-      </c>
-      <c r="AB126">
-        <v>3</v>
-      </c>
-      <c r="AC126" t="s">
-        <v>223</v>
+        <v>48</v>
+      </c>
+      <c r="X126" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y126" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="127" spans="18:29" x14ac:dyDescent="0.2">
@@ -4506,10 +4591,10 @@
         <v>48</v>
       </c>
       <c r="X127" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Y127" t="s">
-        <v>224</v>
+        <v>54</v>
       </c>
     </row>
     <row r="128" spans="18:29" x14ac:dyDescent="0.2">
@@ -4529,10 +4614,10 @@
         <v>48</v>
       </c>
       <c r="X128" t="s">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c r="Y128" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="129" spans="18:31" x14ac:dyDescent="0.2">
@@ -4552,10 +4637,10 @@
         <v>48</v>
       </c>
       <c r="X129" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Y129" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="130" spans="18:31" x14ac:dyDescent="0.2">
@@ -4575,10 +4660,10 @@
         <v>48</v>
       </c>
       <c r="X130" t="s">
-        <v>220</v>
+        <v>59</v>
       </c>
       <c r="Y130" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="131" spans="18:31" x14ac:dyDescent="0.2">
@@ -4598,10 +4683,10 @@
         <v>48</v>
       </c>
       <c r="X131" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="Y131" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="132" spans="18:31" x14ac:dyDescent="0.2">
@@ -4621,10 +4706,10 @@
         <v>48</v>
       </c>
       <c r="X132" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="Y132" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="133" spans="18:31" x14ac:dyDescent="0.2">
@@ -4644,10 +4729,10 @@
         <v>48</v>
       </c>
       <c r="X133" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="Y133" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="134" spans="18:31" x14ac:dyDescent="0.2">
@@ -4667,10 +4752,10 @@
         <v>48</v>
       </c>
       <c r="X134" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="Y134" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="135" spans="18:31" x14ac:dyDescent="0.2">
@@ -4690,10 +4775,10 @@
         <v>48</v>
       </c>
       <c r="X135" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y135" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="136" spans="18:31" x14ac:dyDescent="0.2">
@@ -4713,10 +4798,10 @@
         <v>48</v>
       </c>
       <c r="X136" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y136" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="137" spans="18:31" x14ac:dyDescent="0.2">
@@ -4736,10 +4821,10 @@
         <v>48</v>
       </c>
       <c r="X137" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="Y137" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="138" spans="18:31" x14ac:dyDescent="0.2">
@@ -4759,10 +4844,10 @@
         <v>48</v>
       </c>
       <c r="X138" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y138" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="139" spans="18:31" x14ac:dyDescent="0.2">
@@ -4781,11 +4866,14 @@
       <c r="W139" t="s">
         <v>48</v>
       </c>
-      <c r="X139" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y139" t="s">
-        <v>67</v>
+      <c r="AA139" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB139">
+        <v>1</v>
+      </c>
+      <c r="AC139" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="140" spans="18:31" x14ac:dyDescent="0.2">
@@ -4805,10 +4893,10 @@
         <v>48</v>
       </c>
       <c r="AA140" t="s">
-        <v>16</v>
+        <v>225</v>
       </c>
       <c r="AB140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC140" t="s">
         <v>176</v>
@@ -4831,109 +4919,100 @@
         <v>48</v>
       </c>
       <c r="AA141" t="s">
-        <v>225</v>
+        <v>16</v>
       </c>
       <c r="AB141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC141" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="142" spans="18:31" x14ac:dyDescent="0.2">
-      <c r="R142" t="s">
-        <v>53</v>
-      </c>
-      <c r="S142" t="s">
-        <v>54</v>
-      </c>
-      <c r="T142">
-        <v>12</v>
-      </c>
-      <c r="V142" t="s">
-        <v>52</v>
-      </c>
-      <c r="W142" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA142" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB142">
-        <v>3</v>
-      </c>
-      <c r="AC142" t="s">
-        <v>176</v>
+      <c r="AD142" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE142" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="143" spans="18:31" x14ac:dyDescent="0.2">
       <c r="AD143" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AE143" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="144" spans="18:31" x14ac:dyDescent="0.2">
       <c r="AD144" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AE144" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="145" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AD145" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="AE145" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="146" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AD146" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="AE146" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="147" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AD147" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="AE147" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="148" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AD148" t="s">
-        <v>156</v>
+        <v>53</v>
       </c>
       <c r="AE148" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="149" spans="30:36" x14ac:dyDescent="0.2">
-      <c r="AD149" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE149" t="s">
-        <v>232</v>
+      <c r="AF149">
+        <v>1</v>
+      </c>
+      <c r="AG149" t="s">
+        <v>233</v>
+      </c>
+      <c r="AH149">
+        <v>1</v>
+      </c>
+      <c r="AI149">
+        <v>1</v>
+      </c>
+      <c r="AJ149" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="150" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG150" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AH150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI150">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ150" t="s">
         <v>6</v>
@@ -4941,33 +5020,33 @@
     </row>
     <row r="151" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF151">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG151" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AH151">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI151">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ151" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF152">
+        <v>4</v>
+      </c>
+      <c r="AG152" t="s">
+        <v>236</v>
+      </c>
+      <c r="AH152">
+        <v>4</v>
+      </c>
+      <c r="AI152">
         <v>3</v>
-      </c>
-      <c r="AG152" t="s">
-        <v>235</v>
-      </c>
-      <c r="AH152">
-        <v>3</v>
-      </c>
-      <c r="AI152">
-        <v>1</v>
       </c>
       <c r="AJ152" t="s">
         <v>12</v>
@@ -4975,33 +5054,33 @@
     </row>
     <row r="153" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF153">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG153" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AH153">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI153">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ153" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="154" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF154">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG154" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AH154">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI154">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ154" t="s">
         <v>13</v>
@@ -5009,33 +5088,33 @@
     </row>
     <row r="155" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF155">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG155" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AH155">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI155">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ155" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="156" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF156">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG156" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AH156">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI156">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ156" t="s">
         <v>14</v>
@@ -5043,19 +5122,19 @@
     </row>
     <row r="157" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF157">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG157" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AH157">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI157">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ157" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
     </row>
     <row r="158" spans="30:36" x14ac:dyDescent="0.2">
@@ -5069,27 +5148,27 @@
         <v>9</v>
       </c>
       <c r="AI158">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ158" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
     </row>
     <row r="159" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF159">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG159" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AH159">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI159">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ159" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="160" spans="30:36" x14ac:dyDescent="0.2">
@@ -5103,27 +5182,27 @@
         <v>10</v>
       </c>
       <c r="AI160">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ160" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="161" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF161">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG161" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AH161">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI161">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ161" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="162" spans="32:36" x14ac:dyDescent="0.2">
@@ -5137,27 +5216,27 @@
         <v>11</v>
       </c>
       <c r="AI162">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ162" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="163" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF163">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG163" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AH163">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI163">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ163" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="164" spans="32:36" x14ac:dyDescent="0.2">
@@ -5171,27 +5250,27 @@
         <v>12</v>
       </c>
       <c r="AI164">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ164" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="165" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF165">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG165" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AH165">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI165">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ165" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="166" spans="32:36" x14ac:dyDescent="0.2">
@@ -5205,44 +5284,44 @@
         <v>13</v>
       </c>
       <c r="AI166">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ166" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="167" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF167">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG167" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AH167">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI167">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ167" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
     </row>
     <row r="168" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF168">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG168" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AH168">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI168">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AJ168" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
     </row>
     <row r="169" spans="32:36" x14ac:dyDescent="0.2">
@@ -5259,7 +5338,7 @@
         <v>9</v>
       </c>
       <c r="AJ169" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="32:36" x14ac:dyDescent="0.2">
@@ -5273,7 +5352,7 @@
         <v>15</v>
       </c>
       <c r="AI170">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AJ170" t="s">
         <v>1</v>
@@ -5290,10 +5369,10 @@
         <v>15</v>
       </c>
       <c r="AI171">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AJ171" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="172" spans="32:36" x14ac:dyDescent="0.2">
@@ -5307,10 +5386,10 @@
         <v>15</v>
       </c>
       <c r="AI172">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ172" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="32:36" x14ac:dyDescent="0.2">
@@ -5324,7 +5403,7 @@
         <v>15</v>
       </c>
       <c r="AI173">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ173" t="s">
         <v>1</v>
@@ -5341,7 +5420,7 @@
         <v>15</v>
       </c>
       <c r="AI174">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AJ174" t="s">
         <v>1</v>
@@ -5358,10 +5437,10 @@
         <v>15</v>
       </c>
       <c r="AI175">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ175" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="176" spans="32:36" x14ac:dyDescent="0.2">
@@ -5375,7 +5454,7 @@
         <v>15</v>
       </c>
       <c r="AI176">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AJ176" t="s">
         <v>24</v>
@@ -5392,7 +5471,7 @@
         <v>15</v>
       </c>
       <c r="AI177">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AJ177" t="s">
         <v>24</v>
@@ -5409,10 +5488,10 @@
         <v>15</v>
       </c>
       <c r="AI178">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ178" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="32:36" x14ac:dyDescent="0.2">
@@ -5426,41 +5505,41 @@
         <v>15</v>
       </c>
       <c r="AI179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ179" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="180" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF180">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG180" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AH180">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI180">
         <v>1</v>
       </c>
       <c r="AJ180" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="181" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF181">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG181" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AH181">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI181">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ181" t="s">
         <v>25</v>
@@ -5468,16 +5547,16 @@
     </row>
     <row r="182" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF182">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG182" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AH182">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI182">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ182" t="s">
         <v>25</v>
@@ -5494,41 +5573,41 @@
         <v>18</v>
       </c>
       <c r="AI183">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ183" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
     </row>
     <row r="184" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF184">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG184" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AH184">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI184">
         <v>1</v>
       </c>
       <c r="AJ184" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
     </row>
     <row r="185" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF185">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG185" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AH185">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI185">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ185" t="s">
         <v>26</v>
@@ -5536,16 +5615,16 @@
     </row>
     <row r="186" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF186">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG186" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AH186">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI186">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ186" t="s">
         <v>26</v>
@@ -5562,41 +5641,41 @@
         <v>21</v>
       </c>
       <c r="AI187">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ187" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
     </row>
     <row r="188" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF188">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG188" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AH188">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI188">
         <v>1</v>
       </c>
       <c r="AJ188" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
     </row>
     <row r="189" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF189">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG189" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AH189">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI189">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ189" t="s">
         <v>27</v>
@@ -5604,16 +5683,16 @@
     </row>
     <row r="190" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF190">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG190" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AH190">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI190">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ190" t="s">
         <v>27</v>
@@ -5630,27 +5709,27 @@
         <v>24</v>
       </c>
       <c r="AI191">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ191" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
     </row>
     <row r="192" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF192">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG192" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AH192">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI192">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ192" t="s">
-        <v>128</v>
+        <v>68</v>
       </c>
     </row>
     <row r="193" spans="32:36" x14ac:dyDescent="0.2">
@@ -5664,27 +5743,27 @@
         <v>25</v>
       </c>
       <c r="AI193">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ193" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
     </row>
     <row r="194" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF194">
+        <v>26</v>
+      </c>
+      <c r="AG194" t="s">
+        <v>258</v>
+      </c>
+      <c r="AH194">
+        <v>26</v>
+      </c>
+      <c r="AI194">
+        <v>4</v>
+      </c>
+      <c r="AJ194" t="s">
         <v>25</v>
-      </c>
-      <c r="AG194" t="s">
-        <v>257</v>
-      </c>
-      <c r="AH194">
-        <v>25</v>
-      </c>
-      <c r="AI194">
-        <v>2</v>
-      </c>
-      <c r="AJ194" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="195" spans="32:36" x14ac:dyDescent="0.2">
@@ -5698,27 +5777,27 @@
         <v>26</v>
       </c>
       <c r="AI195">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ195" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="196" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF196">
+        <v>27</v>
+      </c>
+      <c r="AG196" t="s">
+        <v>259</v>
+      </c>
+      <c r="AH196">
+        <v>27</v>
+      </c>
+      <c r="AI196">
+        <v>4</v>
+      </c>
+      <c r="AJ196" t="s">
         <v>26</v>
-      </c>
-      <c r="AG196" t="s">
-        <v>258</v>
-      </c>
-      <c r="AH196">
-        <v>26</v>
-      </c>
-      <c r="AI196">
-        <v>2</v>
-      </c>
-      <c r="AJ196" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="197" spans="32:36" x14ac:dyDescent="0.2">
@@ -5732,27 +5811,27 @@
         <v>27</v>
       </c>
       <c r="AI197">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ197" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="198" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF198">
+        <v>28</v>
+      </c>
+      <c r="AG198" t="s">
+        <v>260</v>
+      </c>
+      <c r="AH198">
+        <v>28</v>
+      </c>
+      <c r="AI198">
+        <v>4</v>
+      </c>
+      <c r="AJ198" t="s">
         <v>27</v>
-      </c>
-      <c r="AG198" t="s">
-        <v>259</v>
-      </c>
-      <c r="AH198">
-        <v>27</v>
-      </c>
-      <c r="AI198">
-        <v>2</v>
-      </c>
-      <c r="AJ198" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="199" spans="32:36" x14ac:dyDescent="0.2">
@@ -5766,41 +5845,41 @@
         <v>28</v>
       </c>
       <c r="AI199">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ199" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="200" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF200">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG200" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AH200">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI200">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ200" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
     </row>
     <row r="201" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF201">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG201" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AH201">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI201">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ201" t="s">
         <v>68</v>
@@ -5808,33 +5887,33 @@
     </row>
     <row r="202" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF202">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG202" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AH202">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AI202">
         <v>1</v>
       </c>
       <c r="AJ202" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
     </row>
     <row r="203" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF203">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AG203" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AH203">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AI203">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ203" t="s">
         <v>32</v>
@@ -5842,16 +5921,16 @@
     </row>
     <row r="204" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF204">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AG204" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AH204">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI204">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ204" t="s">
         <v>32</v>
@@ -5868,27 +5947,27 @@
         <v>33</v>
       </c>
       <c r="AI205">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ205" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
     </row>
     <row r="206" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF206">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AG206" t="s">
-        <v>265</v>
+        <v>170</v>
       </c>
       <c r="AH206">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AI206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ206" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="207" spans="32:36" x14ac:dyDescent="0.2">
@@ -5905,7 +5984,7 @@
         <v>2</v>
       </c>
       <c r="AJ207" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="208" spans="32:36" x14ac:dyDescent="0.2">
@@ -5919,10 +5998,10 @@
         <v>34</v>
       </c>
       <c r="AI208">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ208" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="209" spans="32:36" x14ac:dyDescent="0.2">
@@ -5936,10 +6015,10 @@
         <v>34</v>
       </c>
       <c r="AI209">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ209" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
     </row>
     <row r="210" spans="32:36" x14ac:dyDescent="0.2">
@@ -5956,7 +6035,7 @@
         <v>2</v>
       </c>
       <c r="AJ210" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="211" spans="32:36" x14ac:dyDescent="0.2">
@@ -5973,7 +6052,7 @@
         <v>2</v>
       </c>
       <c r="AJ211" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
     </row>
     <row r="212" spans="32:36" x14ac:dyDescent="0.2">
@@ -5990,7 +6069,7 @@
         <v>2</v>
       </c>
       <c r="AJ212" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="213" spans="32:36" x14ac:dyDescent="0.2">
@@ -6007,7 +6086,7 @@
         <v>2</v>
       </c>
       <c r="AJ213" t="s">
-        <v>144</v>
+        <v>27</v>
       </c>
     </row>
     <row r="214" spans="32:36" x14ac:dyDescent="0.2">
@@ -6024,7 +6103,7 @@
         <v>2</v>
       </c>
       <c r="AJ214" t="s">
-        <v>27</v>
+        <v>142</v>
       </c>
     </row>
     <row r="215" spans="32:36" x14ac:dyDescent="0.2">
@@ -6041,7 +6120,7 @@
         <v>2</v>
       </c>
       <c r="AJ215" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="216" spans="32:36" x14ac:dyDescent="0.2">
@@ -6055,10 +6134,10 @@
         <v>34</v>
       </c>
       <c r="AI216">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ216" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
     </row>
     <row r="217" spans="32:36" x14ac:dyDescent="0.2">
@@ -6072,10 +6151,10 @@
         <v>34</v>
       </c>
       <c r="AI217">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ217" t="s">
-        <v>100</v>
+        <v>151</v>
       </c>
     </row>
     <row r="218" spans="32:36" x14ac:dyDescent="0.2">
@@ -6092,7 +6171,7 @@
         <v>2</v>
       </c>
       <c r="AJ218" t="s">
-        <v>151</v>
+        <v>32</v>
       </c>
     </row>
     <row r="219" spans="32:36" x14ac:dyDescent="0.2">
@@ -6109,7 +6188,7 @@
         <v>2</v>
       </c>
       <c r="AJ219" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="220" spans="32:36" x14ac:dyDescent="0.2">
@@ -6123,10 +6202,10 @@
         <v>34</v>
       </c>
       <c r="AI220">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ220" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="221" spans="32:36" x14ac:dyDescent="0.2">
@@ -6140,10 +6219,10 @@
         <v>34</v>
       </c>
       <c r="AI221">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ221" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
     </row>
     <row r="222" spans="32:36" x14ac:dyDescent="0.2">
@@ -6160,7 +6239,7 @@
         <v>2</v>
       </c>
       <c r="AJ222" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
     </row>
     <row r="223" spans="32:36" x14ac:dyDescent="0.2">
@@ -6177,7 +6256,7 @@
         <v>2</v>
       </c>
       <c r="AJ223" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
     </row>
     <row r="224" spans="32:36" x14ac:dyDescent="0.2">
@@ -6194,7 +6273,7 @@
         <v>2</v>
       </c>
       <c r="AJ224" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
     </row>
     <row r="225" spans="32:36" x14ac:dyDescent="0.2">
@@ -6208,10 +6287,10 @@
         <v>34</v>
       </c>
       <c r="AI225">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ225" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
     </row>
     <row r="226" spans="32:36" x14ac:dyDescent="0.2">
@@ -6225,10 +6304,10 @@
         <v>34</v>
       </c>
       <c r="AI226">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ226" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
     </row>
     <row r="227" spans="32:36" x14ac:dyDescent="0.2">
@@ -6242,10 +6321,10 @@
         <v>34</v>
       </c>
       <c r="AI227">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ227" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="228" spans="32:36" x14ac:dyDescent="0.2">
@@ -6262,7 +6341,7 @@
         <v>7</v>
       </c>
       <c r="AJ228" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="32:36" x14ac:dyDescent="0.2">
@@ -6276,10 +6355,10 @@
         <v>34</v>
       </c>
       <c r="AI229">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ229" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="230" spans="32:36" x14ac:dyDescent="0.2">
@@ -6296,7 +6375,7 @@
         <v>2</v>
       </c>
       <c r="AJ230" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="231" spans="32:36" x14ac:dyDescent="0.2">
@@ -6313,7 +6392,7 @@
         <v>2</v>
       </c>
       <c r="AJ231" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
     </row>
     <row r="232" spans="32:36" x14ac:dyDescent="0.2">
@@ -6327,10 +6406,10 @@
         <v>34</v>
       </c>
       <c r="AI232">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ232" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="233" spans="32:36" x14ac:dyDescent="0.2">
@@ -6344,10 +6423,10 @@
         <v>34</v>
       </c>
       <c r="AI233">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ233" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
     </row>
     <row r="234" spans="32:36" x14ac:dyDescent="0.2">
@@ -6364,7 +6443,7 @@
         <v>2</v>
       </c>
       <c r="AJ234" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="235" spans="32:36" x14ac:dyDescent="0.2">
@@ -6378,10 +6457,10 @@
         <v>34</v>
       </c>
       <c r="AI235">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ235" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
     </row>
     <row r="236" spans="32:36" x14ac:dyDescent="0.2">
@@ -6395,10 +6474,10 @@
         <v>34</v>
       </c>
       <c r="AI236">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ236" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="237" spans="32:36" x14ac:dyDescent="0.2">
@@ -6412,10 +6491,10 @@
         <v>34</v>
       </c>
       <c r="AI237">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ237" t="s">
-        <v>121</v>
+        <v>46</v>
       </c>
     </row>
     <row r="238" spans="32:36" x14ac:dyDescent="0.2">
@@ -6429,10 +6508,10 @@
         <v>34</v>
       </c>
       <c r="AI238">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ238" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
     </row>
     <row r="239" spans="32:36" x14ac:dyDescent="0.2">
@@ -6449,24 +6528,24 @@
         <v>2</v>
       </c>
       <c r="AJ239" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
     </row>
     <row r="240" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF240">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AG240" t="s">
-        <v>170</v>
+        <v>266</v>
       </c>
       <c r="AH240">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AI240">
         <v>2</v>
       </c>
       <c r="AJ240" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
     </row>
     <row r="241" spans="32:36" x14ac:dyDescent="0.2">
@@ -6480,27 +6559,27 @@
         <v>35</v>
       </c>
       <c r="AI241">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ241" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
     </row>
     <row r="242" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF242">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AG242" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AH242">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AI242">
         <v>4</v>
       </c>
       <c r="AJ242" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
     </row>
     <row r="243" spans="32:36" x14ac:dyDescent="0.2">
@@ -6514,41 +6593,41 @@
         <v>36</v>
       </c>
       <c r="AI243">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ243" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="244" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF244">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AG244" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AH244">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AI244">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ244" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
     </row>
     <row r="245" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF245">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AG245" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AH245">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AI245">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ245" t="s">
         <v>69</v>
@@ -6556,19 +6635,19 @@
     </row>
     <row r="246" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF246">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG246" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AH246">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI246">
         <v>1</v>
       </c>
       <c r="AJ246" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
     </row>
     <row r="247" spans="32:36" x14ac:dyDescent="0.2">
@@ -6582,27 +6661,27 @@
         <v>39</v>
       </c>
       <c r="AI247">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ247" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
     </row>
     <row r="248" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF248">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG248" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AH248">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI248">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ248" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="249" spans="32:36" x14ac:dyDescent="0.2">
@@ -6616,27 +6695,27 @@
         <v>40</v>
       </c>
       <c r="AI249">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ249" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="250" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF250">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AG250" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AH250">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AI250">
         <v>5</v>
       </c>
       <c r="AJ250" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="251" spans="32:36" x14ac:dyDescent="0.2">
@@ -6650,27 +6729,27 @@
         <v>41</v>
       </c>
       <c r="AI251">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ251" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
     </row>
     <row r="252" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF252">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AG252" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AH252">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI252">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AJ252" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="253" spans="32:36" x14ac:dyDescent="0.2">
@@ -6684,7 +6763,7 @@
         <v>42</v>
       </c>
       <c r="AI253">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AJ253" t="s">
         <v>46</v>
@@ -6701,10 +6780,10 @@
         <v>42</v>
       </c>
       <c r="AI254">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AJ254" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="255" spans="32:36" x14ac:dyDescent="0.2">
@@ -6718,10 +6797,10 @@
         <v>42</v>
       </c>
       <c r="AI255">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AJ255" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="256" spans="32:36" x14ac:dyDescent="0.2">
@@ -6735,10 +6814,10 @@
         <v>42</v>
       </c>
       <c r="AI256">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AJ256" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="257" spans="32:36" x14ac:dyDescent="0.2">
@@ -6752,7 +6831,7 @@
         <v>42</v>
       </c>
       <c r="AI257">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ257" t="s">
         <v>42</v>
@@ -6769,7 +6848,7 @@
         <v>42</v>
       </c>
       <c r="AI258">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AJ258" t="s">
         <v>42</v>
@@ -6786,10 +6865,10 @@
         <v>42</v>
       </c>
       <c r="AI259">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AJ259" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="260" spans="32:36" x14ac:dyDescent="0.2">
@@ -6803,10 +6882,10 @@
         <v>42</v>
       </c>
       <c r="AI260">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AJ260" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="261" spans="32:36" x14ac:dyDescent="0.2">
@@ -6820,10 +6899,10 @@
         <v>42</v>
       </c>
       <c r="AI261">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AJ261" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="262" spans="32:36" x14ac:dyDescent="0.2">
@@ -6837,10 +6916,10 @@
         <v>42</v>
       </c>
       <c r="AI262">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AJ262" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="263" spans="32:36" x14ac:dyDescent="0.2">
@@ -6854,27 +6933,27 @@
         <v>42</v>
       </c>
       <c r="AI263">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AJ263" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="264" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF264">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AG264" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AH264">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI264">
         <v>1</v>
       </c>
       <c r="AJ264" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
     </row>
     <row r="265" spans="32:36" x14ac:dyDescent="0.2">
@@ -6888,27 +6967,27 @@
         <v>43</v>
       </c>
       <c r="AI265">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ265" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
     </row>
     <row r="266" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF266">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG266" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AH266">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI266">
         <v>5</v>
       </c>
       <c r="AJ266" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="267" spans="32:36" x14ac:dyDescent="0.2">
@@ -6922,27 +7001,27 @@
         <v>44</v>
       </c>
       <c r="AI267">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ267" t="s">
-        <v>69</v>
+        <v>129</v>
       </c>
     </row>
     <row r="268" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF268">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AG268" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AH268">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI268">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ268" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
     </row>
     <row r="269" spans="32:36" x14ac:dyDescent="0.2">
@@ -6956,27 +7035,27 @@
         <v>45</v>
       </c>
       <c r="AI269">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AJ269" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="270" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF270">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AG270" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AH270">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI270">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AJ270" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="271" spans="32:36" x14ac:dyDescent="0.2">
@@ -6990,27 +7069,27 @@
         <v>46</v>
       </c>
       <c r="AI271">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AJ271" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
     </row>
     <row r="272" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF272">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AG272" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AH272">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI272">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AJ272" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
     </row>
     <row r="273" spans="32:36" x14ac:dyDescent="0.2">
@@ -7024,24 +7103,24 @@
         <v>47</v>
       </c>
       <c r="AI273">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AJ273" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
     </row>
     <row r="274" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF274">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AG274" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AH274">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI274">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AJ274" t="s">
         <v>42</v>
@@ -7058,27 +7137,27 @@
         <v>48</v>
       </c>
       <c r="AI275">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AJ275" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
     </row>
     <row r="276" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF276">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AG276" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AH276">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI276">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ276" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
     </row>
     <row r="277" spans="32:36" x14ac:dyDescent="0.2">
@@ -7092,27 +7171,27 @@
         <v>49</v>
       </c>
       <c r="AI277">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ277" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="278" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF278">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG278" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AH278">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI278">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ278" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
     </row>
     <row r="279" spans="32:36" x14ac:dyDescent="0.2">
@@ -7126,27 +7205,27 @@
         <v>50</v>
       </c>
       <c r="AI279">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ279" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
     </row>
     <row r="280" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF280">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG280" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AH280">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI280">
         <v>3</v>
       </c>
       <c r="AJ280" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="281" spans="32:36" x14ac:dyDescent="0.2">
@@ -7160,27 +7239,27 @@
         <v>51</v>
       </c>
       <c r="AI281">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AJ281" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
     </row>
     <row r="282" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF282">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AG282" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AH282">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI282">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AJ282" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
     </row>
     <row r="283" spans="32:36" x14ac:dyDescent="0.2">
@@ -7194,27 +7273,27 @@
         <v>52</v>
       </c>
       <c r="AI283">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AJ283" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
     <row r="284" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF284">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AG284" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AH284">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AI284">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AJ284" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="285" spans="32:36" x14ac:dyDescent="0.2">
@@ -7228,27 +7307,27 @@
         <v>53</v>
       </c>
       <c r="AI285">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AJ285" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
     </row>
     <row r="286" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF286">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AG286" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AH286">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AI286">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AJ286" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
     </row>
     <row r="287" spans="32:36" x14ac:dyDescent="0.2">
@@ -7262,27 +7341,27 @@
         <v>54</v>
       </c>
       <c r="AI287">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AJ287" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
     </row>
     <row r="288" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF288">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG288" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AH288">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI288">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AJ288" t="s">
-        <v>46</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="32:36" x14ac:dyDescent="0.2">
@@ -7296,27 +7375,27 @@
         <v>55</v>
       </c>
       <c r="AI289">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AJ289" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="290" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF290">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG290" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AH290">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AI290">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ290" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="32:36" x14ac:dyDescent="0.2">
@@ -7330,27 +7409,27 @@
         <v>56</v>
       </c>
       <c r="AI291">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AJ291" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="292" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF292">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG292" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AH292">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AI292">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AJ292" t="s">
-        <v>70</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="32:36" x14ac:dyDescent="0.2">
@@ -7364,27 +7443,27 @@
         <v>57</v>
       </c>
       <c r="AI293">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AJ293" t="s">
-        <v>1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="294" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF294">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG294" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AH294">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI294">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AJ294" t="s">
-        <v>71</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="32:36" x14ac:dyDescent="0.2">
@@ -7398,27 +7477,27 @@
         <v>58</v>
       </c>
       <c r="AI295">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AJ295" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
     </row>
     <row r="296" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF296">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG296" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AH296">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI296">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ296" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
     </row>
     <row r="297" spans="32:36" x14ac:dyDescent="0.2">
@@ -7432,27 +7511,27 @@
         <v>59</v>
       </c>
       <c r="AI297">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ297" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
     </row>
     <row r="298" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF298">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AG298" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AH298">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AI298">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ298" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
     </row>
     <row r="299" spans="32:36" x14ac:dyDescent="0.2">
@@ -7466,27 +7545,27 @@
         <v>60</v>
       </c>
       <c r="AI299">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ299" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
     </row>
     <row r="300" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF300">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG300" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AH300">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AI300">
         <v>1</v>
       </c>
       <c r="AJ300" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="301" spans="32:36" x14ac:dyDescent="0.2">
@@ -7500,24 +7579,24 @@
         <v>61</v>
       </c>
       <c r="AI301">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ301" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
     </row>
     <row r="302" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF302">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG302" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AH302">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI302">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ302" t="s">
         <v>24</v>
@@ -7534,27 +7613,27 @@
         <v>62</v>
       </c>
       <c r="AI303">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AJ303" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
     </row>
     <row r="304" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF304">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AG304" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AH304">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AI304">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AJ304" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
     </row>
     <row r="305" spans="32:36" x14ac:dyDescent="0.2">
@@ -7568,27 +7647,27 @@
         <v>63</v>
       </c>
       <c r="AI305">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AJ305" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
     </row>
     <row r="306" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF306">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AG306" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AH306">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AI306">
         <v>1</v>
       </c>
       <c r="AJ306" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="307" spans="32:36" x14ac:dyDescent="0.2">
@@ -7602,27 +7681,27 @@
         <v>64</v>
       </c>
       <c r="AI307">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AJ307" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
     </row>
     <row r="308" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF308">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AG308" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AH308">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AI308">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AJ308" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
     </row>
     <row r="309" spans="32:36" x14ac:dyDescent="0.2">
@@ -7639,24 +7718,24 @@
         <v>2</v>
       </c>
       <c r="AJ309" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
     </row>
     <row r="310" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF310">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG310" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AH310">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AI310">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ310" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
     </row>
     <row r="311" spans="32:36" x14ac:dyDescent="0.2">
@@ -7670,27 +7749,27 @@
         <v>66</v>
       </c>
       <c r="AI311">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ311" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
     </row>
     <row r="312" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF312">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AG312" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AH312">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AI312">
         <v>2</v>
       </c>
       <c r="AJ312" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
     </row>
     <row r="313" spans="32:36" x14ac:dyDescent="0.2">
@@ -7704,24 +7783,24 @@
         <v>67</v>
       </c>
       <c r="AI313">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ313" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="314" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF314">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG314" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AH314">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AI314">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ314" t="s">
         <v>82</v>
@@ -7729,16 +7808,16 @@
     </row>
     <row r="315" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF315">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG315" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AH315">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AI315">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ315" t="s">
         <v>82</v>
@@ -7755,41 +7834,41 @@
         <v>69</v>
       </c>
       <c r="AI316">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ316" t="s">
-        <v>82</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF317">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AG317" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AH317">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI317">
         <v>4</v>
       </c>
       <c r="AJ317" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
     </row>
     <row r="318" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF318">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AG318" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AH318">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI318">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AJ318" t="s">
         <v>82</v>
@@ -7797,16 +7876,16 @@
     </row>
     <row r="319" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF319">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG319" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AH319">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI319">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ319" t="s">
         <v>82</v>
@@ -7823,41 +7902,41 @@
         <v>72</v>
       </c>
       <c r="AI320">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AJ320" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
     </row>
     <row r="321" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF321">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG321" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AH321">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI321">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AJ321" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
     </row>
     <row r="322" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF322">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG322" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AH322">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI322">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ322" t="s">
         <v>82</v>
@@ -7865,19 +7944,19 @@
     </row>
     <row r="323" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF323">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG323" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AH323">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI323">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AJ323" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
     </row>
     <row r="324" spans="32:36" x14ac:dyDescent="0.2">
@@ -7891,24 +7970,24 @@
         <v>75</v>
       </c>
       <c r="AI324">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AJ324" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
     </row>
     <row r="325" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF325">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG325" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AH325">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI325">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ325" t="s">
         <v>82</v>
@@ -7916,16 +7995,16 @@
     </row>
     <row r="326" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF326">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG326" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AH326">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI326">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ326" t="s">
         <v>82</v>
@@ -7933,16 +8012,16 @@
     </row>
     <row r="327" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF327">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG327" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AH327">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI327">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ327" t="s">
         <v>82</v>
@@ -7950,16 +8029,16 @@
     </row>
     <row r="328" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF328">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG328" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AH328">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI328">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ328" t="s">
         <v>82</v>
@@ -7967,16 +8046,16 @@
     </row>
     <row r="329" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF329">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG329" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AH329">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI329">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AJ329" t="s">
         <v>82</v>
@@ -7993,27 +8072,27 @@
         <v>80</v>
       </c>
       <c r="AI330">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="AJ330" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
     </row>
     <row r="331" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF331">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG331" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AH331">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI331">
         <v>2</v>
       </c>
       <c r="AJ331" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="332" spans="32:36" x14ac:dyDescent="0.2">
@@ -8027,27 +8106,27 @@
         <v>81</v>
       </c>
       <c r="AI332">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ332" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="333" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF333">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AG333" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AH333">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI333">
         <v>1</v>
       </c>
       <c r="AJ333" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="334" spans="32:36" x14ac:dyDescent="0.2">
@@ -8061,27 +8140,27 @@
         <v>82</v>
       </c>
       <c r="AI334">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ334" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="335" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF335">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG335" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AH335">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI335">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AJ335" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="336" spans="32:36" x14ac:dyDescent="0.2">
@@ -8098,24 +8177,24 @@
         <v>1</v>
       </c>
       <c r="AJ336" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="337" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF337">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AG337" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AH337">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI337">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="AJ337" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="338" spans="32:36" x14ac:dyDescent="0.2">
@@ -8129,27 +8208,27 @@
         <v>84</v>
       </c>
       <c r="AI338">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="AJ338" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="339" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF339">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG339" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AH339">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI339">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ339" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="340" spans="32:36" x14ac:dyDescent="0.2">
@@ -8166,24 +8245,24 @@
         <v>1</v>
       </c>
       <c r="AJ340" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="341" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF341">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG341" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AH341">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI341">
         <v>1</v>
       </c>
       <c r="AJ341" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="342" spans="32:36" x14ac:dyDescent="0.2">
@@ -8200,24 +8279,24 @@
         <v>1</v>
       </c>
       <c r="AJ342" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="343" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF343">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG343" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AH343">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI343">
         <v>1</v>
       </c>
       <c r="AJ343" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="344" spans="32:36" x14ac:dyDescent="0.2">
@@ -8231,44 +8310,44 @@
         <v>87</v>
       </c>
       <c r="AI344">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ344" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="345" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF345">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG345" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AH345">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI345">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AJ345" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="346" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF346">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG346" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AH346">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI346">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AJ346" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="347" spans="32:36" x14ac:dyDescent="0.2">
@@ -8282,7 +8361,7 @@
         <v>89</v>
       </c>
       <c r="AI347">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ347" t="s">
         <v>99</v>
@@ -8299,7 +8378,7 @@
         <v>89</v>
       </c>
       <c r="AI348">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ348" t="s">
         <v>99</v>
@@ -8316,7 +8395,7 @@
         <v>89</v>
       </c>
       <c r="AI349">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AJ349" t="s">
         <v>99</v>
@@ -8333,7 +8412,7 @@
         <v>89</v>
       </c>
       <c r="AI350">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AJ350" t="s">
         <v>99</v>
@@ -8350,7 +8429,7 @@
         <v>89</v>
       </c>
       <c r="AI351">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ351" t="s">
         <v>99</v>
@@ -8367,10 +8446,10 @@
         <v>89</v>
       </c>
       <c r="AI352">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AJ352" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="353" spans="32:36" x14ac:dyDescent="0.2">
@@ -8384,7 +8463,7 @@
         <v>89</v>
       </c>
       <c r="AI353">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AJ353" t="s">
         <v>100</v>
@@ -8401,7 +8480,7 @@
         <v>89</v>
       </c>
       <c r="AI354">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AJ354" t="s">
         <v>100</v>
@@ -8418,7 +8497,7 @@
         <v>89</v>
       </c>
       <c r="AI355">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AJ355" t="s">
         <v>100</v>
@@ -8435,7 +8514,7 @@
         <v>89</v>
       </c>
       <c r="AI356">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AJ356" t="s">
         <v>100</v>
@@ -8452,7 +8531,7 @@
         <v>89</v>
       </c>
       <c r="AI357">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AJ357" t="s">
         <v>100</v>
@@ -8460,33 +8539,33 @@
     </row>
     <row r="358" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF358">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG358" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AH358">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI358">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AJ358" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="359" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF359">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG359" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AH359">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI359">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ359" t="s">
         <v>101</v>
@@ -8503,10 +8582,10 @@
         <v>91</v>
       </c>
       <c r="AI360">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ360" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="361" spans="32:36" x14ac:dyDescent="0.2">
@@ -8523,24 +8602,24 @@
         <v>1</v>
       </c>
       <c r="AJ361" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="362" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF362">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG362" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AH362">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI362">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ362" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="363" spans="32:36" x14ac:dyDescent="0.2">
@@ -8554,10 +8633,10 @@
         <v>92</v>
       </c>
       <c r="AI363">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ363" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="364" spans="32:36" x14ac:dyDescent="0.2">
@@ -8571,44 +8650,44 @@
         <v>92</v>
       </c>
       <c r="AI364">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ364" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="365" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF365">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG365" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AH365">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI365">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ365" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="366" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF366">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG366" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AH366">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI366">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ366" t="s">
-        <v>101</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="32:36" x14ac:dyDescent="0.2">
@@ -8622,10 +8701,10 @@
         <v>94</v>
       </c>
       <c r="AI367">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ367" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="368" spans="32:36" x14ac:dyDescent="0.2">
@@ -8639,41 +8718,41 @@
         <v>94</v>
       </c>
       <c r="AI368">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AJ368" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="369" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF369">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG369" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AH369">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AI369">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ369" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="370" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF370">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG370" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AH370">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AI370">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ370" t="s">
         <v>114</v>
@@ -8681,16 +8760,16 @@
     </row>
     <row r="371" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF371">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG371" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AH371">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AI371">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ371" t="s">
         <v>114</v>
@@ -8707,27 +8786,27 @@
         <v>97</v>
       </c>
       <c r="AI372">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ372" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="373" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF373">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG373" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AH373">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AI373">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ373" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="374" spans="32:36" x14ac:dyDescent="0.2">
@@ -8741,58 +8820,58 @@
         <v>98</v>
       </c>
       <c r="AI374">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AJ374" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="375" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF375">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG375" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AH375">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AI375">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AJ375" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
     </row>
     <row r="376" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF376">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG376" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AH376">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AI376">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ376" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="377" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF377">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG377" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AH377">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AI377">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ377" t="s">
         <v>117</v>
@@ -8809,10 +8888,10 @@
         <v>101</v>
       </c>
       <c r="AI378">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ378" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="379" spans="32:36" x14ac:dyDescent="0.2">
@@ -8829,24 +8908,24 @@
         <v>1</v>
       </c>
       <c r="AJ379" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="380" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF380">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG380" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AH380">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI380">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ380" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="381" spans="32:36" x14ac:dyDescent="0.2">
@@ -8860,10 +8939,10 @@
         <v>102</v>
       </c>
       <c r="AI381">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ381" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="382" spans="32:36" x14ac:dyDescent="0.2">
@@ -8877,41 +8956,41 @@
         <v>102</v>
       </c>
       <c r="AI382">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ382" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="383" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF383">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG383" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AH383">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AI383">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ383" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="384" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF384">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG384" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AH384">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AI384">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ384" t="s">
         <v>117</v>
@@ -8928,10 +9007,10 @@
         <v>104</v>
       </c>
       <c r="AI385">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AJ385" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="386" spans="32:36" x14ac:dyDescent="0.2">
@@ -8945,41 +9024,41 @@
         <v>104</v>
       </c>
       <c r="AI386">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ386" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
     </row>
     <row r="387" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF387">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG387" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AH387">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AI387">
         <v>1</v>
       </c>
       <c r="AJ387" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
     </row>
     <row r="388" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF388">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG388" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AH388">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AI388">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ388" t="s">
         <v>122</v>
@@ -8987,16 +9066,16 @@
     </row>
     <row r="389" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF389">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG389" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AH389">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AI389">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ389" t="s">
         <v>122</v>
@@ -9013,27 +9092,27 @@
         <v>107</v>
       </c>
       <c r="AI390">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ390" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="391" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF391">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG391" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AH391">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AI391">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ391" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="392" spans="32:36" x14ac:dyDescent="0.2">
@@ -9047,27 +9126,27 @@
         <v>108</v>
       </c>
       <c r="AI392">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AJ392" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="393" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF393">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG393" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AH393">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AI393">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ393" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row r="394" spans="32:36" x14ac:dyDescent="0.2">
@@ -9084,24 +9163,24 @@
         <v>2</v>
       </c>
       <c r="AJ394" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
     </row>
     <row r="395" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF395">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG395" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AH395">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AI395">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ395" t="s">
-        <v>44</v>
+        <v>131</v>
       </c>
     </row>
     <row r="396" spans="32:36" x14ac:dyDescent="0.2">
@@ -9115,27 +9194,27 @@
         <v>110</v>
       </c>
       <c r="AI396">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ396" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
     </row>
     <row r="397" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF397">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG397" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AH397">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AI397">
         <v>2</v>
       </c>
       <c r="AJ397" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
     </row>
     <row r="398" spans="32:36" x14ac:dyDescent="0.2">
@@ -9152,24 +9231,24 @@
         <v>2</v>
       </c>
       <c r="AJ398" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
     </row>
     <row r="399" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF399">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG399" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AH399">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AI399">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ399" t="s">
-        <v>45</v>
+        <v>132</v>
       </c>
     </row>
     <row r="400" spans="32:36" x14ac:dyDescent="0.2">
@@ -9183,27 +9262,27 @@
         <v>112</v>
       </c>
       <c r="AI400">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ400" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
     </row>
     <row r="401" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF401">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG401" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AH401">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AI401">
         <v>2</v>
       </c>
       <c r="AJ401" t="s">
-        <v>71</v>
+        <v>133</v>
       </c>
     </row>
     <row r="402" spans="32:36" x14ac:dyDescent="0.2">
@@ -9220,24 +9299,24 @@
         <v>2</v>
       </c>
       <c r="AJ402" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="403" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF403">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AG403" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AH403">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AI403">
         <v>2</v>
       </c>
       <c r="AJ403" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
     </row>
     <row r="404" spans="32:36" x14ac:dyDescent="0.2">
@@ -9251,27 +9330,27 @@
         <v>114</v>
       </c>
       <c r="AI404">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ404" t="s">
-        <v>72</v>
+        <v>133</v>
       </c>
     </row>
     <row r="405" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF405">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG405" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AH405">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AI405">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ405" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="406" spans="32:36" x14ac:dyDescent="0.2">
@@ -9288,21 +9367,21 @@
         <v>2</v>
       </c>
       <c r="AJ406" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="407" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF407">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG407" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AH407">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AI407">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ407" t="s">
         <v>134</v>
@@ -9319,27 +9398,27 @@
         <v>116</v>
       </c>
       <c r="AI408">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ408" t="s">
-        <v>134</v>
+        <v>73</v>
       </c>
     </row>
     <row r="409" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF409">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG409" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AH409">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AI409">
         <v>2</v>
       </c>
       <c r="AJ409" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
     </row>
     <row r="410" spans="32:36" x14ac:dyDescent="0.2">
@@ -9356,24 +9435,24 @@
         <v>2</v>
       </c>
       <c r="AJ410" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="411" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF411">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG411" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AH411">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AI411">
         <v>2</v>
       </c>
       <c r="AJ411" t="s">
-        <v>135</v>
+        <v>74</v>
       </c>
     </row>
     <row r="412" spans="32:36" x14ac:dyDescent="0.2">
@@ -9387,27 +9466,27 @@
         <v>118</v>
       </c>
       <c r="AI412">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ412" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
     </row>
     <row r="413" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF413">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG413" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AH413">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AI413">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ413" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="414" spans="32:36" x14ac:dyDescent="0.2">
@@ -9424,24 +9503,24 @@
         <v>2</v>
       </c>
       <c r="AJ414" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="415" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF415">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG415" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AH415">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AI415">
         <v>2</v>
       </c>
       <c r="AJ415" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="416" spans="32:36" x14ac:dyDescent="0.2">
@@ -9455,27 +9534,27 @@
         <v>120</v>
       </c>
       <c r="AI416">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ416" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
     </row>
     <row r="417" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF417">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG417" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AH417">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AI417">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ417" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="418" spans="32:36" x14ac:dyDescent="0.2">
@@ -9492,24 +9571,24 @@
         <v>2</v>
       </c>
       <c r="AJ418" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="419" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF419">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG419" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AH419">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AI419">
         <v>2</v>
       </c>
       <c r="AJ419" t="s">
-        <v>137</v>
+        <v>76</v>
       </c>
     </row>
     <row r="420" spans="32:36" x14ac:dyDescent="0.2">
@@ -9523,27 +9602,27 @@
         <v>122</v>
       </c>
       <c r="AI420">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ420" t="s">
-        <v>76</v>
+        <v>137</v>
       </c>
     </row>
     <row r="421" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF421">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG421" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AH421">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AI421">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ421" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="422" spans="32:36" x14ac:dyDescent="0.2">
@@ -9560,24 +9639,24 @@
         <v>2</v>
       </c>
       <c r="AJ422" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="423" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF423">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG423" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AH423">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AI423">
         <v>2</v>
       </c>
       <c r="AJ423" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
     </row>
     <row r="424" spans="32:36" x14ac:dyDescent="0.2">
@@ -9591,27 +9670,27 @@
         <v>124</v>
       </c>
       <c r="AI424">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ424" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
     </row>
     <row r="425" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF425">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG425" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AH425">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AI425">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ425" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="426" spans="32:36" x14ac:dyDescent="0.2">
@@ -9628,24 +9707,24 @@
         <v>2</v>
       </c>
       <c r="AJ426" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="427" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF427">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG427" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AH427">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AI427">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ427" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="428" spans="32:36" x14ac:dyDescent="0.2">
@@ -9659,27 +9738,27 @@
         <v>126</v>
       </c>
       <c r="AI428">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ428" t="s">
-        <v>139</v>
+        <v>78</v>
       </c>
     </row>
     <row r="429" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF429">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG429" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AH429">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AI429">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ429" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
     </row>
     <row r="430" spans="32:36" x14ac:dyDescent="0.2">
@@ -9693,27 +9772,27 @@
         <v>127</v>
       </c>
       <c r="AI430">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ430" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
     </row>
     <row r="431" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF431">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG431" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AH431">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AI431">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AJ431" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
     </row>
     <row r="432" spans="32:36" x14ac:dyDescent="0.2">
@@ -9727,27 +9806,27 @@
         <v>128</v>
       </c>
       <c r="AI432">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ432" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
     </row>
     <row r="433" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF433">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG433" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AH433">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AI433">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AJ433" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
     </row>
     <row r="434" spans="32:36" x14ac:dyDescent="0.2">
@@ -9761,24 +9840,24 @@
         <v>129</v>
       </c>
       <c r="AI434">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AJ434" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
     </row>
     <row r="435" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF435">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG435" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AH435">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AI435">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AJ435" t="s">
         <v>99</v>
@@ -9795,27 +9874,27 @@
         <v>130</v>
       </c>
       <c r="AI436">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AJ436" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
     </row>
     <row r="437" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF437">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG437" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AH437">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AI437">
         <v>1</v>
       </c>
       <c r="AJ437" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="438" spans="32:36" x14ac:dyDescent="0.2">
@@ -9829,27 +9908,27 @@
         <v>131</v>
       </c>
       <c r="AI438">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ438" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
     </row>
     <row r="439" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF439">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG439" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AH439">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI439">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ439" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
     </row>
     <row r="440" spans="32:36" x14ac:dyDescent="0.2">
@@ -9863,27 +9942,27 @@
         <v>132</v>
       </c>
       <c r="AI440">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ440" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
     </row>
     <row r="441" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF441">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG441" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AH441">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AI441">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ441" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
     </row>
     <row r="442" spans="32:36" x14ac:dyDescent="0.2">
@@ -9897,27 +9976,27 @@
         <v>133</v>
       </c>
       <c r="AI442">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ442" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
     </row>
     <row r="443" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF443">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG443" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AH443">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AI443">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AJ443" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
     </row>
     <row r="444" spans="32:36" x14ac:dyDescent="0.2">
@@ -9931,24 +10010,24 @@
         <v>134</v>
       </c>
       <c r="AI444">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ444" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
     </row>
     <row r="445" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF445">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG445" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AH445">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AI445">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AJ445" t="s">
         <v>100</v>
@@ -9965,27 +10044,27 @@
         <v>135</v>
       </c>
       <c r="AI446">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AJ446" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
     </row>
     <row r="447" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF447">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG447" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AH447">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AI447">
         <v>1</v>
       </c>
       <c r="AJ447" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="448" spans="32:36" x14ac:dyDescent="0.2">
@@ -10002,7 +10081,7 @@
         <v>1</v>
       </c>
       <c r="AJ448" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="449" spans="32:36" x14ac:dyDescent="0.2">
@@ -10016,10 +10095,10 @@
         <v>136</v>
       </c>
       <c r="AI449">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ449" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="450" spans="32:36" x14ac:dyDescent="0.2">
@@ -10033,27 +10112,27 @@
         <v>136</v>
       </c>
       <c r="AI450">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ450" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="451" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF451">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG451" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AH451">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AI451">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ451" t="s">
-        <v>151</v>
+        <v>24</v>
       </c>
     </row>
     <row r="452" spans="32:36" x14ac:dyDescent="0.2">
@@ -10067,10 +10146,10 @@
         <v>137</v>
       </c>
       <c r="AI452">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ452" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="453" spans="32:36" x14ac:dyDescent="0.2">
@@ -10087,7 +10166,7 @@
         <v>1</v>
       </c>
       <c r="AJ453" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="454" spans="32:36" x14ac:dyDescent="0.2">
@@ -10104,7 +10183,7 @@
         <v>1</v>
       </c>
       <c r="AJ454" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="455" spans="32:36" x14ac:dyDescent="0.2">
@@ -10118,10 +10197,10 @@
         <v>137</v>
       </c>
       <c r="AI455">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ455" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="456" spans="32:36" x14ac:dyDescent="0.2">
@@ -10135,10 +10214,10 @@
         <v>137</v>
       </c>
       <c r="AI456">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ456" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
     </row>
     <row r="457" spans="32:36" x14ac:dyDescent="0.2">
@@ -10152,10 +10231,10 @@
         <v>137</v>
       </c>
       <c r="AI457">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ457" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
     </row>
     <row r="458" spans="32:36" x14ac:dyDescent="0.2">
@@ -10169,10 +10248,10 @@
         <v>137</v>
       </c>
       <c r="AI458">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ458" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
     </row>
     <row r="459" spans="32:36" x14ac:dyDescent="0.2">
@@ -10189,7 +10268,7 @@
         <v>1</v>
       </c>
       <c r="AJ459" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
     </row>
     <row r="460" spans="32:36" x14ac:dyDescent="0.2">
@@ -10206,7 +10285,7 @@
         <v>1</v>
       </c>
       <c r="AJ460" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="461" spans="32:36" x14ac:dyDescent="0.2">
@@ -10220,10 +10299,10 @@
         <v>137</v>
       </c>
       <c r="AI461">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ461" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="462" spans="32:36" x14ac:dyDescent="0.2">
@@ -10237,10 +10316,10 @@
         <v>137</v>
       </c>
       <c r="AI462">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AJ462" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
     </row>
     <row r="463" spans="32:36" x14ac:dyDescent="0.2">
@@ -10254,10 +10333,10 @@
         <v>137</v>
       </c>
       <c r="AI463">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ463" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
     </row>
     <row r="464" spans="32:36" x14ac:dyDescent="0.2">
@@ -10274,7 +10353,7 @@
         <v>1</v>
       </c>
       <c r="AJ464" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="465" spans="32:36" x14ac:dyDescent="0.2">
@@ -10288,10 +10367,10 @@
         <v>137</v>
       </c>
       <c r="AI465">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ465" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="466" spans="32:36" x14ac:dyDescent="0.2">
@@ -10305,10 +10384,10 @@
         <v>137</v>
       </c>
       <c r="AI466">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AJ466" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="467" spans="32:36" x14ac:dyDescent="0.2">
@@ -10325,7 +10404,7 @@
         <v>2</v>
       </c>
       <c r="AJ467" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="468" spans="32:36" x14ac:dyDescent="0.2">
@@ -10339,10 +10418,10 @@
         <v>137</v>
       </c>
       <c r="AI468">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AJ468" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="469" spans="32:36" x14ac:dyDescent="0.2">
@@ -10356,10 +10435,10 @@
         <v>137</v>
       </c>
       <c r="AI469">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ469" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
     </row>
     <row r="470" spans="32:36" x14ac:dyDescent="0.2">
@@ -10376,7 +10455,7 @@
         <v>1</v>
       </c>
       <c r="AJ470" t="s">
-        <v>140</v>
+        <v>34</v>
       </c>
     </row>
     <row r="471" spans="32:36" x14ac:dyDescent="0.2">
@@ -10393,7 +10472,7 @@
         <v>1</v>
       </c>
       <c r="AJ471" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="472" spans="32:36" x14ac:dyDescent="0.2">
@@ -10407,10 +10486,10 @@
         <v>137</v>
       </c>
       <c r="AI472">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ472" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
     </row>
     <row r="473" spans="32:36" x14ac:dyDescent="0.2">
@@ -10424,10 +10503,10 @@
         <v>137</v>
       </c>
       <c r="AI473">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ473" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
     </row>
     <row r="474" spans="32:36" x14ac:dyDescent="0.2">
@@ -10444,7 +10523,7 @@
         <v>1</v>
       </c>
       <c r="AJ474" t="s">
-        <v>141</v>
+        <v>31</v>
       </c>
     </row>
     <row r="475" spans="32:36" x14ac:dyDescent="0.2">
@@ -10461,7 +10540,7 @@
         <v>1</v>
       </c>
       <c r="AJ475" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="476" spans="32:36" x14ac:dyDescent="0.2">
@@ -10478,7 +10557,7 @@
         <v>1</v>
       </c>
       <c r="AJ476" t="s">
-        <v>30</v>
+        <v>142</v>
       </c>
     </row>
     <row r="477" spans="32:36" x14ac:dyDescent="0.2">
@@ -10495,7 +10574,7 @@
         <v>1</v>
       </c>
       <c r="AJ477" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
     </row>
     <row r="478" spans="32:36" x14ac:dyDescent="0.2">
@@ -10512,7 +10591,7 @@
         <v>1</v>
       </c>
       <c r="AJ478" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="479" spans="32:36" x14ac:dyDescent="0.2">
@@ -10526,10 +10605,10 @@
         <v>137</v>
       </c>
       <c r="AI479">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ479" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
     </row>
     <row r="480" spans="32:36" x14ac:dyDescent="0.2">
@@ -10543,10 +10622,10 @@
         <v>137</v>
       </c>
       <c r="AI480">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ480" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
     </row>
     <row r="481" spans="32:36" x14ac:dyDescent="0.2">
@@ -10563,7 +10642,7 @@
         <v>1</v>
       </c>
       <c r="AJ481" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="482" spans="32:36" x14ac:dyDescent="0.2">
@@ -10580,7 +10659,7 @@
         <v>1</v>
       </c>
       <c r="AJ482" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="483" spans="32:36" x14ac:dyDescent="0.2">
@@ -10597,7 +10676,7 @@
         <v>1</v>
       </c>
       <c r="AJ483" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="484" spans="32:36" x14ac:dyDescent="0.2">
@@ -10611,10 +10690,10 @@
         <v>137</v>
       </c>
       <c r="AI484">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ484" t="s">
-        <v>15</v>
+        <v>148</v>
       </c>
     </row>
     <row r="485" spans="32:36" x14ac:dyDescent="0.2">
@@ -10631,7 +10710,7 @@
         <v>2</v>
       </c>
       <c r="AJ485" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
     </row>
     <row r="486" spans="32:36" x14ac:dyDescent="0.2">
@@ -10645,27 +10724,27 @@
         <v>137</v>
       </c>
       <c r="AI486">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AJ486" t="s">
-        <v>98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF487">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG487" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AH487">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AI487">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="AJ487" t="s">
-        <v>1</v>
+        <v>151</v>
       </c>
     </row>
     <row r="488" spans="32:36" x14ac:dyDescent="0.2">
@@ -10679,34 +10758,19 @@
         <v>138</v>
       </c>
       <c r="AI488">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ488" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="489" spans="32:36" x14ac:dyDescent="0.2">
-      <c r="AF489">
-        <v>138</v>
-      </c>
-      <c r="AG489" t="s">
-        <v>369</v>
-      </c>
-      <c r="AH489">
-        <v>138</v>
-      </c>
-      <c r="AI489">
-        <v>1</v>
-      </c>
-      <c r="AJ489" t="s">
         <v>148</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:AT508">
-    <sortCondition ref="A1:A508"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:AT507">
+    <sortCondition ref="A1:A507"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="65" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/MidiThruWithMerge2in10out/midithruwithmerge2in10out_bom.xlsx
+++ b/MidiThruWithMerge2in10out/midithruwithmerge2in10out_bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aokudrya/Documents/GitHub/Midi-boards/MidiThruWithMerge2in10out/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E0B488-C2E9-7541-857C-6D9D5F558A5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5322BC3C-D174-9D4D-8E70-0651F215423D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="300" yWindow="-16640" windowWidth="28040" windowHeight="16220" xr2:uid="{6A056D03-5A41-7E4C-9F1A-726EE5E8421D}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="midithruwithmerge2in10out" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">midithruwithmerge2in10out!$A$1:$E$72</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">midithruwithmerge2in10out!$A$1:$E$73</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="413">
   <si>
     <t>D</t>
   </si>
@@ -1269,6 +1269,9 @@
   </si>
   <si>
     <t>Sockets, switches, housing:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* If you choose USB power option, then put a jumper between pin 1 and 3 on U4, those are outer pins. Leave center pin unconnected. Don't short it, etc...  </t>
   </si>
 </sst>
 </file>
@@ -1454,7 +1457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1465,9 +1468,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1481,10 +1481,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1508,13 +1520,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1557,8 +1569,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>199433</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>186733</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1908,10 +1920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:AJ518"/>
+  <dimension ref="A2:AJ519"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1952,13 +1964,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:29" ht="31" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>399</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="4" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -2271,10 +2283,10 @@
       <c r="C31" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="17">
         <v>6</v>
       </c>
     </row>
@@ -2286,10 +2298,10 @@
       <c r="C32" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="17">
         <v>1</v>
       </c>
     </row>
@@ -2301,10 +2313,10 @@
       <c r="C33" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="17" t="s">
         <v>404</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="17">
         <v>2</v>
       </c>
     </row>
@@ -2383,13 +2395,13 @@
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="17"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="16"/>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
@@ -2399,58 +2411,36 @@
       <c r="E44" s="7"/>
     </row>
     <row r="45" spans="1:29" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="18" t="s">
         <v>397</v>
       </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="10"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="20"/>
     </row>
     <row r="46" spans="1:29" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="18" t="s">
         <v>395</v>
       </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="10"/>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="20"/>
+    </row>
+    <row r="47" spans="1:29" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="9"/>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="7"/>
-      <c r="R47" t="s">
-        <v>3</v>
-      </c>
-      <c r="S47" t="s">
-        <v>151</v>
-      </c>
-      <c r="T47">
-        <v>1</v>
-      </c>
-      <c r="V47" t="s">
-        <v>152</v>
-      </c>
-      <c r="W47" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB47">
-        <v>1</v>
-      </c>
-      <c r="AC47" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A48" s="5"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -2474,16 +2464,14 @@
         <v>14</v>
       </c>
       <c r="AB48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC48" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A49" s="11" t="s">
-        <v>396</v>
-      </c>
+      <c r="A49" s="5"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -2507,16 +2495,15 @@
         <v>14</v>
       </c>
       <c r="AB49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC49" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="str">
-        <f>"- Connect Pin7 to the ground (bottom layer), there is a pad (scratch) next to it."</f>
-        <v>- Connect Pin7 to the ground (bottom layer), there is a pad (scratch) next to it.</v>
+      <c r="A50" s="10" t="s">
+        <v>396</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -2541,16 +2528,16 @@
         <v>14</v>
       </c>
       <c r="AB50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC50" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="str">
-        <f xml:space="preserve"> "- Connect Pin14 to +5V (top layer) with a short wire to the capacitor positive pin. Avoid shorting to a bottom layer."</f>
-        <v>- Connect Pin14 to +5V (top layer) with a short wire to the capacitor positive pin. Avoid shorting to a bottom layer.</v>
+        <f>"- Connect Pin7 to the ground (bottom layer), there is a pad (scratch) next to it."</f>
+        <v>- Connect Pin7 to the ground (bottom layer), there is a pad (scratch) next to it.</v>
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -2575,16 +2562,16 @@
         <v>14</v>
       </c>
       <c r="AB51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC51" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="str">
-        <f xml:space="preserve"> "- Refer to a picture below."</f>
-        <v>- Refer to a picture below.</v>
+        <f xml:space="preserve"> "- Connect Pin14 to +5V (top layer) with a short wire to the capacitor positive pin. Avoid shorting to a bottom layer."</f>
+        <v>- Connect Pin14 to +5V (top layer) with a short wire to the capacitor positive pin. Avoid shorting to a bottom layer.</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -2609,14 +2596,17 @@
         <v>14</v>
       </c>
       <c r="AB52">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A53" s="5"/>
+      <c r="A53" s="5" t="str">
+        <f xml:space="preserve"> "- Refer to a picture below."</f>
+        <v>- Refer to a picture below.</v>
+      </c>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -2637,13 +2627,13 @@
         <v>153</v>
       </c>
       <c r="AA53" t="s">
-        <v>159</v>
+        <v>14</v>
       </c>
       <c r="AB53">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC53" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.2">
@@ -2668,13 +2658,13 @@
         <v>153</v>
       </c>
       <c r="AA54" t="s">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="AB54">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC54" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.2">
@@ -2702,10 +2692,10 @@
         <v>14</v>
       </c>
       <c r="AB55">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC55" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.2">
@@ -2733,10 +2723,10 @@
         <v>14</v>
       </c>
       <c r="AB56">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC56" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.2">
@@ -2764,10 +2754,10 @@
         <v>14</v>
       </c>
       <c r="AB57">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC57" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.2">
@@ -2795,10 +2785,10 @@
         <v>14</v>
       </c>
       <c r="AB58">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC58" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.2">
@@ -2826,10 +2816,10 @@
         <v>14</v>
       </c>
       <c r="AB59">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC59" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.2">
@@ -2854,13 +2844,13 @@
         <v>153</v>
       </c>
       <c r="AA60" t="s">
-        <v>161</v>
+        <v>14</v>
       </c>
       <c r="AB60">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC60" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.2">
@@ -2870,22 +2860,28 @@
       <c r="D61" s="6"/>
       <c r="E61" s="7"/>
       <c r="R61" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S61" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="T61">
-        <v>2</v>
-      </c>
-      <c r="U61" t="s">
-        <v>162</v>
+        <v>1</v>
       </c>
       <c r="V61" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="W61" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB61">
         <v>14</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.2">
@@ -2903,17 +2899,14 @@
       <c r="T62">
         <v>2</v>
       </c>
+      <c r="U62" t="s">
+        <v>162</v>
+      </c>
       <c r="V62" t="s">
         <v>136</v>
       </c>
       <c r="W62" t="s">
         <v>14</v>
-      </c>
-      <c r="X62" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y62" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.2">
@@ -2938,10 +2931,10 @@
         <v>14</v>
       </c>
       <c r="X63" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Y63" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.2">
@@ -2965,8 +2958,11 @@
       <c r="W64" t="s">
         <v>14</v>
       </c>
-      <c r="Z64" t="s">
-        <v>164</v>
+      <c r="X64" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.2">
@@ -2990,14 +2986,8 @@
       <c r="W65" t="s">
         <v>14</v>
       </c>
-      <c r="AA65" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB65">
-        <v>1</v>
-      </c>
-      <c r="AC65" t="s">
-        <v>165</v>
+      <c r="Z65" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.2">
@@ -3025,7 +3015,7 @@
         <v>14</v>
       </c>
       <c r="AB66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC66" t="s">
         <v>165</v>
@@ -3041,22 +3031,25 @@
         <v>8</v>
       </c>
       <c r="S67" t="s">
-        <v>9</v>
+        <v>137</v>
       </c>
       <c r="T67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V67" t="s">
-        <v>7</v>
+        <v>136</v>
       </c>
       <c r="W67" t="s">
-        <v>6</v>
-      </c>
-      <c r="X67" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y67" t="s">
-        <v>163</v>
+        <v>14</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB67">
+        <v>2</v>
+      </c>
+      <c r="AC67" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.2">
@@ -3081,10 +3074,10 @@
         <v>6</v>
       </c>
       <c r="X68" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Y68" t="s">
-        <v>9</v>
+        <v>163</v>
       </c>
     </row>
     <row r="69" spans="1:29" x14ac:dyDescent="0.2">
@@ -3108,8 +3101,11 @@
       <c r="W69" t="s">
         <v>6</v>
       </c>
-      <c r="Z69" t="s">
-        <v>166</v>
+      <c r="X69" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:29" x14ac:dyDescent="0.2">
@@ -3133,14 +3129,8 @@
       <c r="W70" t="s">
         <v>6</v>
       </c>
-      <c r="AA70" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB70">
-        <v>1</v>
-      </c>
-      <c r="AC70" t="s">
-        <v>165</v>
+      <c r="Z70" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.2">
@@ -3168,18 +3158,18 @@
         <v>14</v>
       </c>
       <c r="AB71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC71" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A72" s="12"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="14"/>
+      <c r="A72" s="5"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="7"/>
       <c r="R72" t="s">
         <v>8</v>
       </c>
@@ -3199,13 +3189,18 @@
         <v>14</v>
       </c>
       <c r="AB72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC72" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="73" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A73" s="11"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="13"/>
       <c r="R73" t="s">
         <v>8</v>
       </c>
@@ -3225,7 +3220,7 @@
         <v>14</v>
       </c>
       <c r="AB73">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC73" t="s">
         <v>165</v>
@@ -3251,7 +3246,7 @@
         <v>14</v>
       </c>
       <c r="AB74">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC74" t="s">
         <v>165</v>
@@ -3259,25 +3254,28 @@
     </row>
     <row r="75" spans="1:29" x14ac:dyDescent="0.2">
       <c r="R75" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="S75" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="T75">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V75" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="W75" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA75" t="s">
         <v>14</v>
       </c>
-      <c r="X75" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y75" t="s">
-        <v>34</v>
+      <c r="AB75">
+        <v>5</v>
+      </c>
+      <c r="AC75" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.2">
@@ -3297,7 +3295,7 @@
         <v>14</v>
       </c>
       <c r="X76" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Y76" t="s">
         <v>34</v>
@@ -3319,8 +3317,11 @@
       <c r="W77" t="s">
         <v>14</v>
       </c>
-      <c r="Z77" t="s">
-        <v>167</v>
+      <c r="X77" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.2">
@@ -3339,14 +3340,8 @@
       <c r="W78" t="s">
         <v>14</v>
       </c>
-      <c r="AA78" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB78">
-        <v>1</v>
-      </c>
-      <c r="AC78" t="s">
-        <v>165</v>
+      <c r="Z78" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.2">
@@ -3369,7 +3364,7 @@
         <v>14</v>
       </c>
       <c r="AB79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC79" t="s">
         <v>165</v>
@@ -3380,22 +3375,25 @@
         <v>16</v>
       </c>
       <c r="S80" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="T80">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V80" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="W80" t="s">
         <v>14</v>
       </c>
-      <c r="X80" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y80" t="s">
-        <v>0</v>
+      <c r="AA80" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB80">
+        <v>2</v>
+      </c>
+      <c r="AC80" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="81" spans="18:29" x14ac:dyDescent="0.2">
@@ -3415,7 +3413,7 @@
         <v>14</v>
       </c>
       <c r="X81" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Y81" t="s">
         <v>0</v>
@@ -3437,8 +3435,11 @@
       <c r="W82" t="s">
         <v>14</v>
       </c>
-      <c r="Z82" t="s">
-        <v>168</v>
+      <c r="X82" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="18:29" x14ac:dyDescent="0.2">
@@ -3458,7 +3459,7 @@
         <v>14</v>
       </c>
       <c r="Z83" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="84" spans="18:29" x14ac:dyDescent="0.2">
@@ -3478,7 +3479,7 @@
         <v>14</v>
       </c>
       <c r="Z84" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="85" spans="18:29" x14ac:dyDescent="0.2">
@@ -3498,7 +3499,7 @@
         <v>14</v>
       </c>
       <c r="Z85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="86" spans="18:29" x14ac:dyDescent="0.2">
@@ -3517,14 +3518,8 @@
       <c r="W86" t="s">
         <v>14</v>
       </c>
-      <c r="AA86" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB86">
-        <v>1</v>
-      </c>
-      <c r="AC86" t="s">
-        <v>165</v>
+      <c r="Z86" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="87" spans="18:29" x14ac:dyDescent="0.2">
@@ -3544,10 +3539,10 @@
         <v>14</v>
       </c>
       <c r="AA87" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AB87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC87" t="s">
         <v>165</v>
@@ -3558,22 +3553,25 @@
         <v>16</v>
       </c>
       <c r="S88" t="s">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="T88">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V88" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="W88" t="s">
         <v>14</v>
       </c>
-      <c r="X88" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y88" t="s">
-        <v>174</v>
+      <c r="AA88" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB88">
+        <v>2</v>
+      </c>
+      <c r="AC88" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="89" spans="18:29" x14ac:dyDescent="0.2">
@@ -3593,10 +3591,10 @@
         <v>14</v>
       </c>
       <c r="X89" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Y89" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
     </row>
     <row r="90" spans="18:29" x14ac:dyDescent="0.2">
@@ -3615,14 +3613,11 @@
       <c r="W90" t="s">
         <v>14</v>
       </c>
-      <c r="AA90">
-        <v>1</v>
-      </c>
-      <c r="AB90">
-        <v>1</v>
-      </c>
-      <c r="AC90" t="s">
-        <v>165</v>
+      <c r="X90" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="91" spans="18:29" x14ac:dyDescent="0.2">
@@ -3642,10 +3637,10 @@
         <v>14</v>
       </c>
       <c r="AA91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC91" t="s">
         <v>165</v>
@@ -3668,10 +3663,10 @@
         <v>14</v>
       </c>
       <c r="AA92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC92" t="s">
         <v>165</v>
@@ -3682,22 +3677,25 @@
         <v>16</v>
       </c>
       <c r="S93" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="T93">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V93" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="W93" t="s">
         <v>14</v>
       </c>
-      <c r="X93" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y93" t="s">
-        <v>0</v>
+      <c r="AA93">
+        <v>3</v>
+      </c>
+      <c r="AB93">
+        <v>3</v>
+      </c>
+      <c r="AC93" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="94" spans="18:29" x14ac:dyDescent="0.2">
@@ -3717,10 +3715,10 @@
         <v>14</v>
       </c>
       <c r="X94" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Y94" t="s">
-        <v>84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="18:29" x14ac:dyDescent="0.2">
@@ -3739,8 +3737,11 @@
       <c r="W95" t="s">
         <v>14</v>
       </c>
-      <c r="Z95" t="s">
-        <v>175</v>
+      <c r="X95" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="96" spans="18:29" x14ac:dyDescent="0.2">
@@ -3760,7 +3761,7 @@
         <v>14</v>
       </c>
       <c r="Z96" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="97" spans="18:29" x14ac:dyDescent="0.2">
@@ -3780,7 +3781,7 @@
         <v>14</v>
       </c>
       <c r="Z97" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="98" spans="18:29" x14ac:dyDescent="0.2">
@@ -3799,14 +3800,8 @@
       <c r="W98" t="s">
         <v>14</v>
       </c>
-      <c r="AA98" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB98">
-        <v>1</v>
-      </c>
-      <c r="AC98" t="s">
-        <v>165</v>
+      <c r="Z98" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="99" spans="18:29" x14ac:dyDescent="0.2">
@@ -3826,10 +3821,10 @@
         <v>14</v>
       </c>
       <c r="AA99" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AB99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC99" t="s">
         <v>165</v>
@@ -3840,22 +3835,25 @@
         <v>16</v>
       </c>
       <c r="S100" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="T100">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V100" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="W100" t="s">
         <v>14</v>
       </c>
-      <c r="X100" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y100" t="s">
-        <v>17</v>
+      <c r="AA100" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB100">
+        <v>2</v>
+      </c>
+      <c r="AC100" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="101" spans="18:29" x14ac:dyDescent="0.2">
@@ -3875,7 +3873,7 @@
         <v>14</v>
       </c>
       <c r="X101" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Y101" t="s">
         <v>17</v>
@@ -3897,8 +3895,11 @@
       <c r="W102" t="s">
         <v>14</v>
       </c>
-      <c r="Z102" t="s">
-        <v>178</v>
+      <c r="X102" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="103" spans="18:29" x14ac:dyDescent="0.2">
@@ -3917,14 +3918,8 @@
       <c r="W103" t="s">
         <v>14</v>
       </c>
-      <c r="AA103" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB103">
-        <v>1</v>
-      </c>
-      <c r="AC103" t="s">
-        <v>165</v>
+      <c r="Z103" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="104" spans="18:29" x14ac:dyDescent="0.2">
@@ -3947,7 +3942,7 @@
         <v>14</v>
       </c>
       <c r="AB104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC104" t="s">
         <v>165</v>
@@ -3955,22 +3950,28 @@
     </row>
     <row r="105" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R105" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="S105" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="T105">
-        <v>9</v>
-      </c>
-      <c r="U105" t="s">
-        <v>179</v>
+        <v>8</v>
       </c>
       <c r="V105" t="s">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="W105" t="s">
-        <v>95</v>
+        <v>14</v>
+      </c>
+      <c r="AA105" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB105">
+        <v>2</v>
+      </c>
+      <c r="AC105" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="106" spans="18:29" x14ac:dyDescent="0.2">
@@ -3983,17 +3984,14 @@
       <c r="T106">
         <v>9</v>
       </c>
+      <c r="U106" t="s">
+        <v>179</v>
+      </c>
       <c r="V106" t="s">
         <v>96</v>
       </c>
       <c r="W106" t="s">
         <v>95</v>
-      </c>
-      <c r="X106" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y106" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="107" spans="18:29" x14ac:dyDescent="0.2">
@@ -4013,10 +4011,10 @@
         <v>95</v>
       </c>
       <c r="X107" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Y107" t="s">
-        <v>98</v>
+        <v>155</v>
       </c>
     </row>
     <row r="108" spans="18:29" x14ac:dyDescent="0.2">
@@ -4035,8 +4033,11 @@
       <c r="W108" t="s">
         <v>95</v>
       </c>
-      <c r="Z108" t="s">
-        <v>180</v>
+      <c r="X108" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="109" spans="18:29" x14ac:dyDescent="0.2">
@@ -4056,7 +4057,7 @@
         <v>95</v>
       </c>
       <c r="Z109" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="110" spans="18:29" x14ac:dyDescent="0.2">
@@ -4075,14 +4076,8 @@
       <c r="W110" t="s">
         <v>95</v>
       </c>
-      <c r="AA110" t="s">
-        <v>182</v>
-      </c>
-      <c r="AB110">
-        <v>1</v>
-      </c>
-      <c r="AC110" t="s">
-        <v>183</v>
+      <c r="Z110" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="111" spans="18:29" x14ac:dyDescent="0.2">
@@ -4102,13 +4097,13 @@
         <v>95</v>
       </c>
       <c r="AA111" t="s">
-        <v>35</v>
+        <v>182</v>
       </c>
       <c r="AB111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC111" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
     </row>
     <row r="112" spans="18:29" x14ac:dyDescent="0.2">
@@ -4128,10 +4123,10 @@
         <v>95</v>
       </c>
       <c r="AA112" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="AB112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC112" t="s">
         <v>165</v>
@@ -4154,13 +4149,13 @@
         <v>95</v>
       </c>
       <c r="AA113" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
       <c r="AB113">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC113" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
     </row>
     <row r="114" spans="18:29" x14ac:dyDescent="0.2">
@@ -4180,13 +4175,13 @@
         <v>95</v>
       </c>
       <c r="AA114" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="AB114">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC114" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
     </row>
     <row r="115" spans="18:29" x14ac:dyDescent="0.2">
@@ -4206,10 +4201,10 @@
         <v>95</v>
       </c>
       <c r="AA115" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="AB115">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC115" t="s">
         <v>165</v>
@@ -4232,10 +4227,10 @@
         <v>95</v>
       </c>
       <c r="AA116" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AB116">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC116" t="s">
         <v>165</v>
@@ -4258,10 +4253,10 @@
         <v>95</v>
       </c>
       <c r="AA117" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="AB117">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC117" t="s">
         <v>165</v>
@@ -4269,25 +4264,28 @@
     </row>
     <row r="118" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R118" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="S118" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="T118">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V118" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="W118" t="s">
-        <v>78</v>
-      </c>
-      <c r="X118" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y118" t="s">
-        <v>155</v>
+        <v>95</v>
+      </c>
+      <c r="AA118" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB118">
+        <v>8</v>
+      </c>
+      <c r="AC118" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="119" spans="18:29" x14ac:dyDescent="0.2">
@@ -4307,10 +4305,10 @@
         <v>78</v>
       </c>
       <c r="X119" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Y119" t="s">
-        <v>81</v>
+        <v>155</v>
       </c>
     </row>
     <row r="120" spans="18:29" x14ac:dyDescent="0.2">
@@ -4329,8 +4327,11 @@
       <c r="W120" t="s">
         <v>78</v>
       </c>
-      <c r="Z120" t="s">
-        <v>186</v>
+      <c r="X120" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y120" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="121" spans="18:29" x14ac:dyDescent="0.2">
@@ -4350,7 +4351,7 @@
         <v>78</v>
       </c>
       <c r="Z121" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="122" spans="18:29" x14ac:dyDescent="0.2">
@@ -4369,14 +4370,8 @@
       <c r="W122" t="s">
         <v>78</v>
       </c>
-      <c r="AA122" t="s">
-        <v>188</v>
-      </c>
-      <c r="AB122">
-        <v>1</v>
-      </c>
-      <c r="AC122" t="s">
-        <v>189</v>
+      <c r="Z122" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="123" spans="18:29" x14ac:dyDescent="0.2">
@@ -4396,10 +4391,10 @@
         <v>78</v>
       </c>
       <c r="AA123" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AB123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC123" t="s">
         <v>189</v>
@@ -4422,10 +4417,10 @@
         <v>78</v>
       </c>
       <c r="AA124" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AB124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC124" t="s">
         <v>189</v>
@@ -4448,13 +4443,13 @@
         <v>78</v>
       </c>
       <c r="AA125" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AB125">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC125" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
     </row>
     <row r="126" spans="18:29" x14ac:dyDescent="0.2">
@@ -4474,13 +4469,13 @@
         <v>78</v>
       </c>
       <c r="AA126" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AB126">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC126" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="127" spans="18:29" x14ac:dyDescent="0.2">
@@ -4500,13 +4495,13 @@
         <v>78</v>
       </c>
       <c r="AA127" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AB127">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC127" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
     </row>
     <row r="128" spans="18:29" x14ac:dyDescent="0.2">
@@ -4526,10 +4521,10 @@
         <v>78</v>
       </c>
       <c r="AA128" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AB128">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC128" t="s">
         <v>189</v>
@@ -4552,10 +4547,10 @@
         <v>78</v>
       </c>
       <c r="AA129" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AB129">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC129" t="s">
         <v>189</v>
@@ -4578,10 +4573,10 @@
         <v>78</v>
       </c>
       <c r="AA130" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AB130">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC130" t="s">
         <v>189</v>
@@ -4604,10 +4599,10 @@
         <v>78</v>
       </c>
       <c r="AA131" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AB131">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC131" t="s">
         <v>189</v>
@@ -4630,10 +4625,10 @@
         <v>78</v>
       </c>
       <c r="AA132" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AB132">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC132" t="s">
         <v>189</v>
@@ -4656,10 +4651,10 @@
         <v>78</v>
       </c>
       <c r="AA133" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AB133">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC133" t="s">
         <v>189</v>
@@ -4682,10 +4677,10 @@
         <v>78</v>
       </c>
       <c r="AA134" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AB134">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC134" t="s">
         <v>189</v>
@@ -4708,13 +4703,13 @@
         <v>78</v>
       </c>
       <c r="AA135" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AB135">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC135" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
     </row>
     <row r="136" spans="18:29" x14ac:dyDescent="0.2">
@@ -4734,13 +4729,13 @@
         <v>78</v>
       </c>
       <c r="AA136" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AB136">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC136" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
     </row>
     <row r="137" spans="18:29" x14ac:dyDescent="0.2">
@@ -4760,10 +4755,10 @@
         <v>78</v>
       </c>
       <c r="AA137" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AB137">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC137" t="s">
         <v>189</v>
@@ -4786,10 +4781,10 @@
         <v>78</v>
       </c>
       <c r="AA138" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AB138">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC138" t="s">
         <v>189</v>
@@ -4812,10 +4807,10 @@
         <v>78</v>
       </c>
       <c r="AA139" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AB139">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC139" t="s">
         <v>189</v>
@@ -4823,25 +4818,28 @@
     </row>
     <row r="140" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R140" t="s">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="S140" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="T140">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V140" t="s">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="W140" t="s">
-        <v>142</v>
-      </c>
-      <c r="X140" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y140" t="s">
-        <v>155</v>
+        <v>78</v>
+      </c>
+      <c r="AA140" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB140">
+        <v>18</v>
+      </c>
+      <c r="AC140" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="141" spans="18:29" x14ac:dyDescent="0.2">
@@ -4861,10 +4859,10 @@
         <v>142</v>
       </c>
       <c r="X141" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Y141" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
     </row>
     <row r="142" spans="18:29" x14ac:dyDescent="0.2">
@@ -4884,10 +4882,10 @@
         <v>142</v>
       </c>
       <c r="X142" t="s">
-        <v>207</v>
+        <v>156</v>
       </c>
       <c r="Y142" t="s">
-        <v>208</v>
+        <v>146</v>
       </c>
     </row>
     <row r="143" spans="18:29" x14ac:dyDescent="0.2">
@@ -4907,10 +4905,10 @@
         <v>142</v>
       </c>
       <c r="X143" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y143" t="s">
-        <v>142</v>
+        <v>208</v>
       </c>
     </row>
     <row r="144" spans="18:29" x14ac:dyDescent="0.2">
@@ -4930,10 +4928,10 @@
         <v>142</v>
       </c>
       <c r="X144" t="s">
-        <v>54</v>
+        <v>209</v>
       </c>
       <c r="Y144" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="145" spans="18:29" x14ac:dyDescent="0.2">
@@ -4953,10 +4951,10 @@
         <v>142</v>
       </c>
       <c r="X145" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="Y145" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="146" spans="18:29" x14ac:dyDescent="0.2">
@@ -4976,10 +4974,10 @@
         <v>142</v>
       </c>
       <c r="X146" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="Y146" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="147" spans="18:29" x14ac:dyDescent="0.2">
@@ -4999,10 +4997,10 @@
         <v>142</v>
       </c>
       <c r="X147" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="Y147" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="148" spans="18:29" x14ac:dyDescent="0.2">
@@ -5022,10 +5020,10 @@
         <v>142</v>
       </c>
       <c r="X148" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="Y148" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="149" spans="18:29" x14ac:dyDescent="0.2">
@@ -5045,10 +5043,10 @@
         <v>142</v>
       </c>
       <c r="X149" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Y149" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="150" spans="18:29" x14ac:dyDescent="0.2">
@@ -5068,10 +5066,10 @@
         <v>142</v>
       </c>
       <c r="X150" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Y150" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="151" spans="18:29" x14ac:dyDescent="0.2">
@@ -5091,10 +5089,10 @@
         <v>142</v>
       </c>
       <c r="X151" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="Y151" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="152" spans="18:29" x14ac:dyDescent="0.2">
@@ -5114,10 +5112,10 @@
         <v>142</v>
       </c>
       <c r="X152" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Y152" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
     </row>
     <row r="153" spans="18:29" x14ac:dyDescent="0.2">
@@ -5136,14 +5134,11 @@
       <c r="W153" t="s">
         <v>142</v>
       </c>
-      <c r="AA153" t="s">
-        <v>210</v>
-      </c>
-      <c r="AB153">
-        <v>1</v>
-      </c>
-      <c r="AC153" t="s">
-        <v>160</v>
+      <c r="X153" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y153" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="154" spans="18:29" x14ac:dyDescent="0.2">
@@ -5163,10 +5158,10 @@
         <v>142</v>
       </c>
       <c r="AA154" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
       <c r="AB154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC154" t="s">
         <v>160</v>
@@ -5189,36 +5184,39 @@
         <v>142</v>
       </c>
       <c r="AA155" t="s">
-        <v>211</v>
+        <v>159</v>
       </c>
       <c r="AB155">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC155" t="s">
-        <v>212</v>
+        <v>160</v>
       </c>
     </row>
     <row r="156" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R156" t="s">
-        <v>48</v>
+        <v>145</v>
       </c>
       <c r="S156" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="T156">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V156" t="s">
-        <v>47</v>
+        <v>144</v>
       </c>
       <c r="W156" t="s">
-        <v>43</v>
-      </c>
-      <c r="X156" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y156" t="s">
-        <v>213</v>
+        <v>142</v>
+      </c>
+      <c r="AA156" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB156">
+        <v>3</v>
+      </c>
+      <c r="AC156" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="157" spans="18:29" x14ac:dyDescent="0.2">
@@ -5238,10 +5236,10 @@
         <v>43</v>
       </c>
       <c r="X157" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Y157" t="s">
-        <v>49</v>
+        <v>213</v>
       </c>
     </row>
     <row r="158" spans="18:29" x14ac:dyDescent="0.2">
@@ -5261,10 +5259,10 @@
         <v>43</v>
       </c>
       <c r="X158" t="s">
-        <v>207</v>
+        <v>156</v>
       </c>
       <c r="Y158" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="159" spans="18:29" x14ac:dyDescent="0.2">
@@ -5284,10 +5282,10 @@
         <v>43</v>
       </c>
       <c r="X159" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y159" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="160" spans="18:29" x14ac:dyDescent="0.2">
@@ -5307,10 +5305,10 @@
         <v>43</v>
       </c>
       <c r="X160" t="s">
-        <v>54</v>
+        <v>209</v>
       </c>
       <c r="Y160" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="161" spans="18:31" x14ac:dyDescent="0.2">
@@ -5330,10 +5328,10 @@
         <v>43</v>
       </c>
       <c r="X161" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="Y161" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="162" spans="18:31" x14ac:dyDescent="0.2">
@@ -5353,10 +5351,10 @@
         <v>43</v>
       </c>
       <c r="X162" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="Y162" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="163" spans="18:31" x14ac:dyDescent="0.2">
@@ -5376,10 +5374,10 @@
         <v>43</v>
       </c>
       <c r="X163" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="Y163" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="164" spans="18:31" x14ac:dyDescent="0.2">
@@ -5399,10 +5397,10 @@
         <v>43</v>
       </c>
       <c r="X164" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="Y164" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="165" spans="18:31" x14ac:dyDescent="0.2">
@@ -5422,10 +5420,10 @@
         <v>43</v>
       </c>
       <c r="X165" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Y165" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="166" spans="18:31" x14ac:dyDescent="0.2">
@@ -5445,10 +5443,10 @@
         <v>43</v>
       </c>
       <c r="X166" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Y166" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="167" spans="18:31" x14ac:dyDescent="0.2">
@@ -5468,10 +5466,10 @@
         <v>43</v>
       </c>
       <c r="X167" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="Y167" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="168" spans="18:31" x14ac:dyDescent="0.2">
@@ -5491,10 +5489,10 @@
         <v>43</v>
       </c>
       <c r="X168" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Y168" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="169" spans="18:31" x14ac:dyDescent="0.2">
@@ -5513,14 +5511,11 @@
       <c r="W169" t="s">
         <v>43</v>
       </c>
-      <c r="AA169" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB169">
-        <v>1</v>
-      </c>
-      <c r="AC169" t="s">
-        <v>165</v>
+      <c r="X169" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y169" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="170" spans="18:31" x14ac:dyDescent="0.2">
@@ -5540,10 +5535,10 @@
         <v>43</v>
       </c>
       <c r="AA170" t="s">
-        <v>214</v>
+        <v>14</v>
       </c>
       <c r="AB170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC170" t="s">
         <v>165</v>
@@ -5566,100 +5561,109 @@
         <v>43</v>
       </c>
       <c r="AA171" t="s">
-        <v>14</v>
+        <v>214</v>
       </c>
       <c r="AB171">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC171" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="172" spans="18:31" x14ac:dyDescent="0.2">
-      <c r="AD172" t="s">
+      <c r="R172" t="s">
+        <v>48</v>
+      </c>
+      <c r="S172" t="s">
+        <v>49</v>
+      </c>
+      <c r="T172">
+        <v>12</v>
+      </c>
+      <c r="V172" t="s">
+        <v>47</v>
+      </c>
+      <c r="W172" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA172" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB172">
         <v>3</v>
       </c>
-      <c r="AE172" t="s">
-        <v>215</v>
+      <c r="AC172" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="173" spans="18:31" x14ac:dyDescent="0.2">
       <c r="AD173" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AE173" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="174" spans="18:31" x14ac:dyDescent="0.2">
       <c r="AD174" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AE174" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="175" spans="18:31" x14ac:dyDescent="0.2">
       <c r="AD175" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="AE175" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="176" spans="18:31" x14ac:dyDescent="0.2">
       <c r="AD176" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="AE176" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="177" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AD177" t="s">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="AE177" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="178" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AD178" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE178" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="179" spans="30:36" x14ac:dyDescent="0.2">
+      <c r="AD179" t="s">
         <v>48</v>
       </c>
-      <c r="AE178" t="s">
+      <c r="AE179" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="179" spans="30:36" x14ac:dyDescent="0.2">
-      <c r="AF179">
-        <v>1</v>
-      </c>
-      <c r="AG179" t="s">
-        <v>222</v>
-      </c>
-      <c r="AH179">
-        <v>1</v>
-      </c>
-      <c r="AI179">
-        <v>1</v>
-      </c>
-      <c r="AJ179" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="180" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG180" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AH180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI180">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ180" t="s">
         <v>5</v>
@@ -5667,33 +5671,33 @@
     </row>
     <row r="181" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF181">
+        <v>2</v>
+      </c>
+      <c r="AG181" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH181">
+        <v>2</v>
+      </c>
+      <c r="AI181">
         <v>3</v>
       </c>
-      <c r="AG181" t="s">
-        <v>224</v>
-      </c>
-      <c r="AH181">
-        <v>3</v>
-      </c>
-      <c r="AI181">
-        <v>1</v>
-      </c>
       <c r="AJ181" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="182" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF182">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG182" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AH182">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI182">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ182" t="s">
         <v>10</v>
@@ -5701,33 +5705,33 @@
     </row>
     <row r="183" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF183">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG183" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AH183">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI183">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ183" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="184" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF184">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG184" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AH184">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI184">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ184" t="s">
         <v>11</v>
@@ -5735,33 +5739,33 @@
     </row>
     <row r="185" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF185">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG185" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AH185">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI185">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ185" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="186" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF186">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG186" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AH186">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI186">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ186" t="s">
         <v>12</v>
@@ -5769,19 +5773,19 @@
     </row>
     <row r="187" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF187">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG187" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AH187">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI187">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ187" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
     </row>
     <row r="188" spans="30:36" x14ac:dyDescent="0.2">
@@ -5795,27 +5799,27 @@
         <v>9</v>
       </c>
       <c r="AI188">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ188" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
     </row>
     <row r="189" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF189">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG189" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AH189">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI189">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ189" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="190" spans="30:36" x14ac:dyDescent="0.2">
@@ -5829,27 +5833,27 @@
         <v>10</v>
       </c>
       <c r="AI190">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ190" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="191" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF191">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG191" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AH191">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI191">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ191" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="192" spans="30:36" x14ac:dyDescent="0.2">
@@ -5863,27 +5867,27 @@
         <v>11</v>
       </c>
       <c r="AI192">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ192" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="193" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF193">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG193" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AH193">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI193">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ193" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="194" spans="32:36" x14ac:dyDescent="0.2">
@@ -5897,27 +5901,27 @@
         <v>12</v>
       </c>
       <c r="AI194">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ194" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="195" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF195">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG195" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AH195">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI195">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ195" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="196" spans="32:36" x14ac:dyDescent="0.2">
@@ -5931,44 +5935,44 @@
         <v>13</v>
       </c>
       <c r="AI196">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ196" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="197" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF197">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG197" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AH197">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI197">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ197" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="198" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF198">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG198" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AH198">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI198">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AJ198" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
     </row>
     <row r="199" spans="32:36" x14ac:dyDescent="0.2">
@@ -5985,7 +5989,7 @@
         <v>9</v>
       </c>
       <c r="AJ199" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="200" spans="32:36" x14ac:dyDescent="0.2">
@@ -5999,7 +6003,7 @@
         <v>15</v>
       </c>
       <c r="AI200">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AJ200" t="s">
         <v>1</v>
@@ -6016,10 +6020,10 @@
         <v>15</v>
       </c>
       <c r="AI201">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AJ201" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="32:36" x14ac:dyDescent="0.2">
@@ -6033,10 +6037,10 @@
         <v>15</v>
       </c>
       <c r="AI202">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ202" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="203" spans="32:36" x14ac:dyDescent="0.2">
@@ -6050,7 +6054,7 @@
         <v>15</v>
       </c>
       <c r="AI203">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ203" t="s">
         <v>1</v>
@@ -6067,7 +6071,7 @@
         <v>15</v>
       </c>
       <c r="AI204">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AJ204" t="s">
         <v>1</v>
@@ -6084,10 +6088,10 @@
         <v>15</v>
       </c>
       <c r="AI205">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ205" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="32:36" x14ac:dyDescent="0.2">
@@ -6101,7 +6105,7 @@
         <v>15</v>
       </c>
       <c r="AI206">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AJ206" t="s">
         <v>21</v>
@@ -6118,7 +6122,7 @@
         <v>15</v>
       </c>
       <c r="AI207">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AJ207" t="s">
         <v>21</v>
@@ -6135,10 +6139,10 @@
         <v>15</v>
       </c>
       <c r="AI208">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ208" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="209" spans="32:36" x14ac:dyDescent="0.2">
@@ -6152,41 +6156,41 @@
         <v>15</v>
       </c>
       <c r="AI209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ209" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF210">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG210" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AH210">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI210">
         <v>1</v>
       </c>
       <c r="AJ210" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="211" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF211">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG211" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AH211">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI211">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ211" t="s">
         <v>22</v>
@@ -6194,16 +6198,16 @@
     </row>
     <row r="212" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF212">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG212" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AH212">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI212">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ212" t="s">
         <v>22</v>
@@ -6220,41 +6224,41 @@
         <v>18</v>
       </c>
       <c r="AI213">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ213" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
     <row r="214" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF214">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG214" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AH214">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI214">
         <v>1</v>
       </c>
       <c r="AJ214" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
     </row>
     <row r="215" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF215">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG215" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AH215">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI215">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ215" t="s">
         <v>23</v>
@@ -6262,16 +6266,16 @@
     </row>
     <row r="216" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF216">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG216" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AH216">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI216">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ216" t="s">
         <v>23</v>
@@ -6288,41 +6292,41 @@
         <v>21</v>
       </c>
       <c r="AI217">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ217" t="s">
-        <v>118</v>
+        <v>23</v>
       </c>
     </row>
     <row r="218" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF218">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG218" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AH218">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI218">
         <v>1</v>
       </c>
       <c r="AJ218" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
     </row>
     <row r="219" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF219">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG219" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AH219">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI219">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ219" t="s">
         <v>24</v>
@@ -6330,16 +6334,16 @@
     </row>
     <row r="220" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF220">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG220" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AH220">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI220">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ220" t="s">
         <v>24</v>
@@ -6356,27 +6360,27 @@
         <v>24</v>
       </c>
       <c r="AI221">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ221" t="s">
-        <v>119</v>
+        <v>24</v>
       </c>
     </row>
     <row r="222" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF222">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG222" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AH222">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI222">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ222" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
     </row>
     <row r="223" spans="32:36" x14ac:dyDescent="0.2">
@@ -6390,27 +6394,27 @@
         <v>25</v>
       </c>
       <c r="AI223">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ223" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="224" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF224">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG224" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AH224">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI224">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ224" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="225" spans="32:36" x14ac:dyDescent="0.2">
@@ -6424,27 +6428,27 @@
         <v>26</v>
       </c>
       <c r="AI225">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ225" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="226" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF226">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG226" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AH226">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI226">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ226" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="227" spans="32:36" x14ac:dyDescent="0.2">
@@ -6458,27 +6462,27 @@
         <v>27</v>
       </c>
       <c r="AI227">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ227" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="228" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF228">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG228" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AH228">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI228">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ228" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="229" spans="32:36" x14ac:dyDescent="0.2">
@@ -6492,41 +6496,41 @@
         <v>28</v>
       </c>
       <c r="AI229">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ229" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="230" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF230">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG230" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AH230">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI230">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ230" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
     </row>
     <row r="231" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF231">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG231" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AH231">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI231">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ231" t="s">
         <v>63</v>
@@ -6534,33 +6538,33 @@
     </row>
     <row r="232" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF232">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AG232" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AH232">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AI232">
         <v>1</v>
       </c>
       <c r="AJ232" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
     </row>
     <row r="233" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF233">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AG233" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AH233">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AI233">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ233" t="s">
         <v>29</v>
@@ -6568,16 +6572,16 @@
     </row>
     <row r="234" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF234">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AG234" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AH234">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AI234">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ234" t="s">
         <v>29</v>
@@ -6594,27 +6598,27 @@
         <v>33</v>
       </c>
       <c r="AI235">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ235" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
     </row>
     <row r="236" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF236">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG236" t="s">
-        <v>159</v>
+        <v>254</v>
       </c>
       <c r="AH236">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AI236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ236" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
     <row r="237" spans="32:36" x14ac:dyDescent="0.2">
@@ -6631,7 +6635,7 @@
         <v>2</v>
       </c>
       <c r="AJ237" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="238" spans="32:36" x14ac:dyDescent="0.2">
@@ -6645,10 +6649,10 @@
         <v>34</v>
       </c>
       <c r="AI238">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ238" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="239" spans="32:36" x14ac:dyDescent="0.2">
@@ -6662,10 +6666,10 @@
         <v>34</v>
       </c>
       <c r="AI239">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ239" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
     </row>
     <row r="240" spans="32:36" x14ac:dyDescent="0.2">
@@ -6682,7 +6686,7 @@
         <v>2</v>
       </c>
       <c r="AJ240" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="241" spans="32:36" x14ac:dyDescent="0.2">
@@ -6699,7 +6703,7 @@
         <v>2</v>
       </c>
       <c r="AJ241" t="s">
-        <v>134</v>
+        <v>23</v>
       </c>
     </row>
     <row r="242" spans="32:36" x14ac:dyDescent="0.2">
@@ -6716,7 +6720,7 @@
         <v>2</v>
       </c>
       <c r="AJ242" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="243" spans="32:36" x14ac:dyDescent="0.2">
@@ -6733,7 +6737,7 @@
         <v>2</v>
       </c>
       <c r="AJ243" t="s">
-        <v>24</v>
+        <v>135</v>
       </c>
     </row>
     <row r="244" spans="32:36" x14ac:dyDescent="0.2">
@@ -6750,7 +6754,7 @@
         <v>2</v>
       </c>
       <c r="AJ244" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
     </row>
     <row r="245" spans="32:36" x14ac:dyDescent="0.2">
@@ -6767,7 +6771,7 @@
         <v>2</v>
       </c>
       <c r="AJ245" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="246" spans="32:36" x14ac:dyDescent="0.2">
@@ -6781,10 +6785,10 @@
         <v>34</v>
       </c>
       <c r="AI246">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ246" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
     </row>
     <row r="247" spans="32:36" x14ac:dyDescent="0.2">
@@ -6798,10 +6802,10 @@
         <v>34</v>
       </c>
       <c r="AI247">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ247" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
     </row>
     <row r="248" spans="32:36" x14ac:dyDescent="0.2">
@@ -6818,7 +6822,7 @@
         <v>2</v>
       </c>
       <c r="AJ248" t="s">
-        <v>29</v>
+        <v>141</v>
       </c>
     </row>
     <row r="249" spans="32:36" x14ac:dyDescent="0.2">
@@ -6835,7 +6839,7 @@
         <v>2</v>
       </c>
       <c r="AJ249" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="250" spans="32:36" x14ac:dyDescent="0.2">
@@ -6849,10 +6853,10 @@
         <v>34</v>
       </c>
       <c r="AI250">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ250" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="251" spans="32:36" x14ac:dyDescent="0.2">
@@ -6866,10 +6870,10 @@
         <v>34</v>
       </c>
       <c r="AI251">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ251" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
     </row>
     <row r="252" spans="32:36" x14ac:dyDescent="0.2">
@@ -6886,7 +6890,7 @@
         <v>2</v>
       </c>
       <c r="AJ252" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="253" spans="32:36" x14ac:dyDescent="0.2">
@@ -6903,7 +6907,7 @@
         <v>2</v>
       </c>
       <c r="AJ253" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
     </row>
     <row r="254" spans="32:36" x14ac:dyDescent="0.2">
@@ -6920,7 +6924,7 @@
         <v>2</v>
       </c>
       <c r="AJ254" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
     </row>
     <row r="255" spans="32:36" x14ac:dyDescent="0.2">
@@ -6934,10 +6938,10 @@
         <v>34</v>
       </c>
       <c r="AI255">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ255" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
     </row>
     <row r="256" spans="32:36" x14ac:dyDescent="0.2">
@@ -6951,10 +6955,10 @@
         <v>34</v>
       </c>
       <c r="AI256">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ256" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
     </row>
     <row r="257" spans="32:36" x14ac:dyDescent="0.2">
@@ -6968,10 +6972,10 @@
         <v>34</v>
       </c>
       <c r="AI257">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ257" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="258" spans="32:36" x14ac:dyDescent="0.2">
@@ -6988,7 +6992,7 @@
         <v>7</v>
       </c>
       <c r="AJ258" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="259" spans="32:36" x14ac:dyDescent="0.2">
@@ -7002,10 +7006,10 @@
         <v>34</v>
       </c>
       <c r="AI259">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ259" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="32:36" x14ac:dyDescent="0.2">
@@ -7022,7 +7026,7 @@
         <v>2</v>
       </c>
       <c r="AJ260" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="261" spans="32:36" x14ac:dyDescent="0.2">
@@ -7039,7 +7043,7 @@
         <v>2</v>
       </c>
       <c r="AJ261" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
     </row>
     <row r="262" spans="32:36" x14ac:dyDescent="0.2">
@@ -7053,10 +7057,10 @@
         <v>34</v>
       </c>
       <c r="AI262">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ262" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="263" spans="32:36" x14ac:dyDescent="0.2">
@@ -7070,10 +7074,10 @@
         <v>34</v>
       </c>
       <c r="AI263">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ263" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
     </row>
     <row r="264" spans="32:36" x14ac:dyDescent="0.2">
@@ -7090,7 +7094,7 @@
         <v>2</v>
       </c>
       <c r="AJ264" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="265" spans="32:36" x14ac:dyDescent="0.2">
@@ -7104,10 +7108,10 @@
         <v>34</v>
       </c>
       <c r="AI265">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ265" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
     </row>
     <row r="266" spans="32:36" x14ac:dyDescent="0.2">
@@ -7121,10 +7125,10 @@
         <v>34</v>
       </c>
       <c r="AI266">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ266" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="267" spans="32:36" x14ac:dyDescent="0.2">
@@ -7138,10 +7142,10 @@
         <v>34</v>
       </c>
       <c r="AI267">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ267" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
     </row>
     <row r="268" spans="32:36" x14ac:dyDescent="0.2">
@@ -7155,10 +7159,10 @@
         <v>34</v>
       </c>
       <c r="AI268">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ268" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
     </row>
     <row r="269" spans="32:36" x14ac:dyDescent="0.2">
@@ -7175,24 +7179,24 @@
         <v>2</v>
       </c>
       <c r="AJ269" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
     </row>
     <row r="270" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF270">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AG270" t="s">
-        <v>255</v>
+        <v>159</v>
       </c>
       <c r="AH270">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AI270">
         <v>2</v>
       </c>
       <c r="AJ270" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="271" spans="32:36" x14ac:dyDescent="0.2">
@@ -7206,27 +7210,27 @@
         <v>35</v>
       </c>
       <c r="AI271">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ271" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
     </row>
     <row r="272" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF272">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AG272" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH272">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AI272">
         <v>4</v>
       </c>
       <c r="AJ272" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
     </row>
     <row r="273" spans="32:36" x14ac:dyDescent="0.2">
@@ -7240,41 +7244,41 @@
         <v>36</v>
       </c>
       <c r="AI273">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ273" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="274" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF274">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AG274" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AH274">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AI274">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ274" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
     </row>
     <row r="275" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF275">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AG275" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AH275">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI275">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ275" t="s">
         <v>64</v>
@@ -7282,19 +7286,19 @@
     </row>
     <row r="276" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF276">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG276" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AH276">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AI276">
         <v>1</v>
       </c>
       <c r="AJ276" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
     </row>
     <row r="277" spans="32:36" x14ac:dyDescent="0.2">
@@ -7308,27 +7312,27 @@
         <v>39</v>
       </c>
       <c r="AI277">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ277" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="278" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF278">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AG278" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AH278">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AI278">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ278" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="279" spans="32:36" x14ac:dyDescent="0.2">
@@ -7342,27 +7346,27 @@
         <v>40</v>
       </c>
       <c r="AI279">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ279" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="280" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF280">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AG280" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AH280">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AI280">
         <v>5</v>
       </c>
       <c r="AJ280" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="281" spans="32:36" x14ac:dyDescent="0.2">
@@ -7376,27 +7380,27 @@
         <v>41</v>
       </c>
       <c r="AI281">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ281" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="282" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF282">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AG282" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AH282">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AI282">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AJ282" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="283" spans="32:36" x14ac:dyDescent="0.2">
@@ -7410,7 +7414,7 @@
         <v>42</v>
       </c>
       <c r="AI283">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AJ283" t="s">
         <v>41</v>
@@ -7427,10 +7431,10 @@
         <v>42</v>
       </c>
       <c r="AI284">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AJ284" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="285" spans="32:36" x14ac:dyDescent="0.2">
@@ -7444,10 +7448,10 @@
         <v>42</v>
       </c>
       <c r="AI285">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AJ285" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="286" spans="32:36" x14ac:dyDescent="0.2">
@@ -7461,10 +7465,10 @@
         <v>42</v>
       </c>
       <c r="AI286">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AJ286" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="287" spans="32:36" x14ac:dyDescent="0.2">
@@ -7478,7 +7482,7 @@
         <v>42</v>
       </c>
       <c r="AI287">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ287" t="s">
         <v>37</v>
@@ -7495,7 +7499,7 @@
         <v>42</v>
       </c>
       <c r="AI288">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AJ288" t="s">
         <v>37</v>
@@ -7512,10 +7516,10 @@
         <v>42</v>
       </c>
       <c r="AI289">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AJ289" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="290" spans="32:36" x14ac:dyDescent="0.2">
@@ -7529,10 +7533,10 @@
         <v>42</v>
       </c>
       <c r="AI290">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AJ290" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="291" spans="32:36" x14ac:dyDescent="0.2">
@@ -7546,10 +7550,10 @@
         <v>42</v>
       </c>
       <c r="AI291">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AJ291" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="292" spans="32:36" x14ac:dyDescent="0.2">
@@ -7563,10 +7567,10 @@
         <v>42</v>
       </c>
       <c r="AI292">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AJ292" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="293" spans="32:36" x14ac:dyDescent="0.2">
@@ -7580,27 +7584,27 @@
         <v>42</v>
       </c>
       <c r="AI293">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AJ293" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="294" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF294">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG294" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AH294">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AI294">
         <v>1</v>
       </c>
       <c r="AJ294" t="s">
-        <v>116</v>
+        <v>41</v>
       </c>
     </row>
     <row r="295" spans="32:36" x14ac:dyDescent="0.2">
@@ -7614,27 +7618,27 @@
         <v>43</v>
       </c>
       <c r="AI295">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ295" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
     </row>
     <row r="296" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF296">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG296" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AH296">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AI296">
         <v>5</v>
       </c>
       <c r="AJ296" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="297" spans="32:36" x14ac:dyDescent="0.2">
@@ -7648,27 +7652,27 @@
         <v>44</v>
       </c>
       <c r="AI297">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ297" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
     </row>
     <row r="298" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF298">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AG298" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AH298">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI298">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ298" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
     </row>
     <row r="299" spans="32:36" x14ac:dyDescent="0.2">
@@ -7682,27 +7686,27 @@
         <v>45</v>
       </c>
       <c r="AI299">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AJ299" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="300" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF300">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AG300" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AH300">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI300">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AJ300" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
     </row>
     <row r="301" spans="32:36" x14ac:dyDescent="0.2">
@@ -7716,27 +7720,27 @@
         <v>46</v>
       </c>
       <c r="AI301">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AJ301" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
     </row>
     <row r="302" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF302">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AG302" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AH302">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI302">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AJ302" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
     </row>
     <row r="303" spans="32:36" x14ac:dyDescent="0.2">
@@ -7750,24 +7754,24 @@
         <v>47</v>
       </c>
       <c r="AI303">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AJ303" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
     </row>
     <row r="304" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF304">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AG304" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AH304">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI304">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AJ304" t="s">
         <v>37</v>
@@ -7784,27 +7788,27 @@
         <v>48</v>
       </c>
       <c r="AI305">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AJ305" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
     </row>
     <row r="306" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF306">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AG306" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AH306">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI306">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ306" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
     </row>
     <row r="307" spans="32:36" x14ac:dyDescent="0.2">
@@ -7818,27 +7822,27 @@
         <v>49</v>
       </c>
       <c r="AI307">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ307" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
     </row>
     <row r="308" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF308">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AG308" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AH308">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI308">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ308" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
     <row r="309" spans="32:36" x14ac:dyDescent="0.2">
@@ -7852,27 +7856,27 @@
         <v>50</v>
       </c>
       <c r="AI309">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ309" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
     </row>
     <row r="310" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF310">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AG310" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AH310">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI310">
         <v>3</v>
       </c>
       <c r="AJ310" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="311" spans="32:36" x14ac:dyDescent="0.2">
@@ -7886,27 +7890,27 @@
         <v>51</v>
       </c>
       <c r="AI311">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AJ311" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
     </row>
     <row r="312" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF312">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AG312" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AH312">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI312">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AJ312" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
     </row>
     <row r="313" spans="32:36" x14ac:dyDescent="0.2">
@@ -7920,27 +7924,27 @@
         <v>52</v>
       </c>
       <c r="AI313">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AJ313" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
     </row>
     <row r="314" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF314">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AG314" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AH314">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AI314">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AJ314" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="315" spans="32:36" x14ac:dyDescent="0.2">
@@ -7954,27 +7958,27 @@
         <v>53</v>
       </c>
       <c r="AI315">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AJ315" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
     </row>
     <row r="316" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF316">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AG316" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AH316">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AI316">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AJ316" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
     </row>
     <row r="317" spans="32:36" x14ac:dyDescent="0.2">
@@ -7988,27 +7992,27 @@
         <v>54</v>
       </c>
       <c r="AI317">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AJ317" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
     </row>
     <row r="318" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF318">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AG318" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH318">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI318">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AJ318" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="319" spans="32:36" x14ac:dyDescent="0.2">
@@ -8022,27 +8026,27 @@
         <v>55</v>
       </c>
       <c r="AI319">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ319" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF320">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AG320" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AH320">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AI320">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AJ320" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="321" spans="32:36" x14ac:dyDescent="0.2">
@@ -8056,27 +8060,27 @@
         <v>56</v>
       </c>
       <c r="AI321">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ321" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF322">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG322" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AH322">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI322">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AJ322" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
     </row>
     <row r="323" spans="32:36" x14ac:dyDescent="0.2">
@@ -8090,27 +8094,27 @@
         <v>57</v>
       </c>
       <c r="AI323">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AJ323" t="s">
-        <v>66</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF324">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AG324" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AH324">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AI324">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AJ324" t="s">
-        <v>1</v>
+        <v>66</v>
       </c>
     </row>
     <row r="325" spans="32:36" x14ac:dyDescent="0.2">
@@ -8124,27 +8128,27 @@
         <v>58</v>
       </c>
       <c r="AI325">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AJ325" t="s">
-        <v>67</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF326">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AG326" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AH326">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AI326">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ326" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
     </row>
     <row r="327" spans="32:36" x14ac:dyDescent="0.2">
@@ -8158,27 +8162,27 @@
         <v>59</v>
       </c>
       <c r="AI327">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ327" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="328" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF328">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AG328" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AH328">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI328">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ328" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="329" spans="32:36" x14ac:dyDescent="0.2">
@@ -8192,27 +8196,27 @@
         <v>60</v>
       </c>
       <c r="AI329">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ329" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
     </row>
     <row r="330" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF330">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AG330" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AH330">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AI330">
         <v>1</v>
       </c>
       <c r="AJ330" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="331" spans="32:36" x14ac:dyDescent="0.2">
@@ -8226,24 +8230,24 @@
         <v>61</v>
       </c>
       <c r="AI331">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AJ331" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
     </row>
     <row r="332" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF332">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG332" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AH332">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI332">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AJ332" t="s">
         <v>21</v>
@@ -8260,27 +8264,27 @@
         <v>62</v>
       </c>
       <c r="AI333">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ333" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="334" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF334">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AG334" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AH334">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AI334">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AJ334" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="335" spans="32:36" x14ac:dyDescent="0.2">
@@ -8294,27 +8298,27 @@
         <v>63</v>
       </c>
       <c r="AI335">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AJ335" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
     </row>
     <row r="336" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF336">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AG336" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH336">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AI336">
         <v>1</v>
       </c>
       <c r="AJ336" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="337" spans="32:36" x14ac:dyDescent="0.2">
@@ -8328,27 +8332,27 @@
         <v>64</v>
       </c>
       <c r="AI337">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AJ337" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
     </row>
     <row r="338" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF338">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AG338" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AH338">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AI338">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AJ338" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
     </row>
     <row r="339" spans="32:36" x14ac:dyDescent="0.2">
@@ -8365,24 +8369,24 @@
         <v>2</v>
       </c>
       <c r="AJ339" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="340" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF340">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AG340" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AH340">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AI340">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ340" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="341" spans="32:36" x14ac:dyDescent="0.2">
@@ -8396,27 +8400,27 @@
         <v>66</v>
       </c>
       <c r="AI341">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ341" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
     </row>
     <row r="342" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF342">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AG342" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AH342">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AI342">
         <v>2</v>
       </c>
       <c r="AJ342" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
     </row>
     <row r="343" spans="32:36" x14ac:dyDescent="0.2">
@@ -8430,24 +8434,24 @@
         <v>67</v>
       </c>
       <c r="AI343">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ343" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
     </row>
     <row r="344" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF344">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AG344" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AH344">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AI344">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ344" t="s">
         <v>77</v>
@@ -8455,16 +8459,16 @@
     </row>
     <row r="345" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF345">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AG345" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AH345">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AI345">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ345" t="s">
         <v>77</v>
@@ -8481,41 +8485,41 @@
         <v>69</v>
       </c>
       <c r="AI346">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ346" t="s">
-        <v>1</v>
+        <v>77</v>
       </c>
     </row>
     <row r="347" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF347">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AG347" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AH347">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AI347">
         <v>4</v>
       </c>
       <c r="AJ347" t="s">
-        <v>77</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF348">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AG348" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AH348">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AI348">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AJ348" t="s">
         <v>77</v>
@@ -8523,16 +8527,16 @@
     </row>
     <row r="349" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF349">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AG349" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AH349">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AI349">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ349" t="s">
         <v>77</v>
@@ -8549,41 +8553,41 @@
         <v>72</v>
       </c>
       <c r="AI350">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AJ350" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
     </row>
     <row r="351" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF351">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AG351" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AH351">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AI351">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AJ351" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
     </row>
     <row r="352" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF352">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AG352" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AH352">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI352">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ352" t="s">
         <v>77</v>
@@ -8591,19 +8595,19 @@
     </row>
     <row r="353" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF353">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG353" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AH353">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI353">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AJ353" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="354" spans="32:36" x14ac:dyDescent="0.2">
@@ -8617,24 +8621,24 @@
         <v>75</v>
       </c>
       <c r="AI354">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AJ354" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
     </row>
     <row r="355" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF355">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AG355" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AH355">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AI355">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ355" t="s">
         <v>77</v>
@@ -8642,16 +8646,16 @@
     </row>
     <row r="356" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF356">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AG356" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AH356">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI356">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ356" t="s">
         <v>77</v>
@@ -8659,16 +8663,16 @@
     </row>
     <row r="357" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF357">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AG357" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AH357">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AI357">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ357" t="s">
         <v>77</v>
@@ -8676,16 +8680,16 @@
     </row>
     <row r="358" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF358">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG358" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AH358">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AI358">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ358" t="s">
         <v>77</v>
@@ -8693,16 +8697,16 @@
     </row>
     <row r="359" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF359">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG359" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AH359">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AI359">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AJ359" t="s">
         <v>77</v>
@@ -8719,27 +8723,27 @@
         <v>80</v>
       </c>
       <c r="AI360">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="AJ360" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="361" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF361">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG361" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AH361">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AI361">
         <v>2</v>
       </c>
       <c r="AJ361" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="362" spans="32:36" x14ac:dyDescent="0.2">
@@ -8753,27 +8757,27 @@
         <v>81</v>
       </c>
       <c r="AI362">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ362" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="363" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF363">
+        <v>81</v>
+      </c>
+      <c r="AG363" t="s">
+        <v>301</v>
+      </c>
+      <c r="AH363">
+        <v>81</v>
+      </c>
+      <c r="AI363">
+        <v>1</v>
+      </c>
+      <c r="AJ363" t="s">
         <v>82</v>
-      </c>
-      <c r="AG363" t="s">
-        <v>302</v>
-      </c>
-      <c r="AH363">
-        <v>82</v>
-      </c>
-      <c r="AI363">
-        <v>1</v>
-      </c>
-      <c r="AJ363" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="364" spans="32:36" x14ac:dyDescent="0.2">
@@ -8787,27 +8791,27 @@
         <v>82</v>
       </c>
       <c r="AI364">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AJ364" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="365" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF365">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG365" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AH365">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI365">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ365" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="366" spans="32:36" x14ac:dyDescent="0.2">
@@ -8824,24 +8828,24 @@
         <v>1</v>
       </c>
       <c r="AJ366" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="367" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF367">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG367" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AH367">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI367">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="AJ367" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="368" spans="32:36" x14ac:dyDescent="0.2">
@@ -8855,27 +8859,27 @@
         <v>84</v>
       </c>
       <c r="AI368">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="AJ368" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="369" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF369">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG369" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AH369">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI369">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ369" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="370" spans="32:36" x14ac:dyDescent="0.2">
@@ -8892,24 +8896,24 @@
         <v>1</v>
       </c>
       <c r="AJ370" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="371" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF371">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG371" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AH371">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AI371">
         <v>1</v>
       </c>
       <c r="AJ371" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="372" spans="32:36" x14ac:dyDescent="0.2">
@@ -8926,24 +8930,24 @@
         <v>1</v>
       </c>
       <c r="AJ372" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="373" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF373">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG373" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AH373">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI373">
         <v>1</v>
       </c>
       <c r="AJ373" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="374" spans="32:36" x14ac:dyDescent="0.2">
@@ -8957,44 +8961,44 @@
         <v>87</v>
       </c>
       <c r="AI374">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ374" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="375" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF375">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG375" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AH375">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI375">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AJ375" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="376" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF376">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG376" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AH376">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI376">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AJ376" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="377" spans="32:36" x14ac:dyDescent="0.2">
@@ -9008,7 +9012,7 @@
         <v>89</v>
       </c>
       <c r="AI377">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ377" t="s">
         <v>92</v>
@@ -9025,7 +9029,7 @@
         <v>89</v>
       </c>
       <c r="AI378">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ378" t="s">
         <v>92</v>
@@ -9042,7 +9046,7 @@
         <v>89</v>
       </c>
       <c r="AI379">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AJ379" t="s">
         <v>92</v>
@@ -9059,7 +9063,7 @@
         <v>89</v>
       </c>
       <c r="AI380">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AJ380" t="s">
         <v>92</v>
@@ -9076,7 +9080,7 @@
         <v>89</v>
       </c>
       <c r="AI381">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ381" t="s">
         <v>92</v>
@@ -9093,10 +9097,10 @@
         <v>89</v>
       </c>
       <c r="AI382">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AJ382" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="383" spans="32:36" x14ac:dyDescent="0.2">
@@ -9110,7 +9114,7 @@
         <v>89</v>
       </c>
       <c r="AI383">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AJ383" t="s">
         <v>93</v>
@@ -9127,7 +9131,7 @@
         <v>89</v>
       </c>
       <c r="AI384">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AJ384" t="s">
         <v>93</v>
@@ -9144,7 +9148,7 @@
         <v>89</v>
       </c>
       <c r="AI385">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AJ385" t="s">
         <v>93</v>
@@ -9161,7 +9165,7 @@
         <v>89</v>
       </c>
       <c r="AI386">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AJ386" t="s">
         <v>93</v>
@@ -9178,7 +9182,7 @@
         <v>89</v>
       </c>
       <c r="AI387">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AJ387" t="s">
         <v>93</v>
@@ -9186,33 +9190,33 @@
     </row>
     <row r="388" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF388">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AG388" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AH388">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AI388">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AJ388" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="389" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF389">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG389" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AH389">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI389">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ389" t="s">
         <v>94</v>
@@ -9229,10 +9233,10 @@
         <v>91</v>
       </c>
       <c r="AI390">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ390" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="391" spans="32:36" x14ac:dyDescent="0.2">
@@ -9249,24 +9253,24 @@
         <v>1</v>
       </c>
       <c r="AJ391" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="392" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF392">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG392" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AH392">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI392">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ392" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="393" spans="32:36" x14ac:dyDescent="0.2">
@@ -9280,10 +9284,10 @@
         <v>92</v>
       </c>
       <c r="AI393">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ393" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="394" spans="32:36" x14ac:dyDescent="0.2">
@@ -9297,44 +9301,44 @@
         <v>92</v>
       </c>
       <c r="AI394">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ394" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="395" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF395">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG395" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AH395">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI395">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ395" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="396" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF396">
+        <v>93</v>
+      </c>
+      <c r="AG396" t="s">
+        <v>313</v>
+      </c>
+      <c r="AH396">
+        <v>93</v>
+      </c>
+      <c r="AI396">
+        <v>4</v>
+      </c>
+      <c r="AJ396" t="s">
         <v>94</v>
-      </c>
-      <c r="AG396" t="s">
-        <v>314</v>
-      </c>
-      <c r="AH396">
-        <v>94</v>
-      </c>
-      <c r="AI396">
-        <v>1</v>
-      </c>
-      <c r="AJ396" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="397" spans="32:36" x14ac:dyDescent="0.2">
@@ -9348,10 +9352,10 @@
         <v>94</v>
       </c>
       <c r="AI397">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AJ397" t="s">
-        <v>94</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="32:36" x14ac:dyDescent="0.2">
@@ -9365,41 +9369,41 @@
         <v>94</v>
       </c>
       <c r="AI398">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AJ398" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="399" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF399">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AG399" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AH399">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AI399">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ399" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="400" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF400">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AG400" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AH400">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI400">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ400" t="s">
         <v>105</v>
@@ -9407,16 +9411,16 @@
     </row>
     <row r="401" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF401">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AG401" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AH401">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI401">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ401" t="s">
         <v>105</v>
@@ -9433,27 +9437,27 @@
         <v>97</v>
       </c>
       <c r="AI402">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ402" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="403" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF403">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG403" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AH403">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AI403">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ403" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="404" spans="32:36" x14ac:dyDescent="0.2">
@@ -9467,58 +9471,58 @@
         <v>98</v>
       </c>
       <c r="AI404">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AJ404" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="405" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF405">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AG405" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AH405">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AI405">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AJ405" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="406" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF406">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AG406" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AH406">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AI406">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ406" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="407" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF407">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AG407" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AH407">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AI407">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ407" t="s">
         <v>108</v>
@@ -9535,10 +9539,10 @@
         <v>101</v>
       </c>
       <c r="AI408">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ408" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="409" spans="32:36" x14ac:dyDescent="0.2">
@@ -9555,24 +9559,24 @@
         <v>1</v>
       </c>
       <c r="AJ409" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="410" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF410">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AG410" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AH410">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI410">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ410" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="411" spans="32:36" x14ac:dyDescent="0.2">
@@ -9586,10 +9590,10 @@
         <v>102</v>
       </c>
       <c r="AI411">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ411" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="412" spans="32:36" x14ac:dyDescent="0.2">
@@ -9603,41 +9607,41 @@
         <v>102</v>
       </c>
       <c r="AI412">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ412" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="413" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF413">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AG413" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AH413">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AI413">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ413" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="414" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF414">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AG414" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AH414">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AI414">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AJ414" t="s">
         <v>108</v>
@@ -9654,10 +9658,10 @@
         <v>104</v>
       </c>
       <c r="AI415">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AJ415" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="416" spans="32:36" x14ac:dyDescent="0.2">
@@ -9671,41 +9675,41 @@
         <v>104</v>
       </c>
       <c r="AI416">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ416" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
     </row>
     <row r="417" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF417">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AG417" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AH417">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AI417">
         <v>1</v>
       </c>
       <c r="AJ417" t="s">
-        <v>113</v>
+        <v>37</v>
       </c>
     </row>
     <row r="418" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF418">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AG418" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AH418">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AI418">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ418" t="s">
         <v>113</v>
@@ -9713,16 +9717,16 @@
     </row>
     <row r="419" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF419">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AG419" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AH419">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AI419">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ419" t="s">
         <v>113</v>
@@ -9739,27 +9743,27 @@
         <v>107</v>
       </c>
       <c r="AI420">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ420" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="421" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF421">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AG421" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AH421">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AI421">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ421" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="422" spans="32:36" x14ac:dyDescent="0.2">
@@ -9773,27 +9777,27 @@
         <v>108</v>
       </c>
       <c r="AI422">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AJ422" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="423" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF423">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AG423" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AH423">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AI423">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ423" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="424" spans="32:36" x14ac:dyDescent="0.2">
@@ -9810,24 +9814,24 @@
         <v>2</v>
       </c>
       <c r="AJ424" t="s">
-        <v>39</v>
+        <v>122</v>
       </c>
     </row>
     <row r="425" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF425">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AG425" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AH425">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AI425">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ425" t="s">
-        <v>122</v>
+        <v>39</v>
       </c>
     </row>
     <row r="426" spans="32:36" x14ac:dyDescent="0.2">
@@ -9841,27 +9845,27 @@
         <v>110</v>
       </c>
       <c r="AI426">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ426" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
     </row>
     <row r="427" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF427">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AG427" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AH427">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AI427">
         <v>2</v>
       </c>
       <c r="AJ427" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
     </row>
     <row r="428" spans="32:36" x14ac:dyDescent="0.2">
@@ -9878,24 +9882,24 @@
         <v>2</v>
       </c>
       <c r="AJ428" t="s">
-        <v>40</v>
+        <v>123</v>
       </c>
     </row>
     <row r="429" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF429">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AG429" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AH429">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AI429">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ429" t="s">
-        <v>123</v>
+        <v>40</v>
       </c>
     </row>
     <row r="430" spans="32:36" x14ac:dyDescent="0.2">
@@ -9909,27 +9913,27 @@
         <v>112</v>
       </c>
       <c r="AI430">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ430" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
     </row>
     <row r="431" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF431">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AG431" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AH431">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AI431">
         <v>2</v>
       </c>
       <c r="AJ431" t="s">
-        <v>124</v>
+        <v>66</v>
       </c>
     </row>
     <row r="432" spans="32:36" x14ac:dyDescent="0.2">
@@ -9946,24 +9950,24 @@
         <v>2</v>
       </c>
       <c r="AJ432" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="433" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF433">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AG433" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AH433">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AI433">
         <v>2</v>
       </c>
       <c r="AJ433" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
     </row>
     <row r="434" spans="32:36" x14ac:dyDescent="0.2">
@@ -9977,27 +9981,27 @@
         <v>114</v>
       </c>
       <c r="AI434">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ434" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
     </row>
     <row r="435" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF435">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AG435" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AH435">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AI435">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ435" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="436" spans="32:36" x14ac:dyDescent="0.2">
@@ -10014,21 +10018,21 @@
         <v>2</v>
       </c>
       <c r="AJ436" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="437" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF437">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AG437" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AH437">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AI437">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ437" t="s">
         <v>125</v>
@@ -10045,27 +10049,27 @@
         <v>116</v>
       </c>
       <c r="AI438">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ438" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
     </row>
     <row r="439" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF439">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG439" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AH439">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AI439">
         <v>2</v>
       </c>
       <c r="AJ439" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
     </row>
     <row r="440" spans="32:36" x14ac:dyDescent="0.2">
@@ -10082,24 +10086,24 @@
         <v>2</v>
       </c>
       <c r="AJ440" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="441" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF441">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AG441" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AH441">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AI441">
         <v>2</v>
       </c>
       <c r="AJ441" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
     </row>
     <row r="442" spans="32:36" x14ac:dyDescent="0.2">
@@ -10113,27 +10117,27 @@
         <v>118</v>
       </c>
       <c r="AI442">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ442" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
     </row>
     <row r="443" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF443">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AG443" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AH443">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AI443">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ443" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="444" spans="32:36" x14ac:dyDescent="0.2">
@@ -10150,24 +10154,24 @@
         <v>2</v>
       </c>
       <c r="AJ444" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="445" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF445">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG445" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AH445">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AI445">
         <v>2</v>
       </c>
       <c r="AJ445" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
     </row>
     <row r="446" spans="32:36" x14ac:dyDescent="0.2">
@@ -10181,27 +10185,27 @@
         <v>120</v>
       </c>
       <c r="AI446">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ446" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
     </row>
     <row r="447" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF447">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AG447" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AH447">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AI447">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ447" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="448" spans="32:36" x14ac:dyDescent="0.2">
@@ -10218,24 +10222,24 @@
         <v>2</v>
       </c>
       <c r="AJ448" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="449" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF449">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AG449" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AH449">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AI449">
         <v>2</v>
       </c>
       <c r="AJ449" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
     </row>
     <row r="450" spans="32:36" x14ac:dyDescent="0.2">
@@ -10249,27 +10253,27 @@
         <v>122</v>
       </c>
       <c r="AI450">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ450" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
     </row>
     <row r="451" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF451">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AG451" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AH451">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AI451">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ451" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="452" spans="32:36" x14ac:dyDescent="0.2">
@@ -10286,24 +10290,24 @@
         <v>2</v>
       </c>
       <c r="AJ452" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="453" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF453">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG453" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AH453">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AI453">
         <v>2</v>
       </c>
       <c r="AJ453" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
     </row>
     <row r="454" spans="32:36" x14ac:dyDescent="0.2">
@@ -10317,27 +10321,27 @@
         <v>124</v>
       </c>
       <c r="AI454">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ454" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
     </row>
     <row r="455" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF455">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AG455" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AH455">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AI455">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ455" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="456" spans="32:36" x14ac:dyDescent="0.2">
@@ -10354,24 +10358,24 @@
         <v>2</v>
       </c>
       <c r="AJ456" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="457" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF457">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AG457" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AH457">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AI457">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ457" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="458" spans="32:36" x14ac:dyDescent="0.2">
@@ -10385,27 +10389,27 @@
         <v>126</v>
       </c>
       <c r="AI458">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ458" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
     </row>
     <row r="459" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF459">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG459" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AH459">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AI459">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ459" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
     </row>
     <row r="460" spans="32:36" x14ac:dyDescent="0.2">
@@ -10419,27 +10423,27 @@
         <v>127</v>
       </c>
       <c r="AI460">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AJ460" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
     </row>
     <row r="461" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF461">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AG461" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AH461">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AI461">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ461" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
     </row>
     <row r="462" spans="32:36" x14ac:dyDescent="0.2">
@@ -10453,27 +10457,27 @@
         <v>128</v>
       </c>
       <c r="AI462">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AJ462" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
     </row>
     <row r="463" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF463">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AG463" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AH463">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AI463">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ463" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
     </row>
     <row r="464" spans="32:36" x14ac:dyDescent="0.2">
@@ -10487,24 +10491,24 @@
         <v>129</v>
       </c>
       <c r="AI464">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AJ464" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
     </row>
     <row r="465" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF465">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AG465" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AH465">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AI465">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AJ465" t="s">
         <v>92</v>
@@ -10521,27 +10525,27 @@
         <v>130</v>
       </c>
       <c r="AI466">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AJ466" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
     </row>
     <row r="467" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF467">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AG467" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AH467">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AI467">
         <v>1</v>
       </c>
       <c r="AJ467" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="468" spans="32:36" x14ac:dyDescent="0.2">
@@ -10555,27 +10559,27 @@
         <v>131</v>
       </c>
       <c r="AI468">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ468" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
     </row>
     <row r="469" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF469">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG469" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AH469">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI469">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ469" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
     </row>
     <row r="470" spans="32:36" x14ac:dyDescent="0.2">
@@ -10589,27 +10593,27 @@
         <v>132</v>
       </c>
       <c r="AI470">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ470" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
     </row>
     <row r="471" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF471">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AG471" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AH471">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AI471">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ471" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
     </row>
     <row r="472" spans="32:36" x14ac:dyDescent="0.2">
@@ -10623,27 +10627,27 @@
         <v>133</v>
       </c>
       <c r="AI472">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AJ472" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
     </row>
     <row r="473" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF473">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AG473" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AH473">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AI473">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ473" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
     </row>
     <row r="474" spans="32:36" x14ac:dyDescent="0.2">
@@ -10657,24 +10661,24 @@
         <v>134</v>
       </c>
       <c r="AI474">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AJ474" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
     </row>
     <row r="475" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF475">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AG475" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AH475">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AI475">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AJ475" t="s">
         <v>93</v>
@@ -10691,27 +10695,27 @@
         <v>135</v>
       </c>
       <c r="AI476">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AJ476" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
     </row>
     <row r="477" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF477">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AG477" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AH477">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AI477">
         <v>1</v>
       </c>
       <c r="AJ477" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="478" spans="32:36" x14ac:dyDescent="0.2">
@@ -10728,7 +10732,7 @@
         <v>1</v>
       </c>
       <c r="AJ478" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="479" spans="32:36" x14ac:dyDescent="0.2">
@@ -10742,10 +10746,10 @@
         <v>136</v>
       </c>
       <c r="AI479">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ479" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="480" spans="32:36" x14ac:dyDescent="0.2">
@@ -10759,27 +10763,27 @@
         <v>136</v>
       </c>
       <c r="AI480">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ480" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="481" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF481">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AG481" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AH481">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AI481">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ481" t="s">
-        <v>21</v>
+        <v>141</v>
       </c>
     </row>
     <row r="482" spans="32:36" x14ac:dyDescent="0.2">
@@ -10793,10 +10797,10 @@
         <v>137</v>
       </c>
       <c r="AI482">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ482" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="483" spans="32:36" x14ac:dyDescent="0.2">
@@ -10813,7 +10817,7 @@
         <v>1</v>
       </c>
       <c r="AJ483" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="484" spans="32:36" x14ac:dyDescent="0.2">
@@ -10830,7 +10834,7 @@
         <v>1</v>
       </c>
       <c r="AJ484" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="485" spans="32:36" x14ac:dyDescent="0.2">
@@ -10844,10 +10848,10 @@
         <v>137</v>
       </c>
       <c r="AI485">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ485" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="486" spans="32:36" x14ac:dyDescent="0.2">
@@ -10861,10 +10865,10 @@
         <v>137</v>
       </c>
       <c r="AI486">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ486" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
     </row>
     <row r="487" spans="32:36" x14ac:dyDescent="0.2">
@@ -10878,10 +10882,10 @@
         <v>137</v>
       </c>
       <c r="AI487">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ487" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
     </row>
     <row r="488" spans="32:36" x14ac:dyDescent="0.2">
@@ -10895,10 +10899,10 @@
         <v>137</v>
       </c>
       <c r="AI488">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ488" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
     </row>
     <row r="489" spans="32:36" x14ac:dyDescent="0.2">
@@ -10915,7 +10919,7 @@
         <v>1</v>
       </c>
       <c r="AJ489" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
     </row>
     <row r="490" spans="32:36" x14ac:dyDescent="0.2">
@@ -10932,7 +10936,7 @@
         <v>1</v>
       </c>
       <c r="AJ490" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="491" spans="32:36" x14ac:dyDescent="0.2">
@@ -10946,10 +10950,10 @@
         <v>137</v>
       </c>
       <c r="AI491">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AJ491" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="492" spans="32:36" x14ac:dyDescent="0.2">
@@ -10963,10 +10967,10 @@
         <v>137</v>
       </c>
       <c r="AI492">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AJ492" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
     </row>
     <row r="493" spans="32:36" x14ac:dyDescent="0.2">
@@ -10980,10 +10984,10 @@
         <v>137</v>
       </c>
       <c r="AI493">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ493" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
     </row>
     <row r="494" spans="32:36" x14ac:dyDescent="0.2">
@@ -11000,7 +11004,7 @@
         <v>1</v>
       </c>
       <c r="AJ494" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="495" spans="32:36" x14ac:dyDescent="0.2">
@@ -11014,10 +11018,10 @@
         <v>137</v>
       </c>
       <c r="AI495">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AJ495" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="496" spans="32:36" x14ac:dyDescent="0.2">
@@ -11031,10 +11035,10 @@
         <v>137</v>
       </c>
       <c r="AI496">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AJ496" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="497" spans="32:36" x14ac:dyDescent="0.2">
@@ -11051,7 +11055,7 @@
         <v>2</v>
       </c>
       <c r="AJ497" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="498" spans="32:36" x14ac:dyDescent="0.2">
@@ -11065,10 +11069,10 @@
         <v>137</v>
       </c>
       <c r="AI498">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="AJ498" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="499" spans="32:36" x14ac:dyDescent="0.2">
@@ -11082,10 +11086,10 @@
         <v>137</v>
       </c>
       <c r="AI499">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ499" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
     </row>
     <row r="500" spans="32:36" x14ac:dyDescent="0.2">
@@ -11102,7 +11106,7 @@
         <v>1</v>
       </c>
       <c r="AJ500" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
     </row>
     <row r="501" spans="32:36" x14ac:dyDescent="0.2">
@@ -11119,7 +11123,7 @@
         <v>1</v>
       </c>
       <c r="AJ501" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="502" spans="32:36" x14ac:dyDescent="0.2">
@@ -11133,10 +11137,10 @@
         <v>137</v>
       </c>
       <c r="AI502">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ502" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
     </row>
     <row r="503" spans="32:36" x14ac:dyDescent="0.2">
@@ -11150,10 +11154,10 @@
         <v>137</v>
       </c>
       <c r="AI503">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ503" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
     </row>
     <row r="504" spans="32:36" x14ac:dyDescent="0.2">
@@ -11170,7 +11174,7 @@
         <v>1</v>
       </c>
       <c r="AJ504" t="s">
-        <v>28</v>
+        <v>132</v>
       </c>
     </row>
     <row r="505" spans="32:36" x14ac:dyDescent="0.2">
@@ -11187,7 +11191,7 @@
         <v>1</v>
       </c>
       <c r="AJ505" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="506" spans="32:36" x14ac:dyDescent="0.2">
@@ -11204,7 +11208,7 @@
         <v>1</v>
       </c>
       <c r="AJ506" t="s">
-        <v>133</v>
+        <v>27</v>
       </c>
     </row>
     <row r="507" spans="32:36" x14ac:dyDescent="0.2">
@@ -11221,7 +11225,7 @@
         <v>1</v>
       </c>
       <c r="AJ507" t="s">
-        <v>26</v>
+        <v>133</v>
       </c>
     </row>
     <row r="508" spans="32:36" x14ac:dyDescent="0.2">
@@ -11238,7 +11242,7 @@
         <v>1</v>
       </c>
       <c r="AJ508" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="509" spans="32:36" x14ac:dyDescent="0.2">
@@ -11252,10 +11256,10 @@
         <v>137</v>
       </c>
       <c r="AI509">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ509" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
     </row>
     <row r="510" spans="32:36" x14ac:dyDescent="0.2">
@@ -11269,10 +11273,10 @@
         <v>137</v>
       </c>
       <c r="AI510">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ510" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
     </row>
     <row r="511" spans="32:36" x14ac:dyDescent="0.2">
@@ -11289,7 +11293,7 @@
         <v>1</v>
       </c>
       <c r="AJ511" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="512" spans="32:36" x14ac:dyDescent="0.2">
@@ -11306,7 +11310,7 @@
         <v>1</v>
       </c>
       <c r="AJ512" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="513" spans="32:36" x14ac:dyDescent="0.2">
@@ -11323,7 +11327,7 @@
         <v>1</v>
       </c>
       <c r="AJ513" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="514" spans="32:36" x14ac:dyDescent="0.2">
@@ -11337,10 +11341,10 @@
         <v>137</v>
       </c>
       <c r="AI514">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ514" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
     </row>
     <row r="515" spans="32:36" x14ac:dyDescent="0.2">
@@ -11357,7 +11361,7 @@
         <v>2</v>
       </c>
       <c r="AJ515" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
     </row>
     <row r="516" spans="32:36" x14ac:dyDescent="0.2">
@@ -11371,27 +11375,27 @@
         <v>137</v>
       </c>
       <c r="AI516">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="AJ516" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
     </row>
     <row r="517" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF517">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG517" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AH517">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AI517">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="AJ517" t="s">
-        <v>141</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="32:36" x14ac:dyDescent="0.2">
@@ -11405,20 +11409,38 @@
         <v>138</v>
       </c>
       <c r="AI518">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ518" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="519" spans="32:36" x14ac:dyDescent="0.2">
+      <c r="AF519">
         <v>138</v>
       </c>
+      <c r="AG519" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH519">
+        <v>138</v>
+      </c>
+      <c r="AI519">
+        <v>1</v>
+      </c>
+      <c r="AJ519" t="s">
+        <v>138</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AT537">
-    <sortCondition ref="A4:A537"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AT538">
+    <sortCondition ref="A4:A538"/>
   </sortState>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A45:E45"/>
     <mergeCell ref="A46:E46"/>
     <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A47:C47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/MidiThruWithMerge2in10out/midithruwithmerge2in10out_bom.xlsx
+++ b/MidiThruWithMerge2in10out/midithruwithmerge2in10out_bom.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aokudrya/Documents/GitHub/Midi-boards/MidiThruWithMerge2in10out/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5322BC3C-D174-9D4D-8E70-0651F215423D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3985A11-3C1B-2E45-873C-CF181CC0E071}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="-16640" windowWidth="28040" windowHeight="16220" xr2:uid="{6A056D03-5A41-7E4C-9F1A-726EE5E8421D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{6A056D03-5A41-7E4C-9F1A-726EE5E8421D}"/>
   </bookViews>
   <sheets>
     <sheet name="midithruwithmerge2in10out" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">midithruwithmerge2in10out!$A$1:$E$73</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">midithruwithmerge2in10out!$A$1:$E$74</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="414">
   <si>
     <t>D</t>
   </si>
@@ -1229,9 +1229,6 @@
     <t>* Populate all passive components first - sockets, capacitors, resistors, etc. Consider proper orientation for Pin1 IC sockets and polarity for capacitors, diode marks. Don't populate ICs yet.</t>
   </si>
   <si>
-    <t>* Connect a power source and meassure +5V rail such as on IC socket for 74HC14 between Pin14 and Pin7.</t>
-  </si>
-  <si>
     <t>MIDI MERGER / SPLITTER 2in-&gt;10out</t>
   </si>
   <si>
@@ -1272,6 +1269,12 @@
   </si>
   <si>
     <t xml:space="preserve">* If you choose USB power option, then put a jumper between pin 1 and 3 on U4, those are outer pins. Leave center pin unconnected. Don't short it, etc...  </t>
+  </si>
+  <si>
+    <t>* Connect a power source (center=positive) and meassure +5V rail such as on IC socket for 6N138 between Pin8 and Pin5.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Beginner soldering skills required. That means you have to understand schematics, not just being able to solder two wires together. There are no high expectations, but being able to read schematics and understand polarity of components are quite important.		</t>
   </si>
 </sst>
 </file>
@@ -1457,7 +1460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1497,6 +1500,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1520,13 +1526,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1563,13 +1569,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>342900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>186733</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1920,10 +1926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:AJ519"/>
+  <dimension ref="A2:AJ520"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:C47"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1965,7 +1971,7 @@
   <sheetData>
     <row r="2" spans="1:29" ht="31" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -2017,7 +2023,7 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2028,7 +2034,7 @@
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2">
@@ -2104,7 +2110,7 @@
         <v>371</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D15" s="4">
         <v>104</v>
@@ -2238,7 +2244,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2281,10 +2287,10 @@
         <v>366</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E31" s="17">
         <v>6</v>
@@ -2296,31 +2302,31 @@
         <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E32" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
         <v>367</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E33" s="17">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>392</v>
       </c>
@@ -2329,7 +2335,7 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
         <v>135</v>
@@ -2344,7 +2350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
@@ -2355,16 +2361,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
         <v>141</v>
@@ -2379,7 +2385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
         <v>135</v>
@@ -2388,13 +2394,13 @@
         <v>136</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E41" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
         <v>376</v>
       </c>
@@ -2403,77 +2409,55 @@
       <c r="D43" s="15"/>
       <c r="E43" s="16"/>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A44" s="5"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="7"/>
-    </row>
-    <row r="45" spans="1:29" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="25"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="27"/>
+    </row>
+    <row r="45" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="20"/>
+    </row>
+    <row r="46" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="18" t="s">
         <v>397</v>
-      </c>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="20"/>
-    </row>
-    <row r="46" spans="1:29" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="18" t="s">
-        <v>395</v>
       </c>
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
       <c r="E46" s="20"/>
     </row>
-    <row r="47" spans="1:29" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="20"/>
+    </row>
+    <row r="48" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="9"/>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A49" s="18" t="s">
         <v>412</v>
       </c>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="9"/>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="7"/>
-      <c r="R48" t="s">
-        <v>3</v>
-      </c>
-      <c r="S48" t="s">
-        <v>151</v>
-      </c>
-      <c r="T48">
-        <v>1</v>
-      </c>
-      <c r="V48" t="s">
-        <v>152</v>
-      </c>
-      <c r="W48" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA48" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB48">
-        <v>1</v>
-      </c>
-      <c r="AC48" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A49" s="5"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
       <c r="D49" s="6"/>
       <c r="E49" s="7"/>
       <c r="R49" t="s">
@@ -2495,16 +2479,14 @@
         <v>14</v>
       </c>
       <c r="AB49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC49" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A50" s="10" t="s">
-        <v>396</v>
-      </c>
+      <c r="A50" s="5"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -2528,16 +2510,15 @@
         <v>14</v>
       </c>
       <c r="AB50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC50" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="str">
-        <f>"- Connect Pin7 to the ground (bottom layer), there is a pad (scratch) next to it."</f>
-        <v>- Connect Pin7 to the ground (bottom layer), there is a pad (scratch) next to it.</v>
+      <c r="A51" s="10" t="s">
+        <v>396</v>
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -2562,16 +2543,16 @@
         <v>14</v>
       </c>
       <c r="AB51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC51" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="str">
-        <f xml:space="preserve"> "- Connect Pin14 to +5V (top layer) with a short wire to the capacitor positive pin. Avoid shorting to a bottom layer."</f>
-        <v>- Connect Pin14 to +5V (top layer) with a short wire to the capacitor positive pin. Avoid shorting to a bottom layer.</v>
+        <f>"- Connect Pin7 to the ground (bottom layer), there is a pad (scratch) next to it."</f>
+        <v>- Connect Pin7 to the ground (bottom layer), there is a pad (scratch) next to it.</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -2596,16 +2577,16 @@
         <v>14</v>
       </c>
       <c r="AB52">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC52" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="str">
-        <f xml:space="preserve"> "- Refer to a picture below."</f>
-        <v>- Refer to a picture below.</v>
+        <f xml:space="preserve"> "- Connect Pin14 to +5V (top layer) with a short wire to the capacitor positive pin. Avoid shorting to a bottom layer."</f>
+        <v>- Connect Pin14 to +5V (top layer) with a short wire to the capacitor positive pin. Avoid shorting to a bottom layer.</v>
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -2630,14 +2611,17 @@
         <v>14</v>
       </c>
       <c r="AB53">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC53" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A54" s="5"/>
+      <c r="A54" s="5" t="str">
+        <f xml:space="preserve"> "- Refer to a picture below."</f>
+        <v>- Refer to a picture below.</v>
+      </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -2658,13 +2642,13 @@
         <v>153</v>
       </c>
       <c r="AA54" t="s">
-        <v>159</v>
+        <v>14</v>
       </c>
       <c r="AB54">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC54" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.2">
@@ -2689,13 +2673,13 @@
         <v>153</v>
       </c>
       <c r="AA55" t="s">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="AB55">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC55" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.2">
@@ -2723,10 +2707,10 @@
         <v>14</v>
       </c>
       <c r="AB56">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC56" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.2">
@@ -2754,10 +2738,10 @@
         <v>14</v>
       </c>
       <c r="AB57">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC57" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.2">
@@ -2785,10 +2769,10 @@
         <v>14</v>
       </c>
       <c r="AB58">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC58" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.2">
@@ -2816,10 +2800,10 @@
         <v>14</v>
       </c>
       <c r="AB59">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.2">
@@ -2847,10 +2831,10 @@
         <v>14</v>
       </c>
       <c r="AB60">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC60" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.2">
@@ -2875,13 +2859,13 @@
         <v>153</v>
       </c>
       <c r="AA61" t="s">
-        <v>161</v>
+        <v>14</v>
       </c>
       <c r="AB61">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC61" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.2">
@@ -2891,22 +2875,28 @@
       <c r="D62" s="6"/>
       <c r="E62" s="7"/>
       <c r="R62" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S62" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="T62">
-        <v>2</v>
-      </c>
-      <c r="U62" t="s">
-        <v>162</v>
+        <v>1</v>
       </c>
       <c r="V62" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="W62" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB62">
         <v>14</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.2">
@@ -2924,17 +2914,14 @@
       <c r="T63">
         <v>2</v>
       </c>
+      <c r="U63" t="s">
+        <v>162</v>
+      </c>
       <c r="V63" t="s">
         <v>136</v>
       </c>
       <c r="W63" t="s">
         <v>14</v>
-      </c>
-      <c r="X63" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y63" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.2">
@@ -2959,10 +2946,10 @@
         <v>14</v>
       </c>
       <c r="X64" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Y64" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.2">
@@ -2986,8 +2973,11 @@
       <c r="W65" t="s">
         <v>14</v>
       </c>
-      <c r="Z65" t="s">
-        <v>164</v>
+      <c r="X65" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.2">
@@ -3011,14 +3001,8 @@
       <c r="W66" t="s">
         <v>14</v>
       </c>
-      <c r="AA66" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB66">
-        <v>1</v>
-      </c>
-      <c r="AC66" t="s">
-        <v>165</v>
+      <c r="Z66" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.2">
@@ -3046,7 +3030,7 @@
         <v>14</v>
       </c>
       <c r="AB67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC67" t="s">
         <v>165</v>
@@ -3062,22 +3046,25 @@
         <v>8</v>
       </c>
       <c r="S68" t="s">
-        <v>9</v>
+        <v>137</v>
       </c>
       <c r="T68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V68" t="s">
-        <v>7</v>
+        <v>136</v>
       </c>
       <c r="W68" t="s">
-        <v>6</v>
-      </c>
-      <c r="X68" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y68" t="s">
-        <v>163</v>
+        <v>14</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB68">
+        <v>2</v>
+      </c>
+      <c r="AC68" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="69" spans="1:29" x14ac:dyDescent="0.2">
@@ -3102,10 +3089,10 @@
         <v>6</v>
       </c>
       <c r="X69" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Y69" t="s">
-        <v>9</v>
+        <v>163</v>
       </c>
     </row>
     <row r="70" spans="1:29" x14ac:dyDescent="0.2">
@@ -3129,8 +3116,11 @@
       <c r="W70" t="s">
         <v>6</v>
       </c>
-      <c r="Z70" t="s">
-        <v>166</v>
+      <c r="X70" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.2">
@@ -3154,14 +3144,8 @@
       <c r="W71" t="s">
         <v>6</v>
       </c>
-      <c r="AA71" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB71">
-        <v>1</v>
-      </c>
-      <c r="AC71" t="s">
-        <v>165</v>
+      <c r="Z71" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.2">
@@ -3189,18 +3173,18 @@
         <v>14</v>
       </c>
       <c r="AB72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC72" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="73" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A73" s="11"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="13"/>
+      <c r="A73" s="5"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="7"/>
       <c r="R73" t="s">
         <v>8</v>
       </c>
@@ -3220,13 +3204,18 @@
         <v>14</v>
       </c>
       <c r="AB73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC73" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="74" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A74" s="11"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="13"/>
       <c r="R74" t="s">
         <v>8</v>
       </c>
@@ -3246,7 +3235,7 @@
         <v>14</v>
       </c>
       <c r="AB74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC74" t="s">
         <v>165</v>
@@ -3272,7 +3261,7 @@
         <v>14</v>
       </c>
       <c r="AB75">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC75" t="s">
         <v>165</v>
@@ -3280,25 +3269,28 @@
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.2">
       <c r="R76" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="S76" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="T76">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V76" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="W76" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA76" t="s">
         <v>14</v>
       </c>
-      <c r="X76" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y76" t="s">
-        <v>34</v>
+      <c r="AB76">
+        <v>5</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.2">
@@ -3318,7 +3310,7 @@
         <v>14</v>
       </c>
       <c r="X77" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Y77" t="s">
         <v>34</v>
@@ -3340,8 +3332,11 @@
       <c r="W78" t="s">
         <v>14</v>
       </c>
-      <c r="Z78" t="s">
-        <v>167</v>
+      <c r="X78" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.2">
@@ -3360,14 +3355,8 @@
       <c r="W79" t="s">
         <v>14</v>
       </c>
-      <c r="AA79" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB79">
-        <v>1</v>
-      </c>
-      <c r="AC79" t="s">
-        <v>165</v>
+      <c r="Z79" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="80" spans="1:29" x14ac:dyDescent="0.2">
@@ -3390,7 +3379,7 @@
         <v>14</v>
       </c>
       <c r="AB80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC80" t="s">
         <v>165</v>
@@ -3401,22 +3390,25 @@
         <v>16</v>
       </c>
       <c r="S81" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="T81">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V81" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="W81" t="s">
         <v>14</v>
       </c>
-      <c r="X81" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y81" t="s">
-        <v>0</v>
+      <c r="AA81" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB81">
+        <v>2</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="82" spans="18:29" x14ac:dyDescent="0.2">
@@ -3436,7 +3428,7 @@
         <v>14</v>
       </c>
       <c r="X82" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Y82" t="s">
         <v>0</v>
@@ -3458,8 +3450,11 @@
       <c r="W83" t="s">
         <v>14</v>
       </c>
-      <c r="Z83" t="s">
-        <v>168</v>
+      <c r="X83" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="18:29" x14ac:dyDescent="0.2">
@@ -3479,7 +3474,7 @@
         <v>14</v>
       </c>
       <c r="Z84" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="85" spans="18:29" x14ac:dyDescent="0.2">
@@ -3499,7 +3494,7 @@
         <v>14</v>
       </c>
       <c r="Z85" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="86" spans="18:29" x14ac:dyDescent="0.2">
@@ -3519,7 +3514,7 @@
         <v>14</v>
       </c>
       <c r="Z86" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="87" spans="18:29" x14ac:dyDescent="0.2">
@@ -3538,14 +3533,8 @@
       <c r="W87" t="s">
         <v>14</v>
       </c>
-      <c r="AA87" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB87">
-        <v>1</v>
-      </c>
-      <c r="AC87" t="s">
-        <v>165</v>
+      <c r="Z87" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="88" spans="18:29" x14ac:dyDescent="0.2">
@@ -3565,10 +3554,10 @@
         <v>14</v>
       </c>
       <c r="AA88" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AB88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC88" t="s">
         <v>165</v>
@@ -3579,22 +3568,25 @@
         <v>16</v>
       </c>
       <c r="S89" t="s">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="T89">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V89" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="W89" t="s">
         <v>14</v>
       </c>
-      <c r="X89" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y89" t="s">
-        <v>174</v>
+      <c r="AA89" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB89">
+        <v>2</v>
+      </c>
+      <c r="AC89" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="90" spans="18:29" x14ac:dyDescent="0.2">
@@ -3614,10 +3606,10 @@
         <v>14</v>
       </c>
       <c r="X90" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Y90" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
     </row>
     <row r="91" spans="18:29" x14ac:dyDescent="0.2">
@@ -3636,14 +3628,11 @@
       <c r="W91" t="s">
         <v>14</v>
       </c>
-      <c r="AA91">
-        <v>1</v>
-      </c>
-      <c r="AB91">
-        <v>1</v>
-      </c>
-      <c r="AC91" t="s">
-        <v>165</v>
+      <c r="X91" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="92" spans="18:29" x14ac:dyDescent="0.2">
@@ -3663,10 +3652,10 @@
         <v>14</v>
       </c>
       <c r="AA92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC92" t="s">
         <v>165</v>
@@ -3689,10 +3678,10 @@
         <v>14</v>
       </c>
       <c r="AA93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC93" t="s">
         <v>165</v>
@@ -3703,22 +3692,25 @@
         <v>16</v>
       </c>
       <c r="S94" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="T94">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V94" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="W94" t="s">
         <v>14</v>
       </c>
-      <c r="X94" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y94" t="s">
-        <v>0</v>
+      <c r="AA94">
+        <v>3</v>
+      </c>
+      <c r="AB94">
+        <v>3</v>
+      </c>
+      <c r="AC94" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="95" spans="18:29" x14ac:dyDescent="0.2">
@@ -3738,10 +3730,10 @@
         <v>14</v>
       </c>
       <c r="X95" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Y95" t="s">
-        <v>84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="18:29" x14ac:dyDescent="0.2">
@@ -3760,8 +3752,11 @@
       <c r="W96" t="s">
         <v>14</v>
       </c>
-      <c r="Z96" t="s">
-        <v>175</v>
+      <c r="X96" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="97" spans="18:29" x14ac:dyDescent="0.2">
@@ -3781,7 +3776,7 @@
         <v>14</v>
       </c>
       <c r="Z97" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="98" spans="18:29" x14ac:dyDescent="0.2">
@@ -3801,7 +3796,7 @@
         <v>14</v>
       </c>
       <c r="Z98" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="99" spans="18:29" x14ac:dyDescent="0.2">
@@ -3820,14 +3815,8 @@
       <c r="W99" t="s">
         <v>14</v>
       </c>
-      <c r="AA99" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB99">
-        <v>1</v>
-      </c>
-      <c r="AC99" t="s">
-        <v>165</v>
+      <c r="Z99" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="100" spans="18:29" x14ac:dyDescent="0.2">
@@ -3847,10 +3836,10 @@
         <v>14</v>
       </c>
       <c r="AA100" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AB100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC100" t="s">
         <v>165</v>
@@ -3861,22 +3850,25 @@
         <v>16</v>
       </c>
       <c r="S101" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="T101">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V101" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="W101" t="s">
         <v>14</v>
       </c>
-      <c r="X101" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y101" t="s">
-        <v>17</v>
+      <c r="AA101" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB101">
+        <v>2</v>
+      </c>
+      <c r="AC101" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="102" spans="18:29" x14ac:dyDescent="0.2">
@@ -3896,7 +3888,7 @@
         <v>14</v>
       </c>
       <c r="X102" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Y102" t="s">
         <v>17</v>
@@ -3918,8 +3910,11 @@
       <c r="W103" t="s">
         <v>14</v>
       </c>
-      <c r="Z103" t="s">
-        <v>178</v>
+      <c r="X103" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="104" spans="18:29" x14ac:dyDescent="0.2">
@@ -3938,14 +3933,8 @@
       <c r="W104" t="s">
         <v>14</v>
       </c>
-      <c r="AA104" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB104">
-        <v>1</v>
-      </c>
-      <c r="AC104" t="s">
-        <v>165</v>
+      <c r="Z104" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="105" spans="18:29" x14ac:dyDescent="0.2">
@@ -3968,7 +3957,7 @@
         <v>14</v>
       </c>
       <c r="AB105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC105" t="s">
         <v>165</v>
@@ -3976,22 +3965,28 @@
     </row>
     <row r="106" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R106" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="S106" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="T106">
-        <v>9</v>
-      </c>
-      <c r="U106" t="s">
-        <v>179</v>
+        <v>8</v>
       </c>
       <c r="V106" t="s">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="W106" t="s">
-        <v>95</v>
+        <v>14</v>
+      </c>
+      <c r="AA106" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB106">
+        <v>2</v>
+      </c>
+      <c r="AC106" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="107" spans="18:29" x14ac:dyDescent="0.2">
@@ -4004,17 +3999,14 @@
       <c r="T107">
         <v>9</v>
       </c>
+      <c r="U107" t="s">
+        <v>179</v>
+      </c>
       <c r="V107" t="s">
         <v>96</v>
       </c>
       <c r="W107" t="s">
         <v>95</v>
-      </c>
-      <c r="X107" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y107" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="108" spans="18:29" x14ac:dyDescent="0.2">
@@ -4034,10 +4026,10 @@
         <v>95</v>
       </c>
       <c r="X108" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Y108" t="s">
-        <v>98</v>
+        <v>155</v>
       </c>
     </row>
     <row r="109" spans="18:29" x14ac:dyDescent="0.2">
@@ -4056,8 +4048,11 @@
       <c r="W109" t="s">
         <v>95</v>
       </c>
-      <c r="Z109" t="s">
-        <v>180</v>
+      <c r="X109" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="110" spans="18:29" x14ac:dyDescent="0.2">
@@ -4077,7 +4072,7 @@
         <v>95</v>
       </c>
       <c r="Z110" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="111" spans="18:29" x14ac:dyDescent="0.2">
@@ -4096,14 +4091,8 @@
       <c r="W111" t="s">
         <v>95</v>
       </c>
-      <c r="AA111" t="s">
-        <v>182</v>
-      </c>
-      <c r="AB111">
-        <v>1</v>
-      </c>
-      <c r="AC111" t="s">
-        <v>183</v>
+      <c r="Z111" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="112" spans="18:29" x14ac:dyDescent="0.2">
@@ -4123,13 +4112,13 @@
         <v>95</v>
       </c>
       <c r="AA112" t="s">
-        <v>35</v>
+        <v>182</v>
       </c>
       <c r="AB112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC112" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
     </row>
     <row r="113" spans="18:29" x14ac:dyDescent="0.2">
@@ -4149,10 +4138,10 @@
         <v>95</v>
       </c>
       <c r="AA113" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="AB113">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC113" t="s">
         <v>165</v>
@@ -4175,13 +4164,13 @@
         <v>95</v>
       </c>
       <c r="AA114" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
       <c r="AB114">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC114" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
     </row>
     <row r="115" spans="18:29" x14ac:dyDescent="0.2">
@@ -4201,13 +4190,13 @@
         <v>95</v>
       </c>
       <c r="AA115" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="AB115">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC115" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
     </row>
     <row r="116" spans="18:29" x14ac:dyDescent="0.2">
@@ -4227,10 +4216,10 @@
         <v>95</v>
       </c>
       <c r="AA116" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="AB116">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC116" t="s">
         <v>165</v>
@@ -4253,10 +4242,10 @@
         <v>95</v>
       </c>
       <c r="AA117" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AB117">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC117" t="s">
         <v>165</v>
@@ -4279,10 +4268,10 @@
         <v>95</v>
       </c>
       <c r="AA118" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="AB118">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC118" t="s">
         <v>165</v>
@@ -4290,25 +4279,28 @@
     </row>
     <row r="119" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R119" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="S119" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="T119">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V119" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="W119" t="s">
-        <v>78</v>
-      </c>
-      <c r="X119" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y119" t="s">
-        <v>155</v>
+        <v>95</v>
+      </c>
+      <c r="AA119" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB119">
+        <v>8</v>
+      </c>
+      <c r="AC119" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="120" spans="18:29" x14ac:dyDescent="0.2">
@@ -4328,10 +4320,10 @@
         <v>78</v>
       </c>
       <c r="X120" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Y120" t="s">
-        <v>81</v>
+        <v>155</v>
       </c>
     </row>
     <row r="121" spans="18:29" x14ac:dyDescent="0.2">
@@ -4350,8 +4342,11 @@
       <c r="W121" t="s">
         <v>78</v>
       </c>
-      <c r="Z121" t="s">
-        <v>186</v>
+      <c r="X121" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y121" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="122" spans="18:29" x14ac:dyDescent="0.2">
@@ -4371,7 +4366,7 @@
         <v>78</v>
       </c>
       <c r="Z122" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="123" spans="18:29" x14ac:dyDescent="0.2">
@@ -4390,14 +4385,8 @@
       <c r="W123" t="s">
         <v>78</v>
       </c>
-      <c r="AA123" t="s">
-        <v>188</v>
-      </c>
-      <c r="AB123">
-        <v>1</v>
-      </c>
-      <c r="AC123" t="s">
-        <v>189</v>
+      <c r="Z123" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="124" spans="18:29" x14ac:dyDescent="0.2">
@@ -4417,10 +4406,10 @@
         <v>78</v>
       </c>
       <c r="AA124" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AB124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC124" t="s">
         <v>189</v>
@@ -4443,10 +4432,10 @@
         <v>78</v>
       </c>
       <c r="AA125" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AB125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC125" t="s">
         <v>189</v>
@@ -4469,13 +4458,13 @@
         <v>78</v>
       </c>
       <c r="AA126" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AB126">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC126" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
     </row>
     <row r="127" spans="18:29" x14ac:dyDescent="0.2">
@@ -4495,13 +4484,13 @@
         <v>78</v>
       </c>
       <c r="AA127" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AB127">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC127" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="128" spans="18:29" x14ac:dyDescent="0.2">
@@ -4521,13 +4510,13 @@
         <v>78</v>
       </c>
       <c r="AA128" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AB128">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC128" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
     </row>
     <row r="129" spans="18:29" x14ac:dyDescent="0.2">
@@ -4547,10 +4536,10 @@
         <v>78</v>
       </c>
       <c r="AA129" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AB129">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC129" t="s">
         <v>189</v>
@@ -4573,10 +4562,10 @@
         <v>78</v>
       </c>
       <c r="AA130" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AB130">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC130" t="s">
         <v>189</v>
@@ -4599,10 +4588,10 @@
         <v>78</v>
       </c>
       <c r="AA131" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AB131">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC131" t="s">
         <v>189</v>
@@ -4625,10 +4614,10 @@
         <v>78</v>
       </c>
       <c r="AA132" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AB132">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC132" t="s">
         <v>189</v>
@@ -4651,10 +4640,10 @@
         <v>78</v>
       </c>
       <c r="AA133" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AB133">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC133" t="s">
         <v>189</v>
@@ -4677,10 +4666,10 @@
         <v>78</v>
       </c>
       <c r="AA134" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AB134">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC134" t="s">
         <v>189</v>
@@ -4703,10 +4692,10 @@
         <v>78</v>
       </c>
       <c r="AA135" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AB135">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC135" t="s">
         <v>189</v>
@@ -4729,13 +4718,13 @@
         <v>78</v>
       </c>
       <c r="AA136" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AB136">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC136" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
     </row>
     <row r="137" spans="18:29" x14ac:dyDescent="0.2">
@@ -4755,13 +4744,13 @@
         <v>78</v>
       </c>
       <c r="AA137" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AB137">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC137" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
     </row>
     <row r="138" spans="18:29" x14ac:dyDescent="0.2">
@@ -4781,10 +4770,10 @@
         <v>78</v>
       </c>
       <c r="AA138" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AB138">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC138" t="s">
         <v>189</v>
@@ -4807,10 +4796,10 @@
         <v>78</v>
       </c>
       <c r="AA139" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AB139">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC139" t="s">
         <v>189</v>
@@ -4833,10 +4822,10 @@
         <v>78</v>
       </c>
       <c r="AA140" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AB140">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC140" t="s">
         <v>189</v>
@@ -4844,25 +4833,28 @@
     </row>
     <row r="141" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R141" t="s">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="S141" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="T141">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V141" t="s">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="W141" t="s">
-        <v>142</v>
-      </c>
-      <c r="X141" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y141" t="s">
-        <v>155</v>
+        <v>78</v>
+      </c>
+      <c r="AA141" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB141">
+        <v>18</v>
+      </c>
+      <c r="AC141" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="142" spans="18:29" x14ac:dyDescent="0.2">
@@ -4882,10 +4874,10 @@
         <v>142</v>
       </c>
       <c r="X142" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Y142" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
     </row>
     <row r="143" spans="18:29" x14ac:dyDescent="0.2">
@@ -4905,10 +4897,10 @@
         <v>142</v>
       </c>
       <c r="X143" t="s">
-        <v>207</v>
+        <v>156</v>
       </c>
       <c r="Y143" t="s">
-        <v>208</v>
+        <v>146</v>
       </c>
     </row>
     <row r="144" spans="18:29" x14ac:dyDescent="0.2">
@@ -4928,10 +4920,10 @@
         <v>142</v>
       </c>
       <c r="X144" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y144" t="s">
-        <v>142</v>
+        <v>208</v>
       </c>
     </row>
     <row r="145" spans="18:29" x14ac:dyDescent="0.2">
@@ -4951,10 +4943,10 @@
         <v>142</v>
       </c>
       <c r="X145" t="s">
-        <v>54</v>
+        <v>209</v>
       </c>
       <c r="Y145" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="146" spans="18:29" x14ac:dyDescent="0.2">
@@ -4974,10 +4966,10 @@
         <v>142</v>
       </c>
       <c r="X146" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="Y146" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="147" spans="18:29" x14ac:dyDescent="0.2">
@@ -4997,10 +4989,10 @@
         <v>142</v>
       </c>
       <c r="X147" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="Y147" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="148" spans="18:29" x14ac:dyDescent="0.2">
@@ -5020,10 +5012,10 @@
         <v>142</v>
       </c>
       <c r="X148" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="Y148" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="149" spans="18:29" x14ac:dyDescent="0.2">
@@ -5043,10 +5035,10 @@
         <v>142</v>
       </c>
       <c r="X149" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="Y149" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="150" spans="18:29" x14ac:dyDescent="0.2">
@@ -5066,10 +5058,10 @@
         <v>142</v>
       </c>
       <c r="X150" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Y150" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="151" spans="18:29" x14ac:dyDescent="0.2">
@@ -5089,10 +5081,10 @@
         <v>142</v>
       </c>
       <c r="X151" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Y151" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="152" spans="18:29" x14ac:dyDescent="0.2">
@@ -5112,10 +5104,10 @@
         <v>142</v>
       </c>
       <c r="X152" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="Y152" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="153" spans="18:29" x14ac:dyDescent="0.2">
@@ -5135,10 +5127,10 @@
         <v>142</v>
       </c>
       <c r="X153" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Y153" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
     </row>
     <row r="154" spans="18:29" x14ac:dyDescent="0.2">
@@ -5157,14 +5149,11 @@
       <c r="W154" t="s">
         <v>142</v>
       </c>
-      <c r="AA154" t="s">
-        <v>210</v>
-      </c>
-      <c r="AB154">
-        <v>1</v>
-      </c>
-      <c r="AC154" t="s">
-        <v>160</v>
+      <c r="X154" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y154" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="155" spans="18:29" x14ac:dyDescent="0.2">
@@ -5184,10 +5173,10 @@
         <v>142</v>
       </c>
       <c r="AA155" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
       <c r="AB155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC155" t="s">
         <v>160</v>
@@ -5210,36 +5199,39 @@
         <v>142</v>
       </c>
       <c r="AA156" t="s">
-        <v>211</v>
+        <v>159</v>
       </c>
       <c r="AB156">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC156" t="s">
-        <v>212</v>
+        <v>160</v>
       </c>
     </row>
     <row r="157" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R157" t="s">
-        <v>48</v>
+        <v>145</v>
       </c>
       <c r="S157" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="T157">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V157" t="s">
-        <v>47</v>
+        <v>144</v>
       </c>
       <c r="W157" t="s">
-        <v>43</v>
-      </c>
-      <c r="X157" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y157" t="s">
-        <v>213</v>
+        <v>142</v>
+      </c>
+      <c r="AA157" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB157">
+        <v>3</v>
+      </c>
+      <c r="AC157" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="158" spans="18:29" x14ac:dyDescent="0.2">
@@ -5259,10 +5251,10 @@
         <v>43</v>
       </c>
       <c r="X158" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Y158" t="s">
-        <v>49</v>
+        <v>213</v>
       </c>
     </row>
     <row r="159" spans="18:29" x14ac:dyDescent="0.2">
@@ -5282,10 +5274,10 @@
         <v>43</v>
       </c>
       <c r="X159" t="s">
-        <v>207</v>
+        <v>156</v>
       </c>
       <c r="Y159" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="160" spans="18:29" x14ac:dyDescent="0.2">
@@ -5305,10 +5297,10 @@
         <v>43</v>
       </c>
       <c r="X160" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y160" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="161" spans="18:31" x14ac:dyDescent="0.2">
@@ -5328,10 +5320,10 @@
         <v>43</v>
       </c>
       <c r="X161" t="s">
-        <v>54</v>
+        <v>209</v>
       </c>
       <c r="Y161" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="162" spans="18:31" x14ac:dyDescent="0.2">
@@ -5351,10 +5343,10 @@
         <v>43</v>
       </c>
       <c r="X162" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="Y162" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="163" spans="18:31" x14ac:dyDescent="0.2">
@@ -5374,10 +5366,10 @@
         <v>43</v>
       </c>
       <c r="X163" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="Y163" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="164" spans="18:31" x14ac:dyDescent="0.2">
@@ -5397,10 +5389,10 @@
         <v>43</v>
       </c>
       <c r="X164" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="Y164" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="165" spans="18:31" x14ac:dyDescent="0.2">
@@ -5420,10 +5412,10 @@
         <v>43</v>
       </c>
       <c r="X165" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="Y165" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="166" spans="18:31" x14ac:dyDescent="0.2">
@@ -5443,10 +5435,10 @@
         <v>43</v>
       </c>
       <c r="X166" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Y166" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="167" spans="18:31" x14ac:dyDescent="0.2">
@@ -5466,10 +5458,10 @@
         <v>43</v>
       </c>
       <c r="X167" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Y167" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="168" spans="18:31" x14ac:dyDescent="0.2">
@@ -5489,10 +5481,10 @@
         <v>43</v>
       </c>
       <c r="X168" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="Y168" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="169" spans="18:31" x14ac:dyDescent="0.2">
@@ -5512,10 +5504,10 @@
         <v>43</v>
       </c>
       <c r="X169" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Y169" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="170" spans="18:31" x14ac:dyDescent="0.2">
@@ -5534,14 +5526,11 @@
       <c r="W170" t="s">
         <v>43</v>
       </c>
-      <c r="AA170" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB170">
-        <v>1</v>
-      </c>
-      <c r="AC170" t="s">
-        <v>165</v>
+      <c r="X170" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y170" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="171" spans="18:31" x14ac:dyDescent="0.2">
@@ -5561,10 +5550,10 @@
         <v>43</v>
       </c>
       <c r="AA171" t="s">
-        <v>214</v>
+        <v>14</v>
       </c>
       <c r="AB171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC171" t="s">
         <v>165</v>
@@ -5587,100 +5576,109 @@
         <v>43</v>
       </c>
       <c r="AA172" t="s">
-        <v>14</v>
+        <v>214</v>
       </c>
       <c r="AB172">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC172" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="173" spans="18:31" x14ac:dyDescent="0.2">
-      <c r="AD173" t="s">
+      <c r="R173" t="s">
+        <v>48</v>
+      </c>
+      <c r="S173" t="s">
+        <v>49</v>
+      </c>
+      <c r="T173">
+        <v>12</v>
+      </c>
+      <c r="V173" t="s">
+        <v>47</v>
+      </c>
+      <c r="W173" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA173" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB173">
         <v>3</v>
       </c>
-      <c r="AE173" t="s">
-        <v>215</v>
+      <c r="AC173" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="174" spans="18:31" x14ac:dyDescent="0.2">
       <c r="AD174" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AE174" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="175" spans="18:31" x14ac:dyDescent="0.2">
       <c r="AD175" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AE175" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="176" spans="18:31" x14ac:dyDescent="0.2">
       <c r="AD176" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="AE176" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="177" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AD177" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="AE177" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="178" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AD178" t="s">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="AE178" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="179" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AD179" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE179" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="180" spans="30:36" x14ac:dyDescent="0.2">
+      <c r="AD180" t="s">
         <v>48</v>
       </c>
-      <c r="AE179" t="s">
+      <c r="AE180" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="180" spans="30:36" x14ac:dyDescent="0.2">
-      <c r="AF180">
-        <v>1</v>
-      </c>
-      <c r="AG180" t="s">
-        <v>222</v>
-      </c>
-      <c r="AH180">
-        <v>1</v>
-      </c>
-      <c r="AI180">
-        <v>1</v>
-      </c>
-      <c r="AJ180" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="181" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG181" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AH181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI181">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ181" t="s">
         <v>5</v>
@@ -5688,33 +5686,33 @@
     </row>
     <row r="182" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF182">
+        <v>2</v>
+      </c>
+      <c r="AG182" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH182">
+        <v>2</v>
+      </c>
+      <c r="AI182">
         <v>3</v>
       </c>
-      <c r="AG182" t="s">
-        <v>224</v>
-      </c>
-      <c r="AH182">
-        <v>3</v>
-      </c>
-      <c r="AI182">
-        <v>1</v>
-      </c>
       <c r="AJ182" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="183" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF183">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG183" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AH183">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI183">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ183" t="s">
         <v>10</v>
@@ -5722,33 +5720,33 @@
     </row>
     <row r="184" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF184">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG184" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AH184">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI184">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ184" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="185" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF185">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG185" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AH185">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI185">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ185" t="s">
         <v>11</v>
@@ -5756,33 +5754,33 @@
     </row>
     <row r="186" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF186">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG186" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AH186">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI186">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ186" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="187" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF187">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG187" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AH187">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI187">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ187" t="s">
         <v>12</v>
@@ -5790,19 +5788,19 @@
     </row>
     <row r="188" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF188">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG188" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AH188">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI188">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ188" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
     </row>
     <row r="189" spans="30:36" x14ac:dyDescent="0.2">
@@ -5816,27 +5814,27 @@
         <v>9</v>
       </c>
       <c r="AI189">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ189" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
     </row>
     <row r="190" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF190">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG190" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AH190">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI190">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ190" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="191" spans="30:36" x14ac:dyDescent="0.2">
@@ -5850,27 +5848,27 @@
         <v>10</v>
       </c>
       <c r="AI191">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ191" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="192" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF192">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG192" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AH192">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI192">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ192" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="193" spans="32:36" x14ac:dyDescent="0.2">
@@ -5884,27 +5882,27 @@
         <v>11</v>
       </c>
       <c r="AI193">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ193" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="194" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF194">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG194" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AH194">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI194">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ194" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="195" spans="32:36" x14ac:dyDescent="0.2">
@@ -5918,27 +5916,27 @@
         <v>12</v>
       </c>
       <c r="AI195">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ195" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="196" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF196">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG196" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AH196">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI196">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ196" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="197" spans="32:36" x14ac:dyDescent="0.2">
@@ -5952,44 +5950,44 @@
         <v>13</v>
       </c>
       <c r="AI197">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ197" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="198" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF198">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG198" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AH198">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI198">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ198" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="199" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF199">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG199" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AH199">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI199">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AJ199" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
     </row>
     <row r="200" spans="32:36" x14ac:dyDescent="0.2">
@@ -6006,7 +6004,7 @@
         <v>9</v>
       </c>
       <c r="AJ200" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="201" spans="32:36" x14ac:dyDescent="0.2">
@@ -6020,7 +6018,7 @@
         <v>15</v>
       </c>
       <c r="AI201">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AJ201" t="s">
         <v>1</v>
@@ -6037,10 +6035,10 @@
         <v>15</v>
       </c>
       <c r="AI202">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AJ202" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="32:36" x14ac:dyDescent="0.2">
@@ -6054,10 +6052,10 @@
         <v>15</v>
       </c>
       <c r="AI203">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ203" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="204" spans="32:36" x14ac:dyDescent="0.2">
@@ -6071,7 +6069,7 @@
         <v>15</v>
       </c>
       <c r="AI204">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ204" t="s">
         <v>1</v>
@@ -6088,7 +6086,7 @@
         <v>15</v>
       </c>
       <c r="AI205">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AJ205" t="s">
         <v>1</v>
@@ -6105,10 +6103,10 @@
         <v>15</v>
       </c>
       <c r="AI206">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ206" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="32:36" x14ac:dyDescent="0.2">
@@ -6122,7 +6120,7 @@
         <v>15</v>
       </c>
       <c r="AI207">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AJ207" t="s">
         <v>21</v>
@@ -6139,7 +6137,7 @@
         <v>15</v>
       </c>
       <c r="AI208">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AJ208" t="s">
         <v>21</v>
@@ -6156,10 +6154,10 @@
         <v>15</v>
       </c>
       <c r="AI209">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ209" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="210" spans="32:36" x14ac:dyDescent="0.2">
@@ -6173,41 +6171,41 @@
         <v>15</v>
       </c>
       <c r="AI210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ210" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF211">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG211" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AH211">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI211">
         <v>1</v>
       </c>
       <c r="AJ211" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="212" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF212">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG212" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AH212">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI212">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ212" t="s">
         <v>22</v>
@@ -6215,16 +6213,16 @@
     </row>
     <row r="213" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF213">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG213" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AH213">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI213">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ213" t="s">
         <v>22</v>
@@ -6241,41 +6239,41 @@
         <v>18</v>
       </c>
       <c r="AI214">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ214" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
     <row r="215" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF215">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG215" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AH215">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI215">
         <v>1</v>
       </c>
       <c r="AJ215" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
     </row>
     <row r="216" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF216">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG216" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AH216">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI216">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ216" t="s">
         <v>23</v>
@@ -6283,16 +6281,16 @@
     </row>
     <row r="217" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF217">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG217" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AH217">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI217">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ217" t="s">
         <v>23</v>
@@ -6309,41 +6307,41 @@
         <v>21</v>
       </c>
       <c r="AI218">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ218" t="s">
-        <v>118</v>
+        <v>23</v>
       </c>
     </row>
     <row r="219" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF219">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG219" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AH219">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI219">
         <v>1</v>
       </c>
       <c r="AJ219" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
     </row>
     <row r="220" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF220">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG220" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AH220">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI220">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ220" t="s">
         <v>24</v>
@@ -6351,16 +6349,16 @@
     </row>
     <row r="221" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF221">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG221" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AH221">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI221">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ221" t="s">
         <v>24</v>
@@ -6377,27 +6375,27 @@
         <v>24</v>
       </c>
       <c r="AI222">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ222" t="s">
-        <v>119</v>
+        <v>24</v>
       </c>
     </row>
     <row r="223" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF223">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG223" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AH223">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI223">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ223" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
     </row>
     <row r="224" spans="32:36" x14ac:dyDescent="0.2">
@@ -6411,27 +6409,27 @@
         <v>25</v>
       </c>
       <c r="AI224">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ224" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="225" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF225">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG225" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AH225">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI225">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ225" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="226" spans="32:36" x14ac:dyDescent="0.2">
@@ -6445,27 +6443,27 @@
         <v>26</v>
       </c>
       <c r="AI226">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ226" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="227" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF227">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG227" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AH227">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI227">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ227" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="228" spans="32:36" x14ac:dyDescent="0.2">
@@ -6479,27 +6477,27 @@
         <v>27</v>
       </c>
       <c r="AI228">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ228" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="229" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF229">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG229" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AH229">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI229">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ229" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="230" spans="32:36" x14ac:dyDescent="0.2">
@@ -6513,41 +6511,41 @@
         <v>28</v>
       </c>
       <c r="AI230">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ230" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="231" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF231">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG231" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AH231">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI231">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ231" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
     </row>
     <row r="232" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF232">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG232" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AH232">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI232">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ232" t="s">
         <v>63</v>
@@ -6555,33 +6553,33 @@
     </row>
     <row r="233" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF233">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AG233" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AH233">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AI233">
         <v>1</v>
       </c>
       <c r="AJ233" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
     </row>
     <row r="234" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF234">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AG234" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AH234">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AI234">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ234" t="s">
         <v>29</v>
@@ -6589,16 +6587,16 @@
     </row>
     <row r="235" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF235">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AG235" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AH235">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AI235">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ235" t="s">
         <v>29</v>
@@ -6615,27 +6613,27 @@
         <v>33</v>
       </c>
       <c r="AI236">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ236" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
     </row>
     <row r="237" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF237">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG237" t="s">
-        <v>159</v>
+        <v>254</v>
       </c>
       <c r="AH237">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AI237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ237" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
     <row r="238" spans="32:36" x14ac:dyDescent="0.2">
@@ -6652,7 +6650,7 @@
         <v>2</v>
       </c>
       <c r="AJ238" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="239" spans="32:36" x14ac:dyDescent="0.2">
@@ -6666,10 +6664,10 @@
         <v>34</v>
       </c>
       <c r="AI239">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ239" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="240" spans="32:36" x14ac:dyDescent="0.2">
@@ -6683,10 +6681,10 @@
         <v>34</v>
       </c>
       <c r="AI240">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ240" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
     </row>
     <row r="241" spans="32:36" x14ac:dyDescent="0.2">
@@ -6703,7 +6701,7 @@
         <v>2</v>
       </c>
       <c r="AJ241" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="242" spans="32:36" x14ac:dyDescent="0.2">
@@ -6720,7 +6718,7 @@
         <v>2</v>
       </c>
       <c r="AJ242" t="s">
-        <v>134</v>
+        <v>23</v>
       </c>
     </row>
     <row r="243" spans="32:36" x14ac:dyDescent="0.2">
@@ -6737,7 +6735,7 @@
         <v>2</v>
       </c>
       <c r="AJ243" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="244" spans="32:36" x14ac:dyDescent="0.2">
@@ -6754,7 +6752,7 @@
         <v>2</v>
       </c>
       <c r="AJ244" t="s">
-        <v>24</v>
+        <v>135</v>
       </c>
     </row>
     <row r="245" spans="32:36" x14ac:dyDescent="0.2">
@@ -6771,7 +6769,7 @@
         <v>2</v>
       </c>
       <c r="AJ245" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
     </row>
     <row r="246" spans="32:36" x14ac:dyDescent="0.2">
@@ -6788,7 +6786,7 @@
         <v>2</v>
       </c>
       <c r="AJ246" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="247" spans="32:36" x14ac:dyDescent="0.2">
@@ -6802,10 +6800,10 @@
         <v>34</v>
       </c>
       <c r="AI247">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ247" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
     </row>
     <row r="248" spans="32:36" x14ac:dyDescent="0.2">
@@ -6819,10 +6817,10 @@
         <v>34</v>
       </c>
       <c r="AI248">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ248" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
     </row>
     <row r="249" spans="32:36" x14ac:dyDescent="0.2">
@@ -6839,7 +6837,7 @@
         <v>2</v>
       </c>
       <c r="AJ249" t="s">
-        <v>29</v>
+        <v>141</v>
       </c>
     </row>
     <row r="250" spans="32:36" x14ac:dyDescent="0.2">
@@ -6856,7 +6854,7 @@
         <v>2</v>
       </c>
       <c r="AJ250" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="251" spans="32:36" x14ac:dyDescent="0.2">
@@ -6870,10 +6868,10 @@
         <v>34</v>
       </c>
       <c r="AI251">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ251" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="252" spans="32:36" x14ac:dyDescent="0.2">
@@ -6887,10 +6885,10 @@
         <v>34</v>
       </c>
       <c r="AI252">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ252" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
     </row>
     <row r="253" spans="32:36" x14ac:dyDescent="0.2">
@@ -6907,7 +6905,7 @@
         <v>2</v>
       </c>
       <c r="AJ253" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="254" spans="32:36" x14ac:dyDescent="0.2">
@@ -6924,7 +6922,7 @@
         <v>2</v>
       </c>
       <c r="AJ254" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
     </row>
     <row r="255" spans="32:36" x14ac:dyDescent="0.2">
@@ -6941,7 +6939,7 @@
         <v>2</v>
       </c>
       <c r="AJ255" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
     </row>
     <row r="256" spans="32:36" x14ac:dyDescent="0.2">
@@ -6955,10 +6953,10 @@
         <v>34</v>
       </c>
       <c r="AI256">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ256" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
     </row>
     <row r="257" spans="32:36" x14ac:dyDescent="0.2">
@@ -6972,10 +6970,10 @@
         <v>34</v>
       </c>
       <c r="AI257">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ257" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
     </row>
     <row r="258" spans="32:36" x14ac:dyDescent="0.2">
@@ -6989,10 +6987,10 @@
         <v>34</v>
       </c>
       <c r="AI258">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ258" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="259" spans="32:36" x14ac:dyDescent="0.2">
@@ -7009,7 +7007,7 @@
         <v>7</v>
       </c>
       <c r="AJ259" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="260" spans="32:36" x14ac:dyDescent="0.2">
@@ -7023,10 +7021,10 @@
         <v>34</v>
       </c>
       <c r="AI260">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ260" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="32:36" x14ac:dyDescent="0.2">
@@ -7043,7 +7041,7 @@
         <v>2</v>
       </c>
       <c r="AJ261" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="262" spans="32:36" x14ac:dyDescent="0.2">
@@ -7060,7 +7058,7 @@
         <v>2</v>
       </c>
       <c r="AJ262" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
     </row>
     <row r="263" spans="32:36" x14ac:dyDescent="0.2">
@@ -7074,10 +7072,10 @@
         <v>34</v>
       </c>
       <c r="AI263">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ263" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="264" spans="32:36" x14ac:dyDescent="0.2">
@@ -7091,10 +7089,10 @@
         <v>34</v>
       </c>
       <c r="AI264">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ264" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
     </row>
     <row r="265" spans="32:36" x14ac:dyDescent="0.2">
@@ -7111,7 +7109,7 @@
         <v>2</v>
       </c>
       <c r="AJ265" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="266" spans="32:36" x14ac:dyDescent="0.2">
@@ -7125,10 +7123,10 @@
         <v>34</v>
       </c>
       <c r="AI266">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ266" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
     </row>
     <row r="267" spans="32:36" x14ac:dyDescent="0.2">
@@ -7142,10 +7140,10 @@
         <v>34</v>
       </c>
       <c r="AI267">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ267" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="268" spans="32:36" x14ac:dyDescent="0.2">
@@ -7159,10 +7157,10 @@
         <v>34</v>
       </c>
       <c r="AI268">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ268" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
     </row>
     <row r="269" spans="32:36" x14ac:dyDescent="0.2">
@@ -7176,10 +7174,10 @@
         <v>34</v>
       </c>
       <c r="AI269">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ269" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
     </row>
     <row r="270" spans="32:36" x14ac:dyDescent="0.2">
@@ -7196,24 +7194,24 @@
         <v>2</v>
       </c>
       <c r="AJ270" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
     </row>
     <row r="271" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF271">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AG271" t="s">
-        <v>255</v>
+        <v>159</v>
       </c>
       <c r="AH271">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AI271">
         <v>2</v>
       </c>
       <c r="AJ271" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="272" spans="32:36" x14ac:dyDescent="0.2">
@@ -7227,27 +7225,27 @@
         <v>35</v>
       </c>
       <c r="AI272">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ272" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
     </row>
     <row r="273" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF273">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AG273" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH273">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AI273">
         <v>4</v>
       </c>
       <c r="AJ273" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
     </row>
     <row r="274" spans="32:36" x14ac:dyDescent="0.2">
@@ -7261,41 +7259,41 @@
         <v>36</v>
       </c>
       <c r="AI274">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ274" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="275" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF275">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AG275" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AH275">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AI275">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ275" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
     </row>
     <row r="276" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF276">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AG276" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AH276">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI276">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ276" t="s">
         <v>64</v>
@@ -7303,19 +7301,19 @@
     </row>
     <row r="277" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF277">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG277" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AH277">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AI277">
         <v>1</v>
       </c>
       <c r="AJ277" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
     </row>
     <row r="278" spans="32:36" x14ac:dyDescent="0.2">
@@ -7329,27 +7327,27 @@
         <v>39</v>
       </c>
       <c r="AI278">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ278" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="279" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF279">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AG279" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AH279">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AI279">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ279" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="280" spans="32:36" x14ac:dyDescent="0.2">
@@ -7363,27 +7361,27 @@
         <v>40</v>
       </c>
       <c r="AI280">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ280" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="281" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF281">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AG281" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AH281">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AI281">
         <v>5</v>
       </c>
       <c r="AJ281" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="282" spans="32:36" x14ac:dyDescent="0.2">
@@ -7397,27 +7395,27 @@
         <v>41</v>
       </c>
       <c r="AI282">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ282" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="283" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF283">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AG283" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AH283">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AI283">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AJ283" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="284" spans="32:36" x14ac:dyDescent="0.2">
@@ -7431,7 +7429,7 @@
         <v>42</v>
       </c>
       <c r="AI284">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AJ284" t="s">
         <v>41</v>
@@ -7448,10 +7446,10 @@
         <v>42</v>
       </c>
       <c r="AI285">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AJ285" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="286" spans="32:36" x14ac:dyDescent="0.2">
@@ -7465,10 +7463,10 @@
         <v>42</v>
       </c>
       <c r="AI286">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AJ286" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="287" spans="32:36" x14ac:dyDescent="0.2">
@@ -7482,10 +7480,10 @@
         <v>42</v>
       </c>
       <c r="AI287">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AJ287" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="288" spans="32:36" x14ac:dyDescent="0.2">
@@ -7499,7 +7497,7 @@
         <v>42</v>
       </c>
       <c r="AI288">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ288" t="s">
         <v>37</v>
@@ -7516,7 +7514,7 @@
         <v>42</v>
       </c>
       <c r="AI289">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AJ289" t="s">
         <v>37</v>
@@ -7533,10 +7531,10 @@
         <v>42</v>
       </c>
       <c r="AI290">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AJ290" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="291" spans="32:36" x14ac:dyDescent="0.2">
@@ -7550,10 +7548,10 @@
         <v>42</v>
       </c>
       <c r="AI291">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AJ291" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="292" spans="32:36" x14ac:dyDescent="0.2">
@@ -7567,10 +7565,10 @@
         <v>42</v>
       </c>
       <c r="AI292">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AJ292" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="293" spans="32:36" x14ac:dyDescent="0.2">
@@ -7584,10 +7582,10 @@
         <v>42</v>
       </c>
       <c r="AI293">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AJ293" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="294" spans="32:36" x14ac:dyDescent="0.2">
@@ -7601,27 +7599,27 @@
         <v>42</v>
       </c>
       <c r="AI294">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AJ294" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="295" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF295">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG295" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AH295">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AI295">
         <v>1</v>
       </c>
       <c r="AJ295" t="s">
-        <v>116</v>
+        <v>41</v>
       </c>
     </row>
     <row r="296" spans="32:36" x14ac:dyDescent="0.2">
@@ -7635,27 +7633,27 @@
         <v>43</v>
       </c>
       <c r="AI296">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ296" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
     </row>
     <row r="297" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF297">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG297" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AH297">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AI297">
         <v>5</v>
       </c>
       <c r="AJ297" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="298" spans="32:36" x14ac:dyDescent="0.2">
@@ -7669,27 +7667,27 @@
         <v>44</v>
       </c>
       <c r="AI298">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ298" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
     </row>
     <row r="299" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF299">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AG299" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AH299">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI299">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ299" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
     </row>
     <row r="300" spans="32:36" x14ac:dyDescent="0.2">
@@ -7703,27 +7701,27 @@
         <v>45</v>
       </c>
       <c r="AI300">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AJ300" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="301" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF301">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AG301" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AH301">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI301">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AJ301" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
     </row>
     <row r="302" spans="32:36" x14ac:dyDescent="0.2">
@@ -7737,27 +7735,27 @@
         <v>46</v>
       </c>
       <c r="AI302">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AJ302" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
     </row>
     <row r="303" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF303">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AG303" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AH303">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI303">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AJ303" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
     </row>
     <row r="304" spans="32:36" x14ac:dyDescent="0.2">
@@ -7771,24 +7769,24 @@
         <v>47</v>
       </c>
       <c r="AI304">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AJ304" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
     </row>
     <row r="305" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF305">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AG305" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AH305">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI305">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AJ305" t="s">
         <v>37</v>
@@ -7805,27 +7803,27 @@
         <v>48</v>
       </c>
       <c r="AI306">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AJ306" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
     </row>
     <row r="307" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF307">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AG307" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AH307">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI307">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ307" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
     </row>
     <row r="308" spans="32:36" x14ac:dyDescent="0.2">
@@ -7839,27 +7837,27 @@
         <v>49</v>
       </c>
       <c r="AI308">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ308" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
     </row>
     <row r="309" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF309">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AG309" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AH309">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI309">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ309" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
     <row r="310" spans="32:36" x14ac:dyDescent="0.2">
@@ -7873,27 +7871,27 @@
         <v>50</v>
       </c>
       <c r="AI310">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ310" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
     </row>
     <row r="311" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF311">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AG311" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AH311">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI311">
         <v>3</v>
       </c>
       <c r="AJ311" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="312" spans="32:36" x14ac:dyDescent="0.2">
@@ -7907,27 +7905,27 @@
         <v>51</v>
       </c>
       <c r="AI312">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AJ312" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
     </row>
     <row r="313" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF313">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AG313" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AH313">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI313">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AJ313" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
     </row>
     <row r="314" spans="32:36" x14ac:dyDescent="0.2">
@@ -7941,27 +7939,27 @@
         <v>52</v>
       </c>
       <c r="AI314">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AJ314" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
     </row>
     <row r="315" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF315">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AG315" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AH315">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AI315">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AJ315" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="316" spans="32:36" x14ac:dyDescent="0.2">
@@ -7975,27 +7973,27 @@
         <v>53</v>
       </c>
       <c r="AI316">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AJ316" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
     </row>
     <row r="317" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF317">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AG317" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AH317">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AI317">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AJ317" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
     </row>
     <row r="318" spans="32:36" x14ac:dyDescent="0.2">
@@ -8009,27 +8007,27 @@
         <v>54</v>
       </c>
       <c r="AI318">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AJ318" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
     </row>
     <row r="319" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF319">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AG319" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH319">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI319">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AJ319" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="320" spans="32:36" x14ac:dyDescent="0.2">
@@ -8043,27 +8041,27 @@
         <v>55</v>
       </c>
       <c r="AI320">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ320" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF321">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AG321" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AH321">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AI321">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AJ321" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="322" spans="32:36" x14ac:dyDescent="0.2">
@@ -8077,27 +8075,27 @@
         <v>56</v>
       </c>
       <c r="AI322">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ322" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF323">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG323" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AH323">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI323">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AJ323" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
     </row>
     <row r="324" spans="32:36" x14ac:dyDescent="0.2">
@@ -8111,27 +8109,27 @@
         <v>57</v>
       </c>
       <c r="AI324">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AJ324" t="s">
-        <v>66</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF325">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AG325" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AH325">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AI325">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AJ325" t="s">
-        <v>1</v>
+        <v>66</v>
       </c>
     </row>
     <row r="326" spans="32:36" x14ac:dyDescent="0.2">
@@ -8145,27 +8143,27 @@
         <v>58</v>
       </c>
       <c r="AI326">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AJ326" t="s">
-        <v>67</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF327">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AG327" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AH327">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AI327">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ327" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
     </row>
     <row r="328" spans="32:36" x14ac:dyDescent="0.2">
@@ -8179,27 +8177,27 @@
         <v>59</v>
       </c>
       <c r="AI328">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ328" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="329" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF329">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AG329" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AH329">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI329">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ329" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="330" spans="32:36" x14ac:dyDescent="0.2">
@@ -8213,27 +8211,27 @@
         <v>60</v>
       </c>
       <c r="AI330">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ330" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
     </row>
     <row r="331" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF331">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AG331" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AH331">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AI331">
         <v>1</v>
       </c>
       <c r="AJ331" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="332" spans="32:36" x14ac:dyDescent="0.2">
@@ -8247,24 +8245,24 @@
         <v>61</v>
       </c>
       <c r="AI332">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AJ332" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
     </row>
     <row r="333" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF333">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG333" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AH333">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI333">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AJ333" t="s">
         <v>21</v>
@@ -8281,27 +8279,27 @@
         <v>62</v>
       </c>
       <c r="AI334">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ334" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="335" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF335">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AG335" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AH335">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AI335">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AJ335" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="336" spans="32:36" x14ac:dyDescent="0.2">
@@ -8315,27 +8313,27 @@
         <v>63</v>
       </c>
       <c r="AI336">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AJ336" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
     </row>
     <row r="337" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF337">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AG337" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH337">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AI337">
         <v>1</v>
       </c>
       <c r="AJ337" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="338" spans="32:36" x14ac:dyDescent="0.2">
@@ -8349,27 +8347,27 @@
         <v>64</v>
       </c>
       <c r="AI338">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AJ338" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
     </row>
     <row r="339" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF339">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AG339" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AH339">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AI339">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AJ339" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
     </row>
     <row r="340" spans="32:36" x14ac:dyDescent="0.2">
@@ -8386,24 +8384,24 @@
         <v>2</v>
       </c>
       <c r="AJ340" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="341" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF341">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AG341" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AH341">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AI341">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ341" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="342" spans="32:36" x14ac:dyDescent="0.2">
@@ -8417,27 +8415,27 @@
         <v>66</v>
       </c>
       <c r="AI342">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ342" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
     </row>
     <row r="343" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF343">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AG343" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AH343">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AI343">
         <v>2</v>
       </c>
       <c r="AJ343" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
     </row>
     <row r="344" spans="32:36" x14ac:dyDescent="0.2">
@@ -8451,24 +8449,24 @@
         <v>67</v>
       </c>
       <c r="AI344">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ344" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
     </row>
     <row r="345" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF345">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AG345" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AH345">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AI345">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ345" t="s">
         <v>77</v>
@@ -8476,16 +8474,16 @@
     </row>
     <row r="346" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF346">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AG346" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AH346">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AI346">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ346" t="s">
         <v>77</v>
@@ -8502,41 +8500,41 @@
         <v>69</v>
       </c>
       <c r="AI347">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ347" t="s">
-        <v>1</v>
+        <v>77</v>
       </c>
     </row>
     <row r="348" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF348">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AG348" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AH348">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AI348">
         <v>4</v>
       </c>
       <c r="AJ348" t="s">
-        <v>77</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF349">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AG349" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AH349">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AI349">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AJ349" t="s">
         <v>77</v>
@@ -8544,16 +8542,16 @@
     </row>
     <row r="350" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF350">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AG350" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AH350">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AI350">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ350" t="s">
         <v>77</v>
@@ -8570,41 +8568,41 @@
         <v>72</v>
       </c>
       <c r="AI351">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AJ351" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
     </row>
     <row r="352" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF352">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AG352" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AH352">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AI352">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AJ352" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
     </row>
     <row r="353" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF353">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AG353" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AH353">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI353">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ353" t="s">
         <v>77</v>
@@ -8612,19 +8610,19 @@
     </row>
     <row r="354" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF354">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG354" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AH354">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI354">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AJ354" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="355" spans="32:36" x14ac:dyDescent="0.2">
@@ -8638,24 +8636,24 @@
         <v>75</v>
       </c>
       <c r="AI355">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AJ355" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
     </row>
     <row r="356" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF356">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AG356" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AH356">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AI356">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ356" t="s">
         <v>77</v>
@@ -8663,16 +8661,16 @@
     </row>
     <row r="357" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF357">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AG357" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AH357">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI357">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ357" t="s">
         <v>77</v>
@@ -8680,16 +8678,16 @@
     </row>
     <row r="358" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF358">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AG358" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AH358">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AI358">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ358" t="s">
         <v>77</v>
@@ -8697,16 +8695,16 @@
     </row>
     <row r="359" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF359">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG359" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AH359">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AI359">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ359" t="s">
         <v>77</v>
@@ -8714,16 +8712,16 @@
     </row>
     <row r="360" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF360">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG360" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AH360">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AI360">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AJ360" t="s">
         <v>77</v>
@@ -8740,27 +8738,27 @@
         <v>80</v>
       </c>
       <c r="AI361">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="AJ361" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="362" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF362">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG362" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AH362">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AI362">
         <v>2</v>
       </c>
       <c r="AJ362" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="363" spans="32:36" x14ac:dyDescent="0.2">
@@ -8774,27 +8772,27 @@
         <v>81</v>
       </c>
       <c r="AI363">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ363" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="364" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF364">
+        <v>81</v>
+      </c>
+      <c r="AG364" t="s">
+        <v>301</v>
+      </c>
+      <c r="AH364">
+        <v>81</v>
+      </c>
+      <c r="AI364">
+        <v>1</v>
+      </c>
+      <c r="AJ364" t="s">
         <v>82</v>
-      </c>
-      <c r="AG364" t="s">
-        <v>302</v>
-      </c>
-      <c r="AH364">
-        <v>82</v>
-      </c>
-      <c r="AI364">
-        <v>1</v>
-      </c>
-      <c r="AJ364" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="365" spans="32:36" x14ac:dyDescent="0.2">
@@ -8808,27 +8806,27 @@
         <v>82</v>
       </c>
       <c r="AI365">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AJ365" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="366" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF366">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG366" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AH366">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI366">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ366" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="367" spans="32:36" x14ac:dyDescent="0.2">
@@ -8845,24 +8843,24 @@
         <v>1</v>
       </c>
       <c r="AJ367" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="368" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF368">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG368" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AH368">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI368">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="AJ368" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="369" spans="32:36" x14ac:dyDescent="0.2">
@@ -8876,27 +8874,27 @@
         <v>84</v>
       </c>
       <c r="AI369">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="AJ369" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="370" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF370">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG370" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AH370">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI370">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ370" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="371" spans="32:36" x14ac:dyDescent="0.2">
@@ -8913,24 +8911,24 @@
         <v>1</v>
       </c>
       <c r="AJ371" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="372" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF372">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG372" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AH372">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AI372">
         <v>1</v>
       </c>
       <c r="AJ372" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="373" spans="32:36" x14ac:dyDescent="0.2">
@@ -8947,24 +8945,24 @@
         <v>1</v>
       </c>
       <c r="AJ373" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="374" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF374">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG374" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AH374">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI374">
         <v>1</v>
       </c>
       <c r="AJ374" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="375" spans="32:36" x14ac:dyDescent="0.2">
@@ -8978,44 +8976,44 @@
         <v>87</v>
       </c>
       <c r="AI375">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ375" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="376" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF376">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG376" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AH376">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI376">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AJ376" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="377" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF377">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG377" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AH377">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI377">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AJ377" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="378" spans="32:36" x14ac:dyDescent="0.2">
@@ -9029,7 +9027,7 @@
         <v>89</v>
       </c>
       <c r="AI378">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ378" t="s">
         <v>92</v>
@@ -9046,7 +9044,7 @@
         <v>89</v>
       </c>
       <c r="AI379">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ379" t="s">
         <v>92</v>
@@ -9063,7 +9061,7 @@
         <v>89</v>
       </c>
       <c r="AI380">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AJ380" t="s">
         <v>92</v>
@@ -9080,7 +9078,7 @@
         <v>89</v>
       </c>
       <c r="AI381">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AJ381" t="s">
         <v>92</v>
@@ -9097,7 +9095,7 @@
         <v>89</v>
       </c>
       <c r="AI382">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ382" t="s">
         <v>92</v>
@@ -9114,10 +9112,10 @@
         <v>89</v>
       </c>
       <c r="AI383">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AJ383" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="384" spans="32:36" x14ac:dyDescent="0.2">
@@ -9131,7 +9129,7 @@
         <v>89</v>
       </c>
       <c r="AI384">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AJ384" t="s">
         <v>93</v>
@@ -9148,7 +9146,7 @@
         <v>89</v>
       </c>
       <c r="AI385">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AJ385" t="s">
         <v>93</v>
@@ -9165,7 +9163,7 @@
         <v>89</v>
       </c>
       <c r="AI386">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AJ386" t="s">
         <v>93</v>
@@ -9182,7 +9180,7 @@
         <v>89</v>
       </c>
       <c r="AI387">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AJ387" t="s">
         <v>93</v>
@@ -9199,7 +9197,7 @@
         <v>89</v>
       </c>
       <c r="AI388">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AJ388" t="s">
         <v>93</v>
@@ -9207,33 +9205,33 @@
     </row>
     <row r="389" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF389">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AG389" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AH389">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AI389">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AJ389" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="390" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF390">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG390" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AH390">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI390">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ390" t="s">
         <v>94</v>
@@ -9250,10 +9248,10 @@
         <v>91</v>
       </c>
       <c r="AI391">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ391" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="392" spans="32:36" x14ac:dyDescent="0.2">
@@ -9270,24 +9268,24 @@
         <v>1</v>
       </c>
       <c r="AJ392" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="393" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF393">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG393" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AH393">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI393">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ393" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="394" spans="32:36" x14ac:dyDescent="0.2">
@@ -9301,10 +9299,10 @@
         <v>92</v>
       </c>
       <c r="AI394">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ394" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="395" spans="32:36" x14ac:dyDescent="0.2">
@@ -9318,44 +9316,44 @@
         <v>92</v>
       </c>
       <c r="AI395">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ395" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="396" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF396">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG396" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AH396">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI396">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ396" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="397" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF397">
+        <v>93</v>
+      </c>
+      <c r="AG397" t="s">
+        <v>313</v>
+      </c>
+      <c r="AH397">
+        <v>93</v>
+      </c>
+      <c r="AI397">
+        <v>4</v>
+      </c>
+      <c r="AJ397" t="s">
         <v>94</v>
-      </c>
-      <c r="AG397" t="s">
-        <v>314</v>
-      </c>
-      <c r="AH397">
-        <v>94</v>
-      </c>
-      <c r="AI397">
-        <v>1</v>
-      </c>
-      <c r="AJ397" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="398" spans="32:36" x14ac:dyDescent="0.2">
@@ -9369,10 +9367,10 @@
         <v>94</v>
       </c>
       <c r="AI398">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AJ398" t="s">
-        <v>94</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="32:36" x14ac:dyDescent="0.2">
@@ -9386,41 +9384,41 @@
         <v>94</v>
       </c>
       <c r="AI399">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AJ399" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="400" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF400">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AG400" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AH400">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AI400">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ400" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="401" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF401">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AG401" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AH401">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI401">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ401" t="s">
         <v>105</v>
@@ -9428,16 +9426,16 @@
     </row>
     <row r="402" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF402">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AG402" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AH402">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI402">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ402" t="s">
         <v>105</v>
@@ -9454,27 +9452,27 @@
         <v>97</v>
       </c>
       <c r="AI403">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ403" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="404" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF404">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG404" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AH404">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AI404">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ404" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="405" spans="32:36" x14ac:dyDescent="0.2">
@@ -9488,58 +9486,58 @@
         <v>98</v>
       </c>
       <c r="AI405">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AJ405" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="406" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF406">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AG406" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AH406">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AI406">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AJ406" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="407" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF407">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AG407" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AH407">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AI407">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ407" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="408" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF408">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AG408" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AH408">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AI408">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ408" t="s">
         <v>108</v>
@@ -9556,10 +9554,10 @@
         <v>101</v>
       </c>
       <c r="AI409">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ409" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="410" spans="32:36" x14ac:dyDescent="0.2">
@@ -9576,24 +9574,24 @@
         <v>1</v>
       </c>
       <c r="AJ410" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="411" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF411">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AG411" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AH411">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI411">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ411" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="412" spans="32:36" x14ac:dyDescent="0.2">
@@ -9607,10 +9605,10 @@
         <v>102</v>
       </c>
       <c r="AI412">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ412" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="413" spans="32:36" x14ac:dyDescent="0.2">
@@ -9624,41 +9622,41 @@
         <v>102</v>
       </c>
       <c r="AI413">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ413" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="414" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF414">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AG414" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AH414">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AI414">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ414" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="415" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF415">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AG415" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AH415">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AI415">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AJ415" t="s">
         <v>108</v>
@@ -9675,10 +9673,10 @@
         <v>104</v>
       </c>
       <c r="AI416">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AJ416" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="417" spans="32:36" x14ac:dyDescent="0.2">
@@ -9692,41 +9690,41 @@
         <v>104</v>
       </c>
       <c r="AI417">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ417" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
     </row>
     <row r="418" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF418">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AG418" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AH418">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AI418">
         <v>1</v>
       </c>
       <c r="AJ418" t="s">
-        <v>113</v>
+        <v>37</v>
       </c>
     </row>
     <row r="419" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF419">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AG419" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AH419">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AI419">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ419" t="s">
         <v>113</v>
@@ -9734,16 +9732,16 @@
     </row>
     <row r="420" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF420">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AG420" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AH420">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AI420">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ420" t="s">
         <v>113</v>
@@ -9760,27 +9758,27 @@
         <v>107</v>
       </c>
       <c r="AI421">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ421" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="422" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF422">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AG422" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AH422">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AI422">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ422" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="423" spans="32:36" x14ac:dyDescent="0.2">
@@ -9794,27 +9792,27 @@
         <v>108</v>
       </c>
       <c r="AI423">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AJ423" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="424" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF424">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AG424" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AH424">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AI424">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ424" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="425" spans="32:36" x14ac:dyDescent="0.2">
@@ -9831,24 +9829,24 @@
         <v>2</v>
       </c>
       <c r="AJ425" t="s">
-        <v>39</v>
+        <v>122</v>
       </c>
     </row>
     <row r="426" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF426">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AG426" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AH426">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AI426">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ426" t="s">
-        <v>122</v>
+        <v>39</v>
       </c>
     </row>
     <row r="427" spans="32:36" x14ac:dyDescent="0.2">
@@ -9862,27 +9860,27 @@
         <v>110</v>
       </c>
       <c r="AI427">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ427" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
     </row>
     <row r="428" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF428">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AG428" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AH428">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AI428">
         <v>2</v>
       </c>
       <c r="AJ428" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
     </row>
     <row r="429" spans="32:36" x14ac:dyDescent="0.2">
@@ -9899,24 +9897,24 @@
         <v>2</v>
       </c>
       <c r="AJ429" t="s">
-        <v>40</v>
+        <v>123</v>
       </c>
     </row>
     <row r="430" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF430">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AG430" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AH430">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AI430">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ430" t="s">
-        <v>123</v>
+        <v>40</v>
       </c>
     </row>
     <row r="431" spans="32:36" x14ac:dyDescent="0.2">
@@ -9930,27 +9928,27 @@
         <v>112</v>
       </c>
       <c r="AI431">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ431" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
     </row>
     <row r="432" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF432">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AG432" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AH432">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AI432">
         <v>2</v>
       </c>
       <c r="AJ432" t="s">
-        <v>124</v>
+        <v>66</v>
       </c>
     </row>
     <row r="433" spans="32:36" x14ac:dyDescent="0.2">
@@ -9967,24 +9965,24 @@
         <v>2</v>
       </c>
       <c r="AJ433" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="434" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF434">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AG434" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AH434">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AI434">
         <v>2</v>
       </c>
       <c r="AJ434" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
     </row>
     <row r="435" spans="32:36" x14ac:dyDescent="0.2">
@@ -9998,27 +9996,27 @@
         <v>114</v>
       </c>
       <c r="AI435">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ435" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
     </row>
     <row r="436" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF436">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AG436" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AH436">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AI436">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ436" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="437" spans="32:36" x14ac:dyDescent="0.2">
@@ -10035,21 +10033,21 @@
         <v>2</v>
       </c>
       <c r="AJ437" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="438" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF438">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AG438" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AH438">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AI438">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ438" t="s">
         <v>125</v>
@@ -10066,27 +10064,27 @@
         <v>116</v>
       </c>
       <c r="AI439">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ439" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
     </row>
     <row r="440" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF440">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG440" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AH440">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AI440">
         <v>2</v>
       </c>
       <c r="AJ440" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
     </row>
     <row r="441" spans="32:36" x14ac:dyDescent="0.2">
@@ -10103,24 +10101,24 @@
         <v>2</v>
       </c>
       <c r="AJ441" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="442" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF442">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AG442" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AH442">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AI442">
         <v>2</v>
       </c>
       <c r="AJ442" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
     </row>
     <row r="443" spans="32:36" x14ac:dyDescent="0.2">
@@ -10134,27 +10132,27 @@
         <v>118</v>
       </c>
       <c r="AI443">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ443" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
     </row>
     <row r="444" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF444">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AG444" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AH444">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AI444">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ444" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="445" spans="32:36" x14ac:dyDescent="0.2">
@@ -10171,24 +10169,24 @@
         <v>2</v>
       </c>
       <c r="AJ445" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="446" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF446">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG446" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AH446">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AI446">
         <v>2</v>
       </c>
       <c r="AJ446" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
     </row>
     <row r="447" spans="32:36" x14ac:dyDescent="0.2">
@@ -10202,27 +10200,27 @@
         <v>120</v>
       </c>
       <c r="AI447">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ447" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
     </row>
     <row r="448" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF448">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AG448" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AH448">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AI448">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ448" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="449" spans="32:36" x14ac:dyDescent="0.2">
@@ -10239,24 +10237,24 @@
         <v>2</v>
       </c>
       <c r="AJ449" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="450" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF450">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AG450" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AH450">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AI450">
         <v>2</v>
       </c>
       <c r="AJ450" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
     </row>
     <row r="451" spans="32:36" x14ac:dyDescent="0.2">
@@ -10270,27 +10268,27 @@
         <v>122</v>
       </c>
       <c r="AI451">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ451" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
     </row>
     <row r="452" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF452">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AG452" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AH452">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AI452">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ452" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="453" spans="32:36" x14ac:dyDescent="0.2">
@@ -10307,24 +10305,24 @@
         <v>2</v>
       </c>
       <c r="AJ453" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="454" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF454">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG454" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AH454">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AI454">
         <v>2</v>
       </c>
       <c r="AJ454" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
     </row>
     <row r="455" spans="32:36" x14ac:dyDescent="0.2">
@@ -10338,27 +10336,27 @@
         <v>124</v>
       </c>
       <c r="AI455">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ455" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
     </row>
     <row r="456" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF456">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AG456" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AH456">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AI456">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ456" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="457" spans="32:36" x14ac:dyDescent="0.2">
@@ -10375,24 +10373,24 @@
         <v>2</v>
       </c>
       <c r="AJ457" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="458" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF458">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AG458" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AH458">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AI458">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ458" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="459" spans="32:36" x14ac:dyDescent="0.2">
@@ -10406,27 +10404,27 @@
         <v>126</v>
       </c>
       <c r="AI459">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ459" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
     </row>
     <row r="460" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF460">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG460" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AH460">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AI460">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ460" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
     </row>
     <row r="461" spans="32:36" x14ac:dyDescent="0.2">
@@ -10440,27 +10438,27 @@
         <v>127</v>
       </c>
       <c r="AI461">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AJ461" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
     </row>
     <row r="462" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF462">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AG462" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AH462">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AI462">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ462" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
     </row>
     <row r="463" spans="32:36" x14ac:dyDescent="0.2">
@@ -10474,27 +10472,27 @@
         <v>128</v>
       </c>
       <c r="AI463">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AJ463" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
     </row>
     <row r="464" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF464">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AG464" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AH464">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AI464">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ464" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
     </row>
     <row r="465" spans="32:36" x14ac:dyDescent="0.2">
@@ -10508,24 +10506,24 @@
         <v>129</v>
       </c>
       <c r="AI465">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AJ465" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
     </row>
     <row r="466" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF466">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AG466" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AH466">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AI466">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AJ466" t="s">
         <v>92</v>
@@ -10542,27 +10540,27 @@
         <v>130</v>
       </c>
       <c r="AI467">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AJ467" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
     </row>
     <row r="468" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF468">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AG468" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AH468">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AI468">
         <v>1</v>
       </c>
       <c r="AJ468" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="469" spans="32:36" x14ac:dyDescent="0.2">
@@ -10576,27 +10574,27 @@
         <v>131</v>
       </c>
       <c r="AI469">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ469" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
     </row>
     <row r="470" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF470">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG470" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AH470">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI470">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ470" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
     </row>
     <row r="471" spans="32:36" x14ac:dyDescent="0.2">
@@ -10610,27 +10608,27 @@
         <v>132</v>
       </c>
       <c r="AI471">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ471" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
     </row>
     <row r="472" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF472">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AG472" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AH472">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AI472">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ472" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
     </row>
     <row r="473" spans="32:36" x14ac:dyDescent="0.2">
@@ -10644,27 +10642,27 @@
         <v>133</v>
       </c>
       <c r="AI473">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AJ473" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
     </row>
     <row r="474" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF474">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AG474" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AH474">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AI474">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ474" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
     </row>
     <row r="475" spans="32:36" x14ac:dyDescent="0.2">
@@ -10678,24 +10676,24 @@
         <v>134</v>
       </c>
       <c r="AI475">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AJ475" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
     </row>
     <row r="476" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF476">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AG476" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AH476">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AI476">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AJ476" t="s">
         <v>93</v>
@@ -10712,27 +10710,27 @@
         <v>135</v>
       </c>
       <c r="AI477">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AJ477" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
     </row>
     <row r="478" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF478">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AG478" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AH478">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AI478">
         <v>1</v>
       </c>
       <c r="AJ478" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="479" spans="32:36" x14ac:dyDescent="0.2">
@@ -10749,7 +10747,7 @@
         <v>1</v>
       </c>
       <c r="AJ479" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="480" spans="32:36" x14ac:dyDescent="0.2">
@@ -10763,10 +10761,10 @@
         <v>136</v>
       </c>
       <c r="AI480">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ480" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="481" spans="32:36" x14ac:dyDescent="0.2">
@@ -10780,27 +10778,27 @@
         <v>136</v>
       </c>
       <c r="AI481">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ481" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="482" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF482">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AG482" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AH482">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AI482">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ482" t="s">
-        <v>21</v>
+        <v>141</v>
       </c>
     </row>
     <row r="483" spans="32:36" x14ac:dyDescent="0.2">
@@ -10814,10 +10812,10 @@
         <v>137</v>
       </c>
       <c r="AI483">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ483" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="484" spans="32:36" x14ac:dyDescent="0.2">
@@ -10834,7 +10832,7 @@
         <v>1</v>
       </c>
       <c r="AJ484" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="485" spans="32:36" x14ac:dyDescent="0.2">
@@ -10851,7 +10849,7 @@
         <v>1</v>
       </c>
       <c r="AJ485" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="486" spans="32:36" x14ac:dyDescent="0.2">
@@ -10865,10 +10863,10 @@
         <v>137</v>
       </c>
       <c r="AI486">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ486" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="487" spans="32:36" x14ac:dyDescent="0.2">
@@ -10882,10 +10880,10 @@
         <v>137</v>
       </c>
       <c r="AI487">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ487" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
     </row>
     <row r="488" spans="32:36" x14ac:dyDescent="0.2">
@@ -10899,10 +10897,10 @@
         <v>137</v>
       </c>
       <c r="AI488">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ488" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
     </row>
     <row r="489" spans="32:36" x14ac:dyDescent="0.2">
@@ -10916,10 +10914,10 @@
         <v>137</v>
       </c>
       <c r="AI489">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ489" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
     </row>
     <row r="490" spans="32:36" x14ac:dyDescent="0.2">
@@ -10936,7 +10934,7 @@
         <v>1</v>
       </c>
       <c r="AJ490" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
     </row>
     <row r="491" spans="32:36" x14ac:dyDescent="0.2">
@@ -10953,7 +10951,7 @@
         <v>1</v>
       </c>
       <c r="AJ491" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="492" spans="32:36" x14ac:dyDescent="0.2">
@@ -10967,10 +10965,10 @@
         <v>137</v>
       </c>
       <c r="AI492">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AJ492" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="493" spans="32:36" x14ac:dyDescent="0.2">
@@ -10984,10 +10982,10 @@
         <v>137</v>
       </c>
       <c r="AI493">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AJ493" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
     </row>
     <row r="494" spans="32:36" x14ac:dyDescent="0.2">
@@ -11001,10 +10999,10 @@
         <v>137</v>
       </c>
       <c r="AI494">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ494" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
     </row>
     <row r="495" spans="32:36" x14ac:dyDescent="0.2">
@@ -11021,7 +11019,7 @@
         <v>1</v>
       </c>
       <c r="AJ495" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="496" spans="32:36" x14ac:dyDescent="0.2">
@@ -11035,10 +11033,10 @@
         <v>137</v>
       </c>
       <c r="AI496">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AJ496" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="497" spans="32:36" x14ac:dyDescent="0.2">
@@ -11052,10 +11050,10 @@
         <v>137</v>
       </c>
       <c r="AI497">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AJ497" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="498" spans="32:36" x14ac:dyDescent="0.2">
@@ -11072,7 +11070,7 @@
         <v>2</v>
       </c>
       <c r="AJ498" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="499" spans="32:36" x14ac:dyDescent="0.2">
@@ -11086,10 +11084,10 @@
         <v>137</v>
       </c>
       <c r="AI499">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="AJ499" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="500" spans="32:36" x14ac:dyDescent="0.2">
@@ -11103,10 +11101,10 @@
         <v>137</v>
       </c>
       <c r="AI500">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ500" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
     </row>
     <row r="501" spans="32:36" x14ac:dyDescent="0.2">
@@ -11123,7 +11121,7 @@
         <v>1</v>
       </c>
       <c r="AJ501" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
     </row>
     <row r="502" spans="32:36" x14ac:dyDescent="0.2">
@@ -11140,7 +11138,7 @@
         <v>1</v>
       </c>
       <c r="AJ502" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="503" spans="32:36" x14ac:dyDescent="0.2">
@@ -11154,10 +11152,10 @@
         <v>137</v>
       </c>
       <c r="AI503">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ503" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
     </row>
     <row r="504" spans="32:36" x14ac:dyDescent="0.2">
@@ -11171,10 +11169,10 @@
         <v>137</v>
       </c>
       <c r="AI504">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ504" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
     </row>
     <row r="505" spans="32:36" x14ac:dyDescent="0.2">
@@ -11191,7 +11189,7 @@
         <v>1</v>
       </c>
       <c r="AJ505" t="s">
-        <v>28</v>
+        <v>132</v>
       </c>
     </row>
     <row r="506" spans="32:36" x14ac:dyDescent="0.2">
@@ -11208,7 +11206,7 @@
         <v>1</v>
       </c>
       <c r="AJ506" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="507" spans="32:36" x14ac:dyDescent="0.2">
@@ -11225,7 +11223,7 @@
         <v>1</v>
       </c>
       <c r="AJ507" t="s">
-        <v>133</v>
+        <v>27</v>
       </c>
     </row>
     <row r="508" spans="32:36" x14ac:dyDescent="0.2">
@@ -11242,7 +11240,7 @@
         <v>1</v>
       </c>
       <c r="AJ508" t="s">
-        <v>26</v>
+        <v>133</v>
       </c>
     </row>
     <row r="509" spans="32:36" x14ac:dyDescent="0.2">
@@ -11259,7 +11257,7 @@
         <v>1</v>
       </c>
       <c r="AJ509" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="510" spans="32:36" x14ac:dyDescent="0.2">
@@ -11273,10 +11271,10 @@
         <v>137</v>
       </c>
       <c r="AI510">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ510" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
     </row>
     <row r="511" spans="32:36" x14ac:dyDescent="0.2">
@@ -11290,10 +11288,10 @@
         <v>137</v>
       </c>
       <c r="AI511">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ511" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
     </row>
     <row r="512" spans="32:36" x14ac:dyDescent="0.2">
@@ -11310,7 +11308,7 @@
         <v>1</v>
       </c>
       <c r="AJ512" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="513" spans="32:36" x14ac:dyDescent="0.2">
@@ -11327,7 +11325,7 @@
         <v>1</v>
       </c>
       <c r="AJ513" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="514" spans="32:36" x14ac:dyDescent="0.2">
@@ -11344,7 +11342,7 @@
         <v>1</v>
       </c>
       <c r="AJ514" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="515" spans="32:36" x14ac:dyDescent="0.2">
@@ -11358,10 +11356,10 @@
         <v>137</v>
       </c>
       <c r="AI515">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ515" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
     </row>
     <row r="516" spans="32:36" x14ac:dyDescent="0.2">
@@ -11378,7 +11376,7 @@
         <v>2</v>
       </c>
       <c r="AJ516" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
     </row>
     <row r="517" spans="32:36" x14ac:dyDescent="0.2">
@@ -11392,27 +11390,27 @@
         <v>137</v>
       </c>
       <c r="AI517">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="AJ517" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
     </row>
     <row r="518" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF518">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG518" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AH518">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AI518">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="AJ518" t="s">
-        <v>141</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="32:36" x14ac:dyDescent="0.2">
@@ -11426,25 +11424,44 @@
         <v>138</v>
       </c>
       <c r="AI519">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ519" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="520" spans="32:36" x14ac:dyDescent="0.2">
+      <c r="AF520">
         <v>138</v>
       </c>
+      <c r="AG520" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH520">
+        <v>138</v>
+      </c>
+      <c r="AI520">
+        <v>1</v>
+      </c>
+      <c r="AJ520" t="s">
+        <v>138</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AT538">
-    <sortCondition ref="A4:A538"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AT539">
+    <sortCondition ref="A4:A539"/>
   </sortState>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A49:C49"/>
     <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A47:C47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="55" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="55" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="10"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/MidiThruWithMerge2in10out/midithruwithmerge2in10out_bom.xlsx
+++ b/MidiThruWithMerge2in10out/midithruwithmerge2in10out_bom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aokudrya/Documents/GitHub/Midi-boards/MidiThruWithMerge2in10out/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3985A11-3C1B-2E45-873C-CF181CC0E071}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F48B0D3-5A59-1543-995D-5A99C9091143}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{6A056D03-5A41-7E4C-9F1A-726EE5E8421D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{6A056D03-5A41-7E4C-9F1A-726EE5E8421D}"/>
   </bookViews>
   <sheets>
     <sheet name="midithruwithmerge2in10out" sheetId="1" r:id="rId1"/>
@@ -1271,10 +1271,10 @@
     <t xml:space="preserve">* If you choose USB power option, then put a jumper between pin 1 and 3 on U4, those are outer pins. Leave center pin unconnected. Don't short it, etc...  </t>
   </si>
   <si>
-    <t>* Connect a power source (center=positive) and meassure +5V rail such as on IC socket for 6N138 between Pin8 and Pin5.</t>
-  </si>
-  <si>
     <t xml:space="preserve">* Beginner soldering skills required. That means you have to understand schematics, not just being able to solder two wires together. There are no high expectations, but being able to read schematics and understand polarity of components are quite important.		</t>
+  </si>
+  <si>
+    <t>* Connect a power source (center=positive) and meassure +5V rail such as on IC socket for 6N138 between Pin8 and Pin5. Power on board without ICs first to avoid the damage due soldering mistakes.</t>
   </si>
 </sst>
 </file>
@@ -1460,7 +1460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1485,6 +1485,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1500,9 +1503,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1928,8 +1930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AJ520"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1970,13 +1972,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:29" ht="31" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="24" t="s">
         <v>398</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="4" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -2410,54 +2412,54 @@
       <c r="E43" s="16"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="25"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="27"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="20"/>
     </row>
     <row r="45" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="18" t="s">
-        <v>413</v>
-      </c>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="20"/>
+      <c r="A45" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="23"/>
     </row>
     <row r="46" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="21" t="s">
         <v>397</v>
       </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="20"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="23"/>
     </row>
     <row r="47" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="20"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="23"/>
     </row>
     <row r="48" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
       <c r="D48" s="8"/>
       <c r="E48" s="9"/>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A49" s="18" t="s">
-        <v>412</v>
-      </c>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
+    <row r="49" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="21" t="s">
+        <v>413</v>
+      </c>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
       <c r="D49" s="6"/>
       <c r="E49" s="7"/>
       <c r="R49" t="s">
@@ -2486,9 +2488,9 @@
       </c>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A50" s="5"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
+      <c r="A50" s="28"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
       <c r="D50" s="6"/>
       <c r="E50" s="7"/>
       <c r="R50" t="s">
@@ -11452,16 +11454,16 @@
     <sortCondition ref="A4:A539"/>
   </sortState>
   <mergeCells count="6">
+    <mergeCell ref="A49:C50"/>
     <mergeCell ref="A46:E46"/>
     <mergeCell ref="A47:E47"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A49:C49"/>
     <mergeCell ref="A45:E45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="55" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="10"/>
+  <pageSetup scale="50" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="10"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/MidiThruWithMerge2in10out/midithruwithmerge2in10out_bom.xlsx
+++ b/MidiThruWithMerge2in10out/midithruwithmerge2in10out_bom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aokudrya/Documents/GitHub/Midi-boards/MidiThruWithMerge2in10out/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F48B0D3-5A59-1543-995D-5A99C9091143}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CFCC27-A93F-F840-B50B-552A00F6702B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{6A056D03-5A41-7E4C-9F1A-726EE5E8421D}"/>
+    <workbookView xWindow="20" yWindow="520" windowWidth="28800" windowHeight="16040" xr2:uid="{6A056D03-5A41-7E4C-9F1A-726EE5E8421D}"/>
   </bookViews>
   <sheets>
     <sheet name="midithruwithmerge2in10out" sheetId="1" r:id="rId1"/>
@@ -1268,13 +1268,13 @@
     <t>Sockets, switches, housing:</t>
   </si>
   <si>
-    <t xml:space="preserve">* If you choose USB power option, then put a jumper between pin 1 and 3 on U4, those are outer pins. Leave center pin unconnected. Don't short it, etc...  </t>
-  </si>
-  <si>
     <t xml:space="preserve">* Beginner soldering skills required. That means you have to understand schematics, not just being able to solder two wires together. There are no high expectations, but being able to read schematics and understand polarity of components are quite important.		</t>
   </si>
   <si>
     <t>* Connect a power source (center=positive) and meassure +5V rail such as on IC socket for 6N138 between Pin8 and Pin5. Power on board without ICs first to avoid the damage due soldering mistakes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* For 2019 boards ONLY: If you choose USB power option, then put a jumper between pin 1 and 3 on U4, those are outer pins. Leave center pin unconnected. Don't short it, etc...  </t>
   </si>
 </sst>
 </file>
@@ -1491,6 +1491,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1500,11 +1505,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1930,8 +1930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AJ520"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1972,13 +1972,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:29" ht="31" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="27" t="s">
         <v>398</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="4" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -2420,46 +2420,46 @@
     </row>
     <row r="45" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="21" t="s">
-        <v>412</v>
-      </c>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="23"/>
+        <v>411</v>
+      </c>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="26"/>
     </row>
     <row r="46" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="21" t="s">
         <v>397</v>
       </c>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="23"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="26"/>
     </row>
     <row r="47" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="23"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="26"/>
     </row>
     <row r="48" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="21" t="s">
-        <v>411</v>
-      </c>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
+        <v>413</v>
+      </c>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
       <c r="D48" s="8"/>
       <c r="E48" s="9"/>
     </row>
     <row r="49" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="21" t="s">
-        <v>413</v>
-      </c>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
+        <v>412</v>
+      </c>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
       <c r="D49" s="6"/>
       <c r="E49" s="7"/>
       <c r="R49" t="s">
@@ -2488,9 +2488,9 @@
       </c>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A50" s="28"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
+      <c r="A50" s="23"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
       <c r="D50" s="6"/>
       <c r="E50" s="7"/>
       <c r="R50" t="s">

--- a/MidiThruWithMerge2in10out/midithruwithmerge2in10out_bom.xlsx
+++ b/MidiThruWithMerge2in10out/midithruwithmerge2in10out_bom.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aokudrya/Documents/GitHub/Midi-boards/MidiThruWithMerge2in10out/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CFCC27-A93F-F840-B50B-552A00F6702B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B7DDD4-76B7-C04A-9AD9-14B15DD0D81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="520" windowWidth="28800" windowHeight="16040" xr2:uid="{6A056D03-5A41-7E4C-9F1A-726EE5E8421D}"/>
+    <workbookView xWindow="-34920" yWindow="1180" windowWidth="28800" windowHeight="16040" xr2:uid="{6A056D03-5A41-7E4C-9F1A-726EE5E8421D}"/>
   </bookViews>
   <sheets>
     <sheet name="midithruwithmerge2in10out" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">midithruwithmerge2in10out!$A$1:$E$74</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">midithruwithmerge2in10out!$A$1:$E$73</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="413">
   <si>
     <t>D</t>
   </si>
@@ -1223,9 +1223,6 @@
     <t xml:space="preserve">* Follow polarity orientation for LEDs. Square pad on PCB is for the negative pin. </t>
   </si>
   <si>
-    <t xml:space="preserve">* Rev2019 board requires a mod for proper operation of U10. </t>
-  </si>
-  <si>
     <t>* Populate all passive components first - sockets, capacitors, resistors, etc. Consider proper orientation for Pin1 IC sockets and polarity for capacitors, diode marks. Don't populate ICs yet.</t>
   </si>
   <si>
@@ -1274,14 +1271,14 @@
     <t>* Connect a power source (center=positive) and meassure +5V rail such as on IC socket for 6N138 between Pin8 and Pin5. Power on board without ICs first to avoid the damage due soldering mistakes.</t>
   </si>
   <si>
-    <t xml:space="preserve">* For 2019 boards ONLY: If you choose USB power option, then put a jumper between pin 1 and 3 on U4, those are outer pins. Leave center pin unconnected. Don't short it, etc...  </t>
+    <t>* If you power from USB source or straight +5V power supply, then you need to set the jumper JP1 onto 2-3 position. If any other PSU &gt; 5V, then set it to 1-2. Please, note Pin1 has the angle marking.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1291,14 +1288,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1347,7 +1336,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1456,55 +1445,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1526,58 +1542,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1359D98-A5AA-0849-9920-0E2D82DDD989}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect b="22751"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1930400" y="9207500"/>
-          <a:ext cx="6400800" cy="3708400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>342900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>186733</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1594,7 +1567,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1608,7 +1581,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7239000" y="7493000"/>
+          <a:off x="6578600" y="8978900"/>
           <a:ext cx="1104900" cy="1507533"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1624,6 +1597,50 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>465131</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>160216</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0811891-7FF3-F245-B39E-AE583553A44E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6591300" y="10591800"/>
+          <a:ext cx="2205031" cy="1392116"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1928,10 +1945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:AJ520"/>
+  <dimension ref="A2:AJ519"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:C50"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1972,13 +1989,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:29" ht="31" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
+      <c r="A2" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="4" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -2025,7 +2042,7 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2036,7 +2053,7 @@
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2">
@@ -2112,7 +2129,7 @@
         <v>371</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D15" s="4">
         <v>104</v>
@@ -2246,7 +2263,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2289,12 +2306,12 @@
         <v>366</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>401</v>
-      </c>
-      <c r="E31" s="17">
+        <v>403</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="E31" s="10">
         <v>6</v>
       </c>
     </row>
@@ -2304,12 +2321,12 @@
         <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="E32" s="17">
+        <v>404</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="E32" s="10">
         <v>1</v>
       </c>
     </row>
@@ -2319,12 +2336,12 @@
         <v>367</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="E33" s="17">
+        <v>405</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="E33" s="10">
         <v>2</v>
       </c>
     </row>
@@ -2365,7 +2382,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2396,72 +2413,72 @@
         <v>136</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E41" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="25" t="s">
         <v>376</v>
       </c>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="16"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="27"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="18"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="20"/>
-    </row>
-    <row r="45" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="21" t="s">
+      <c r="A44" s="11"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="13"/>
+    </row>
+    <row r="45" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="16"/>
+    </row>
+    <row r="46" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="16"/>
+    </row>
+    <row r="47" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="20"/>
+    </row>
+    <row r="48" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="16"/>
+    </row>
+    <row r="49" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="17" t="s">
         <v>411</v>
       </c>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="26"/>
-    </row>
-    <row r="46" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="21" t="s">
-        <v>397</v>
-      </c>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="26"/>
-    </row>
-    <row r="47" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="26"/>
-    </row>
-    <row r="48" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="21" t="s">
-        <v>413</v>
-      </c>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="9"/>
-    </row>
-    <row r="49" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="21" t="s">
-        <v>412</v>
-      </c>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="7"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="6"/>
       <c r="R49" t="s">
         <v>3</v>
       </c>
@@ -2488,11 +2505,11 @@
       </c>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A50" s="23"/>
+      <c r="A50" s="18"/>
       <c r="B50" s="24"/>
       <c r="C50" s="24"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="7"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="6"/>
       <c r="R50" t="s">
         <v>3</v>
       </c>
@@ -2518,14 +2535,12 @@
         <v>158</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A51" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="7"/>
+    <row r="51" spans="1:29" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="14"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="6"/>
       <c r="R51" t="s">
         <v>3</v>
       </c>
@@ -2552,48 +2567,18 @@
       </c>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="str">
-        <f>"- Connect Pin7 to the ground (bottom layer), there is a pad (scratch) next to it."</f>
-        <v>- Connect Pin7 to the ground (bottom layer), there is a pad (scratch) next to it.</v>
-      </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="7"/>
-      <c r="R52" t="s">
-        <v>3</v>
-      </c>
-      <c r="S52" t="s">
-        <v>151</v>
-      </c>
-      <c r="T52">
-        <v>1</v>
-      </c>
-      <c r="V52" t="s">
-        <v>152</v>
-      </c>
-      <c r="W52" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA52" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB52">
-        <v>4</v>
-      </c>
-      <c r="AC52" t="s">
-        <v>158</v>
-      </c>
+      <c r="A52" s="14"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="6"/>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A53" s="5" t="str">
-        <f xml:space="preserve"> "- Connect Pin14 to +5V (top layer) with a short wire to the capacitor positive pin. Avoid shorting to a bottom layer."</f>
-        <v>- Connect Pin14 to +5V (top layer) with a short wire to the capacitor positive pin. Avoid shorting to a bottom layer.</v>
-      </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="7"/>
+      <c r="A53" s="7"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="9"/>
       <c r="R53" t="s">
         <v>3</v>
       </c>
@@ -2613,21 +2598,18 @@
         <v>14</v>
       </c>
       <c r="AB53">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC53" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="str">
-        <f xml:space="preserve"> "- Refer to a picture below."</f>
-        <v>- Refer to a picture below.</v>
-      </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="7"/>
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
       <c r="R54" t="s">
         <v>3</v>
       </c>
@@ -2644,21 +2626,21 @@
         <v>153</v>
       </c>
       <c r="AA54" t="s">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="AB54">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC54" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A55" s="5"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="7"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
       <c r="R55" t="s">
         <v>3</v>
       </c>
@@ -2675,21 +2657,21 @@
         <v>153</v>
       </c>
       <c r="AA55" t="s">
-        <v>159</v>
+        <v>14</v>
       </c>
       <c r="AB55">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC55" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="7"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
       <c r="R56" t="s">
         <v>3</v>
       </c>
@@ -2709,18 +2691,18 @@
         <v>14</v>
       </c>
       <c r="AB56">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC56" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="7"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
       <c r="R57" t="s">
         <v>3</v>
       </c>
@@ -2740,18 +2722,18 @@
         <v>14</v>
       </c>
       <c r="AB57">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC57" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A58" s="5"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="7"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
       <c r="R58" t="s">
         <v>3</v>
       </c>
@@ -2771,18 +2753,18 @@
         <v>14</v>
       </c>
       <c r="AB58">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC58" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="7"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
       <c r="R59" t="s">
         <v>3</v>
       </c>
@@ -2802,18 +2784,18 @@
         <v>14</v>
       </c>
       <c r="AB59">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC59" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="7"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
       <c r="R60" t="s">
         <v>3</v>
       </c>
@@ -2833,18 +2815,18 @@
         <v>14</v>
       </c>
       <c r="AB60">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC60" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="7"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
       <c r="R61" t="s">
         <v>3</v>
       </c>
@@ -2861,52 +2843,46 @@
         <v>153</v>
       </c>
       <c r="AA61" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB61">
         <v>14</v>
       </c>
-      <c r="AB61">
-        <v>13</v>
-      </c>
       <c r="AC61" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="7"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
       <c r="R62" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S62" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="T62">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="U62" t="s">
+        <v>162</v>
       </c>
       <c r="V62" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="W62" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA62" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB62">
         <v>14</v>
-      </c>
-      <c r="AC62" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="7"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
       <c r="R63" t="s">
         <v>8</v>
       </c>
@@ -2916,22 +2892,25 @@
       <c r="T63">
         <v>2</v>
       </c>
-      <c r="U63" t="s">
-        <v>162</v>
-      </c>
       <c r="V63" t="s">
         <v>136</v>
       </c>
       <c r="W63" t="s">
         <v>14</v>
       </c>
+      <c r="X63" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="7"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
       <c r="R64" t="s">
         <v>8</v>
       </c>
@@ -2948,18 +2927,18 @@
         <v>14</v>
       </c>
       <c r="X64" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y64" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="7"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
       <c r="R65" t="s">
         <v>8</v>
       </c>
@@ -2975,19 +2954,16 @@
       <c r="W65" t="s">
         <v>14</v>
       </c>
-      <c r="X65" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y65" t="s">
-        <v>137</v>
+      <c r="Z65" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="7"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
       <c r="R66" t="s">
         <v>8</v>
       </c>
@@ -3003,16 +2979,22 @@
       <c r="W66" t="s">
         <v>14</v>
       </c>
-      <c r="Z66" t="s">
-        <v>164</v>
+      <c r="AA66" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB66">
+        <v>1</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="7"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
       <c r="R67" t="s">
         <v>8</v>
       </c>
@@ -3032,7 +3014,7 @@
         <v>14</v>
       </c>
       <c r="AB67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC67" t="s">
         <v>165</v>
@@ -3040,41 +3022,38 @@
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="7"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
       <c r="R68" t="s">
         <v>8</v>
       </c>
       <c r="S68" t="s">
-        <v>137</v>
+        <v>9</v>
       </c>
       <c r="T68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V68" t="s">
-        <v>136</v>
+        <v>7</v>
       </c>
       <c r="W68" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA68" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB68">
-        <v>2</v>
-      </c>
-      <c r="AC68" t="s">
-        <v>165</v>
+        <v>6</v>
+      </c>
+      <c r="X68" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="69" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="7"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
       <c r="R69" t="s">
         <v>8</v>
       </c>
@@ -3091,18 +3070,18 @@
         <v>6</v>
       </c>
       <c r="X69" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y69" t="s">
-        <v>163</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="7"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
       <c r="R70" t="s">
         <v>8</v>
       </c>
@@ -3118,19 +3097,16 @@
       <c r="W70" t="s">
         <v>6</v>
       </c>
-      <c r="X70" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y70" t="s">
-        <v>9</v>
+      <c r="Z70" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="7"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
       <c r="R71" t="s">
         <v>8</v>
       </c>
@@ -3146,16 +3122,22 @@
       <c r="W71" t="s">
         <v>6</v>
       </c>
-      <c r="Z71" t="s">
-        <v>166</v>
+      <c r="AA71" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB71">
+        <v>1</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="7"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
       <c r="R72" t="s">
         <v>8</v>
       </c>
@@ -3175,7 +3157,7 @@
         <v>14</v>
       </c>
       <c r="AB72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC72" t="s">
         <v>165</v>
@@ -3183,10 +3165,10 @@
     </row>
     <row r="73" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="7"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
       <c r="R73" t="s">
         <v>8</v>
       </c>
@@ -3206,18 +3188,13 @@
         <v>14</v>
       </c>
       <c r="AB73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC73" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="74" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A74" s="11"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="13"/>
       <c r="R74" t="s">
         <v>8</v>
       </c>
@@ -3237,7 +3214,7 @@
         <v>14</v>
       </c>
       <c r="AB74">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC74" t="s">
         <v>165</v>
@@ -3263,7 +3240,7 @@
         <v>14</v>
       </c>
       <c r="AB75">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC75" t="s">
         <v>165</v>
@@ -3271,28 +3248,25 @@
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.2">
       <c r="R76" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="S76" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="T76">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V76" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="W76" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA76" t="s">
         <v>14</v>
       </c>
-      <c r="AB76">
-        <v>5</v>
-      </c>
-      <c r="AC76" t="s">
-        <v>165</v>
+      <c r="X76" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.2">
@@ -3312,7 +3286,7 @@
         <v>14</v>
       </c>
       <c r="X77" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y77" t="s">
         <v>34</v>
@@ -3334,11 +3308,8 @@
       <c r="W78" t="s">
         <v>14</v>
       </c>
-      <c r="X78" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y78" t="s">
-        <v>34</v>
+      <c r="Z78" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.2">
@@ -3357,8 +3328,14 @@
       <c r="W79" t="s">
         <v>14</v>
       </c>
-      <c r="Z79" t="s">
-        <v>167</v>
+      <c r="AA79" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB79">
+        <v>1</v>
+      </c>
+      <c r="AC79" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="80" spans="1:29" x14ac:dyDescent="0.2">
@@ -3381,7 +3358,7 @@
         <v>14</v>
       </c>
       <c r="AB80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC80" t="s">
         <v>165</v>
@@ -3392,25 +3369,22 @@
         <v>16</v>
       </c>
       <c r="S81" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="T81">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V81" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="W81" t="s">
         <v>14</v>
       </c>
-      <c r="AA81" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB81">
-        <v>2</v>
-      </c>
-      <c r="AC81" t="s">
-        <v>165</v>
+      <c r="X81" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="18:29" x14ac:dyDescent="0.2">
@@ -3430,7 +3404,7 @@
         <v>14</v>
       </c>
       <c r="X82" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y82" t="s">
         <v>0</v>
@@ -3452,11 +3426,8 @@
       <c r="W83" t="s">
         <v>14</v>
       </c>
-      <c r="X83" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y83" t="s">
-        <v>0</v>
+      <c r="Z83" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="84" spans="18:29" x14ac:dyDescent="0.2">
@@ -3476,7 +3447,7 @@
         <v>14</v>
       </c>
       <c r="Z84" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="85" spans="18:29" x14ac:dyDescent="0.2">
@@ -3496,7 +3467,7 @@
         <v>14</v>
       </c>
       <c r="Z85" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="86" spans="18:29" x14ac:dyDescent="0.2">
@@ -3516,7 +3487,7 @@
         <v>14</v>
       </c>
       <c r="Z86" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="87" spans="18:29" x14ac:dyDescent="0.2">
@@ -3535,8 +3506,14 @@
       <c r="W87" t="s">
         <v>14</v>
       </c>
-      <c r="Z87" t="s">
-        <v>171</v>
+      <c r="AA87" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB87">
+        <v>1</v>
+      </c>
+      <c r="AC87" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="88" spans="18:29" x14ac:dyDescent="0.2">
@@ -3556,10 +3533,10 @@
         <v>14</v>
       </c>
       <c r="AA88" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AB88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC88" t="s">
         <v>165</v>
@@ -3570,25 +3547,22 @@
         <v>16</v>
       </c>
       <c r="S89" t="s">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="T89">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V89" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="W89" t="s">
         <v>14</v>
       </c>
-      <c r="AA89" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB89">
-        <v>2</v>
-      </c>
-      <c r="AC89" t="s">
-        <v>165</v>
+      <c r="X89" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="90" spans="18:29" x14ac:dyDescent="0.2">
@@ -3608,10 +3582,10 @@
         <v>14</v>
       </c>
       <c r="X90" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y90" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
     </row>
     <row r="91" spans="18:29" x14ac:dyDescent="0.2">
@@ -3630,11 +3604,14 @@
       <c r="W91" t="s">
         <v>14</v>
       </c>
-      <c r="X91" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y91" t="s">
-        <v>140</v>
+      <c r="AA91">
+        <v>1</v>
+      </c>
+      <c r="AB91">
+        <v>1</v>
+      </c>
+      <c r="AC91" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="92" spans="18:29" x14ac:dyDescent="0.2">
@@ -3654,10 +3631,10 @@
         <v>14</v>
       </c>
       <c r="AA92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC92" t="s">
         <v>165</v>
@@ -3680,10 +3657,10 @@
         <v>14</v>
       </c>
       <c r="AA93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC93" t="s">
         <v>165</v>
@@ -3694,25 +3671,22 @@
         <v>16</v>
       </c>
       <c r="S94" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="T94">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V94" t="s">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="W94" t="s">
         <v>14</v>
       </c>
-      <c r="AA94">
-        <v>3</v>
-      </c>
-      <c r="AB94">
-        <v>3</v>
-      </c>
-      <c r="AC94" t="s">
-        <v>165</v>
+      <c r="X94" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="18:29" x14ac:dyDescent="0.2">
@@ -3732,10 +3706,10 @@
         <v>14</v>
       </c>
       <c r="X95" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y95" t="s">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="96" spans="18:29" x14ac:dyDescent="0.2">
@@ -3754,11 +3728,8 @@
       <c r="W96" t="s">
         <v>14</v>
       </c>
-      <c r="X96" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y96" t="s">
-        <v>84</v>
+      <c r="Z96" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="97" spans="18:29" x14ac:dyDescent="0.2">
@@ -3778,7 +3749,7 @@
         <v>14</v>
       </c>
       <c r="Z97" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="98" spans="18:29" x14ac:dyDescent="0.2">
@@ -3798,7 +3769,7 @@
         <v>14</v>
       </c>
       <c r="Z98" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="99" spans="18:29" x14ac:dyDescent="0.2">
@@ -3817,8 +3788,14 @@
       <c r="W99" t="s">
         <v>14</v>
       </c>
-      <c r="Z99" t="s">
-        <v>177</v>
+      <c r="AA99" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB99">
+        <v>1</v>
+      </c>
+      <c r="AC99" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="100" spans="18:29" x14ac:dyDescent="0.2">
@@ -3838,10 +3815,10 @@
         <v>14</v>
       </c>
       <c r="AA100" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AB100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC100" t="s">
         <v>165</v>
@@ -3852,25 +3829,22 @@
         <v>16</v>
       </c>
       <c r="S101" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="T101">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V101" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="W101" t="s">
         <v>14</v>
       </c>
-      <c r="AA101" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB101">
-        <v>2</v>
-      </c>
-      <c r="AC101" t="s">
-        <v>165</v>
+      <c r="X101" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="102" spans="18:29" x14ac:dyDescent="0.2">
@@ -3890,7 +3864,7 @@
         <v>14</v>
       </c>
       <c r="X102" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y102" t="s">
         <v>17</v>
@@ -3912,11 +3886,8 @@
       <c r="W103" t="s">
         <v>14</v>
       </c>
-      <c r="X103" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y103" t="s">
-        <v>17</v>
+      <c r="Z103" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="104" spans="18:29" x14ac:dyDescent="0.2">
@@ -3935,8 +3906,14 @@
       <c r="W104" t="s">
         <v>14</v>
       </c>
-      <c r="Z104" t="s">
-        <v>178</v>
+      <c r="AA104" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB104">
+        <v>1</v>
+      </c>
+      <c r="AC104" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="105" spans="18:29" x14ac:dyDescent="0.2">
@@ -3959,7 +3936,7 @@
         <v>14</v>
       </c>
       <c r="AB105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC105" t="s">
         <v>165</v>
@@ -3967,28 +3944,22 @@
     </row>
     <row r="106" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R106" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="S106" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="T106">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="U106" t="s">
+        <v>179</v>
       </c>
       <c r="V106" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="W106" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA106" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB106">
-        <v>2</v>
-      </c>
-      <c r="AC106" t="s">
-        <v>165</v>
+        <v>95</v>
       </c>
     </row>
     <row r="107" spans="18:29" x14ac:dyDescent="0.2">
@@ -4001,14 +3972,17 @@
       <c r="T107">
         <v>9</v>
       </c>
-      <c r="U107" t="s">
-        <v>179</v>
-      </c>
       <c r="V107" t="s">
         <v>96</v>
       </c>
       <c r="W107" t="s">
         <v>95</v>
+      </c>
+      <c r="X107" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="108" spans="18:29" x14ac:dyDescent="0.2">
@@ -4028,10 +4002,10 @@
         <v>95</v>
       </c>
       <c r="X108" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y108" t="s">
-        <v>155</v>
+        <v>98</v>
       </c>
     </row>
     <row r="109" spans="18:29" x14ac:dyDescent="0.2">
@@ -4050,11 +4024,8 @@
       <c r="W109" t="s">
         <v>95</v>
       </c>
-      <c r="X109" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y109" t="s">
-        <v>98</v>
+      <c r="Z109" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="110" spans="18:29" x14ac:dyDescent="0.2">
@@ -4074,7 +4045,7 @@
         <v>95</v>
       </c>
       <c r="Z110" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="111" spans="18:29" x14ac:dyDescent="0.2">
@@ -4093,8 +4064,14 @@
       <c r="W111" t="s">
         <v>95</v>
       </c>
-      <c r="Z111" t="s">
-        <v>181</v>
+      <c r="AA111" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB111">
+        <v>1</v>
+      </c>
+      <c r="AC111" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="112" spans="18:29" x14ac:dyDescent="0.2">
@@ -4114,13 +4091,13 @@
         <v>95</v>
       </c>
       <c r="AA112" t="s">
-        <v>182</v>
+        <v>35</v>
       </c>
       <c r="AB112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC112" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
     </row>
     <row r="113" spans="18:29" x14ac:dyDescent="0.2">
@@ -4140,10 +4117,10 @@
         <v>95</v>
       </c>
       <c r="AA113" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="AB113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC113" t="s">
         <v>165</v>
@@ -4166,13 +4143,13 @@
         <v>95</v>
       </c>
       <c r="AA114" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="AB114">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC114" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
     </row>
     <row r="115" spans="18:29" x14ac:dyDescent="0.2">
@@ -4192,13 +4169,13 @@
         <v>95</v>
       </c>
       <c r="AA115" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="AB115">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC115" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
     </row>
     <row r="116" spans="18:29" x14ac:dyDescent="0.2">
@@ -4218,10 +4195,10 @@
         <v>95</v>
       </c>
       <c r="AA116" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="AB116">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC116" t="s">
         <v>165</v>
@@ -4244,10 +4221,10 @@
         <v>95</v>
       </c>
       <c r="AA117" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AB117">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC117" t="s">
         <v>165</v>
@@ -4270,10 +4247,10 @@
         <v>95</v>
       </c>
       <c r="AA118" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="AB118">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC118" t="s">
         <v>165</v>
@@ -4281,28 +4258,25 @@
     </row>
     <row r="119" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R119" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="S119" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="T119">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V119" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="W119" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA119" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB119">
-        <v>8</v>
-      </c>
-      <c r="AC119" t="s">
-        <v>165</v>
+        <v>78</v>
+      </c>
+      <c r="X119" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y119" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="120" spans="18:29" x14ac:dyDescent="0.2">
@@ -4322,10 +4296,10 @@
         <v>78</v>
       </c>
       <c r="X120" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y120" t="s">
-        <v>155</v>
+        <v>81</v>
       </c>
     </row>
     <row r="121" spans="18:29" x14ac:dyDescent="0.2">
@@ -4344,11 +4318,8 @@
       <c r="W121" t="s">
         <v>78</v>
       </c>
-      <c r="X121" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y121" t="s">
-        <v>81</v>
+      <c r="Z121" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="122" spans="18:29" x14ac:dyDescent="0.2">
@@ -4368,7 +4339,7 @@
         <v>78</v>
       </c>
       <c r="Z122" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="123" spans="18:29" x14ac:dyDescent="0.2">
@@ -4387,8 +4358,14 @@
       <c r="W123" t="s">
         <v>78</v>
       </c>
-      <c r="Z123" t="s">
-        <v>187</v>
+      <c r="AA123" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB123">
+        <v>1</v>
+      </c>
+      <c r="AC123" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="124" spans="18:29" x14ac:dyDescent="0.2">
@@ -4408,10 +4385,10 @@
         <v>78</v>
       </c>
       <c r="AA124" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AB124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC124" t="s">
         <v>189</v>
@@ -4434,10 +4411,10 @@
         <v>78</v>
       </c>
       <c r="AA125" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AB125">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC125" t="s">
         <v>189</v>
@@ -4460,13 +4437,13 @@
         <v>78</v>
       </c>
       <c r="AA126" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AB126">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC126" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
     </row>
     <row r="127" spans="18:29" x14ac:dyDescent="0.2">
@@ -4486,13 +4463,13 @@
         <v>78</v>
       </c>
       <c r="AA127" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AB127">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC127" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="128" spans="18:29" x14ac:dyDescent="0.2">
@@ -4512,13 +4489,13 @@
         <v>78</v>
       </c>
       <c r="AA128" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AB128">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC128" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
     </row>
     <row r="129" spans="18:29" x14ac:dyDescent="0.2">
@@ -4538,10 +4515,10 @@
         <v>78</v>
       </c>
       <c r="AA129" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AB129">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC129" t="s">
         <v>189</v>
@@ -4564,10 +4541,10 @@
         <v>78</v>
       </c>
       <c r="AA130" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AB130">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC130" t="s">
         <v>189</v>
@@ -4590,10 +4567,10 @@
         <v>78</v>
       </c>
       <c r="AA131" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AB131">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC131" t="s">
         <v>189</v>
@@ -4616,10 +4593,10 @@
         <v>78</v>
       </c>
       <c r="AA132" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AB132">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC132" t="s">
         <v>189</v>
@@ -4642,10 +4619,10 @@
         <v>78</v>
       </c>
       <c r="AA133" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AB133">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC133" t="s">
         <v>189</v>
@@ -4668,10 +4645,10 @@
         <v>78</v>
       </c>
       <c r="AA134" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AB134">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC134" t="s">
         <v>189</v>
@@ -4694,10 +4671,10 @@
         <v>78</v>
       </c>
       <c r="AA135" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AB135">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC135" t="s">
         <v>189</v>
@@ -4720,13 +4697,13 @@
         <v>78</v>
       </c>
       <c r="AA136" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AB136">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC136" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
     </row>
     <row r="137" spans="18:29" x14ac:dyDescent="0.2">
@@ -4746,13 +4723,13 @@
         <v>78</v>
       </c>
       <c r="AA137" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AB137">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC137" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
     </row>
     <row r="138" spans="18:29" x14ac:dyDescent="0.2">
@@ -4772,10 +4749,10 @@
         <v>78</v>
       </c>
       <c r="AA138" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AB138">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AC138" t="s">
         <v>189</v>
@@ -4798,10 +4775,10 @@
         <v>78</v>
       </c>
       <c r="AA139" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AB139">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AC139" t="s">
         <v>189</v>
@@ -4824,10 +4801,10 @@
         <v>78</v>
       </c>
       <c r="AA140" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AB140">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC140" t="s">
         <v>189</v>
@@ -4835,28 +4812,25 @@
     </row>
     <row r="141" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R141" t="s">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="S141" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="T141">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V141" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="W141" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA141" t="s">
-        <v>206</v>
-      </c>
-      <c r="AB141">
-        <v>18</v>
-      </c>
-      <c r="AC141" t="s">
-        <v>189</v>
+        <v>142</v>
+      </c>
+      <c r="X141" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y141" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="142" spans="18:29" x14ac:dyDescent="0.2">
@@ -4876,10 +4850,10 @@
         <v>142</v>
       </c>
       <c r="X142" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y142" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="143" spans="18:29" x14ac:dyDescent="0.2">
@@ -4899,10 +4873,10 @@
         <v>142</v>
       </c>
       <c r="X143" t="s">
-        <v>156</v>
+        <v>207</v>
       </c>
       <c r="Y143" t="s">
-        <v>146</v>
+        <v>208</v>
       </c>
     </row>
     <row r="144" spans="18:29" x14ac:dyDescent="0.2">
@@ -4922,10 +4896,10 @@
         <v>142</v>
       </c>
       <c r="X144" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Y144" t="s">
-        <v>208</v>
+        <v>142</v>
       </c>
     </row>
     <row r="145" spans="18:29" x14ac:dyDescent="0.2">
@@ -4945,10 +4919,10 @@
         <v>142</v>
       </c>
       <c r="X145" t="s">
-        <v>209</v>
+        <v>54</v>
       </c>
       <c r="Y145" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="146" spans="18:29" x14ac:dyDescent="0.2">
@@ -4968,10 +4942,10 @@
         <v>142</v>
       </c>
       <c r="X146" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Y146" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="147" spans="18:29" x14ac:dyDescent="0.2">
@@ -4991,10 +4965,10 @@
         <v>142</v>
       </c>
       <c r="X147" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="Y147" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="148" spans="18:29" x14ac:dyDescent="0.2">
@@ -5014,10 +4988,10 @@
         <v>142</v>
       </c>
       <c r="X148" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Y148" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="149" spans="18:29" x14ac:dyDescent="0.2">
@@ -5037,10 +5011,10 @@
         <v>142</v>
       </c>
       <c r="X149" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="Y149" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="150" spans="18:29" x14ac:dyDescent="0.2">
@@ -5060,10 +5034,10 @@
         <v>142</v>
       </c>
       <c r="X150" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y150" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="151" spans="18:29" x14ac:dyDescent="0.2">
@@ -5083,10 +5057,10 @@
         <v>142</v>
       </c>
       <c r="X151" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Y151" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="152" spans="18:29" x14ac:dyDescent="0.2">
@@ -5106,10 +5080,10 @@
         <v>142</v>
       </c>
       <c r="X152" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="Y152" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="153" spans="18:29" x14ac:dyDescent="0.2">
@@ -5129,10 +5103,10 @@
         <v>142</v>
       </c>
       <c r="X153" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y153" t="s">
-        <v>150</v>
+        <v>62</v>
       </c>
     </row>
     <row r="154" spans="18:29" x14ac:dyDescent="0.2">
@@ -5151,11 +5125,14 @@
       <c r="W154" t="s">
         <v>142</v>
       </c>
-      <c r="X154" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y154" t="s">
-        <v>62</v>
+      <c r="AA154" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB154">
+        <v>1</v>
+      </c>
+      <c r="AC154" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="155" spans="18:29" x14ac:dyDescent="0.2">
@@ -5175,10 +5152,10 @@
         <v>142</v>
       </c>
       <c r="AA155" t="s">
-        <v>210</v>
+        <v>159</v>
       </c>
       <c r="AB155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC155" t="s">
         <v>160</v>
@@ -5201,39 +5178,36 @@
         <v>142</v>
       </c>
       <c r="AA156" t="s">
-        <v>159</v>
+        <v>211</v>
       </c>
       <c r="AB156">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC156" t="s">
-        <v>160</v>
+        <v>212</v>
       </c>
     </row>
     <row r="157" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R157" t="s">
-        <v>145</v>
+        <v>48</v>
       </c>
       <c r="S157" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="T157">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V157" t="s">
-        <v>144</v>
+        <v>47</v>
       </c>
       <c r="W157" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA157" t="s">
-        <v>211</v>
-      </c>
-      <c r="AB157">
-        <v>3</v>
-      </c>
-      <c r="AC157" t="s">
-        <v>212</v>
+        <v>43</v>
+      </c>
+      <c r="X157" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y157" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="158" spans="18:29" x14ac:dyDescent="0.2">
@@ -5253,10 +5227,10 @@
         <v>43</v>
       </c>
       <c r="X158" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y158" t="s">
-        <v>213</v>
+        <v>49</v>
       </c>
     </row>
     <row r="159" spans="18:29" x14ac:dyDescent="0.2">
@@ -5276,10 +5250,10 @@
         <v>43</v>
       </c>
       <c r="X159" t="s">
-        <v>156</v>
+        <v>207</v>
       </c>
       <c r="Y159" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="160" spans="18:29" x14ac:dyDescent="0.2">
@@ -5299,10 +5273,10 @@
         <v>43</v>
       </c>
       <c r="X160" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Y160" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="161" spans="18:31" x14ac:dyDescent="0.2">
@@ -5322,10 +5296,10 @@
         <v>43</v>
       </c>
       <c r="X161" t="s">
-        <v>209</v>
+        <v>54</v>
       </c>
       <c r="Y161" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="162" spans="18:31" x14ac:dyDescent="0.2">
@@ -5345,10 +5319,10 @@
         <v>43</v>
       </c>
       <c r="X162" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Y162" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="163" spans="18:31" x14ac:dyDescent="0.2">
@@ -5368,10 +5342,10 @@
         <v>43</v>
       </c>
       <c r="X163" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="Y163" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="164" spans="18:31" x14ac:dyDescent="0.2">
@@ -5391,10 +5365,10 @@
         <v>43</v>
       </c>
       <c r="X164" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Y164" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="165" spans="18:31" x14ac:dyDescent="0.2">
@@ -5414,10 +5388,10 @@
         <v>43</v>
       </c>
       <c r="X165" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="Y165" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="166" spans="18:31" x14ac:dyDescent="0.2">
@@ -5437,10 +5411,10 @@
         <v>43</v>
       </c>
       <c r="X166" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y166" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="167" spans="18:31" x14ac:dyDescent="0.2">
@@ -5460,10 +5434,10 @@
         <v>43</v>
       </c>
       <c r="X167" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Y167" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="168" spans="18:31" x14ac:dyDescent="0.2">
@@ -5483,10 +5457,10 @@
         <v>43</v>
       </c>
       <c r="X168" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="Y168" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="169" spans="18:31" x14ac:dyDescent="0.2">
@@ -5506,10 +5480,10 @@
         <v>43</v>
       </c>
       <c r="X169" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y169" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="170" spans="18:31" x14ac:dyDescent="0.2">
@@ -5528,11 +5502,14 @@
       <c r="W170" t="s">
         <v>43</v>
       </c>
-      <c r="X170" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y170" t="s">
-        <v>62</v>
+      <c r="AA170" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB170">
+        <v>1</v>
+      </c>
+      <c r="AC170" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="171" spans="18:31" x14ac:dyDescent="0.2">
@@ -5552,10 +5529,10 @@
         <v>43</v>
       </c>
       <c r="AA171" t="s">
-        <v>14</v>
+        <v>214</v>
       </c>
       <c r="AB171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC171" t="s">
         <v>165</v>
@@ -5578,109 +5555,100 @@
         <v>43</v>
       </c>
       <c r="AA172" t="s">
-        <v>214</v>
+        <v>14</v>
       </c>
       <c r="AB172">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC172" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="173" spans="18:31" x14ac:dyDescent="0.2">
-      <c r="R173" t="s">
-        <v>48</v>
-      </c>
-      <c r="S173" t="s">
-        <v>49</v>
-      </c>
-      <c r="T173">
-        <v>12</v>
-      </c>
-      <c r="V173" t="s">
-        <v>47</v>
-      </c>
-      <c r="W173" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA173" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB173">
+      <c r="AD173" t="s">
         <v>3</v>
       </c>
-      <c r="AC173" t="s">
-        <v>165</v>
+      <c r="AE173" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="174" spans="18:31" x14ac:dyDescent="0.2">
       <c r="AD174" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE174" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="175" spans="18:31" x14ac:dyDescent="0.2">
       <c r="AD175" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AE175" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="176" spans="18:31" x14ac:dyDescent="0.2">
       <c r="AD176" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="AE176" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="177" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AD177" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AE177" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="178" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AD178" t="s">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="AE178" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="179" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AD179" t="s">
-        <v>145</v>
+        <v>48</v>
       </c>
       <c r="AE179" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="180" spans="30:36" x14ac:dyDescent="0.2">
-      <c r="AD180" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE180" t="s">
-        <v>221</v>
+      <c r="AF180">
+        <v>1</v>
+      </c>
+      <c r="AG180" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH180">
+        <v>1</v>
+      </c>
+      <c r="AI180">
+        <v>1</v>
+      </c>
+      <c r="AJ180" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="181" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG181" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AH181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI181">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ181" t="s">
         <v>5</v>
@@ -5688,33 +5656,33 @@
     </row>
     <row r="182" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF182">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG182" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AH182">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI182">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ182" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF183">
+        <v>4</v>
+      </c>
+      <c r="AG183" t="s">
+        <v>225</v>
+      </c>
+      <c r="AH183">
+        <v>4</v>
+      </c>
+      <c r="AI183">
         <v>3</v>
-      </c>
-      <c r="AG183" t="s">
-        <v>224</v>
-      </c>
-      <c r="AH183">
-        <v>3</v>
-      </c>
-      <c r="AI183">
-        <v>1</v>
       </c>
       <c r="AJ183" t="s">
         <v>10</v>
@@ -5722,33 +5690,33 @@
     </row>
     <row r="184" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF184">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG184" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AH184">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI184">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="185" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF185">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG185" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AH185">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI185">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ185" t="s">
         <v>11</v>
@@ -5756,33 +5724,33 @@
     </row>
     <row r="186" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF186">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG186" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AH186">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI186">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="187" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF187">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG187" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AH187">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI187">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ187" t="s">
         <v>12</v>
@@ -5790,19 +5758,19 @@
     </row>
     <row r="188" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF188">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG188" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AH188">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI188">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ188" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
     </row>
     <row r="189" spans="30:36" x14ac:dyDescent="0.2">
@@ -5816,27 +5784,27 @@
         <v>9</v>
       </c>
       <c r="AI189">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ189" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
     </row>
     <row r="190" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF190">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG190" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AH190">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI190">
+        <v>4</v>
+      </c>
+      <c r="AJ190" t="s">
         <v>5</v>
-      </c>
-      <c r="AJ190" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="191" spans="30:36" x14ac:dyDescent="0.2">
@@ -5850,27 +5818,27 @@
         <v>10</v>
       </c>
       <c r="AI191">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ191" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="192" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF192">
+        <v>11</v>
+      </c>
+      <c r="AG192" t="s">
+        <v>232</v>
+      </c>
+      <c r="AH192">
+        <v>11</v>
+      </c>
+      <c r="AI192">
+        <v>4</v>
+      </c>
+      <c r="AJ192" t="s">
         <v>10</v>
-      </c>
-      <c r="AG192" t="s">
-        <v>231</v>
-      </c>
-      <c r="AH192">
-        <v>10</v>
-      </c>
-      <c r="AI192">
-        <v>2</v>
-      </c>
-      <c r="AJ192" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="193" spans="32:36" x14ac:dyDescent="0.2">
@@ -5884,27 +5852,27 @@
         <v>11</v>
       </c>
       <c r="AI193">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ193" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="194" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF194">
+        <v>12</v>
+      </c>
+      <c r="AG194" t="s">
+        <v>233</v>
+      </c>
+      <c r="AH194">
+        <v>12</v>
+      </c>
+      <c r="AI194">
+        <v>4</v>
+      </c>
+      <c r="AJ194" t="s">
         <v>11</v>
-      </c>
-      <c r="AG194" t="s">
-        <v>232</v>
-      </c>
-      <c r="AH194">
-        <v>11</v>
-      </c>
-      <c r="AI194">
-        <v>2</v>
-      </c>
-      <c r="AJ194" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="195" spans="32:36" x14ac:dyDescent="0.2">
@@ -5918,27 +5886,27 @@
         <v>12</v>
       </c>
       <c r="AI195">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ195" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="196" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF196">
+        <v>13</v>
+      </c>
+      <c r="AG196" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH196">
+        <v>13</v>
+      </c>
+      <c r="AI196">
+        <v>4</v>
+      </c>
+      <c r="AJ196" t="s">
         <v>12</v>
-      </c>
-      <c r="AG196" t="s">
-        <v>233</v>
-      </c>
-      <c r="AH196">
-        <v>12</v>
-      </c>
-      <c r="AI196">
-        <v>2</v>
-      </c>
-      <c r="AJ196" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="197" spans="32:36" x14ac:dyDescent="0.2">
@@ -5952,44 +5920,44 @@
         <v>13</v>
       </c>
       <c r="AI197">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ197" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="198" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF198">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG198" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AH198">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI198">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ198" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
     </row>
     <row r="199" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF199">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG199" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AH199">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI199">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AJ199" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
     </row>
     <row r="200" spans="32:36" x14ac:dyDescent="0.2">
@@ -6006,7 +5974,7 @@
         <v>9</v>
       </c>
       <c r="AJ200" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="32:36" x14ac:dyDescent="0.2">
@@ -6020,7 +5988,7 @@
         <v>15</v>
       </c>
       <c r="AI201">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AJ201" t="s">
         <v>1</v>
@@ -6037,10 +6005,10 @@
         <v>15</v>
       </c>
       <c r="AI202">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AJ202" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="203" spans="32:36" x14ac:dyDescent="0.2">
@@ -6054,10 +6022,10 @@
         <v>15</v>
       </c>
       <c r="AI203">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ203" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="32:36" x14ac:dyDescent="0.2">
@@ -6071,7 +6039,7 @@
         <v>15</v>
       </c>
       <c r="AI204">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ204" t="s">
         <v>1</v>
@@ -6088,7 +6056,7 @@
         <v>15</v>
       </c>
       <c r="AI205">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AJ205" t="s">
         <v>1</v>
@@ -6105,10 +6073,10 @@
         <v>15</v>
       </c>
       <c r="AI206">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ206" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="207" spans="32:36" x14ac:dyDescent="0.2">
@@ -6122,7 +6090,7 @@
         <v>15</v>
       </c>
       <c r="AI207">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AJ207" t="s">
         <v>21</v>
@@ -6139,7 +6107,7 @@
         <v>15</v>
       </c>
       <c r="AI208">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AJ208" t="s">
         <v>21</v>
@@ -6156,10 +6124,10 @@
         <v>15</v>
       </c>
       <c r="AI209">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ209" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="32:36" x14ac:dyDescent="0.2">
@@ -6173,41 +6141,41 @@
         <v>15</v>
       </c>
       <c r="AI210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ210" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="211" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF211">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG211" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AH211">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI211">
         <v>1</v>
       </c>
       <c r="AJ211" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="212" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF212">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG212" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AH212">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI212">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ212" t="s">
         <v>22</v>
@@ -6215,16 +6183,16 @@
     </row>
     <row r="213" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF213">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG213" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AH213">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI213">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ213" t="s">
         <v>22</v>
@@ -6241,41 +6209,41 @@
         <v>18</v>
       </c>
       <c r="AI214">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ214" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
     </row>
     <row r="215" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF215">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG215" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AH215">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI215">
         <v>1</v>
       </c>
       <c r="AJ215" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
     </row>
     <row r="216" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF216">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG216" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AH216">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI216">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ216" t="s">
         <v>23</v>
@@ -6283,16 +6251,16 @@
     </row>
     <row r="217" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF217">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG217" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AH217">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI217">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ217" t="s">
         <v>23</v>
@@ -6309,41 +6277,41 @@
         <v>21</v>
       </c>
       <c r="AI218">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ218" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
     </row>
     <row r="219" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF219">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG219" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AH219">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI219">
         <v>1</v>
       </c>
       <c r="AJ219" t="s">
-        <v>118</v>
+        <v>24</v>
       </c>
     </row>
     <row r="220" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF220">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG220" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AH220">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI220">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ220" t="s">
         <v>24</v>
@@ -6351,16 +6319,16 @@
     </row>
     <row r="221" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF221">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG221" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AH221">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI221">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ221" t="s">
         <v>24</v>
@@ -6377,27 +6345,27 @@
         <v>24</v>
       </c>
       <c r="AI222">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ222" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
     </row>
     <row r="223" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF223">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG223" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AH223">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI223">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ223" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
     </row>
     <row r="224" spans="32:36" x14ac:dyDescent="0.2">
@@ -6411,27 +6379,27 @@
         <v>25</v>
       </c>
       <c r="AI224">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ224" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
     </row>
     <row r="225" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF225">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG225" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AH225">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI225">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ225" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="226" spans="32:36" x14ac:dyDescent="0.2">
@@ -6445,27 +6413,27 @@
         <v>26</v>
       </c>
       <c r="AI226">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ226" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="227" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF227">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG227" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AH227">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI227">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ227" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="228" spans="32:36" x14ac:dyDescent="0.2">
@@ -6479,27 +6447,27 @@
         <v>27</v>
       </c>
       <c r="AI228">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ228" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="229" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF229">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG229" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AH229">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI229">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ229" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="230" spans="32:36" x14ac:dyDescent="0.2">
@@ -6513,41 +6481,41 @@
         <v>28</v>
       </c>
       <c r="AI230">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ230" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="231" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF231">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG231" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AH231">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI231">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ231" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
     </row>
     <row r="232" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF232">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG232" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AH232">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI232">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ232" t="s">
         <v>63</v>
@@ -6555,33 +6523,33 @@
     </row>
     <row r="233" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF233">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG233" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AH233">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AI233">
         <v>1</v>
       </c>
       <c r="AJ233" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="234" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF234">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AG234" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AH234">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AI234">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ234" t="s">
         <v>29</v>
@@ -6589,16 +6557,16 @@
     </row>
     <row r="235" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF235">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AG235" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AH235">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI235">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ235" t="s">
         <v>29</v>
@@ -6615,27 +6583,27 @@
         <v>33</v>
       </c>
       <c r="AI236">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ236" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
     </row>
     <row r="237" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF237">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AG237" t="s">
-        <v>254</v>
+        <v>159</v>
       </c>
       <c r="AH237">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AI237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ237" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="238" spans="32:36" x14ac:dyDescent="0.2">
@@ -6652,7 +6620,7 @@
         <v>2</v>
       </c>
       <c r="AJ238" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="239" spans="32:36" x14ac:dyDescent="0.2">
@@ -6666,10 +6634,10 @@
         <v>34</v>
       </c>
       <c r="AI239">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ239" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="240" spans="32:36" x14ac:dyDescent="0.2">
@@ -6683,10 +6651,10 @@
         <v>34</v>
       </c>
       <c r="AI240">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ240" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
     </row>
     <row r="241" spans="32:36" x14ac:dyDescent="0.2">
@@ -6703,7 +6671,7 @@
         <v>2</v>
       </c>
       <c r="AJ241" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="242" spans="32:36" x14ac:dyDescent="0.2">
@@ -6720,7 +6688,7 @@
         <v>2</v>
       </c>
       <c r="AJ242" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
     </row>
     <row r="243" spans="32:36" x14ac:dyDescent="0.2">
@@ -6737,7 +6705,7 @@
         <v>2</v>
       </c>
       <c r="AJ243" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="244" spans="32:36" x14ac:dyDescent="0.2">
@@ -6754,7 +6722,7 @@
         <v>2</v>
       </c>
       <c r="AJ244" t="s">
-        <v>135</v>
+        <v>24</v>
       </c>
     </row>
     <row r="245" spans="32:36" x14ac:dyDescent="0.2">
@@ -6771,7 +6739,7 @@
         <v>2</v>
       </c>
       <c r="AJ245" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
     </row>
     <row r="246" spans="32:36" x14ac:dyDescent="0.2">
@@ -6788,7 +6756,7 @@
         <v>2</v>
       </c>
       <c r="AJ246" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="247" spans="32:36" x14ac:dyDescent="0.2">
@@ -6802,10 +6770,10 @@
         <v>34</v>
       </c>
       <c r="AI247">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ247" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
     </row>
     <row r="248" spans="32:36" x14ac:dyDescent="0.2">
@@ -6819,10 +6787,10 @@
         <v>34</v>
       </c>
       <c r="AI248">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ248" t="s">
-        <v>93</v>
+        <v>141</v>
       </c>
     </row>
     <row r="249" spans="32:36" x14ac:dyDescent="0.2">
@@ -6839,7 +6807,7 @@
         <v>2</v>
       </c>
       <c r="AJ249" t="s">
-        <v>141</v>
+        <v>29</v>
       </c>
     </row>
     <row r="250" spans="32:36" x14ac:dyDescent="0.2">
@@ -6856,7 +6824,7 @@
         <v>2</v>
       </c>
       <c r="AJ250" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="251" spans="32:36" x14ac:dyDescent="0.2">
@@ -6870,10 +6838,10 @@
         <v>34</v>
       </c>
       <c r="AI251">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ251" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="252" spans="32:36" x14ac:dyDescent="0.2">
@@ -6887,10 +6855,10 @@
         <v>34</v>
       </c>
       <c r="AI252">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ252" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
     </row>
     <row r="253" spans="32:36" x14ac:dyDescent="0.2">
@@ -6907,7 +6875,7 @@
         <v>2</v>
       </c>
       <c r="AJ253" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
     </row>
     <row r="254" spans="32:36" x14ac:dyDescent="0.2">
@@ -6924,7 +6892,7 @@
         <v>2</v>
       </c>
       <c r="AJ254" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
     </row>
     <row r="255" spans="32:36" x14ac:dyDescent="0.2">
@@ -6941,7 +6909,7 @@
         <v>2</v>
       </c>
       <c r="AJ255" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
     </row>
     <row r="256" spans="32:36" x14ac:dyDescent="0.2">
@@ -6955,10 +6923,10 @@
         <v>34</v>
       </c>
       <c r="AI256">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ256" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
     </row>
     <row r="257" spans="32:36" x14ac:dyDescent="0.2">
@@ -6972,10 +6940,10 @@
         <v>34</v>
       </c>
       <c r="AI257">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ257" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
     </row>
     <row r="258" spans="32:36" x14ac:dyDescent="0.2">
@@ -6989,10 +6957,10 @@
         <v>34</v>
       </c>
       <c r="AI258">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ258" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="259" spans="32:36" x14ac:dyDescent="0.2">
@@ -7009,7 +6977,7 @@
         <v>7</v>
       </c>
       <c r="AJ259" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="32:36" x14ac:dyDescent="0.2">
@@ -7023,10 +6991,10 @@
         <v>34</v>
       </c>
       <c r="AI260">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ260" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="261" spans="32:36" x14ac:dyDescent="0.2">
@@ -7043,7 +7011,7 @@
         <v>2</v>
       </c>
       <c r="AJ261" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="262" spans="32:36" x14ac:dyDescent="0.2">
@@ -7060,7 +7028,7 @@
         <v>2</v>
       </c>
       <c r="AJ262" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
     </row>
     <row r="263" spans="32:36" x14ac:dyDescent="0.2">
@@ -7074,10 +7042,10 @@
         <v>34</v>
       </c>
       <c r="AI263">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ263" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="264" spans="32:36" x14ac:dyDescent="0.2">
@@ -7091,10 +7059,10 @@
         <v>34</v>
       </c>
       <c r="AI264">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ264" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
     </row>
     <row r="265" spans="32:36" x14ac:dyDescent="0.2">
@@ -7111,7 +7079,7 @@
         <v>2</v>
       </c>
       <c r="AJ265" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="266" spans="32:36" x14ac:dyDescent="0.2">
@@ -7125,10 +7093,10 @@
         <v>34</v>
       </c>
       <c r="AI266">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ266" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
     </row>
     <row r="267" spans="32:36" x14ac:dyDescent="0.2">
@@ -7142,10 +7110,10 @@
         <v>34</v>
       </c>
       <c r="AI267">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ267" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="268" spans="32:36" x14ac:dyDescent="0.2">
@@ -7159,10 +7127,10 @@
         <v>34</v>
       </c>
       <c r="AI268">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ268" t="s">
-        <v>112</v>
+        <v>41</v>
       </c>
     </row>
     <row r="269" spans="32:36" x14ac:dyDescent="0.2">
@@ -7176,10 +7144,10 @@
         <v>34</v>
       </c>
       <c r="AI269">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ269" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
     </row>
     <row r="270" spans="32:36" x14ac:dyDescent="0.2">
@@ -7196,24 +7164,24 @@
         <v>2</v>
       </c>
       <c r="AJ270" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
     </row>
     <row r="271" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF271">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AG271" t="s">
-        <v>159</v>
+        <v>255</v>
       </c>
       <c r="AH271">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AI271">
         <v>2</v>
       </c>
       <c r="AJ271" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
     </row>
     <row r="272" spans="32:36" x14ac:dyDescent="0.2">
@@ -7227,27 +7195,27 @@
         <v>35</v>
       </c>
       <c r="AI272">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ272" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
     </row>
     <row r="273" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF273">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AG273" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AH273">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AI273">
         <v>4</v>
       </c>
       <c r="AJ273" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
     </row>
     <row r="274" spans="32:36" x14ac:dyDescent="0.2">
@@ -7261,41 +7229,41 @@
         <v>36</v>
       </c>
       <c r="AI274">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ274" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="275" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF275">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AG275" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AH275">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AI275">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ275" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
     </row>
     <row r="276" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF276">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AG276" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AH276">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AI276">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ276" t="s">
         <v>64</v>
@@ -7303,19 +7271,19 @@
     </row>
     <row r="277" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF277">
+        <v>39</v>
+      </c>
+      <c r="AG277" t="s">
+        <v>259</v>
+      </c>
+      <c r="AH277">
+        <v>39</v>
+      </c>
+      <c r="AI277">
+        <v>1</v>
+      </c>
+      <c r="AJ277" t="s">
         <v>38</v>
-      </c>
-      <c r="AG277" t="s">
-        <v>258</v>
-      </c>
-      <c r="AH277">
-        <v>38</v>
-      </c>
-      <c r="AI277">
-        <v>1</v>
-      </c>
-      <c r="AJ277" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="278" spans="32:36" x14ac:dyDescent="0.2">
@@ -7329,27 +7297,27 @@
         <v>39</v>
       </c>
       <c r="AI278">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ278" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
     </row>
     <row r="279" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF279">
+        <v>40</v>
+      </c>
+      <c r="AG279" t="s">
+        <v>260</v>
+      </c>
+      <c r="AH279">
+        <v>40</v>
+      </c>
+      <c r="AI279">
+        <v>1</v>
+      </c>
+      <c r="AJ279" t="s">
         <v>39</v>
-      </c>
-      <c r="AG279" t="s">
-        <v>259</v>
-      </c>
-      <c r="AH279">
-        <v>39</v>
-      </c>
-      <c r="AI279">
-        <v>5</v>
-      </c>
-      <c r="AJ279" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="280" spans="32:36" x14ac:dyDescent="0.2">
@@ -7363,27 +7331,27 @@
         <v>40</v>
       </c>
       <c r="AI280">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ280" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="281" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF281">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AG281" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AH281">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AI281">
         <v>5</v>
       </c>
       <c r="AJ281" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="282" spans="32:36" x14ac:dyDescent="0.2">
@@ -7397,27 +7365,27 @@
         <v>41</v>
       </c>
       <c r="AI282">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ282" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="283" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF283">
+        <v>42</v>
+      </c>
+      <c r="AG283" t="s">
+        <v>262</v>
+      </c>
+      <c r="AH283">
+        <v>42</v>
+      </c>
+      <c r="AI283">
+        <v>9</v>
+      </c>
+      <c r="AJ283" t="s">
         <v>41</v>
-      </c>
-      <c r="AG283" t="s">
-        <v>261</v>
-      </c>
-      <c r="AH283">
-        <v>41</v>
-      </c>
-      <c r="AI283">
-        <v>1</v>
-      </c>
-      <c r="AJ283" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="284" spans="32:36" x14ac:dyDescent="0.2">
@@ -7431,7 +7399,7 @@
         <v>42</v>
       </c>
       <c r="AI284">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AJ284" t="s">
         <v>41</v>
@@ -7448,10 +7416,10 @@
         <v>42</v>
       </c>
       <c r="AI285">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AJ285" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="286" spans="32:36" x14ac:dyDescent="0.2">
@@ -7465,10 +7433,10 @@
         <v>42</v>
       </c>
       <c r="AI286">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AJ286" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="287" spans="32:36" x14ac:dyDescent="0.2">
@@ -7482,10 +7450,10 @@
         <v>42</v>
       </c>
       <c r="AI287">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AJ287" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="288" spans="32:36" x14ac:dyDescent="0.2">
@@ -7499,7 +7467,7 @@
         <v>42</v>
       </c>
       <c r="AI288">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ288" t="s">
         <v>37</v>
@@ -7516,7 +7484,7 @@
         <v>42</v>
       </c>
       <c r="AI289">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AJ289" t="s">
         <v>37</v>
@@ -7533,10 +7501,10 @@
         <v>42</v>
       </c>
       <c r="AI290">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AJ290" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="291" spans="32:36" x14ac:dyDescent="0.2">
@@ -7550,10 +7518,10 @@
         <v>42</v>
       </c>
       <c r="AI291">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AJ291" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="292" spans="32:36" x14ac:dyDescent="0.2">
@@ -7567,10 +7535,10 @@
         <v>42</v>
       </c>
       <c r="AI292">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AJ292" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="293" spans="32:36" x14ac:dyDescent="0.2">
@@ -7584,10 +7552,10 @@
         <v>42</v>
       </c>
       <c r="AI293">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AJ293" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="294" spans="32:36" x14ac:dyDescent="0.2">
@@ -7601,27 +7569,27 @@
         <v>42</v>
       </c>
       <c r="AI294">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AJ294" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="295" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF295">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AG295" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AH295">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI295">
         <v>1</v>
       </c>
       <c r="AJ295" t="s">
-        <v>41</v>
+        <v>116</v>
       </c>
     </row>
     <row r="296" spans="32:36" x14ac:dyDescent="0.2">
@@ -7635,27 +7603,27 @@
         <v>43</v>
       </c>
       <c r="AI296">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ296" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
     </row>
     <row r="297" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF297">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG297" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AH297">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI297">
         <v>5</v>
       </c>
       <c r="AJ297" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="298" spans="32:36" x14ac:dyDescent="0.2">
@@ -7669,27 +7637,27 @@
         <v>44</v>
       </c>
       <c r="AI298">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ298" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
     </row>
     <row r="299" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF299">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AG299" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AH299">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI299">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ299" t="s">
-        <v>120</v>
+        <v>42</v>
       </c>
     </row>
     <row r="300" spans="32:36" x14ac:dyDescent="0.2">
@@ -7703,27 +7671,27 @@
         <v>45</v>
       </c>
       <c r="AI300">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AJ300" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="301" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF301">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AG301" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AH301">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI301">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AJ301" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
     </row>
     <row r="302" spans="32:36" x14ac:dyDescent="0.2">
@@ -7737,27 +7705,27 @@
         <v>46</v>
       </c>
       <c r="AI302">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AJ302" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
     </row>
     <row r="303" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF303">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AG303" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AH303">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI303">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AJ303" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
     </row>
     <row r="304" spans="32:36" x14ac:dyDescent="0.2">
@@ -7771,24 +7739,24 @@
         <v>47</v>
       </c>
       <c r="AI304">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AJ304" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
     </row>
     <row r="305" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF305">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AG305" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AH305">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI305">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AJ305" t="s">
         <v>37</v>
@@ -7805,27 +7773,27 @@
         <v>48</v>
       </c>
       <c r="AI306">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AJ306" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
     </row>
     <row r="307" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF307">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AG307" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AH307">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI307">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ307" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="308" spans="32:36" x14ac:dyDescent="0.2">
@@ -7839,27 +7807,27 @@
         <v>49</v>
       </c>
       <c r="AI308">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ308" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
     <row r="309" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF309">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG309" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AH309">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI309">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ309" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
     </row>
     <row r="310" spans="32:36" x14ac:dyDescent="0.2">
@@ -7873,27 +7841,27 @@
         <v>50</v>
       </c>
       <c r="AI310">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ310" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="311" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF311">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG311" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AH311">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI311">
         <v>3</v>
       </c>
       <c r="AJ311" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="312" spans="32:36" x14ac:dyDescent="0.2">
@@ -7907,27 +7875,27 @@
         <v>51</v>
       </c>
       <c r="AI312">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AJ312" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
     </row>
     <row r="313" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF313">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AG313" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AH313">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI313">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AJ313" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
     </row>
     <row r="314" spans="32:36" x14ac:dyDescent="0.2">
@@ -7941,27 +7909,27 @@
         <v>52</v>
       </c>
       <c r="AI314">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AJ314" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
     </row>
     <row r="315" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF315">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AG315" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AH315">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AI315">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AJ315" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
     </row>
     <row r="316" spans="32:36" x14ac:dyDescent="0.2">
@@ -7975,27 +7943,27 @@
         <v>53</v>
       </c>
       <c r="AI316">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AJ316" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="317" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF317">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AG317" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AH317">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AI317">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AJ317" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
     </row>
     <row r="318" spans="32:36" x14ac:dyDescent="0.2">
@@ -8009,27 +7977,27 @@
         <v>54</v>
       </c>
       <c r="AI318">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AJ318" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
     </row>
     <row r="319" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF319">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG319" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AH319">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI319">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AJ319" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="32:36" x14ac:dyDescent="0.2">
@@ -8043,27 +8011,27 @@
         <v>55</v>
       </c>
       <c r="AI320">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AJ320" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="321" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF321">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG321" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AH321">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AI321">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ321" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="32:36" x14ac:dyDescent="0.2">
@@ -8077,27 +8045,27 @@
         <v>56</v>
       </c>
       <c r="AI322">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AJ322" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
     </row>
     <row r="323" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF323">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG323" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AH323">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AI323">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AJ323" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="32:36" x14ac:dyDescent="0.2">
@@ -8111,27 +8079,27 @@
         <v>57</v>
       </c>
       <c r="AI324">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AJ324" t="s">
-        <v>1</v>
+        <v>66</v>
       </c>
     </row>
     <row r="325" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF325">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG325" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AH325">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI325">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AJ325" t="s">
-        <v>66</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="32:36" x14ac:dyDescent="0.2">
@@ -8145,27 +8113,27 @@
         <v>58</v>
       </c>
       <c r="AI326">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AJ326" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
     </row>
     <row r="327" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF327">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG327" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AH327">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI327">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ327" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="328" spans="32:36" x14ac:dyDescent="0.2">
@@ -8179,27 +8147,27 @@
         <v>59</v>
       </c>
       <c r="AI328">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ328" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="329" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF329">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AG329" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AH329">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AI329">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ329" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="330" spans="32:36" x14ac:dyDescent="0.2">
@@ -8213,27 +8181,27 @@
         <v>60</v>
       </c>
       <c r="AI330">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ330" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
     </row>
     <row r="331" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF331">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG331" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AH331">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AI331">
         <v>1</v>
       </c>
       <c r="AJ331" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="332" spans="32:36" x14ac:dyDescent="0.2">
@@ -8247,24 +8215,24 @@
         <v>61</v>
       </c>
       <c r="AI332">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ332" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="333" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF333">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG333" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AH333">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI333">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ333" t="s">
         <v>21</v>
@@ -8281,27 +8249,27 @@
         <v>62</v>
       </c>
       <c r="AI334">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AJ334" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="335" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF335">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AG335" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AH335">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AI335">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AJ335" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="336" spans="32:36" x14ac:dyDescent="0.2">
@@ -8315,27 +8283,27 @@
         <v>63</v>
       </c>
       <c r="AI336">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AJ336" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
     </row>
     <row r="337" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF337">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AG337" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AH337">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AI337">
         <v>1</v>
       </c>
       <c r="AJ337" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="338" spans="32:36" x14ac:dyDescent="0.2">
@@ -8349,27 +8317,27 @@
         <v>64</v>
       </c>
       <c r="AI338">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AJ338" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
     </row>
     <row r="339" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF339">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AG339" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AH339">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AI339">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AJ339" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
     </row>
     <row r="340" spans="32:36" x14ac:dyDescent="0.2">
@@ -8386,24 +8354,24 @@
         <v>2</v>
       </c>
       <c r="AJ340" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="341" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF341">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG341" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AH341">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AI341">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ341" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="342" spans="32:36" x14ac:dyDescent="0.2">
@@ -8417,27 +8385,27 @@
         <v>66</v>
       </c>
       <c r="AI342">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ342" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
     </row>
     <row r="343" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF343">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AG343" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AH343">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AI343">
         <v>2</v>
       </c>
       <c r="AJ343" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
     </row>
     <row r="344" spans="32:36" x14ac:dyDescent="0.2">
@@ -8451,24 +8419,24 @@
         <v>67</v>
       </c>
       <c r="AI344">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ344" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="345" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF345">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG345" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AH345">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AI345">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ345" t="s">
         <v>77</v>
@@ -8476,16 +8444,16 @@
     </row>
     <row r="346" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF346">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG346" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AH346">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AI346">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ346" t="s">
         <v>77</v>
@@ -8502,41 +8470,41 @@
         <v>69</v>
       </c>
       <c r="AI347">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ347" t="s">
-        <v>77</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF348">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AG348" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AH348">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI348">
         <v>4</v>
       </c>
       <c r="AJ348" t="s">
-        <v>1</v>
+        <v>77</v>
       </c>
     </row>
     <row r="349" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF349">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AG349" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AH349">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI349">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AJ349" t="s">
         <v>77</v>
@@ -8544,16 +8512,16 @@
     </row>
     <row r="350" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF350">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG350" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AH350">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI350">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ350" t="s">
         <v>77</v>
@@ -8570,41 +8538,41 @@
         <v>72</v>
       </c>
       <c r="AI351">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AJ351" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
     </row>
     <row r="352" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF352">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG352" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AH352">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI352">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AJ352" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
     </row>
     <row r="353" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF353">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG353" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AH353">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI353">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ353" t="s">
         <v>77</v>
@@ -8612,19 +8580,19 @@
     </row>
     <row r="354" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF354">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG354" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AH354">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI354">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AJ354" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
     </row>
     <row r="355" spans="32:36" x14ac:dyDescent="0.2">
@@ -8638,24 +8606,24 @@
         <v>75</v>
       </c>
       <c r="AI355">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AJ355" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="356" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF356">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG356" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AH356">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI356">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ356" t="s">
         <v>77</v>
@@ -8663,16 +8631,16 @@
     </row>
     <row r="357" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF357">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG357" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AH357">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI357">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ357" t="s">
         <v>77</v>
@@ -8680,16 +8648,16 @@
     </row>
     <row r="358" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF358">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG358" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AH358">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI358">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ358" t="s">
         <v>77</v>
@@ -8697,16 +8665,16 @@
     </row>
     <row r="359" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF359">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG359" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AH359">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI359">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ359" t="s">
         <v>77</v>
@@ -8714,16 +8682,16 @@
     </row>
     <row r="360" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF360">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG360" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AH360">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI360">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AJ360" t="s">
         <v>77</v>
@@ -8740,27 +8708,27 @@
         <v>80</v>
       </c>
       <c r="AI361">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="AJ361" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="362" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF362">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG362" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AH362">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI362">
         <v>2</v>
       </c>
       <c r="AJ362" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="363" spans="32:36" x14ac:dyDescent="0.2">
@@ -8774,27 +8742,27 @@
         <v>81</v>
       </c>
       <c r="AI363">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ363" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="364" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF364">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AG364" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AH364">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI364">
         <v>1</v>
       </c>
       <c r="AJ364" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="365" spans="32:36" x14ac:dyDescent="0.2">
@@ -8808,27 +8776,27 @@
         <v>82</v>
       </c>
       <c r="AI365">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ365" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="366" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF366">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG366" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AH366">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI366">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AJ366" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="367" spans="32:36" x14ac:dyDescent="0.2">
@@ -8845,24 +8813,24 @@
         <v>1</v>
       </c>
       <c r="AJ367" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="368" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF368">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AG368" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AH368">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI368">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="AJ368" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="369" spans="32:36" x14ac:dyDescent="0.2">
@@ -8876,27 +8844,27 @@
         <v>84</v>
       </c>
       <c r="AI369">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="AJ369" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="370" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF370">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG370" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AH370">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI370">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ370" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="371" spans="32:36" x14ac:dyDescent="0.2">
@@ -8913,24 +8881,24 @@
         <v>1</v>
       </c>
       <c r="AJ371" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="372" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF372">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG372" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AH372">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI372">
         <v>1</v>
       </c>
       <c r="AJ372" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="373" spans="32:36" x14ac:dyDescent="0.2">
@@ -8947,24 +8915,24 @@
         <v>1</v>
       </c>
       <c r="AJ373" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="374" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF374">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG374" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AH374">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI374">
         <v>1</v>
       </c>
       <c r="AJ374" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="375" spans="32:36" x14ac:dyDescent="0.2">
@@ -8978,44 +8946,44 @@
         <v>87</v>
       </c>
       <c r="AI375">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ375" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="376" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF376">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG376" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AH376">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI376">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AJ376" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="377" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF377">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG377" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AH377">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI377">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AJ377" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="378" spans="32:36" x14ac:dyDescent="0.2">
@@ -9029,7 +8997,7 @@
         <v>89</v>
       </c>
       <c r="AI378">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ378" t="s">
         <v>92</v>
@@ -9046,7 +9014,7 @@
         <v>89</v>
       </c>
       <c r="AI379">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ379" t="s">
         <v>92</v>
@@ -9063,7 +9031,7 @@
         <v>89</v>
       </c>
       <c r="AI380">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AJ380" t="s">
         <v>92</v>
@@ -9080,7 +9048,7 @@
         <v>89</v>
       </c>
       <c r="AI381">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AJ381" t="s">
         <v>92</v>
@@ -9097,7 +9065,7 @@
         <v>89</v>
       </c>
       <c r="AI382">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ382" t="s">
         <v>92</v>
@@ -9114,10 +9082,10 @@
         <v>89</v>
       </c>
       <c r="AI383">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AJ383" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="384" spans="32:36" x14ac:dyDescent="0.2">
@@ -9131,7 +9099,7 @@
         <v>89</v>
       </c>
       <c r="AI384">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AJ384" t="s">
         <v>93</v>
@@ -9148,7 +9116,7 @@
         <v>89</v>
       </c>
       <c r="AI385">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AJ385" t="s">
         <v>93</v>
@@ -9165,7 +9133,7 @@
         <v>89</v>
       </c>
       <c r="AI386">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AJ386" t="s">
         <v>93</v>
@@ -9182,7 +9150,7 @@
         <v>89</v>
       </c>
       <c r="AI387">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AJ387" t="s">
         <v>93</v>
@@ -9199,7 +9167,7 @@
         <v>89</v>
       </c>
       <c r="AI388">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AJ388" t="s">
         <v>93</v>
@@ -9207,33 +9175,33 @@
     </row>
     <row r="389" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF389">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG389" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AH389">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI389">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AJ389" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="390" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF390">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG390" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AH390">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI390">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ390" t="s">
         <v>94</v>
@@ -9250,10 +9218,10 @@
         <v>91</v>
       </c>
       <c r="AI391">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ391" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="392" spans="32:36" x14ac:dyDescent="0.2">
@@ -9270,24 +9238,24 @@
         <v>1</v>
       </c>
       <c r="AJ392" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="393" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF393">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG393" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AH393">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI393">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ393" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="394" spans="32:36" x14ac:dyDescent="0.2">
@@ -9301,10 +9269,10 @@
         <v>92</v>
       </c>
       <c r="AI394">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ394" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="395" spans="32:36" x14ac:dyDescent="0.2">
@@ -9318,44 +9286,44 @@
         <v>92</v>
       </c>
       <c r="AI395">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ395" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="396" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF396">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG396" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AH396">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI396">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ396" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="397" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF397">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG397" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AH397">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI397">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ397" t="s">
-        <v>94</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="32:36" x14ac:dyDescent="0.2">
@@ -9369,10 +9337,10 @@
         <v>94</v>
       </c>
       <c r="AI398">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ398" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
     </row>
     <row r="399" spans="32:36" x14ac:dyDescent="0.2">
@@ -9386,41 +9354,41 @@
         <v>94</v>
       </c>
       <c r="AI399">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AJ399" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="400" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF400">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG400" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AH400">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AI400">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ400" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="401" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF401">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG401" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AH401">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AI401">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ401" t="s">
         <v>105</v>
@@ -9428,16 +9396,16 @@
     </row>
     <row r="402" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF402">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG402" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AH402">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AI402">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ402" t="s">
         <v>105</v>
@@ -9454,27 +9422,27 @@
         <v>97</v>
       </c>
       <c r="AI403">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ403" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="404" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF404">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG404" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AH404">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AI404">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ404" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="405" spans="32:36" x14ac:dyDescent="0.2">
@@ -9488,58 +9456,58 @@
         <v>98</v>
       </c>
       <c r="AI405">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AJ405" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="406" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF406">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG406" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AH406">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AI406">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AJ406" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
     </row>
     <row r="407" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF407">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG407" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AH407">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AI407">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ407" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="408" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF408">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG408" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AH408">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AI408">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ408" t="s">
         <v>108</v>
@@ -9556,10 +9524,10 @@
         <v>101</v>
       </c>
       <c r="AI409">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ409" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="410" spans="32:36" x14ac:dyDescent="0.2">
@@ -9576,24 +9544,24 @@
         <v>1</v>
       </c>
       <c r="AJ410" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="411" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF411">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG411" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AH411">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI411">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ411" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="412" spans="32:36" x14ac:dyDescent="0.2">
@@ -9607,10 +9575,10 @@
         <v>102</v>
       </c>
       <c r="AI412">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ412" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="413" spans="32:36" x14ac:dyDescent="0.2">
@@ -9624,41 +9592,41 @@
         <v>102</v>
       </c>
       <c r="AI413">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ413" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="414" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF414">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG414" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AH414">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AI414">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ414" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="415" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF415">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG415" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AH415">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AI415">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ415" t="s">
         <v>108</v>
@@ -9675,10 +9643,10 @@
         <v>104</v>
       </c>
       <c r="AI416">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AJ416" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="417" spans="32:36" x14ac:dyDescent="0.2">
@@ -9692,41 +9660,41 @@
         <v>104</v>
       </c>
       <c r="AI417">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ417" t="s">
-        <v>109</v>
+        <v>37</v>
       </c>
     </row>
     <row r="418" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF418">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG418" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AH418">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AI418">
         <v>1</v>
       </c>
       <c r="AJ418" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
     </row>
     <row r="419" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF419">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG419" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AH419">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AI419">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ419" t="s">
         <v>113</v>
@@ -9734,16 +9702,16 @@
     </row>
     <row r="420" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF420">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG420" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AH420">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AI420">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ420" t="s">
         <v>113</v>
@@ -9760,27 +9728,27 @@
         <v>107</v>
       </c>
       <c r="AI421">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ421" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="422" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF422">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG422" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AH422">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AI422">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ422" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="423" spans="32:36" x14ac:dyDescent="0.2">
@@ -9794,27 +9762,27 @@
         <v>108</v>
       </c>
       <c r="AI423">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AJ423" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="424" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF424">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG424" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AH424">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AI424">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ424" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="425" spans="32:36" x14ac:dyDescent="0.2">
@@ -9831,24 +9799,24 @@
         <v>2</v>
       </c>
       <c r="AJ425" t="s">
-        <v>122</v>
+        <v>39</v>
       </c>
     </row>
     <row r="426" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF426">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG426" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AH426">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AI426">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ426" t="s">
-        <v>39</v>
+        <v>122</v>
       </c>
     </row>
     <row r="427" spans="32:36" x14ac:dyDescent="0.2">
@@ -9862,27 +9830,27 @@
         <v>110</v>
       </c>
       <c r="AI427">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ427" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
     </row>
     <row r="428" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF428">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG428" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AH428">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AI428">
         <v>2</v>
       </c>
       <c r="AJ428" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
     </row>
     <row r="429" spans="32:36" x14ac:dyDescent="0.2">
@@ -9899,24 +9867,24 @@
         <v>2</v>
       </c>
       <c r="AJ429" t="s">
-        <v>123</v>
+        <v>40</v>
       </c>
     </row>
     <row r="430" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF430">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG430" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AH430">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AI430">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ430" t="s">
-        <v>40</v>
+        <v>123</v>
       </c>
     </row>
     <row r="431" spans="32:36" x14ac:dyDescent="0.2">
@@ -9930,27 +9898,27 @@
         <v>112</v>
       </c>
       <c r="AI431">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ431" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
     </row>
     <row r="432" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF432">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG432" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AH432">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AI432">
         <v>2</v>
       </c>
       <c r="AJ432" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
     </row>
     <row r="433" spans="32:36" x14ac:dyDescent="0.2">
@@ -9967,24 +9935,24 @@
         <v>2</v>
       </c>
       <c r="AJ433" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="434" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF434">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AG434" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AH434">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AI434">
         <v>2</v>
       </c>
       <c r="AJ434" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
     </row>
     <row r="435" spans="32:36" x14ac:dyDescent="0.2">
@@ -9998,27 +9966,27 @@
         <v>114</v>
       </c>
       <c r="AI435">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ435" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
     </row>
     <row r="436" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF436">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG436" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AH436">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AI436">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ436" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="437" spans="32:36" x14ac:dyDescent="0.2">
@@ -10035,21 +10003,21 @@
         <v>2</v>
       </c>
       <c r="AJ437" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="438" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF438">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG438" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AH438">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AI438">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ438" t="s">
         <v>125</v>
@@ -10066,27 +10034,27 @@
         <v>116</v>
       </c>
       <c r="AI439">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ439" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
     </row>
     <row r="440" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF440">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG440" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AH440">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AI440">
         <v>2</v>
       </c>
       <c r="AJ440" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
     </row>
     <row r="441" spans="32:36" x14ac:dyDescent="0.2">
@@ -10103,24 +10071,24 @@
         <v>2</v>
       </c>
       <c r="AJ441" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="442" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF442">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG442" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AH442">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AI442">
         <v>2</v>
       </c>
       <c r="AJ442" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
     </row>
     <row r="443" spans="32:36" x14ac:dyDescent="0.2">
@@ -10134,27 +10102,27 @@
         <v>118</v>
       </c>
       <c r="AI443">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ443" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
     </row>
     <row r="444" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF444">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG444" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AH444">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AI444">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ444" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="445" spans="32:36" x14ac:dyDescent="0.2">
@@ -10171,24 +10139,24 @@
         <v>2</v>
       </c>
       <c r="AJ445" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="446" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF446">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG446" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AH446">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AI446">
         <v>2</v>
       </c>
       <c r="AJ446" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
     </row>
     <row r="447" spans="32:36" x14ac:dyDescent="0.2">
@@ -10202,27 +10170,27 @@
         <v>120</v>
       </c>
       <c r="AI447">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ447" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
     </row>
     <row r="448" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF448">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG448" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AH448">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AI448">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ448" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="449" spans="32:36" x14ac:dyDescent="0.2">
@@ -10239,24 +10207,24 @@
         <v>2</v>
       </c>
       <c r="AJ449" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="450" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF450">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG450" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AH450">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AI450">
         <v>2</v>
       </c>
       <c r="AJ450" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
     </row>
     <row r="451" spans="32:36" x14ac:dyDescent="0.2">
@@ -10270,27 +10238,27 @@
         <v>122</v>
       </c>
       <c r="AI451">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ451" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
     </row>
     <row r="452" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF452">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG452" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AH452">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AI452">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ452" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="453" spans="32:36" x14ac:dyDescent="0.2">
@@ -10307,24 +10275,24 @@
         <v>2</v>
       </c>
       <c r="AJ453" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="454" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF454">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG454" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AH454">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AI454">
         <v>2</v>
       </c>
       <c r="AJ454" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
     </row>
     <row r="455" spans="32:36" x14ac:dyDescent="0.2">
@@ -10338,27 +10306,27 @@
         <v>124</v>
       </c>
       <c r="AI455">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ455" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
     </row>
     <row r="456" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF456">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG456" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AH456">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AI456">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ456" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="457" spans="32:36" x14ac:dyDescent="0.2">
@@ -10375,24 +10343,24 @@
         <v>2</v>
       </c>
       <c r="AJ457" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="458" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF458">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG458" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AH458">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AI458">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ458" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="459" spans="32:36" x14ac:dyDescent="0.2">
@@ -10406,27 +10374,27 @@
         <v>126</v>
       </c>
       <c r="AI459">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ459" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
     </row>
     <row r="460" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF460">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG460" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AH460">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AI460">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ460" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
     </row>
     <row r="461" spans="32:36" x14ac:dyDescent="0.2">
@@ -10440,27 +10408,27 @@
         <v>127</v>
       </c>
       <c r="AI461">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ461" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="462" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF462">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG462" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AH462">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AI462">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AJ462" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
     </row>
     <row r="463" spans="32:36" x14ac:dyDescent="0.2">
@@ -10474,27 +10442,27 @@
         <v>128</v>
       </c>
       <c r="AI463">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ463" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
     </row>
     <row r="464" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF464">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG464" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AH464">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AI464">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AJ464" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
     </row>
     <row r="465" spans="32:36" x14ac:dyDescent="0.2">
@@ -10508,24 +10476,24 @@
         <v>129</v>
       </c>
       <c r="AI465">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AJ465" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
     </row>
     <row r="466" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF466">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG466" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AH466">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AI466">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AJ466" t="s">
         <v>92</v>
@@ -10542,27 +10510,27 @@
         <v>130</v>
       </c>
       <c r="AI467">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AJ467" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
     </row>
     <row r="468" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF468">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG468" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AH468">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AI468">
         <v>1</v>
       </c>
       <c r="AJ468" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="469" spans="32:36" x14ac:dyDescent="0.2">
@@ -10576,27 +10544,27 @@
         <v>131</v>
       </c>
       <c r="AI469">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ469" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
     </row>
     <row r="470" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF470">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG470" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AH470">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI470">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ470" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
     </row>
     <row r="471" spans="32:36" x14ac:dyDescent="0.2">
@@ -10610,27 +10578,27 @@
         <v>132</v>
       </c>
       <c r="AI471">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ471" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
     </row>
     <row r="472" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF472">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG472" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AH472">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AI472">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ472" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
     </row>
     <row r="473" spans="32:36" x14ac:dyDescent="0.2">
@@ -10644,27 +10612,27 @@
         <v>133</v>
       </c>
       <c r="AI473">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ473" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
     </row>
     <row r="474" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF474">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG474" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AH474">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AI474">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AJ474" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
     </row>
     <row r="475" spans="32:36" x14ac:dyDescent="0.2">
@@ -10678,24 +10646,24 @@
         <v>134</v>
       </c>
       <c r="AI475">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ475" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
     </row>
     <row r="476" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF476">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG476" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AH476">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AI476">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AJ476" t="s">
         <v>93</v>
@@ -10712,27 +10680,27 @@
         <v>135</v>
       </c>
       <c r="AI477">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AJ477" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="478" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF478">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG478" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AH478">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AI478">
         <v>1</v>
       </c>
       <c r="AJ478" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="479" spans="32:36" x14ac:dyDescent="0.2">
@@ -10749,7 +10717,7 @@
         <v>1</v>
       </c>
       <c r="AJ479" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="480" spans="32:36" x14ac:dyDescent="0.2">
@@ -10763,10 +10731,10 @@
         <v>136</v>
       </c>
       <c r="AI480">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ480" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="481" spans="32:36" x14ac:dyDescent="0.2">
@@ -10780,27 +10748,27 @@
         <v>136</v>
       </c>
       <c r="AI481">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ481" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="482" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF482">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG482" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AH482">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AI482">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ482" t="s">
-        <v>141</v>
+        <v>21</v>
       </c>
     </row>
     <row r="483" spans="32:36" x14ac:dyDescent="0.2">
@@ -10814,10 +10782,10 @@
         <v>137</v>
       </c>
       <c r="AI483">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ483" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="484" spans="32:36" x14ac:dyDescent="0.2">
@@ -10834,7 +10802,7 @@
         <v>1</v>
       </c>
       <c r="AJ484" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="485" spans="32:36" x14ac:dyDescent="0.2">
@@ -10851,7 +10819,7 @@
         <v>1</v>
       </c>
       <c r="AJ485" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="486" spans="32:36" x14ac:dyDescent="0.2">
@@ -10865,10 +10833,10 @@
         <v>137</v>
       </c>
       <c r="AI486">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ486" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="487" spans="32:36" x14ac:dyDescent="0.2">
@@ -10882,10 +10850,10 @@
         <v>137</v>
       </c>
       <c r="AI487">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ487" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
     </row>
     <row r="488" spans="32:36" x14ac:dyDescent="0.2">
@@ -10899,10 +10867,10 @@
         <v>137</v>
       </c>
       <c r="AI488">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ488" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
     </row>
     <row r="489" spans="32:36" x14ac:dyDescent="0.2">
@@ -10916,10 +10884,10 @@
         <v>137</v>
       </c>
       <c r="AI489">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ489" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
     </row>
     <row r="490" spans="32:36" x14ac:dyDescent="0.2">
@@ -10936,7 +10904,7 @@
         <v>1</v>
       </c>
       <c r="AJ490" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
     </row>
     <row r="491" spans="32:36" x14ac:dyDescent="0.2">
@@ -10953,7 +10921,7 @@
         <v>1</v>
       </c>
       <c r="AJ491" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="492" spans="32:36" x14ac:dyDescent="0.2">
@@ -10967,10 +10935,10 @@
         <v>137</v>
       </c>
       <c r="AI492">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ492" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="493" spans="32:36" x14ac:dyDescent="0.2">
@@ -10984,10 +10952,10 @@
         <v>137</v>
       </c>
       <c r="AI493">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AJ493" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
     </row>
     <row r="494" spans="32:36" x14ac:dyDescent="0.2">
@@ -11001,10 +10969,10 @@
         <v>137</v>
       </c>
       <c r="AI494">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ494" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
     </row>
     <row r="495" spans="32:36" x14ac:dyDescent="0.2">
@@ -11021,7 +10989,7 @@
         <v>1</v>
       </c>
       <c r="AJ495" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="496" spans="32:36" x14ac:dyDescent="0.2">
@@ -11035,10 +11003,10 @@
         <v>137</v>
       </c>
       <c r="AI496">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ496" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="497" spans="32:36" x14ac:dyDescent="0.2">
@@ -11052,10 +11020,10 @@
         <v>137</v>
       </c>
       <c r="AI497">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AJ497" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="498" spans="32:36" x14ac:dyDescent="0.2">
@@ -11072,7 +11040,7 @@
         <v>2</v>
       </c>
       <c r="AJ498" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="499" spans="32:36" x14ac:dyDescent="0.2">
@@ -11086,10 +11054,10 @@
         <v>137</v>
       </c>
       <c r="AI499">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AJ499" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="500" spans="32:36" x14ac:dyDescent="0.2">
@@ -11103,10 +11071,10 @@
         <v>137</v>
       </c>
       <c r="AI500">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ500" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
     </row>
     <row r="501" spans="32:36" x14ac:dyDescent="0.2">
@@ -11123,7 +11091,7 @@
         <v>1</v>
       </c>
       <c r="AJ501" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
     </row>
     <row r="502" spans="32:36" x14ac:dyDescent="0.2">
@@ -11140,7 +11108,7 @@
         <v>1</v>
       </c>
       <c r="AJ502" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="503" spans="32:36" x14ac:dyDescent="0.2">
@@ -11154,10 +11122,10 @@
         <v>137</v>
       </c>
       <c r="AI503">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ503" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
     </row>
     <row r="504" spans="32:36" x14ac:dyDescent="0.2">
@@ -11171,10 +11139,10 @@
         <v>137</v>
       </c>
       <c r="AI504">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ504" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
     </row>
     <row r="505" spans="32:36" x14ac:dyDescent="0.2">
@@ -11191,7 +11159,7 @@
         <v>1</v>
       </c>
       <c r="AJ505" t="s">
-        <v>132</v>
+        <v>28</v>
       </c>
     </row>
     <row r="506" spans="32:36" x14ac:dyDescent="0.2">
@@ -11208,7 +11176,7 @@
         <v>1</v>
       </c>
       <c r="AJ506" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="507" spans="32:36" x14ac:dyDescent="0.2">
@@ -11225,7 +11193,7 @@
         <v>1</v>
       </c>
       <c r="AJ507" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
     </row>
     <row r="508" spans="32:36" x14ac:dyDescent="0.2">
@@ -11242,7 +11210,7 @@
         <v>1</v>
       </c>
       <c r="AJ508" t="s">
-        <v>133</v>
+        <v>26</v>
       </c>
     </row>
     <row r="509" spans="32:36" x14ac:dyDescent="0.2">
@@ -11259,7 +11227,7 @@
         <v>1</v>
       </c>
       <c r="AJ509" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="510" spans="32:36" x14ac:dyDescent="0.2">
@@ -11273,10 +11241,10 @@
         <v>137</v>
       </c>
       <c r="AI510">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ510" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
     </row>
     <row r="511" spans="32:36" x14ac:dyDescent="0.2">
@@ -11290,10 +11258,10 @@
         <v>137</v>
       </c>
       <c r="AI511">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ511" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
     </row>
     <row r="512" spans="32:36" x14ac:dyDescent="0.2">
@@ -11310,7 +11278,7 @@
         <v>1</v>
       </c>
       <c r="AJ512" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="513" spans="32:36" x14ac:dyDescent="0.2">
@@ -11327,7 +11295,7 @@
         <v>1</v>
       </c>
       <c r="AJ513" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="514" spans="32:36" x14ac:dyDescent="0.2">
@@ -11344,7 +11312,7 @@
         <v>1</v>
       </c>
       <c r="AJ514" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="515" spans="32:36" x14ac:dyDescent="0.2">
@@ -11358,10 +11326,10 @@
         <v>137</v>
       </c>
       <c r="AI515">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ515" t="s">
-        <v>13</v>
+        <v>138</v>
       </c>
     </row>
     <row r="516" spans="32:36" x14ac:dyDescent="0.2">
@@ -11378,7 +11346,7 @@
         <v>2</v>
       </c>
       <c r="AJ516" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
     </row>
     <row r="517" spans="32:36" x14ac:dyDescent="0.2">
@@ -11392,27 +11360,27 @@
         <v>137</v>
       </c>
       <c r="AI517">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AJ517" t="s">
-        <v>91</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF518">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG518" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AH518">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AI518">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="AJ518" t="s">
-        <v>1</v>
+        <v>141</v>
       </c>
     </row>
     <row r="519" spans="32:36" x14ac:dyDescent="0.2">
@@ -11426,40 +11394,23 @@
         <v>138</v>
       </c>
       <c r="AI519">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ519" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="520" spans="32:36" x14ac:dyDescent="0.2">
-      <c r="AF520">
         <v>138</v>
       </c>
-      <c r="AG520" t="s">
-        <v>358</v>
-      </c>
-      <c r="AH520">
-        <v>138</v>
-      </c>
-      <c r="AI520">
-        <v>1</v>
-      </c>
-      <c r="AJ520" t="s">
-        <v>138</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AT539">
-    <sortCondition ref="A4:A539"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AT538">
+    <sortCondition ref="A4:A538"/>
   </sortState>
   <mergeCells count="6">
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:C46"/>
     <mergeCell ref="A49:C50"/>
-    <mergeCell ref="A46:E46"/>
     <mergeCell ref="A47:E47"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A45:E45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
